--- a/ofsted_csc_ilacs_overview.xlsx
+++ b/ofsted_csc_ilacs_overview.xlsx
@@ -3766,16 +3766,16 @@
     <t>sunderland</t>
   </si>
   <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50168072</t>
-  </si>
-  <si>
-    <t>28/06/2021</t>
-  </si>
-  <si>
-    <t>09/07/2021</t>
-  </si>
-  <si>
-    <t>20/08/21</t>
+    <t>https://files.ofsted.gov.uk/v1/file/50271150</t>
+  </si>
+  <si>
+    <t>27/01/2025</t>
+  </si>
+  <si>
+    <t>31/01/2025</t>
+  </si>
+  <si>
+    <t>11/03/25</t>
   </si>
   <si>
     <t>80567</t>
@@ -6933,7 +6933,7 @@
         <v>14</v>
       </c>
       <c r="T36" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -7374,7 +7374,7 @@
         <v>8</v>
       </c>
       <c r="T43" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -10335,7 +10335,7 @@
         <v>14</v>
       </c>
       <c r="T90" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -11646,7 +11646,7 @@
         <v>28</v>
       </c>
       <c r="T111" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -13064,10 +13064,10 @@
         <v>106</v>
       </c>
       <c r="J134" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K134" t="s">
-        <v>1066</v>
+        <v>390</v>
       </c>
       <c r="L134" t="s">
         <v>1251</v>
@@ -13086,16 +13086,16 @@
         <v>106</v>
       </c>
       <c r="Q134" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="R134" t="s">
         <v>106</v>
       </c>
       <c r="S134" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="T134" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:20">

--- a/ofsted_csc_ilacs_overview.xlsx
+++ b/ofsted_csc_ilacs_overview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1429">
   <si>
     <t>80426</t>
   </si>
@@ -31,7 +31,7 @@
     <t>371, 840, 812, 807, 372, 342, 394, 357, 384, 359</t>
   </si>
   <si>
-    <t>[(371, 'requires improvement'), (840, 'good'), (812, 'inadequate'), (807, 'requires improvement'), (372, 'good'), (342, 'good'), (394, 'outstanding'), (357, 'inadequate'), (384, 'good'), (359, 'requires improvement')]</t>
+    <t>[(371, 'good'), (840, 'good'), (812, 'inadequate'), (807, 'requires improvement'), (372, 'good'), (342, 'good'), (394, 'outstanding'), (357, 'inadequate'), (384, 'good'), (359, 'requires improvement')]</t>
   </si>
   <si>
     <t>barnsley</t>
@@ -727,7 +727,7 @@
     <t>370, 371, 840, 390, 812, 807, 372, 342, 394, 359</t>
   </si>
   <si>
-    <t>[(370, 'good'), (371, 'requires improvement'), (840, 'good'), (390, 'good'), (812, 'inadequate'), (807, 'requires improvement'), (372, 'good'), (342, 'good'), (394, 'outstanding'), (359, 'requires improvement')]</t>
+    <t>[(370, 'good'), (371, 'good'), (840, 'good'), (390, 'good'), (812, 'inadequate'), (807, 'requires improvement'), (372, 'good'), (342, 'good'), (394, 'outstanding'), (359, 'requires improvement')]</t>
   </si>
   <si>
     <t>wakefield</t>
@@ -886,7 +886,7 @@
     <t>878, 371, 341, 812, 941, 353, 871, 356, 394</t>
   </si>
   <si>
-    <t>[(878, 'inadequate'), (371, 'requires improvement'), (341, 'inadequate'), (812, 'inadequate'), (941, 'requires improvement'), (353, 'good'), (871, 'requires improvement'), (356, 'good'), (394, 'outstanding')]</t>
+    <t>[(878, 'inadequate'), (371, 'good'), (341, 'inadequate'), (812, 'inadequate'), (941, 'requires improvement'), (353, 'good'), (871, 'requires improvement'), (356, 'good'), (394, 'outstanding')]</t>
   </si>
   <si>
     <t>cumberland</t>
@@ -1054,171 +1054,171 @@
     <t>doncaster</t>
   </si>
   <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50181024</t>
+    <t>https://files.ofsted.gov.uk/v1/file/50271937</t>
+  </si>
+  <si>
+    <t>catherine heron</t>
+  </si>
+  <si>
+    <t>20/01/2025</t>
+  </si>
+  <si>
+    <t>31/01/2025</t>
+  </si>
+  <si>
+    <t>18/03/25</t>
+  </si>
+  <si>
+    <t>2532283</t>
+  </si>
+  <si>
+    <t>838</t>
+  </si>
+  <si>
+    <t>E10000009</t>
+  </si>
+  <si>
+    <t>908, 878, 845, 916, 926, 893, 933, 935, 865, 885</t>
+  </si>
+  <si>
+    <t>[(908, 'good'), (878, 'inadequate'), (845, 'good'), (916, 'requires improvement'), (926, 'good'), (893, 'good'), (933, 'good'), (935, 'requires improvement'), (865, 'outstanding'), (885, 'good')]</t>
+  </si>
+  <si>
+    <t>dorset</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50172438</t>
+  </si>
+  <si>
+    <t>27/09/2021</t>
+  </si>
+  <si>
+    <t>08/10/2021</t>
+  </si>
+  <si>
+    <t>19/11/21</t>
+  </si>
+  <si>
+    <t>80464</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>E08000027</t>
+  </si>
+  <si>
+    <t>830, 371, 888, 887, 813, 891, 372, 357, 894, 359</t>
+  </si>
+  <si>
+    <t>[(830, 'good'), (371, 'good'), (888, 'good'), (887, 'good'), (813, 'outstanding'), (891, 'good'), (372, 'good'), (357, 'inadequate'), (894, 'outstanding'), (359, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>dudley</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50204402</t>
+  </si>
+  <si>
+    <t>31/10/2022</t>
+  </si>
+  <si>
+    <t>11/11/2022</t>
+  </si>
+  <si>
+    <t>13/01/23</t>
+  </si>
+  <si>
+    <t>80465</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>E06000047</t>
+  </si>
+  <si>
+    <t>370, 841, 390, 392, 807, 342, 808, 394, 384, 359</t>
+  </si>
+  <si>
+    <t>[(370, 'good'), (841, 'good'), (390, 'good'), (392, 'outstanding'), (807, 'requires improvement'), (342, 'good'), (808, 'requires improvement'), (394, 'outstanding'), (384, 'good'), (359, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>durham</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50187560</t>
+  </si>
+  <si>
+    <t>louise hollick</t>
+  </si>
+  <si>
+    <t>09/05/2022</t>
+  </si>
+  <si>
+    <t>20/05/2022</t>
+  </si>
+  <si>
+    <t>05/07/22</t>
+  </si>
+  <si>
+    <t>80466</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>E06000011</t>
+  </si>
+  <si>
+    <t>895, 896, 830, 815, 929, 891, 860, 877, 937, 885</t>
+  </si>
+  <si>
+    <t>[(895, 'inadequate'), (896, 'requires improvement'), (830, 'good'), (815, 'outstanding'), (929, 'outstanding'), (891, 'good'), (860, 'requires improvement'), (877, 'good'), (937, 'good'), (885, 'good')]</t>
+  </si>
+  <si>
+    <t>east riding of yorkshire</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50212242</t>
+  </si>
+  <si>
+    <t>louise walker</t>
+  </si>
+  <si>
+    <t>30/01/2023</t>
+  </si>
+  <si>
+    <t>10/02/2023</t>
+  </si>
+  <si>
+    <t>24/03/23</t>
+  </si>
+  <si>
+    <t>80467</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>E10000011</t>
+  </si>
+  <si>
+    <t>839, 878, 838, 881, 886, 926, 802, 933, 935, 885</t>
+  </si>
+  <si>
+    <t>[(839, 'good'), (878, 'inadequate'), (838, 'good'), (881, 'outstanding'), (886, 'outstanding'), (926, 'good'), (802, 'requires improvement'), (933, 'good'), (935, 'requires improvement'), (885, 'good')]</t>
+  </si>
+  <si>
+    <t>east sussex</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50239111</t>
   </si>
   <si>
     <t>tom anthony</t>
   </si>
   <si>
-    <t>14/02/2022</t>
-  </si>
-  <si>
-    <t>25/02/2022</t>
-  </si>
-  <si>
-    <t>08/04/22</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2532283</t>
-  </si>
-  <si>
-    <t>838</t>
-  </si>
-  <si>
-    <t>E10000009</t>
-  </si>
-  <si>
-    <t>908, 878, 845, 916, 926, 893, 933, 935, 865, 885</t>
-  </si>
-  <si>
-    <t>[(908, 'good'), (878, 'inadequate'), (845, 'good'), (916, 'requires improvement'), (926, 'good'), (893, 'good'), (933, 'good'), (935, 'requires improvement'), (865, 'outstanding'), (885, 'good')]</t>
-  </si>
-  <si>
-    <t>dorset</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50172438</t>
-  </si>
-  <si>
-    <t>27/09/2021</t>
-  </si>
-  <si>
-    <t>08/10/2021</t>
-  </si>
-  <si>
-    <t>19/11/21</t>
-  </si>
-  <si>
-    <t>80464</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>E08000027</t>
-  </si>
-  <si>
-    <t>830, 371, 888, 887, 813, 891, 372, 357, 894, 359</t>
-  </si>
-  <si>
-    <t>[(830, 'good'), (371, 'requires improvement'), (888, 'good'), (887, 'good'), (813, 'outstanding'), (891, 'good'), (372, 'good'), (357, 'inadequate'), (894, 'outstanding'), (359, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>dudley</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50204402</t>
-  </si>
-  <si>
-    <t>31/10/2022</t>
-  </si>
-  <si>
-    <t>11/11/2022</t>
-  </si>
-  <si>
-    <t>13/01/23</t>
-  </si>
-  <si>
-    <t>80465</t>
-  </si>
-  <si>
-    <t>840</t>
-  </si>
-  <si>
-    <t>E06000047</t>
-  </si>
-  <si>
-    <t>370, 841, 390, 392, 807, 342, 808, 394, 384, 359</t>
-  </si>
-  <si>
-    <t>[(370, 'good'), (841, 'good'), (390, 'good'), (392, 'outstanding'), (807, 'requires improvement'), (342, 'good'), (808, 'requires improvement'), (394, 'outstanding'), (384, 'good'), (359, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>durham</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50187560</t>
-  </si>
-  <si>
-    <t>louise hollick</t>
-  </si>
-  <si>
-    <t>09/05/2022</t>
-  </si>
-  <si>
-    <t>20/05/2022</t>
-  </si>
-  <si>
-    <t>05/07/22</t>
-  </si>
-  <si>
-    <t>80466</t>
-  </si>
-  <si>
-    <t>811</t>
-  </si>
-  <si>
-    <t>E06000011</t>
-  </si>
-  <si>
-    <t>895, 896, 830, 815, 929, 891, 860, 877, 937, 885</t>
-  </si>
-  <si>
-    <t>[(895, 'inadequate'), (896, 'requires improvement'), (830, 'good'), (815, 'outstanding'), (929, 'outstanding'), (891, 'good'), (860, 'requires improvement'), (877, 'good'), (937, 'good'), (885, 'good')]</t>
-  </si>
-  <si>
-    <t>east riding of yorkshire</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50212242</t>
-  </si>
-  <si>
-    <t>louise walker</t>
-  </si>
-  <si>
-    <t>30/01/2023</t>
-  </si>
-  <si>
-    <t>10/02/2023</t>
-  </si>
-  <si>
-    <t>24/03/23</t>
-  </si>
-  <si>
-    <t>80467</t>
-  </si>
-  <si>
-    <t>845</t>
-  </si>
-  <si>
-    <t>E10000011</t>
-  </si>
-  <si>
-    <t>839, 878, 838, 881, 886, 926, 802, 933, 935, 885</t>
-  </si>
-  <si>
-    <t>[(839, 'good'), (878, 'inadequate'), (838, 'good'), (881, 'outstanding'), (886, 'outstanding'), (926, 'good'), (802, 'requires improvement'), (933, 'good'), (935, 'requires improvement'), (885, 'good')]</t>
-  </si>
-  <si>
-    <t>east sussex</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50239111</t>
-  </si>
-  <si>
     <t>11/12/2023</t>
   </si>
   <si>
@@ -2134,9 +2134,6 @@
     <t>https://files.ofsted.gov.uk/v1/file/50270419</t>
   </si>
   <si>
-    <t>20/01/2025</t>
-  </si>
-  <si>
     <t>24/01/2025</t>
   </si>
   <si>
@@ -2767,7 +2764,7 @@
     <t>370, 371, 813, 807, 372, 342, 357, 894, 384, 359</t>
   </si>
   <si>
-    <t>[(370, 'good'), (371, 'requires improvement'), (813, 'outstanding'), (807, 'requires improvement'), (372, 'good'), (342, 'good'), (357, 'inadequate'), (894, 'outstanding'), (384, 'good'), (359, 'requires improvement')]</t>
+    <t>[(370, 'good'), (371, 'good'), (813, 'outstanding'), (807, 'requires improvement'), (372, 'good'), (342, 'good'), (357, 'inadequate'), (894, 'outstanding'), (384, 'good'), (359, 'requires improvement')]</t>
   </si>
   <si>
     <t>north east lincolnshire</t>
@@ -2797,7 +2794,7 @@
     <t>830, 371, 332, 925, 926, 940, 891, 372, 894, 359</t>
   </si>
   <si>
-    <t>[(830, 'good'), (371, 'requires improvement'), (332, 'requires improvement'), (925, 'outstanding'), (926, 'good'), (940, 'requires improvement'), (891, 'good'), (372, 'good'), (894, 'outstanding'), (359, 'requires improvement')]</t>
+    <t>[(830, 'good'), (371, 'good'), (332, 'requires improvement'), (925, 'outstanding'), (926, 'good'), (940, 'requires improvement'), (891, 'good'), (372, 'good'), (894, 'outstanding'), (359, 'requires improvement')]</t>
   </si>
   <si>
     <t>north lincolnshire</t>
@@ -3154,7 +3151,7 @@
     <t>370, 841, 371, 840, 812, 372, 342, 357, 359, 344</t>
   </si>
   <si>
-    <t>[(370, 'good'), (841, 'good'), (371, 'requires improvement'), (840, 'good'), (812, 'inadequate'), (372, 'good'), (342, 'good'), (357, 'inadequate'), (359, 'requires improvement'), (344, 'requires improvement')]</t>
+    <t>[(370, 'good'), (841, 'good'), (371, 'good'), (840, 'good'), (812, 'inadequate'), (372, 'good'), (342, 'good'), (357, 'inadequate'), (359, 'requires improvement'), (344, 'requires improvement')]</t>
   </si>
   <si>
     <t>redcar and cleveland</t>
@@ -3178,7 +3175,7 @@
     <t>350, 831, 371, 382, 806, 353, 372, 861, 357, 335</t>
   </si>
   <si>
-    <t>[(350, 'good'), (831, 'outstanding'), (371, 'requires improvement'), (382, 'good'), (806, 'requires improvement'), (353, 'good'), (372, 'good'), (861, 'requires improvement'), (357, 'inadequate'), (335, 'good')]</t>
+    <t>[(350, 'good'), (831, 'outstanding'), (371, 'good'), (382, 'good'), (806, 'requires improvement'), (353, 'good'), (372, 'good'), (861, 'requires improvement'), (357, 'inadequate'), (335, 'good')]</t>
   </si>
   <si>
     <t>rochdale</t>
@@ -3205,7 +3202,7 @@
     <t>370, 371, 332, 812, 813, 807, 357, 894, 384, 359</t>
   </si>
   <si>
-    <t>[(370, 'good'), (371, 'requires improvement'), (332, 'requires improvement'), (812, 'inadequate'), (813, 'outstanding'), (807, 'requires improvement'), (357, 'inadequate'), (894, 'outstanding'), (384, 'good'), (359, 'requires improvement')]</t>
+    <t>[(370, 'good'), (371, 'good'), (332, 'requires improvement'), (812, 'inadequate'), (813, 'outstanding'), (807, 'requires improvement'), (357, 'inadequate'), (894, 'outstanding'), (384, 'good'), (359, 'requires improvement')]</t>
   </si>
   <si>
     <t>rotherham</t>
@@ -3712,7 +3709,7 @@
     <t>370, 890, 371, 810, 806, 812, 354, 372, 357, 335</t>
   </si>
   <si>
-    <t>[(370, 'good'), (890, 'requires improvement'), (371, 'requires improvement'), (810, 'requires improvement'), (806, 'requires improvement'), (812, 'inadequate'), (354, 'requires improvement'), (372, 'good'), (357, 'inadequate'), (335, 'good')]</t>
+    <t>[(370, 'good'), (890, 'requires improvement'), (371, 'good'), (810, 'requires improvement'), (806, 'requires improvement'), (812, 'inadequate'), (354, 'requires improvement'), (372, 'good'), (357, 'inadequate'), (335, 'good')]</t>
   </si>
   <si>
     <t>stoke-on-trent</t>
@@ -3772,9 +3769,6 @@
     <t>27/01/2025</t>
   </si>
   <si>
-    <t>31/01/2025</t>
-  </si>
-  <si>
     <t>11/03/25</t>
   </si>
   <si>
@@ -3838,7 +3832,7 @@
     <t>370, 841, 371, 390, 812, 807, 372, 342, 394, 359</t>
   </si>
   <si>
-    <t>[(370, 'good'), (841, 'good'), (371, 'requires improvement'), (390, 'good'), (812, 'inadequate'), (807, 'requires improvement'), (372, 'good'), (342, 'good'), (394, 'outstanding'), (359, 'requires improvement')]</t>
+    <t>[(370, 'good'), (841, 'good'), (371, 'good'), (390, 'good'), (812, 'inadequate'), (807, 'requires improvement'), (372, 'good'), (342, 'good'), (394, 'outstanding'), (359, 'requires improvement')]</t>
   </si>
   <si>
     <t>tameside</t>
@@ -3862,7 +3856,7 @@
     <t>371, 332, 888, 887, 813, 874, 879, 372, 866, 359</t>
   </si>
   <si>
-    <t>[(371, 'requires improvement'), (332, 'requires improvement'), (888, 'good'), (887, 'good'), (813, 'outstanding'), (874, 'inadequate'), (879, 'requires improvement'), (372, 'good'), (866, 'inadequate'), (359, 'requires improvement')]</t>
+    <t>[(371, 'good'), (332, 'requires improvement'), (888, 'good'), (887, 'good'), (813, 'outstanding'), (874, 'inadequate'), (879, 'requires improvement'), (372, 'good'), (866, 'inadequate'), (359, 'requires improvement')]</t>
   </si>
   <si>
     <t>telford &amp; wrekin</t>
@@ -4114,7 +4108,7 @@
     <t>370, 371, 332, 812, 807, 372, 342, 808, 357, 384</t>
   </si>
   <si>
-    <t>[(370, 'good'), (371, 'requires improvement'), (332, 'requires improvement'), (812, 'inadequate'), (807, 'requires improvement'), (372, 'good'), (342, 'good'), (808, 'requires improvement'), (357, 'inadequate'), (384, 'good')]</t>
+    <t>[(370, 'good'), (371, 'good'), (332, 'requires improvement'), (812, 'inadequate'), (807, 'requires improvement'), (372, 'good'), (342, 'good'), (808, 'requires improvement'), (357, 'inadequate'), (384, 'good')]</t>
   </si>
   <si>
     <t>wigan</t>
@@ -4677,64 +4671,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>1428</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>1429</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -6647,7 +6641,7 @@
         <v>346</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J32" t="s">
         <v>38</v>
@@ -6669,45 +6663,45 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="Q32" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="R32" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="S32" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="T32" t="s">
-        <v>351</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
+        <v>351</v>
+      </c>
+      <c r="B33" t="s">
         <v>352</v>
-      </c>
-      <c r="B33" t="s">
-        <v>353</v>
       </c>
       <c r="C33" t="s">
         <v>18</v>
       </c>
       <c r="D33" t="s">
+        <v>353</v>
+      </c>
+      <c r="E33" t="s">
         <v>354</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>355</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>356</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="I33" t="s">
         <v>8</v>
@@ -6719,13 +6713,13 @@
         <v>24</v>
       </c>
       <c r="L33" t="s">
+        <v>358</v>
+      </c>
+      <c r="M33" t="s">
         <v>359</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>360</v>
-      </c>
-      <c r="N33" t="s">
-        <v>361</v>
       </c>
       <c r="O33" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\2532283_dorset", ".\export_data\inspection_reports\2532283_dorset")</f>
@@ -6749,28 +6743,28 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" t="s">
+        <v>361</v>
+      </c>
+      <c r="B34" t="s">
         <v>362</v>
-      </c>
-      <c r="B34" t="s">
-        <v>363</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="D34" t="s">
+        <v>363</v>
+      </c>
+      <c r="E34" t="s">
         <v>364</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>365</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>366</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="I34" t="s">
         <v>14</v>
@@ -6782,13 +6776,13 @@
         <v>52</v>
       </c>
       <c r="L34" t="s">
+        <v>368</v>
+      </c>
+      <c r="M34" t="s">
         <v>369</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>370</v>
-      </c>
-      <c r="N34" t="s">
-        <v>371</v>
       </c>
       <c r="O34" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80464_dudley", ".\export_data\inspection_reports\80464_dudley")</f>
@@ -6812,28 +6806,28 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" t="s">
+        <v>371</v>
+      </c>
+      <c r="B35" t="s">
         <v>372</v>
-      </c>
-      <c r="B35" t="s">
-        <v>373</v>
       </c>
       <c r="C35" t="s">
         <v>298</v>
       </c>
       <c r="D35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E35" t="s">
         <v>374</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>375</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>376</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="I35" t="s">
         <v>8</v>
@@ -6842,16 +6836,16 @@
         <v>38</v>
       </c>
       <c r="K35" t="s">
+        <v>378</v>
+      </c>
+      <c r="L35" t="s">
         <v>379</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>380</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>381</v>
-      </c>
-      <c r="N35" t="s">
-        <v>382</v>
       </c>
       <c r="O35" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80465_durham", ".\export_data\inspection_reports\80465_durham")</f>
@@ -6875,28 +6869,28 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" t="s">
+        <v>382</v>
+      </c>
+      <c r="B36" t="s">
         <v>383</v>
-      </c>
-      <c r="B36" t="s">
-        <v>384</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36" t="s">
+        <v>384</v>
+      </c>
+      <c r="E36" t="s">
         <v>385</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>386</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>387</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="I36" t="s">
         <v>8</v>
@@ -6905,16 +6899,16 @@
         <v>38</v>
       </c>
       <c r="K36" t="s">
+        <v>389</v>
+      </c>
+      <c r="L36" t="s">
         <v>390</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>391</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>392</v>
-      </c>
-      <c r="N36" t="s">
-        <v>393</v>
       </c>
       <c r="O36" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80466_east riding of yorkshire", ".\export_data\inspection_reports\80466_east riding of yorkshire")</f>
@@ -6938,28 +6932,28 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" t="s">
+        <v>393</v>
+      </c>
+      <c r="B37" t="s">
         <v>394</v>
-      </c>
-      <c r="B37" t="s">
-        <v>395</v>
       </c>
       <c r="C37" t="s">
         <v>100</v>
       </c>
       <c r="D37" t="s">
+        <v>395</v>
+      </c>
+      <c r="E37" t="s">
         <v>396</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>397</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>398</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="I37" t="s">
         <v>8</v>
@@ -6968,7 +6962,7 @@
         <v>9</v>
       </c>
       <c r="K37" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="L37" t="s">
         <v>401</v>
@@ -6996,7 +6990,7 @@
         <v>8</v>
       </c>
       <c r="T37" t="s">
-        <v>351</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -7346,7 +7340,7 @@
         <v>9</v>
       </c>
       <c r="K43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L43" t="s">
         <v>462</v>
@@ -7601,13 +7595,13 @@
         <v>39</v>
       </c>
       <c r="L47" t="s">
+        <v>379</v>
+      </c>
+      <c r="M47" t="s">
         <v>380</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>381</v>
-      </c>
-      <c r="N47" t="s">
-        <v>382</v>
       </c>
       <c r="O47" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80476_kent", ".\export_data\inspection_reports\80476_kent")</f>
@@ -7661,7 +7655,7 @@
         <v>38</v>
       </c>
       <c r="K48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L48" t="s">
         <v>505</v>
@@ -7670,7 +7664,7 @@
         <v>506</v>
       </c>
       <c r="N48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O48" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80477_kingston upon hull", ".\export_data\inspection_reports\80477_kingston upon hull")</f>
@@ -7913,7 +7907,7 @@
         <v>38</v>
       </c>
       <c r="K52" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L52" t="s">
         <v>544</v>
@@ -7976,7 +7970,7 @@
         <v>9</v>
       </c>
       <c r="K53" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="L53" t="s">
         <v>229</v>
@@ -8004,7 +7998,7 @@
         <v>14</v>
       </c>
       <c r="T53" t="s">
-        <v>351</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -8354,16 +8348,16 @@
         <v>9</v>
       </c>
       <c r="K59" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="L59" t="s">
         <v>607</v>
       </c>
       <c r="M59" t="s">
+        <v>391</v>
+      </c>
+      <c r="N59" t="s">
         <v>392</v>
-      </c>
-      <c r="N59" t="s">
-        <v>393</v>
       </c>
       <c r="O59" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80488_bexley", ".\export_data\inspection_reports\80488_bexley")</f>
@@ -8382,7 +8376,7 @@
         <v>106</v>
       </c>
       <c r="T59" t="s">
-        <v>351</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -8669,7 +8663,7 @@
         <v>38</v>
       </c>
       <c r="K64" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="L64" t="s">
         <v>561</v>
@@ -8697,7 +8691,7 @@
         <v>8</v>
       </c>
       <c r="T64" t="s">
-        <v>351</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -8795,7 +8789,7 @@
         <v>9</v>
       </c>
       <c r="K66" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="L66" t="s">
         <v>671</v>
@@ -8823,7 +8817,7 @@
         <v>106</v>
       </c>
       <c r="T66" t="s">
-        <v>351</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -9050,13 +9044,13 @@
         <v>523</v>
       </c>
       <c r="L70" t="s">
+        <v>348</v>
+      </c>
+      <c r="M70" t="s">
         <v>706</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>707</v>
-      </c>
-      <c r="N70" t="s">
-        <v>708</v>
       </c>
       <c r="O70" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80499_harrow", ".\export_data\inspection_reports\80499_harrow")</f>
@@ -9080,28 +9074,28 @@
     </row>
     <row r="71" spans="1:20">
       <c r="A71" t="s">
+        <v>708</v>
+      </c>
+      <c r="B71" t="s">
         <v>709</v>
-      </c>
-      <c r="B71" t="s">
-        <v>710</v>
       </c>
       <c r="C71" t="s">
         <v>222</v>
       </c>
       <c r="D71" t="s">
+        <v>710</v>
+      </c>
+      <c r="E71" t="s">
         <v>711</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>712</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>713</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" s="2" t="s">
         <v>714</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>715</v>
       </c>
       <c r="I71" t="s">
         <v>153</v>
@@ -9116,10 +9110,10 @@
         <v>401</v>
       </c>
       <c r="M71" t="s">
+        <v>715</v>
+      </c>
+      <c r="N71" t="s">
         <v>716</v>
-      </c>
-      <c r="N71" t="s">
-        <v>717</v>
       </c>
       <c r="O71" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80500_havering", ".\export_data\inspection_reports\80500_havering")</f>
@@ -9143,28 +9137,28 @@
     </row>
     <row r="72" spans="1:20">
       <c r="A72" t="s">
+        <v>717</v>
+      </c>
+      <c r="B72" t="s">
         <v>718</v>
-      </c>
-      <c r="B72" t="s">
-        <v>719</v>
       </c>
       <c r="C72" t="s">
         <v>222</v>
       </c>
       <c r="D72" t="s">
+        <v>719</v>
+      </c>
+      <c r="E72" t="s">
         <v>720</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>721</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>722</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>724</v>
       </c>
       <c r="I72" t="s">
         <v>106</v>
@@ -9176,13 +9170,13 @@
         <v>228</v>
       </c>
       <c r="L72" t="s">
+        <v>724</v>
+      </c>
+      <c r="M72" t="s">
         <v>725</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>726</v>
-      </c>
-      <c r="N72" t="s">
-        <v>727</v>
       </c>
       <c r="O72" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80501_hillingdon", ".\export_data\inspection_reports\80501_hillingdon")</f>
@@ -9206,28 +9200,28 @@
     </row>
     <row r="73" spans="1:20">
       <c r="A73" t="s">
+        <v>727</v>
+      </c>
+      <c r="B73" t="s">
         <v>728</v>
-      </c>
-      <c r="B73" t="s">
-        <v>729</v>
       </c>
       <c r="C73" t="s">
         <v>222</v>
       </c>
       <c r="D73" t="s">
+        <v>729</v>
+      </c>
+      <c r="E73" t="s">
         <v>730</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>731</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>732</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>734</v>
       </c>
       <c r="I73" t="s">
         <v>8</v>
@@ -9239,13 +9233,13 @@
         <v>282</v>
       </c>
       <c r="L73" t="s">
+        <v>734</v>
+      </c>
+      <c r="M73" t="s">
         <v>735</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>736</v>
-      </c>
-      <c r="N73" t="s">
-        <v>737</v>
       </c>
       <c r="O73" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80503_hounslow", ".\export_data\inspection_reports\80503_hounslow")</f>
@@ -9269,28 +9263,28 @@
     </row>
     <row r="74" spans="1:20">
       <c r="A74" t="s">
+        <v>737</v>
+      </c>
+      <c r="B74" t="s">
         <v>738</v>
-      </c>
-      <c r="B74" t="s">
-        <v>739</v>
       </c>
       <c r="C74" t="s">
         <v>222</v>
       </c>
       <c r="D74" t="s">
+        <v>739</v>
+      </c>
+      <c r="E74" t="s">
         <v>740</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>741</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>742</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>744</v>
       </c>
       <c r="I74" t="s">
         <v>106</v>
@@ -9332,28 +9326,28 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" t="s">
+        <v>744</v>
+      </c>
+      <c r="B75" t="s">
         <v>745</v>
-      </c>
-      <c r="B75" t="s">
-        <v>746</v>
       </c>
       <c r="C75" t="s">
         <v>222</v>
       </c>
       <c r="D75" t="s">
+        <v>746</v>
+      </c>
+      <c r="E75" t="s">
         <v>747</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>748</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>749</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" s="2" t="s">
         <v>750</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>751</v>
       </c>
       <c r="I75" t="s">
         <v>14</v>
@@ -9362,16 +9356,16 @@
         <v>38</v>
       </c>
       <c r="K75" t="s">
+        <v>751</v>
+      </c>
+      <c r="L75" t="s">
         <v>752</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>753</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>754</v>
-      </c>
-      <c r="N75" t="s">
-        <v>755</v>
       </c>
       <c r="O75" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80506_lambeth", ".\export_data\inspection_reports\80506_lambeth")</f>
@@ -9395,28 +9389,28 @@
     </row>
     <row r="76" spans="1:20">
       <c r="A76" t="s">
+        <v>755</v>
+      </c>
+      <c r="B76" t="s">
         <v>756</v>
-      </c>
-      <c r="B76" t="s">
-        <v>757</v>
       </c>
       <c r="C76" t="s">
         <v>222</v>
       </c>
       <c r="D76" t="s">
+        <v>757</v>
+      </c>
+      <c r="E76" t="s">
         <v>758</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>759</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>760</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>762</v>
       </c>
       <c r="I76" t="s">
         <v>8</v>
@@ -9425,16 +9419,16 @@
         <v>38</v>
       </c>
       <c r="K76" t="s">
+        <v>762</v>
+      </c>
+      <c r="L76" t="s">
         <v>763</v>
-      </c>
-      <c r="L76" t="s">
-        <v>764</v>
       </c>
       <c r="M76" t="s">
         <v>402</v>
       </c>
       <c r="N76" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="O76" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80508_lewisham", ".\export_data\inspection_reports\80508_lewisham")</f>
@@ -9458,28 +9452,28 @@
     </row>
     <row r="77" spans="1:20">
       <c r="A77" t="s">
+        <v>765</v>
+      </c>
+      <c r="B77" t="s">
         <v>766</v>
-      </c>
-      <c r="B77" t="s">
-        <v>767</v>
       </c>
       <c r="C77" t="s">
         <v>222</v>
       </c>
       <c r="D77" t="s">
+        <v>767</v>
+      </c>
+      <c r="E77" t="s">
         <v>768</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>769</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>770</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>772</v>
       </c>
       <c r="I77" t="s">
         <v>106</v>
@@ -9488,7 +9482,7 @@
         <v>9</v>
       </c>
       <c r="K77" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L77" t="s">
         <v>25</v>
@@ -9521,28 +9515,28 @@
     </row>
     <row r="78" spans="1:20">
       <c r="A78" t="s">
+        <v>773</v>
+      </c>
+      <c r="B78" t="s">
         <v>774</v>
-      </c>
-      <c r="B78" t="s">
-        <v>775</v>
       </c>
       <c r="C78" t="s">
         <v>222</v>
       </c>
       <c r="D78" t="s">
+        <v>775</v>
+      </c>
+      <c r="E78" t="s">
         <v>776</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>777</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>778</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>780</v>
       </c>
       <c r="I78" t="s">
         <v>8</v>
@@ -9584,28 +9578,28 @@
     </row>
     <row r="79" spans="1:20">
       <c r="A79" t="s">
+        <v>780</v>
+      </c>
+      <c r="B79" t="s">
         <v>781</v>
-      </c>
-      <c r="B79" t="s">
-        <v>782</v>
       </c>
       <c r="C79" t="s">
         <v>222</v>
       </c>
       <c r="D79" t="s">
+        <v>782</v>
+      </c>
+      <c r="E79" t="s">
         <v>783</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>784</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>785</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" s="2" t="s">
         <v>786</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>787</v>
       </c>
       <c r="I79" t="s">
         <v>106</v>
@@ -9614,7 +9608,7 @@
         <v>9</v>
       </c>
       <c r="K79" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L79" t="s">
         <v>452</v>
@@ -9647,28 +9641,28 @@
     </row>
     <row r="80" spans="1:20">
       <c r="A80" t="s">
+        <v>787</v>
+      </c>
+      <c r="B80" t="s">
         <v>788</v>
-      </c>
-      <c r="B80" t="s">
-        <v>789</v>
       </c>
       <c r="C80" t="s">
         <v>222</v>
       </c>
       <c r="D80" t="s">
+        <v>789</v>
+      </c>
+      <c r="E80" t="s">
         <v>790</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>791</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>792</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" s="2" t="s">
         <v>793</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>794</v>
       </c>
       <c r="I80" t="s">
         <v>8</v>
@@ -9677,10 +9671,10 @@
         <v>9</v>
       </c>
       <c r="K80" t="s">
+        <v>794</v>
+      </c>
+      <c r="L80" t="s">
         <v>795</v>
-      </c>
-      <c r="L80" t="s">
-        <v>796</v>
       </c>
       <c r="M80" t="s">
         <v>67</v>
@@ -9710,28 +9704,28 @@
     </row>
     <row r="81" spans="1:20">
       <c r="A81" t="s">
+        <v>796</v>
+      </c>
+      <c r="B81" t="s">
         <v>797</v>
-      </c>
-      <c r="B81" t="s">
-        <v>798</v>
       </c>
       <c r="C81" t="s">
         <v>222</v>
       </c>
       <c r="D81" t="s">
+        <v>798</v>
+      </c>
+      <c r="E81" t="s">
         <v>799</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>800</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>801</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>803</v>
       </c>
       <c r="I81" t="s">
         <v>8</v>
@@ -9743,13 +9737,13 @@
         <v>130</v>
       </c>
       <c r="L81" t="s">
+        <v>803</v>
+      </c>
+      <c r="M81" t="s">
         <v>804</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>805</v>
-      </c>
-      <c r="N81" t="s">
-        <v>806</v>
       </c>
       <c r="O81" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80514_southwark", ".\export_data\inspection_reports\80514_southwark")</f>
@@ -9773,28 +9767,28 @@
     </row>
     <row r="82" spans="1:20">
       <c r="A82" t="s">
+        <v>806</v>
+      </c>
+      <c r="B82" t="s">
         <v>807</v>
-      </c>
-      <c r="B82" t="s">
-        <v>808</v>
       </c>
       <c r="C82" t="s">
         <v>222</v>
       </c>
       <c r="D82" t="s">
+        <v>808</v>
+      </c>
+      <c r="E82" t="s">
         <v>809</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>810</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>811</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>813</v>
       </c>
       <c r="I82" t="s">
         <v>8</v>
@@ -9803,16 +9797,16 @@
         <v>9</v>
       </c>
       <c r="K82" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L82" t="s">
         <v>142</v>
       </c>
       <c r="M82" t="s">
+        <v>813</v>
+      </c>
+      <c r="N82" t="s">
         <v>814</v>
-      </c>
-      <c r="N82" t="s">
-        <v>815</v>
       </c>
       <c r="O82" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80515_sutton", ".\export_data\inspection_reports\80515_sutton")</f>
@@ -9836,28 +9830,28 @@
     </row>
     <row r="83" spans="1:20">
       <c r="A83" t="s">
+        <v>815</v>
+      </c>
+      <c r="B83" t="s">
         <v>816</v>
-      </c>
-      <c r="B83" t="s">
-        <v>817</v>
       </c>
       <c r="C83" t="s">
         <v>222</v>
       </c>
       <c r="D83" t="s">
+        <v>817</v>
+      </c>
+      <c r="E83" t="s">
         <v>818</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>819</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>820</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" s="2" t="s">
         <v>821</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>822</v>
       </c>
       <c r="I83" t="s">
         <v>106</v>
@@ -9869,13 +9863,13 @@
         <v>107</v>
       </c>
       <c r="L83" t="s">
+        <v>822</v>
+      </c>
+      <c r="M83" t="s">
         <v>823</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>824</v>
-      </c>
-      <c r="N83" t="s">
-        <v>825</v>
       </c>
       <c r="O83" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80516_tower hamlets", ".\export_data\inspection_reports\80516_tower hamlets")</f>
@@ -9899,28 +9893,28 @@
     </row>
     <row r="84" spans="1:20">
       <c r="A84" t="s">
+        <v>825</v>
+      </c>
+      <c r="B84" t="s">
         <v>826</v>
-      </c>
-      <c r="B84" t="s">
-        <v>827</v>
       </c>
       <c r="C84" t="s">
         <v>222</v>
       </c>
       <c r="D84" t="s">
+        <v>827</v>
+      </c>
+      <c r="E84" t="s">
         <v>828</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>829</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>830</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" s="2" t="s">
         <v>831</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>832</v>
       </c>
       <c r="I84" t="s">
         <v>8</v>
@@ -9929,7 +9923,7 @@
         <v>9</v>
       </c>
       <c r="K84" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="L84" t="s">
         <v>515</v>
@@ -9962,28 +9956,28 @@
     </row>
     <row r="85" spans="1:20">
       <c r="A85" t="s">
+        <v>833</v>
+      </c>
+      <c r="B85" t="s">
         <v>834</v>
-      </c>
-      <c r="B85" t="s">
-        <v>835</v>
       </c>
       <c r="C85" t="s">
         <v>222</v>
       </c>
       <c r="D85" t="s">
+        <v>835</v>
+      </c>
+      <c r="E85" t="s">
         <v>836</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>837</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>838</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>840</v>
       </c>
       <c r="I85" t="s">
         <v>8</v>
@@ -9995,13 +9989,13 @@
         <v>107</v>
       </c>
       <c r="L85" t="s">
+        <v>840</v>
+      </c>
+      <c r="M85" t="s">
         <v>841</v>
       </c>
-      <c r="M85" t="s">
-        <v>842</v>
-      </c>
       <c r="N85" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O85" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80518_wandsworth", ".\export_data\inspection_reports\80518_wandsworth")</f>
@@ -10025,28 +10019,28 @@
     </row>
     <row r="86" spans="1:20">
       <c r="A86" t="s">
+        <v>842</v>
+      </c>
+      <c r="B86" t="s">
         <v>843</v>
-      </c>
-      <c r="B86" t="s">
-        <v>844</v>
       </c>
       <c r="C86" t="s">
         <v>222</v>
       </c>
       <c r="D86" t="s">
+        <v>844</v>
+      </c>
+      <c r="E86" t="s">
         <v>845</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>846</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>847</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" s="2" t="s">
         <v>848</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>849</v>
       </c>
       <c r="I86" t="s">
         <v>106</v>
@@ -10058,13 +10052,13 @@
         <v>165</v>
       </c>
       <c r="L86" t="s">
+        <v>822</v>
+      </c>
+      <c r="M86" t="s">
         <v>823</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>824</v>
-      </c>
-      <c r="N86" t="s">
-        <v>825</v>
       </c>
       <c r="O86" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80519_westminster", ".\export_data\inspection_reports\80519_westminster")</f>
@@ -10088,28 +10082,28 @@
     </row>
     <row r="87" spans="1:20">
       <c r="A87" t="s">
+        <v>849</v>
+      </c>
+      <c r="B87" t="s">
         <v>850</v>
-      </c>
-      <c r="B87" t="s">
-        <v>851</v>
       </c>
       <c r="C87" t="s">
         <v>32</v>
       </c>
       <c r="D87" t="s">
+        <v>851</v>
+      </c>
+      <c r="E87" t="s">
         <v>852</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>853</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>854</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" s="2" t="s">
         <v>855</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>856</v>
       </c>
       <c r="I87" t="s">
         <v>14</v>
@@ -10118,16 +10112,16 @@
         <v>38</v>
       </c>
       <c r="K87" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="L87" t="s">
+        <v>856</v>
+      </c>
+      <c r="M87" t="s">
         <v>857</v>
       </c>
-      <c r="M87" t="s">
+      <c r="N87" t="s">
         <v>858</v>
-      </c>
-      <c r="N87" t="s">
-        <v>859</v>
       </c>
       <c r="O87" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80520_luton", ".\export_data\inspection_reports\80520_luton")</f>
@@ -10146,33 +10140,33 @@
         <v>28</v>
       </c>
       <c r="T87" t="s">
-        <v>351</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:20">
       <c r="A88" t="s">
+        <v>859</v>
+      </c>
+      <c r="B88" t="s">
         <v>860</v>
-      </c>
-      <c r="B88" t="s">
-        <v>861</v>
       </c>
       <c r="C88" t="s">
         <v>59</v>
       </c>
       <c r="D88" t="s">
+        <v>861</v>
+      </c>
+      <c r="E88" t="s">
         <v>862</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>863</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>864</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" s="2" t="s">
         <v>865</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>866</v>
       </c>
       <c r="I88" t="s">
         <v>8</v>
@@ -10181,16 +10175,16 @@
         <v>38</v>
       </c>
       <c r="K88" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="L88" t="s">
         <v>317</v>
       </c>
       <c r="M88" t="s">
+        <v>867</v>
+      </c>
+      <c r="N88" t="s">
         <v>868</v>
-      </c>
-      <c r="N88" t="s">
-        <v>869</v>
       </c>
       <c r="O88" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80521_manchester", ".\export_data\inspection_reports\80521_manchester")</f>
@@ -10214,28 +10208,28 @@
     </row>
     <row r="89" spans="1:20">
       <c r="A89" t="s">
+        <v>869</v>
+      </c>
+      <c r="B89" t="s">
         <v>870</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>871</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>872</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>873</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>874</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>875</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" s="2" t="s">
         <v>876</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>877</v>
       </c>
       <c r="I89" t="s">
         <v>8</v>
@@ -10247,13 +10241,13 @@
         <v>107</v>
       </c>
       <c r="L89" t="s">
+        <v>877</v>
+      </c>
+      <c r="M89" t="s">
         <v>878</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89" t="s">
         <v>879</v>
-      </c>
-      <c r="N89" t="s">
-        <v>880</v>
       </c>
       <c r="O89" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80522_medway", ".\export_data\inspection_reports\80522_medway")</f>
@@ -10277,28 +10271,28 @@
     </row>
     <row r="90" spans="1:20">
       <c r="A90" t="s">
+        <v>880</v>
+      </c>
+      <c r="B90" t="s">
         <v>881</v>
-      </c>
-      <c r="B90" t="s">
-        <v>882</v>
       </c>
       <c r="C90" t="s">
         <v>298</v>
       </c>
       <c r="D90" t="s">
+        <v>882</v>
+      </c>
+      <c r="E90" t="s">
         <v>883</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>884</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>885</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" s="2" t="s">
         <v>886</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>887</v>
       </c>
       <c r="I90" t="s">
         <v>14</v>
@@ -10307,7 +10301,7 @@
         <v>38</v>
       </c>
       <c r="K90" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L90" t="s">
         <v>580</v>
@@ -10340,28 +10334,28 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" t="s">
+        <v>887</v>
+      </c>
+      <c r="B91" t="s">
         <v>888</v>
-      </c>
-      <c r="B91" t="s">
-        <v>889</v>
       </c>
       <c r="C91" t="s">
         <v>100</v>
       </c>
       <c r="D91" t="s">
+        <v>889</v>
+      </c>
+      <c r="E91" t="s">
         <v>890</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>891</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>892</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" s="2" t="s">
         <v>893</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>894</v>
       </c>
       <c r="I91" t="s">
         <v>8</v>
@@ -10370,16 +10364,16 @@
         <v>38</v>
       </c>
       <c r="K91" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L91" t="s">
+        <v>894</v>
+      </c>
+      <c r="M91" t="s">
         <v>895</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>896</v>
-      </c>
-      <c r="N91" t="s">
-        <v>897</v>
       </c>
       <c r="O91" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80524_milton keynes", ".\export_data\inspection_reports\80524_milton keynes")</f>
@@ -10403,28 +10397,28 @@
     </row>
     <row r="92" spans="1:20">
       <c r="A92" t="s">
+        <v>897</v>
+      </c>
+      <c r="B92" t="s">
         <v>898</v>
-      </c>
-      <c r="B92" t="s">
-        <v>899</v>
       </c>
       <c r="C92" t="s">
         <v>298</v>
       </c>
       <c r="D92" t="s">
+        <v>899</v>
+      </c>
+      <c r="E92" t="s">
         <v>900</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>901</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>902</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" s="2" t="s">
         <v>903</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>904</v>
       </c>
       <c r="I92" t="s">
         <v>8</v>
@@ -10433,16 +10427,16 @@
         <v>38</v>
       </c>
       <c r="K92" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L92" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M92" t="s">
+        <v>813</v>
+      </c>
+      <c r="N92" t="s">
         <v>814</v>
-      </c>
-      <c r="N92" t="s">
-        <v>815</v>
       </c>
       <c r="O92" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80525_newcastle upon tyne", ".\export_data\inspection_reports\80525_newcastle upon tyne")</f>
@@ -10466,28 +10460,28 @@
     </row>
     <row r="93" spans="1:20">
       <c r="A93" t="s">
+        <v>905</v>
+      </c>
+      <c r="B93" t="s">
         <v>906</v>
-      </c>
-      <c r="B93" t="s">
-        <v>907</v>
       </c>
       <c r="C93" t="s">
         <v>32</v>
       </c>
       <c r="D93" t="s">
+        <v>907</v>
+      </c>
+      <c r="E93" t="s">
         <v>908</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>909</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>910</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" s="2" t="s">
         <v>911</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>912</v>
       </c>
       <c r="I93" t="s">
         <v>8</v>
@@ -10499,13 +10493,13 @@
         <v>39</v>
       </c>
       <c r="L93" t="s">
+        <v>840</v>
+      </c>
+      <c r="M93" t="s">
         <v>841</v>
       </c>
-      <c r="M93" t="s">
-        <v>842</v>
-      </c>
       <c r="N93" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O93" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80418_norfolk", ".\export_data\inspection_reports\80418_norfolk")</f>
@@ -10529,28 +10523,28 @@
     </row>
     <row r="94" spans="1:20">
       <c r="A94" t="s">
+        <v>912</v>
+      </c>
+      <c r="B94" t="s">
         <v>913</v>
-      </c>
-      <c r="B94" t="s">
-        <v>914</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
       </c>
       <c r="D94" t="s">
+        <v>914</v>
+      </c>
+      <c r="E94" t="s">
         <v>915</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>916</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>917</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" s="2" t="s">
         <v>918</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>919</v>
       </c>
       <c r="I94" t="s">
         <v>153</v>
@@ -10562,13 +10556,13 @@
         <v>216</v>
       </c>
       <c r="L94" t="s">
+        <v>919</v>
+      </c>
+      <c r="M94" t="s">
         <v>920</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>921</v>
-      </c>
-      <c r="N94" t="s">
-        <v>922</v>
       </c>
       <c r="O94" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80526_north east lincolnshire", ".\export_data\inspection_reports\80526_north east lincolnshire")</f>
@@ -10592,28 +10586,28 @@
     </row>
     <row r="95" spans="1:20">
       <c r="A95" t="s">
+        <v>922</v>
+      </c>
+      <c r="B95" t="s">
         <v>923</v>
-      </c>
-      <c r="B95" t="s">
-        <v>924</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
       </c>
       <c r="D95" t="s">
+        <v>924</v>
+      </c>
+      <c r="E95" t="s">
         <v>925</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>926</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>927</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" s="2" t="s">
         <v>928</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>929</v>
       </c>
       <c r="I95" t="s">
         <v>106</v>
@@ -10622,16 +10616,16 @@
         <v>9</v>
       </c>
       <c r="K95" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L95" t="s">
         <v>305</v>
       </c>
       <c r="M95" t="s">
+        <v>930</v>
+      </c>
+      <c r="N95" t="s">
         <v>931</v>
-      </c>
-      <c r="N95" t="s">
-        <v>932</v>
       </c>
       <c r="O95" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80527_north lincolnshire", ".\export_data\inspection_reports\80527_north lincolnshire")</f>
@@ -10655,28 +10649,28 @@
     </row>
     <row r="96" spans="1:20">
       <c r="A96" t="s">
+        <v>932</v>
+      </c>
+      <c r="B96" t="s">
         <v>933</v>
-      </c>
-      <c r="B96" t="s">
-        <v>934</v>
       </c>
       <c r="C96" t="s">
         <v>310</v>
       </c>
       <c r="D96" t="s">
+        <v>934</v>
+      </c>
+      <c r="E96" t="s">
         <v>935</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>936</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>937</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" s="2" t="s">
         <v>938</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>939</v>
       </c>
       <c r="I96" t="s">
         <v>14</v>
@@ -10688,13 +10682,13 @@
         <v>205</v>
       </c>
       <c r="L96" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M96" t="s">
+        <v>930</v>
+      </c>
+      <c r="N96" t="s">
         <v>931</v>
-      </c>
-      <c r="N96" t="s">
-        <v>932</v>
       </c>
       <c r="O96" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\2637539_north northamptonshire", ".\export_data\inspection_reports\2637539_north northamptonshire")</f>
@@ -10718,28 +10712,28 @@
     </row>
     <row r="97" spans="1:20">
       <c r="A97" t="s">
+        <v>940</v>
+      </c>
+      <c r="B97" t="s">
         <v>941</v>
-      </c>
-      <c r="B97" t="s">
-        <v>942</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
       </c>
       <c r="D97" t="s">
+        <v>942</v>
+      </c>
+      <c r="E97" t="s">
         <v>943</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>944</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>945</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>947</v>
       </c>
       <c r="I97" t="s">
         <v>14</v>
@@ -10757,7 +10751,7 @@
         <v>581</v>
       </c>
       <c r="N97" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O97" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80528_north somerset", ".\export_data\inspection_reports\80528_north somerset")</f>
@@ -10781,28 +10775,28 @@
     </row>
     <row r="98" spans="1:20">
       <c r="A98" t="s">
+        <v>948</v>
+      </c>
+      <c r="B98" t="s">
         <v>949</v>
-      </c>
-      <c r="B98" t="s">
-        <v>950</v>
       </c>
       <c r="C98" t="s">
         <v>298</v>
       </c>
       <c r="D98" t="s">
+        <v>950</v>
+      </c>
+      <c r="E98" t="s">
         <v>951</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>952</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>953</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" s="2" t="s">
         <v>954</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>955</v>
       </c>
       <c r="I98" t="s">
         <v>106</v>
@@ -10814,13 +10808,13 @@
         <v>560</v>
       </c>
       <c r="L98" t="s">
+        <v>822</v>
+      </c>
+      <c r="M98" t="s">
         <v>823</v>
       </c>
-      <c r="M98" t="s">
+      <c r="N98" t="s">
         <v>824</v>
-      </c>
-      <c r="N98" t="s">
-        <v>825</v>
       </c>
       <c r="O98" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80529_north tyneside", ".\export_data\inspection_reports\80529_north tyneside")</f>
@@ -10844,28 +10838,28 @@
     </row>
     <row r="99" spans="1:20">
       <c r="A99" t="s">
+        <v>955</v>
+      </c>
+      <c r="B99" t="s">
         <v>956</v>
-      </c>
-      <c r="B99" t="s">
-        <v>957</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
       </c>
       <c r="D99" t="s">
+        <v>957</v>
+      </c>
+      <c r="E99" t="s">
         <v>958</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>959</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>960</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" s="2" t="s">
         <v>961</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>962</v>
       </c>
       <c r="I99" t="s">
         <v>106</v>
@@ -10874,16 +10868,16 @@
         <v>9</v>
       </c>
       <c r="K99" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L99" t="s">
+        <v>962</v>
+      </c>
+      <c r="M99" t="s">
         <v>963</v>
       </c>
-      <c r="M99" t="s">
+      <c r="N99" t="s">
         <v>964</v>
-      </c>
-      <c r="N99" t="s">
-        <v>965</v>
       </c>
       <c r="O99" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80530_north yorkshire", ".\export_data\inspection_reports\80530_north yorkshire")</f>
@@ -10907,28 +10901,28 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" t="s">
+        <v>965</v>
+      </c>
+      <c r="B100" t="s">
         <v>966</v>
-      </c>
-      <c r="B100" t="s">
-        <v>967</v>
       </c>
       <c r="C100" t="s">
         <v>298</v>
       </c>
       <c r="D100" t="s">
+        <v>967</v>
+      </c>
+      <c r="E100" t="s">
         <v>968</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>969</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>970</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" s="2" t="s">
         <v>971</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>972</v>
       </c>
       <c r="I100" t="s">
         <v>106</v>
@@ -10937,10 +10931,10 @@
         <v>9</v>
       </c>
       <c r="K100" t="s">
+        <v>972</v>
+      </c>
+      <c r="L100" t="s">
         <v>973</v>
-      </c>
-      <c r="L100" t="s">
-        <v>974</v>
       </c>
       <c r="M100" t="s">
         <v>443</v>
@@ -10970,28 +10964,28 @@
     </row>
     <row r="101" spans="1:20">
       <c r="A101" t="s">
+        <v>974</v>
+      </c>
+      <c r="B101" t="s">
         <v>975</v>
-      </c>
-      <c r="B101" t="s">
-        <v>976</v>
       </c>
       <c r="C101" t="s">
         <v>310</v>
       </c>
       <c r="D101" t="s">
+        <v>976</v>
+      </c>
+      <c r="E101" t="s">
         <v>977</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>978</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>979</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" s="2" t="s">
         <v>980</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>981</v>
       </c>
       <c r="I101" t="s">
         <v>153</v>
@@ -11000,10 +10994,10 @@
         <v>119</v>
       </c>
       <c r="K101" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="N101" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="O101" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80533_nottingham", ".\export_data\inspection_reports\80533_nottingham")</f>
@@ -11027,28 +11021,28 @@
     </row>
     <row r="102" spans="1:20">
       <c r="A102" t="s">
+        <v>981</v>
+      </c>
+      <c r="B102" t="s">
         <v>982</v>
-      </c>
-      <c r="B102" t="s">
-        <v>983</v>
       </c>
       <c r="C102" t="s">
         <v>310</v>
       </c>
       <c r="D102" t="s">
+        <v>983</v>
+      </c>
+      <c r="E102" t="s">
         <v>984</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>985</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>986</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" s="2" t="s">
         <v>987</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>988</v>
       </c>
       <c r="I102" t="s">
         <v>8</v>
@@ -11057,10 +11051,10 @@
         <v>9</v>
       </c>
       <c r="K102" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L102" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="M102" t="s">
         <v>443</v>
@@ -11090,28 +11084,28 @@
     </row>
     <row r="103" spans="1:20">
       <c r="A103" t="s">
+        <v>988</v>
+      </c>
+      <c r="B103" t="s">
         <v>989</v>
-      </c>
-      <c r="B103" t="s">
-        <v>990</v>
       </c>
       <c r="C103" t="s">
         <v>59</v>
       </c>
       <c r="D103" t="s">
+        <v>990</v>
+      </c>
+      <c r="E103" t="s">
         <v>991</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>992</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>993</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>995</v>
       </c>
       <c r="I103" t="s">
         <v>8</v>
@@ -11153,28 +11147,28 @@
     </row>
     <row r="104" spans="1:20">
       <c r="A104" t="s">
+        <v>995</v>
+      </c>
+      <c r="B104" t="s">
         <v>996</v>
-      </c>
-      <c r="B104" t="s">
-        <v>997</v>
       </c>
       <c r="C104" t="s">
         <v>100</v>
       </c>
       <c r="D104" t="s">
+        <v>997</v>
+      </c>
+      <c r="E104" t="s">
         <v>998</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>999</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>1000</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" s="2" t="s">
         <v>1001</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>1002</v>
       </c>
       <c r="I104" t="s">
         <v>8</v>
@@ -11183,16 +11177,16 @@
         <v>38</v>
       </c>
       <c r="K104" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L104" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="M104" t="s">
         <v>167</v>
       </c>
       <c r="N104" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O104" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80536_oxfordshire", ".\export_data\inspection_reports\80536_oxfordshire")</f>
@@ -11216,28 +11210,28 @@
     </row>
     <row r="105" spans="1:20">
       <c r="A105" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B105" t="s">
         <v>1005</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1006</v>
       </c>
       <c r="C105" t="s">
         <v>32</v>
       </c>
       <c r="D105" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E105" t="s">
         <v>1007</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>1008</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>1009</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" s="2" t="s">
         <v>1010</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>1011</v>
       </c>
       <c r="I105" t="s">
         <v>153</v>
@@ -11246,16 +11240,16 @@
         <v>38</v>
       </c>
       <c r="K105" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L105" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M105" t="s">
         <v>1012</v>
       </c>
-      <c r="M105" t="s">
+      <c r="N105" t="s">
         <v>1013</v>
-      </c>
-      <c r="N105" t="s">
-        <v>1014</v>
       </c>
       <c r="O105" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80537_peterborough", ".\export_data\inspection_reports\80537_peterborough")</f>
@@ -11279,28 +11273,28 @@
     </row>
     <row r="106" spans="1:20">
       <c r="A106" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B106" t="s">
         <v>1015</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1016</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
       </c>
       <c r="D106" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E106" t="s">
         <v>1017</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>1018</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>1019</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" s="2" t="s">
         <v>1020</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>1021</v>
       </c>
       <c r="I106" t="s">
         <v>14</v>
@@ -11312,13 +11306,13 @@
         <v>130</v>
       </c>
       <c r="L106" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M106" t="s">
         <v>1022</v>
       </c>
-      <c r="M106" t="s">
+      <c r="N106" t="s">
         <v>1023</v>
-      </c>
-      <c r="N106" t="s">
-        <v>1024</v>
       </c>
       <c r="O106" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80538_plymouth", ".\export_data\inspection_reports\80538_plymouth")</f>
@@ -11342,28 +11336,28 @@
     </row>
     <row r="107" spans="1:20">
       <c r="A107" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B107" t="s">
         <v>1025</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1026</v>
       </c>
       <c r="C107" t="s">
         <v>100</v>
       </c>
       <c r="D107" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E107" t="s">
         <v>1027</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>1028</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>1029</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" s="2" t="s">
         <v>1030</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>1031</v>
       </c>
       <c r="I107" t="s">
         <v>8</v>
@@ -11375,13 +11369,13 @@
         <v>228</v>
       </c>
       <c r="L107" t="s">
+        <v>1031</v>
+      </c>
+      <c r="M107" t="s">
         <v>1032</v>
       </c>
-      <c r="M107" t="s">
+      <c r="N107" t="s">
         <v>1033</v>
-      </c>
-      <c r="N107" t="s">
-        <v>1034</v>
       </c>
       <c r="O107" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80539_portsmouth", ".\export_data\inspection_reports\80539_portsmouth")</f>
@@ -11405,28 +11399,28 @@
     </row>
     <row r="108" spans="1:20">
       <c r="A108" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B108" t="s">
         <v>1035</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1036</v>
       </c>
       <c r="C108" t="s">
         <v>100</v>
       </c>
       <c r="D108" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E108" t="s">
         <v>1037</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>1038</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>1039</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" s="2" t="s">
         <v>1040</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>1041</v>
       </c>
       <c r="I108" t="s">
         <v>14</v>
@@ -11468,28 +11462,28 @@
     </row>
     <row r="109" spans="1:20">
       <c r="A109" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B109" t="s">
         <v>1042</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1043</v>
       </c>
       <c r="C109" t="s">
         <v>298</v>
       </c>
       <c r="D109" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E109" t="s">
         <v>1044</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>1045</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>1046</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" s="2" t="s">
         <v>1047</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>1048</v>
       </c>
       <c r="I109" t="s">
         <v>14</v>
@@ -11498,10 +11492,10 @@
         <v>119</v>
       </c>
       <c r="K109" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="N109" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="O109" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80541_redcar and cleveland", ".\export_data\inspection_reports\80541_redcar and cleveland")</f>
@@ -11525,28 +11519,28 @@
     </row>
     <row r="110" spans="1:20">
       <c r="A110" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B110" t="s">
         <v>1050</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1051</v>
       </c>
       <c r="C110" t="s">
         <v>59</v>
       </c>
       <c r="D110" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E110" t="s">
         <v>1052</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>1053</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>1054</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" s="2" t="s">
         <v>1055</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>1056</v>
       </c>
       <c r="I110" t="s">
         <v>14</v>
@@ -11561,10 +11555,10 @@
         <v>481</v>
       </c>
       <c r="M110" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N110" t="s">
         <v>1057</v>
-      </c>
-      <c r="N110" t="s">
-        <v>1058</v>
       </c>
       <c r="O110" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80542_rochdale", ".\export_data\inspection_reports\80542_rochdale")</f>
@@ -11588,28 +11582,28 @@
     </row>
     <row r="111" spans="1:20">
       <c r="A111" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B111" t="s">
         <v>1059</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1060</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
       </c>
       <c r="D111" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E111" t="s">
         <v>1061</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>1062</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>1063</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" s="2" t="s">
         <v>1064</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>1065</v>
       </c>
       <c r="I111" t="s">
         <v>8</v>
@@ -11618,10 +11612,10 @@
         <v>9</v>
       </c>
       <c r="K111" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L111" t="s">
         <v>1066</v>
-      </c>
-      <c r="L111" t="s">
-        <v>1067</v>
       </c>
       <c r="M111" t="s">
         <v>284</v>
@@ -11651,28 +11645,28 @@
     </row>
     <row r="112" spans="1:20">
       <c r="A112" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B112" t="s">
         <v>1068</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1069</v>
       </c>
       <c r="C112" t="s">
         <v>222</v>
       </c>
       <c r="D112" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E112" t="s">
         <v>1070</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>1071</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>1072</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" s="2" t="s">
         <v>1073</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>1074</v>
       </c>
       <c r="I112" t="s">
         <v>106</v>
@@ -11684,13 +11678,13 @@
         <v>282</v>
       </c>
       <c r="L112" t="s">
+        <v>822</v>
+      </c>
+      <c r="M112" t="s">
         <v>823</v>
       </c>
-      <c r="M112" t="s">
+      <c r="N112" t="s">
         <v>824</v>
-      </c>
-      <c r="N112" t="s">
-        <v>825</v>
       </c>
       <c r="O112" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80544_kensington and chelsea", ".\export_data\inspection_reports\80544_kensington and chelsea")</f>
@@ -11714,28 +11708,28 @@
     </row>
     <row r="113" spans="1:20">
       <c r="A113" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B113" t="s">
         <v>1075</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1076</v>
       </c>
       <c r="C113" t="s">
         <v>222</v>
       </c>
       <c r="D113" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E113" t="s">
         <v>1077</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>1078</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>1079</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" s="2" t="s">
         <v>1080</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>1081</v>
       </c>
       <c r="I113" t="s">
         <v>106</v>
@@ -11744,7 +11738,7 @@
         <v>9</v>
       </c>
       <c r="K113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L113" t="s">
         <v>95</v>
@@ -11777,28 +11771,28 @@
     </row>
     <row r="114" spans="1:20">
       <c r="A114" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B114" t="s">
         <v>1082</v>
-      </c>
-      <c r="B114" t="s">
-        <v>1083</v>
       </c>
       <c r="C114" t="s">
         <v>100</v>
       </c>
       <c r="D114" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E114" t="s">
         <v>1084</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>1085</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>1086</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" s="2" t="s">
         <v>1087</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>1088</v>
       </c>
       <c r="I114" t="s">
         <v>8</v>
@@ -11813,10 +11807,10 @@
         <v>293</v>
       </c>
       <c r="M114" t="s">
+        <v>1088</v>
+      </c>
+      <c r="N114" t="s">
         <v>1089</v>
-      </c>
-      <c r="N114" t="s">
-        <v>1090</v>
       </c>
       <c r="O114" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80546_windsor &amp; maidenhead", ".\export_data\inspection_reports\80546_windsor &amp; maidenhead")</f>
@@ -11840,28 +11834,28 @@
     </row>
     <row r="115" spans="1:20">
       <c r="A115" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B115" t="s">
         <v>1091</v>
-      </c>
-      <c r="B115" t="s">
-        <v>1092</v>
       </c>
       <c r="C115" t="s">
         <v>310</v>
       </c>
       <c r="D115" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E115" t="s">
         <v>1093</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>1094</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>1095</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" s="2" t="s">
         <v>1096</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>1097</v>
       </c>
       <c r="I115" t="s">
         <v>8</v>
@@ -11873,10 +11867,10 @@
         <v>514</v>
       </c>
       <c r="L115" t="s">
+        <v>1097</v>
+      </c>
+      <c r="M115" t="s">
         <v>1098</v>
-      </c>
-      <c r="M115" t="s">
-        <v>1099</v>
       </c>
       <c r="N115" t="s">
         <v>444</v>
@@ -11903,28 +11897,28 @@
     </row>
     <row r="116" spans="1:20">
       <c r="A116" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B116" t="s">
         <v>1100</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1101</v>
       </c>
       <c r="C116" t="s">
         <v>59</v>
       </c>
       <c r="D116" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E116" t="s">
         <v>1102</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>1103</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>1104</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" s="2" t="s">
         <v>1105</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>1106</v>
       </c>
       <c r="I116" t="s">
         <v>8</v>
@@ -11936,7 +11930,7 @@
         <v>65</v>
       </c>
       <c r="L116" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="M116" t="s">
         <v>328</v>
@@ -11966,28 +11960,28 @@
     </row>
     <row r="117" spans="1:20">
       <c r="A117" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B117" t="s">
         <v>1108</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1109</v>
       </c>
       <c r="C117" t="s">
         <v>46</v>
       </c>
       <c r="D117" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E117" t="s">
         <v>1110</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>1111</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>1112</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" s="2" t="s">
         <v>1113</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>1114</v>
       </c>
       <c r="I117" t="s">
         <v>14</v>
@@ -11999,13 +11993,13 @@
         <v>205</v>
       </c>
       <c r="L117" t="s">
+        <v>379</v>
+      </c>
+      <c r="M117" t="s">
         <v>380</v>
       </c>
-      <c r="M117" t="s">
+      <c r="N117" t="s">
         <v>381</v>
-      </c>
-      <c r="N117" t="s">
-        <v>382</v>
       </c>
       <c r="O117" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80549_sandwell", ".\export_data\inspection_reports\80549_sandwell")</f>
@@ -12029,28 +12023,28 @@
     </row>
     <row r="118" spans="1:20">
       <c r="A118" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B118" t="s">
         <v>1115</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1116</v>
       </c>
       <c r="C118" t="s">
         <v>59</v>
       </c>
       <c r="D118" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E118" t="s">
         <v>1117</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>1118</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>1119</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" s="2" t="s">
         <v>1120</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>1121</v>
       </c>
       <c r="I118" t="s">
         <v>153</v>
@@ -12092,28 +12086,28 @@
     </row>
     <row r="119" spans="1:20">
       <c r="A119" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B119" t="s">
         <v>1122</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1123</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
       </c>
       <c r="D119" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E119" t="s">
         <v>1124</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>1125</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>1126</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" s="2" t="s">
         <v>1127</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>1128</v>
       </c>
       <c r="I119" t="s">
         <v>8</v>
@@ -12128,10 +12122,10 @@
         <v>11</v>
       </c>
       <c r="M119" t="s">
+        <v>1128</v>
+      </c>
+      <c r="N119" t="s">
         <v>1129</v>
-      </c>
-      <c r="N119" t="s">
-        <v>1130</v>
       </c>
       <c r="O119" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80551_sheffield", ".\export_data\inspection_reports\80551_sheffield")</f>
@@ -12155,28 +12149,28 @@
     </row>
     <row r="120" spans="1:20">
       <c r="A120" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B120" t="s">
         <v>1131</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1132</v>
       </c>
       <c r="C120" t="s">
         <v>46</v>
       </c>
       <c r="D120" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E120" t="s">
         <v>1133</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>1134</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>1135</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" s="2" t="s">
         <v>1136</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>1137</v>
       </c>
       <c r="I120" t="s">
         <v>8</v>
@@ -12191,10 +12185,10 @@
         <v>432</v>
       </c>
       <c r="M120" t="s">
+        <v>1137</v>
+      </c>
+      <c r="N120" t="s">
         <v>1138</v>
-      </c>
-      <c r="N120" t="s">
-        <v>1139</v>
       </c>
       <c r="O120" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80552_shropshire", ".\export_data\inspection_reports\80552_shropshire")</f>
@@ -12218,28 +12212,28 @@
     </row>
     <row r="121" spans="1:20">
       <c r="A121" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B121" t="s">
         <v>1140</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1141</v>
       </c>
       <c r="C121" t="s">
         <v>100</v>
       </c>
       <c r="D121" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E121" t="s">
         <v>1142</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>1143</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>1144</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" s="2" t="s">
         <v>1145</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>1146</v>
       </c>
       <c r="I121" t="s">
         <v>14</v>
@@ -12254,10 +12248,10 @@
         <v>481</v>
       </c>
       <c r="M121" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N121" t="s">
         <v>1057</v>
-      </c>
-      <c r="N121" t="s">
-        <v>1058</v>
       </c>
       <c r="O121" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80553_slough", ".\export_data\inspection_reports\80553_slough")</f>
@@ -12281,28 +12275,28 @@
     </row>
     <row r="122" spans="1:20">
       <c r="A122" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B122" t="s">
         <v>1147</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1148</v>
       </c>
       <c r="C122" t="s">
         <v>46</v>
       </c>
       <c r="D122" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E122" t="s">
         <v>1149</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>1150</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>1151</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" s="2" t="s">
         <v>1152</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>1153</v>
       </c>
       <c r="I122" t="s">
         <v>153</v>
@@ -12314,13 +12308,13 @@
         <v>240</v>
       </c>
       <c r="L122" t="s">
+        <v>368</v>
+      </c>
+      <c r="M122" t="s">
         <v>369</v>
       </c>
-      <c r="M122" t="s">
+      <c r="N122" t="s">
         <v>370</v>
-      </c>
-      <c r="N122" t="s">
-        <v>371</v>
       </c>
       <c r="O122" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80554_solihull", ".\export_data\inspection_reports\80554_solihull")</f>
@@ -12344,28 +12338,28 @@
     </row>
     <row r="123" spans="1:20">
       <c r="A123" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B123" t="s">
         <v>1154</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1155</v>
       </c>
       <c r="C123" t="s">
         <v>18</v>
       </c>
       <c r="D123" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E123" t="s">
         <v>1156</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>1157</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>1158</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" s="2" t="s">
         <v>1159</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>1160</v>
       </c>
       <c r="I123" t="s">
         <v>8</v>
@@ -12407,28 +12401,28 @@
     </row>
     <row r="124" spans="1:20">
       <c r="A124" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B124" t="s">
         <v>1161</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1162</v>
       </c>
       <c r="C124" t="s">
         <v>18</v>
       </c>
       <c r="D124" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E124" t="s">
         <v>1163</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>1164</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>1165</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" s="2" t="s">
         <v>1166</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>1167</v>
       </c>
       <c r="I124" t="s">
         <v>8</v>
@@ -12470,28 +12464,28 @@
     </row>
     <row r="125" spans="1:20">
       <c r="A125" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B125" t="s">
         <v>1168</v>
-      </c>
-      <c r="B125" t="s">
-        <v>1169</v>
       </c>
       <c r="C125" t="s">
         <v>298</v>
       </c>
       <c r="D125" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E125" t="s">
         <v>1170</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>1171</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>1172</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" s="2" t="s">
         <v>1173</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>1174</v>
       </c>
       <c r="I125" t="s">
         <v>153</v>
@@ -12500,7 +12494,7 @@
         <v>9</v>
       </c>
       <c r="K125" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="L125" t="s">
         <v>77</v>
@@ -12509,7 +12503,7 @@
         <v>535</v>
       </c>
       <c r="N125" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="O125" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80557_south tyneside", ".\export_data\inspection_reports\80557_south tyneside")</f>
@@ -12533,28 +12527,28 @@
     </row>
     <row r="126" spans="1:20">
       <c r="A126" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B126" t="s">
         <v>1177</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1178</v>
       </c>
       <c r="C126" t="s">
         <v>100</v>
       </c>
       <c r="D126" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E126" t="s">
         <v>1179</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>1180</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>1181</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" s="2" t="s">
         <v>1182</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>1183</v>
       </c>
       <c r="I126" t="s">
         <v>8</v>
@@ -12563,16 +12557,16 @@
         <v>38</v>
       </c>
       <c r="K126" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="L126" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M126" t="s">
         <v>1184</v>
       </c>
-      <c r="M126" t="s">
+      <c r="N126" t="s">
         <v>1185</v>
-      </c>
-      <c r="N126" t="s">
-        <v>1186</v>
       </c>
       <c r="O126" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80558_southampton", ".\export_data\inspection_reports\80558_southampton")</f>
@@ -12591,33 +12585,33 @@
         <v>8</v>
       </c>
       <c r="T126" t="s">
-        <v>351</v>
+        <v>232</v>
       </c>
     </row>
     <row r="127" spans="1:20">
       <c r="A127" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B127" t="s">
         <v>1187</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1188</v>
       </c>
       <c r="C127" t="s">
         <v>32</v>
       </c>
       <c r="D127" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E127" t="s">
         <v>1189</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>1190</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>1191</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" s="2" t="s">
         <v>1192</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>1193</v>
       </c>
       <c r="I127" t="s">
         <v>8</v>
@@ -12659,28 +12653,28 @@
     </row>
     <row r="128" spans="1:20">
       <c r="A128" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B128" t="s">
         <v>1194</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1195</v>
       </c>
       <c r="C128" t="s">
         <v>59</v>
       </c>
       <c r="D128" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E128" t="s">
         <v>1196</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>1197</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>1198</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" s="2" t="s">
         <v>1199</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>1200</v>
       </c>
       <c r="I128" t="s">
         <v>8</v>
@@ -12689,7 +12683,7 @@
         <v>38</v>
       </c>
       <c r="K128" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L128" t="s">
         <v>590</v>
@@ -12722,28 +12716,28 @@
     </row>
     <row r="129" spans="1:20">
       <c r="A129" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B129" t="s">
         <v>1201</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1202</v>
       </c>
       <c r="C129" t="s">
         <v>46</v>
       </c>
       <c r="D129" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E129" t="s">
         <v>1203</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>1204</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>1205</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H129" s="2" t="s">
         <v>1206</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>1207</v>
       </c>
       <c r="I129" t="s">
         <v>14</v>
@@ -12755,7 +12749,7 @@
         <v>205</v>
       </c>
       <c r="L129" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="M129" t="s">
         <v>328</v>
@@ -12785,28 +12779,28 @@
     </row>
     <row r="130" spans="1:20">
       <c r="A130" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B130" t="s">
         <v>1208</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1209</v>
       </c>
       <c r="C130" t="s">
         <v>59</v>
       </c>
       <c r="D130" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E130" t="s">
         <v>1210</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>1211</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>1212</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" s="2" t="s">
         <v>1213</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>1214</v>
       </c>
       <c r="I130" t="s">
         <v>8</v>
@@ -12818,13 +12812,13 @@
         <v>154</v>
       </c>
       <c r="L130" t="s">
+        <v>1214</v>
+      </c>
+      <c r="M130" t="s">
+        <v>867</v>
+      </c>
+      <c r="N130" t="s">
         <v>1215</v>
-      </c>
-      <c r="M130" t="s">
-        <v>868</v>
-      </c>
-      <c r="N130" t="s">
-        <v>1216</v>
       </c>
       <c r="O130" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80562_stockport", ".\export_data\inspection_reports\80562_stockport")</f>
@@ -12848,28 +12842,28 @@
     </row>
     <row r="131" spans="1:20">
       <c r="A131" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B131" t="s">
         <v>1217</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1218</v>
       </c>
       <c r="C131" t="s">
         <v>298</v>
       </c>
       <c r="D131" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E131" t="s">
         <v>1219</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>1220</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>1221</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" s="2" t="s">
         <v>1222</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>1223</v>
       </c>
       <c r="I131" t="s">
         <v>14</v>
@@ -12878,16 +12872,16 @@
         <v>38</v>
       </c>
       <c r="K131" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L131" t="s">
         <v>1224</v>
       </c>
-      <c r="L131" t="s">
+      <c r="M131" t="s">
         <v>1225</v>
       </c>
-      <c r="M131" t="s">
+      <c r="N131" t="s">
         <v>1226</v>
-      </c>
-      <c r="N131" t="s">
-        <v>1227</v>
       </c>
       <c r="O131" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80563_stockton-on-tees", ".\export_data\inspection_reports\80563_stockton-on-tees")</f>
@@ -12911,28 +12905,28 @@
     </row>
     <row r="132" spans="1:20">
       <c r="A132" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B132" t="s">
         <v>1228</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1229</v>
       </c>
       <c r="C132" t="s">
         <v>46</v>
       </c>
       <c r="D132" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E132" t="s">
         <v>1230</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>1231</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>1232</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" s="2" t="s">
         <v>1233</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>1234</v>
       </c>
       <c r="I132" t="s">
         <v>14</v>
@@ -12944,13 +12938,13 @@
         <v>119</v>
       </c>
       <c r="L132" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M132" t="s">
+        <v>930</v>
+      </c>
+      <c r="N132" t="s">
         <v>931</v>
-      </c>
-      <c r="N132" t="s">
-        <v>932</v>
       </c>
       <c r="O132" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80564_stoke-on-trent", ".\export_data\inspection_reports\80564_stoke-on-trent")</f>
@@ -12969,33 +12963,33 @@
         <v>28</v>
       </c>
       <c r="T132" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="133" spans="1:20">
       <c r="A133" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B133" t="s">
         <v>1236</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1237</v>
       </c>
       <c r="C133" t="s">
         <v>32</v>
       </c>
       <c r="D133" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E133" t="s">
         <v>1238</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>1239</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>1240</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" s="2" t="s">
         <v>1241</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>1242</v>
       </c>
       <c r="I133" t="s">
         <v>14</v>
@@ -13004,7 +12998,7 @@
         <v>9</v>
       </c>
       <c r="K133" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="L133" t="s">
         <v>671</v>
@@ -13013,7 +13007,7 @@
         <v>672</v>
       </c>
       <c r="N133" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="O133" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80565_suffolk", ".\export_data\inspection_reports\80565_suffolk")</f>
@@ -13037,28 +13031,28 @@
     </row>
     <row r="134" spans="1:20">
       <c r="A134" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B134" t="s">
         <v>1244</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1245</v>
       </c>
       <c r="C134" t="s">
         <v>298</v>
       </c>
       <c r="D134" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E134" t="s">
         <v>1246</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>1247</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>1248</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" s="2" t="s">
         <v>1249</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>1250</v>
       </c>
       <c r="I134" t="s">
         <v>106</v>
@@ -13067,16 +13061,16 @@
         <v>9</v>
       </c>
       <c r="K134" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L134" t="s">
+        <v>1250</v>
+      </c>
+      <c r="M134" t="s">
+        <v>349</v>
+      </c>
+      <c r="N134" t="s">
         <v>1251</v>
-      </c>
-      <c r="M134" t="s">
-        <v>1252</v>
-      </c>
-      <c r="N134" t="s">
-        <v>1253</v>
       </c>
       <c r="O134" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80566_sunderland", ".\export_data\inspection_reports\80566_sunderland")</f>
@@ -13100,28 +13094,28 @@
     </row>
     <row r="135" spans="1:20">
       <c r="A135" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B135" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C135" t="s">
         <v>100</v>
       </c>
       <c r="D135" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F135" t="s">
         <v>1256</v>
       </c>
-      <c r="E135" t="s">
+      <c r="G135" t="s">
         <v>1257</v>
       </c>
-      <c r="F135" t="s">
+      <c r="H135" s="2" t="s">
         <v>1258</v>
-      </c>
-      <c r="G135" t="s">
-        <v>1259</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>1260</v>
       </c>
       <c r="I135" t="s">
         <v>14</v>
@@ -13136,10 +13130,10 @@
         <v>185</v>
       </c>
       <c r="M135" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="N135" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="O135" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80567_surrey", ".\export_data\inspection_reports\80567_surrey")</f>
@@ -13163,28 +13157,28 @@
     </row>
     <row r="136" spans="1:20">
       <c r="A136" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B136" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C136" t="s">
         <v>18</v>
       </c>
       <c r="D136" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F136" t="s">
         <v>1265</v>
       </c>
-      <c r="E136" t="s">
+      <c r="G136" t="s">
         <v>1266</v>
       </c>
-      <c r="F136" t="s">
+      <c r="H136" s="2" t="s">
         <v>1267</v>
-      </c>
-      <c r="G136" t="s">
-        <v>1268</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>1269</v>
       </c>
       <c r="I136" t="s">
         <v>153</v>
@@ -13196,13 +13190,13 @@
         <v>282</v>
       </c>
       <c r="L136" t="s">
+        <v>877</v>
+      </c>
+      <c r="M136" t="s">
         <v>878</v>
       </c>
-      <c r="M136" t="s">
+      <c r="N136" t="s">
         <v>879</v>
-      </c>
-      <c r="N136" t="s">
-        <v>880</v>
       </c>
       <c r="O136" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80568_swindon", ".\export_data\inspection_reports\80568_swindon")</f>
@@ -13226,28 +13220,28 @@
     </row>
     <row r="137" spans="1:20">
       <c r="A137" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B137" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C137" t="s">
         <v>59</v>
       </c>
       <c r="D137" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F137" t="s">
         <v>1272</v>
       </c>
-      <c r="E137" t="s">
+      <c r="G137" t="s">
         <v>1273</v>
       </c>
-      <c r="F137" t="s">
+      <c r="H137" s="2" t="s">
         <v>1274</v>
-      </c>
-      <c r="G137" t="s">
-        <v>1275</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>1276</v>
       </c>
       <c r="I137" t="s">
         <v>153</v>
@@ -13259,13 +13253,13 @@
         <v>119</v>
       </c>
       <c r="L137" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M137" t="s">
         <v>402</v>
       </c>
       <c r="N137" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="O137" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80569_tameside", ".\export_data\inspection_reports\80569_tameside")</f>
@@ -13284,33 +13278,33 @@
         <v>14</v>
       </c>
       <c r="T137" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="138" spans="1:20">
       <c r="A138" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B138" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C138" t="s">
         <v>46</v>
       </c>
       <c r="D138" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F138" t="s">
         <v>1280</v>
       </c>
-      <c r="E138" t="s">
+      <c r="G138" t="s">
         <v>1281</v>
       </c>
-      <c r="F138" t="s">
+      <c r="H138" s="2" t="s">
         <v>1282</v>
-      </c>
-      <c r="G138" t="s">
-        <v>1283</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>1284</v>
       </c>
       <c r="I138" t="s">
         <v>106</v>
@@ -13319,10 +13313,10 @@
         <v>9</v>
       </c>
       <c r="K138" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="L138" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="M138" t="s">
         <v>562</v>
@@ -13352,28 +13346,28 @@
     </row>
     <row r="139" spans="1:20">
       <c r="A139" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B139" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C139" t="s">
         <v>32</v>
       </c>
       <c r="D139" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F139" t="s">
         <v>1288</v>
       </c>
-      <c r="E139" t="s">
+      <c r="G139" t="s">
         <v>1289</v>
       </c>
-      <c r="F139" t="s">
+      <c r="H139" s="2" t="s">
         <v>1290</v>
-      </c>
-      <c r="G139" t="s">
-        <v>1291</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>1292</v>
       </c>
       <c r="I139" t="s">
         <v>106</v>
@@ -13385,13 +13379,13 @@
         <v>514</v>
       </c>
       <c r="L139" t="s">
+        <v>1291</v>
+      </c>
+      <c r="M139" t="s">
+        <v>1292</v>
+      </c>
+      <c r="N139" t="s">
         <v>1293</v>
-      </c>
-      <c r="M139" t="s">
-        <v>1294</v>
-      </c>
-      <c r="N139" t="s">
-        <v>1295</v>
       </c>
       <c r="O139" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80571_thurrock", ".\export_data\inspection_reports\80571_thurrock")</f>
@@ -13415,28 +13409,28 @@
     </row>
     <row r="140" spans="1:20">
       <c r="A140" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B140" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C140" t="s">
         <v>18</v>
       </c>
       <c r="D140" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F140" t="s">
         <v>1298</v>
       </c>
-      <c r="E140" t="s">
+      <c r="G140" t="s">
         <v>1299</v>
       </c>
-      <c r="F140" t="s">
+      <c r="H140" s="2" t="s">
         <v>1300</v>
-      </c>
-      <c r="G140" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>1302</v>
       </c>
       <c r="I140" t="s">
         <v>8</v>
@@ -13445,16 +13439,16 @@
         <v>38</v>
       </c>
       <c r="K140" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="L140" t="s">
         <v>317</v>
       </c>
       <c r="M140" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="N140" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="O140" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80572_torbay", ".\export_data\inspection_reports\80572_torbay")</f>
@@ -13478,28 +13472,28 @@
     </row>
     <row r="141" spans="1:20">
       <c r="A141" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B141" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C141" t="s">
         <v>59</v>
       </c>
       <c r="D141" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F141" t="s">
         <v>1306</v>
       </c>
-      <c r="E141" t="s">
+      <c r="G141" t="s">
         <v>1307</v>
       </c>
-      <c r="F141" t="s">
+      <c r="H141" s="2" t="s">
         <v>1308</v>
-      </c>
-      <c r="G141" t="s">
-        <v>1309</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>1310</v>
       </c>
       <c r="I141" t="s">
         <v>14</v>
@@ -13541,28 +13535,28 @@
     </row>
     <row r="142" spans="1:20">
       <c r="A142" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B142" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C142" t="s">
         <v>46</v>
       </c>
       <c r="D142" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F142" t="s">
         <v>1313</v>
       </c>
-      <c r="E142" t="s">
+      <c r="G142" t="s">
         <v>1314</v>
       </c>
-      <c r="F142" t="s">
+      <c r="H142" s="2" t="s">
         <v>1315</v>
-      </c>
-      <c r="G142" t="s">
-        <v>1316</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>1317</v>
       </c>
       <c r="I142" t="s">
         <v>8</v>
@@ -13574,13 +13568,13 @@
         <v>316</v>
       </c>
       <c r="L142" t="s">
+        <v>919</v>
+      </c>
+      <c r="M142" t="s">
         <v>920</v>
       </c>
-      <c r="M142" t="s">
+      <c r="N142" t="s">
         <v>921</v>
-      </c>
-      <c r="N142" t="s">
-        <v>922</v>
       </c>
       <c r="O142" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80574_walsall", ".\export_data\inspection_reports\80574_walsall")</f>
@@ -13604,28 +13598,28 @@
     </row>
     <row r="143" spans="1:20">
       <c r="A143" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B143" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C143" t="s">
         <v>59</v>
       </c>
       <c r="D143" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F143" t="s">
         <v>1320</v>
       </c>
-      <c r="E143" t="s">
+      <c r="G143" t="s">
         <v>1321</v>
       </c>
-      <c r="F143" t="s">
+      <c r="H143" s="2" t="s">
         <v>1322</v>
-      </c>
-      <c r="G143" t="s">
-        <v>1323</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>1324</v>
       </c>
       <c r="I143" t="s">
         <v>8</v>
@@ -13643,7 +13637,7 @@
         <v>453</v>
       </c>
       <c r="N143" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="O143" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80575_warrington", ".\export_data\inspection_reports\80575_warrington")</f>
@@ -13667,28 +13661,28 @@
     </row>
     <row r="144" spans="1:20">
       <c r="A144" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B144" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C144" t="s">
         <v>46</v>
       </c>
       <c r="D144" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F144" t="s">
         <v>1328</v>
       </c>
-      <c r="E144" t="s">
+      <c r="G144" t="s">
         <v>1329</v>
       </c>
-      <c r="F144" t="s">
+      <c r="H144" s="2" t="s">
         <v>1330</v>
-      </c>
-      <c r="G144" t="s">
-        <v>1331</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>1332</v>
       </c>
       <c r="I144" t="s">
         <v>8</v>
@@ -13700,13 +13694,13 @@
         <v>205</v>
       </c>
       <c r="L144" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="M144" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="N144" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="O144" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80576_warwickshire", ".\export_data\inspection_reports\80576_warwickshire")</f>
@@ -13730,28 +13724,28 @@
     </row>
     <row r="145" spans="1:20">
       <c r="A145" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B145" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C145" t="s">
         <v>100</v>
       </c>
       <c r="D145" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F145" t="s">
         <v>1337</v>
       </c>
-      <c r="E145" t="s">
+      <c r="G145" t="s">
         <v>1338</v>
       </c>
-      <c r="F145" t="s">
+      <c r="H145" s="2" t="s">
         <v>1339</v>
-      </c>
-      <c r="G145" t="s">
-        <v>1340</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>1341</v>
       </c>
       <c r="I145" t="s">
         <v>8</v>
@@ -13763,7 +13757,7 @@
         <v>120</v>
       </c>
       <c r="L145" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="M145" t="s">
         <v>252</v>
@@ -13793,28 +13787,28 @@
     </row>
     <row r="146" spans="1:20">
       <c r="A146" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B146" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C146" t="s">
         <v>310</v>
       </c>
       <c r="D146" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F146" t="s">
         <v>1345</v>
       </c>
-      <c r="E146" t="s">
+      <c r="G146" t="s">
         <v>1346</v>
       </c>
-      <c r="F146" t="s">
+      <c r="H146" s="2" t="s">
         <v>1347</v>
-      </c>
-      <c r="G146" t="s">
-        <v>1348</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>1349</v>
       </c>
       <c r="I146" t="s">
         <v>14</v>
@@ -13826,13 +13820,13 @@
         <v>205</v>
       </c>
       <c r="L146" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M146" t="s">
+        <v>930</v>
+      </c>
+      <c r="N146" t="s">
         <v>931</v>
-      </c>
-      <c r="N146" t="s">
-        <v>932</v>
       </c>
       <c r="O146" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\2637548_west northamptonshire", ".\export_data\inspection_reports\2637548_west northamptonshire")</f>
@@ -13856,28 +13850,28 @@
     </row>
     <row r="147" spans="1:20">
       <c r="A147" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B147" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C147" t="s">
         <v>100</v>
       </c>
       <c r="D147" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F147" t="s">
         <v>1352</v>
       </c>
-      <c r="E147" t="s">
+      <c r="G147" t="s">
         <v>1353</v>
       </c>
-      <c r="F147" t="s">
+      <c r="H147" s="2" t="s">
         <v>1354</v>
-      </c>
-      <c r="G147" t="s">
-        <v>1355</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>1356</v>
       </c>
       <c r="I147" t="s">
         <v>14</v>
@@ -13886,7 +13880,7 @@
         <v>38</v>
       </c>
       <c r="K147" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="L147" t="s">
         <v>580</v>
@@ -13895,7 +13889,7 @@
         <v>581</v>
       </c>
       <c r="N147" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O147" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80578_west sussex", ".\export_data\inspection_reports\80578_west sussex")</f>
@@ -13919,10 +13913,10 @@
     </row>
     <row r="148" spans="1:20">
       <c r="A148" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B148" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C148" t="s">
         <v>59</v>
@@ -13937,10 +13931,10 @@
         <v>290</v>
       </c>
       <c r="G148" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I148" t="s">
         <v>8</v>
@@ -13982,28 +13976,28 @@
     </row>
     <row r="149" spans="1:20">
       <c r="A149" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="B149" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C149" t="s">
         <v>59</v>
       </c>
       <c r="D149" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F149" t="s">
         <v>1364</v>
       </c>
-      <c r="E149" t="s">
+      <c r="G149" t="s">
         <v>1365</v>
       </c>
-      <c r="F149" t="s">
+      <c r="H149" s="2" t="s">
         <v>1366</v>
-      </c>
-      <c r="G149" t="s">
-        <v>1367</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>1368</v>
       </c>
       <c r="I149" t="s">
         <v>14</v>
@@ -14015,13 +14009,13 @@
         <v>154</v>
       </c>
       <c r="L149" t="s">
+        <v>379</v>
+      </c>
+      <c r="M149" t="s">
         <v>380</v>
       </c>
-      <c r="M149" t="s">
+      <c r="N149" t="s">
         <v>381</v>
-      </c>
-      <c r="N149" t="s">
-        <v>382</v>
       </c>
       <c r="O149" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80579_wigan", ".\export_data\inspection_reports\80579_wigan")</f>
@@ -14045,28 +14039,28 @@
     </row>
     <row r="150" spans="1:20">
       <c r="A150" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B150" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C150" t="s">
         <v>18</v>
       </c>
       <c r="D150" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F150" t="s">
         <v>1371</v>
       </c>
-      <c r="E150" t="s">
+      <c r="G150" t="s">
         <v>1372</v>
       </c>
-      <c r="F150" t="s">
+      <c r="H150" s="2" t="s">
         <v>1373</v>
-      </c>
-      <c r="G150" t="s">
-        <v>1374</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>1375</v>
       </c>
       <c r="I150" t="s">
         <v>106</v>
@@ -14078,13 +14072,13 @@
         <v>411</v>
       </c>
       <c r="L150" t="s">
+        <v>1374</v>
+      </c>
+      <c r="M150" t="s">
+        <v>1375</v>
+      </c>
+      <c r="N150" t="s">
         <v>1376</v>
-      </c>
-      <c r="M150" t="s">
-        <v>1377</v>
-      </c>
-      <c r="N150" t="s">
-        <v>1378</v>
       </c>
       <c r="O150" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80580_wiltshire", ".\export_data\inspection_reports\80580_wiltshire")</f>
@@ -14108,28 +14102,28 @@
     </row>
     <row r="151" spans="1:20">
       <c r="A151" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B151" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C151" t="s">
         <v>59</v>
       </c>
       <c r="D151" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F151" t="s">
         <v>1381</v>
       </c>
-      <c r="E151" t="s">
+      <c r="G151" t="s">
         <v>1382</v>
       </c>
-      <c r="F151" t="s">
+      <c r="H151" s="2" t="s">
         <v>1383</v>
-      </c>
-      <c r="G151" t="s">
-        <v>1384</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>1385</v>
       </c>
       <c r="I151" t="s">
         <v>14</v>
@@ -14141,13 +14135,13 @@
         <v>195</v>
       </c>
       <c r="L151" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="M151" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="N151" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="O151" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80581_wirral", ".\export_data\inspection_reports\80581_wirral")</f>
@@ -14171,28 +14165,28 @@
     </row>
     <row r="152" spans="1:20">
       <c r="A152" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B152" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C152" t="s">
         <v>100</v>
       </c>
       <c r="D152" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F152" t="s">
         <v>1390</v>
       </c>
-      <c r="E152" t="s">
+      <c r="G152" t="s">
         <v>1391</v>
       </c>
-      <c r="F152" t="s">
+      <c r="H152" s="2" t="s">
         <v>1392</v>
-      </c>
-      <c r="G152" t="s">
-        <v>1393</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>1394</v>
       </c>
       <c r="I152" t="s">
         <v>14</v>
@@ -14201,16 +14195,16 @@
         <v>38</v>
       </c>
       <c r="K152" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="L152" t="s">
+        <v>1224</v>
+      </c>
+      <c r="M152" t="s">
         <v>1225</v>
       </c>
-      <c r="M152" t="s">
+      <c r="N152" t="s">
         <v>1226</v>
-      </c>
-      <c r="N152" t="s">
-        <v>1227</v>
       </c>
       <c r="O152" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80582_wokingham", ".\export_data\inspection_reports\80582_wokingham")</f>
@@ -14229,33 +14223,33 @@
         <v>14</v>
       </c>
       <c r="T152" t="s">
-        <v>351</v>
+        <v>232</v>
       </c>
     </row>
     <row r="153" spans="1:20">
       <c r="A153" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B153" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C153" t="s">
         <v>46</v>
       </c>
       <c r="D153" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F153" t="s">
         <v>1397</v>
       </c>
-      <c r="E153" t="s">
+      <c r="G153" t="s">
         <v>1398</v>
       </c>
-      <c r="F153" t="s">
+      <c r="H153" s="2" t="s">
         <v>1399</v>
-      </c>
-      <c r="G153" t="s">
-        <v>1400</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>1401</v>
       </c>
       <c r="I153" t="s">
         <v>8</v>
@@ -14264,16 +14258,16 @@
         <v>9</v>
       </c>
       <c r="K153" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="L153" t="s">
+        <v>1214</v>
+      </c>
+      <c r="M153" t="s">
+        <v>867</v>
+      </c>
+      <c r="N153" t="s">
         <v>1215</v>
-      </c>
-      <c r="M153" t="s">
-        <v>868</v>
-      </c>
-      <c r="N153" t="s">
-        <v>1216</v>
       </c>
       <c r="O153" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80583_wolverhampton", ".\export_data\inspection_reports\80583_wolverhampton")</f>
@@ -14297,28 +14291,28 @@
     </row>
     <row r="154" spans="1:20">
       <c r="A154" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B154" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C154" t="s">
         <v>46</v>
       </c>
       <c r="D154" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F154" t="s">
         <v>1404</v>
       </c>
-      <c r="E154" t="s">
+      <c r="G154" t="s">
         <v>1405</v>
       </c>
-      <c r="F154" t="s">
+      <c r="H154" s="2" t="s">
         <v>1406</v>
-      </c>
-      <c r="G154" t="s">
-        <v>1407</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>1408</v>
       </c>
       <c r="I154" t="s">
         <v>8</v>
@@ -14327,16 +14321,16 @@
         <v>38</v>
       </c>
       <c r="K154" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="L154" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="M154" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="N154" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="O154" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80584_worcestershire", ".\export_data\inspection_reports\80584_worcestershire")</f>

--- a/ofsted_csc_ilacs_overview.xlsx
+++ b/ofsted_csc_ilacs_overview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1428">
   <si>
     <t>80426</t>
   </si>
@@ -181,108 +181,108 @@
     <t>18/04/23</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>80430</t>
+  </si>
+  <si>
+    <t>889</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>E06000008</t>
+  </si>
+  <si>
+    <t>380, 353, 350, 831, 354, 335, 373, 861, 330, 382</t>
+  </si>
+  <si>
+    <t>[(380, 'inadequate'), (353, 'good'), (350, 'good'), (831, 'outstanding'), (354, 'requires improvement'), (335, 'outstanding'), (373, 'good'), (861, 'requires improvement'), (330, 'good'), (382, 'good')]</t>
+  </si>
+  <si>
+    <t>blackburn with darwen</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50275023</t>
+  </si>
+  <si>
+    <t>gareth dakin</t>
+  </si>
+  <si>
+    <t>03/03/2025</t>
+  </si>
+  <si>
+    <t>14/03/2025</t>
+  </si>
+  <si>
+    <t>23/04/25</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>80431</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>E06000009</t>
+  </si>
+  <si>
+    <t>805, 806, 394, 341, 393, 807, 354, 880, 355, 861</t>
+  </si>
+  <si>
+    <t>[(805, 'outstanding'), (806, 'requires improvement'), (394, 'outstanding'), (341, 'inadequate'), (393, 'inadequate'), (807, 'requires improvement'), (354, 'requires improvement'), (880, 'good'), (355, 'good'), (861, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>blackpool</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50206631</t>
+  </si>
+  <si>
+    <t>lisa summers</t>
+  </si>
+  <si>
+    <t>05/12/2022</t>
+  </si>
+  <si>
+    <t>16/12/2022</t>
+  </si>
+  <si>
+    <t>01/02/23</t>
+  </si>
+  <si>
+    <t>80432</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>E08000001</t>
+  </si>
+  <si>
+    <t>354, 831, 353, 357, 335, 355, 889, 331, 373, 874</t>
+  </si>
+  <si>
+    <t>[(354, 'requires improvement'), (831, 'outstanding'), (353, 'good'), (357, 'inadequate'), (335, 'outstanding'), (355, 'good'), (889, 'good'), (331, 'good'), (373, 'good'), (874, 'inadequate')]</t>
+  </si>
+  <si>
+    <t>bolton</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50231519</t>
+  </si>
+  <si>
+    <t>lisa walsh</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>80430</t>
-  </si>
-  <si>
-    <t>889</t>
-  </si>
-  <si>
-    <t>NW</t>
-  </si>
-  <si>
-    <t>E06000008</t>
-  </si>
-  <si>
-    <t>380, 353, 350, 831, 354, 335, 373, 861, 330, 382</t>
-  </si>
-  <si>
-    <t>[(380, 'inadequate'), (353, 'good'), (350, 'good'), (831, 'outstanding'), (354, 'requires improvement'), (335, 'outstanding'), (373, 'good'), (861, 'requires improvement'), (330, 'good'), (382, 'good')]</t>
-  </si>
-  <si>
-    <t>blackburn with darwen</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50275023</t>
-  </si>
-  <si>
-    <t>gareth dakin</t>
-  </si>
-  <si>
-    <t>03/03/2025</t>
-  </si>
-  <si>
-    <t>14/03/2025</t>
-  </si>
-  <si>
-    <t>23/04/25</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>80431</t>
-  </si>
-  <si>
-    <t>890</t>
-  </si>
-  <si>
-    <t>E06000009</t>
-  </si>
-  <si>
-    <t>805, 806, 394, 341, 393, 807, 354, 880, 355, 861</t>
-  </si>
-  <si>
-    <t>[(805, 'outstanding'), (806, 'requires improvement'), (394, 'outstanding'), (341, 'inadequate'), (393, 'inadequate'), (807, 'requires improvement'), (354, 'requires improvement'), (880, 'good'), (355, 'good'), (861, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>blackpool</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50206631</t>
-  </si>
-  <si>
-    <t>lisa summers</t>
-  </si>
-  <si>
-    <t>05/12/2022</t>
-  </si>
-  <si>
-    <t>16/12/2022</t>
-  </si>
-  <si>
-    <t>01/02/23</t>
-  </si>
-  <si>
-    <t>80432</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>E08000001</t>
-  </si>
-  <si>
-    <t>354, 831, 353, 357, 335, 355, 889, 331, 373, 874</t>
-  </si>
-  <si>
-    <t>[(354, 'requires improvement'), (831, 'outstanding'), (353, 'good'), (357, 'inadequate'), (335, 'outstanding'), (355, 'good'), (889, 'good'), (331, 'good'), (373, 'good'), (874, 'inadequate')]</t>
-  </si>
-  <si>
-    <t>bolton</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50231519</t>
-  </si>
-  <si>
-    <t>lisa walsh</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>2532287</t>
   </si>
   <si>
@@ -448,6 +448,9 @@
     <t>14/05/25</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>80443</t>
   </si>
   <si>
@@ -976,7 +979,7 @@
     <t>891, 933, 935, 926, 860, 878, 893, 929, 838, 885</t>
   </si>
   <si>
-    <t>[(891, 'good'), (933, 'good'), (935, 'requires improvement'), (926, 'good'), (860, 'requires improvement'), (878, 'inadequate'), (893, 'good'), (929, 'outstanding'), (838, 'outstanding'), (885, 'good')]</t>
+    <t>[(891, 'good'), (933, 'good'), (935, 'requires improvement'), (926, 'good'), (860, 'requires improvement'), (878, 'inadequate'), (893, 'outstanding'), (929, 'outstanding'), (838, 'outstanding'), (885, 'good')]</t>
   </si>
   <si>
     <t>derbyshire</t>
@@ -1072,7 +1075,7 @@
     <t>933, 878, 893, 935, 885, 881, 830, 886, 938, 815</t>
   </si>
   <si>
-    <t>[(933, 'good'), (878, 'inadequate'), (893, 'good'), (935, 'requires improvement'), (885, 'good'), (881, 'outstanding'), (830, 'good'), (886, 'outstanding'), (938, 'requires improvement'), (815, 'outstanding')]</t>
+    <t>[(933, 'good'), (878, 'inadequate'), (893, 'outstanding'), (935, 'requires improvement'), (885, 'good'), (881, 'outstanding'), (830, 'good'), (886, 'outstanding'), (938, 'requires improvement'), (815, 'outstanding')]</t>
   </si>
   <si>
     <t>dorset</t>
@@ -1156,7 +1159,7 @@
     <t>860, 893, 815, 877, 855, 933, 884, 943, 937, 830</t>
   </si>
   <si>
-    <t>[(860, 'requires improvement'), (893, 'good'), (815, 'outstanding'), (877, 'good'), (855, 'outstanding'), (933, 'good'), (884, 'inadequate'), (943, 'good'), (937, 'good'), (830, 'good')]</t>
+    <t>[(860, 'requires improvement'), (893, 'outstanding'), (815, 'outstanding'), (877, 'good'), (855, 'outstanding'), (933, 'good'), (884, 'inadequate'), (943, 'good'), (937, 'good'), (830, 'good')]</t>
   </si>
   <si>
     <t>east riding of yorkshire</t>
@@ -1210,9 +1213,6 @@
     <t>06/02/24</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>80468</t>
   </si>
   <si>
@@ -1309,7 +1309,7 @@
     <t>342, 840, 344, 394, 807, 370, 390, 372, 808, 343</t>
   </si>
   <si>
-    <t>[(342, 'good'), (840, 'outstanding'), (344, 'requires improvement'), (394, 'outstanding'), (807, 'requires improvement'), (370, 'good'), (390, 'good'), (372, 'good'), (808, 'requires improvement'), (343, 'inadequate')]</t>
+    <t>[(342, 'good'), (840, 'outstanding'), (344, 'requires improvement'), (394, 'outstanding'), (807, 'requires improvement'), (370, 'good'), (390, 'good'), (372, 'good'), (808, 'requires improvement'), (343, 'good')]</t>
   </si>
   <si>
     <t>halton</t>
@@ -1396,7 +1396,7 @@
     <t>943, 860, 925, 893, 933, 888, 935, 811, 815, 830</t>
   </si>
   <si>
-    <t>[(943, 'good'), (860, 'requires improvement'), (925, 'outstanding'), (893, 'good'), (933, 'good'), (888, 'good'), (935, 'requires improvement'), (811, 'good'), (815, 'outstanding'), (830, 'good')]</t>
+    <t>[(943, 'good'), (860, 'requires improvement'), (925, 'outstanding'), (893, 'outstanding'), (933, 'good'), (888, 'good'), (935, 'requires improvement'), (811, 'good'), (815, 'outstanding'), (830, 'good')]</t>
   </si>
   <si>
     <t>herefordshire</t>
@@ -1564,7 +1564,7 @@
     <t>342, 876, 394, 805, 807, 343, 344, 393, 840, 341</t>
   </si>
   <si>
-    <t>[(342, 'good'), (876, 'inadequate'), (394, 'outstanding'), (805, 'outstanding'), (807, 'requires improvement'), (343, 'inadequate'), (344, 'requires improvement'), (393, 'inadequate'), (840, 'outstanding'), (341, 'inadequate')]</t>
+    <t>[(342, 'good'), (876, 'inadequate'), (394, 'outstanding'), (805, 'outstanding'), (807, 'requires improvement'), (343, 'good'), (344, 'requires improvement'), (393, 'inadequate'), (840, 'outstanding'), (341, 'inadequate')]</t>
   </si>
   <si>
     <t>knowsley</t>
@@ -1633,10 +1633,688 @@
     <t>leeds</t>
   </si>
   <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50182665</t>
-  </si>
-  <si>
-    <t>21/02/2022</t>
+    <t>https://files.ofsted.gov.uk/v1/file/50284438</t>
+  </si>
+  <si>
+    <t>30/06/2025</t>
+  </si>
+  <si>
+    <t>04/07/2025</t>
+  </si>
+  <si>
+    <t>12/08/25</t>
+  </si>
+  <si>
+    <t>80482</t>
+  </si>
+  <si>
+    <t>856</t>
+  </si>
+  <si>
+    <t>E06000016</t>
+  </si>
+  <si>
+    <t>821, 871, 304, 316, 333, 380, 307, 313, 330, 889</t>
+  </si>
+  <si>
+    <t>[(821, 'requires improvement'), (871, 'requires improvement'), (304, 'good'), (316, 'good'), (333, 'requires improvement'), (380, 'inadequate'), (307, 'good'), (313, 'good'), (330, 'good'), (889, 'good')]</t>
+  </si>
+  <si>
+    <t>leicester</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50267800</t>
+  </si>
+  <si>
+    <t>80483</t>
+  </si>
+  <si>
+    <t>855</t>
+  </si>
+  <si>
+    <t>E10000018</t>
+  </si>
+  <si>
+    <t>916, 803, 937, 802, 850, 865, 933, 938, 811, 891</t>
+  </si>
+  <si>
+    <t>[(916, 'good'), (803, 'good'), (937, 'good'), (802, 'requires improvement'), (850, 'outstanding'), (865, 'outstanding'), (933, 'good'), (938, 'requires improvement'), (811, 'good'), (891, 'good')]</t>
+  </si>
+  <si>
+    <t>leicestershire</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50252253</t>
+  </si>
+  <si>
+    <t>22/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>80484</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>E10000019</t>
+  </si>
+  <si>
+    <t>888, 384, 884, 813, 926, 935, 332, 940, 830, 933</t>
+  </si>
+  <si>
+    <t>[(888, 'good'), (384, 'good'), (884, 'inadequate'), (813, 'outstanding'), (926, 'good'), (935, 'requires improvement'), (332, 'requires improvement'), (940, 'requires improvement'), (830, 'good'), (933, 'good')]</t>
+  </si>
+  <si>
+    <t>lincolnshire</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50219720</t>
+  </si>
+  <si>
+    <t>24/04/2023</t>
+  </si>
+  <si>
+    <t>28/04/2023</t>
+  </si>
+  <si>
+    <t>14/06/23</t>
+  </si>
+  <si>
+    <t>80485</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>E08000012</t>
+  </si>
+  <si>
+    <t>890, 805, 806, 355, 393, 340, 394, 391, 807, 354</t>
+  </si>
+  <si>
+    <t>[(890, 'requires improvement'), (805, 'outstanding'), (806, 'requires improvement'), (355, 'good'), (393, 'inadequate'), (340, 'inadequate'), (394, 'outstanding'), (391, 'good'), (807, 'requires improvement'), (354, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>liverpool</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50218078</t>
+  </si>
+  <si>
+    <t>13/03/2023</t>
+  </si>
+  <si>
+    <t>24/03/2023</t>
+  </si>
+  <si>
+    <t>25/05/23</t>
+  </si>
+  <si>
+    <t>80486</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>E09000002</t>
+  </si>
+  <si>
+    <t>308, 821, 313, 333, 336, 307, 304, 312, 874, 203</t>
+  </si>
+  <si>
+    <t>[(308, 'good'), (821, 'requires improvement'), (313, 'good'), (333, 'requires improvement'), (336, 'good'), (307, 'good'), (304, 'good'), (312, 'outstanding'), (874, 'inadequate'), (203, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>barking and dagenham</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50227183</t>
+  </si>
+  <si>
+    <t>10/07/2023</t>
+  </si>
+  <si>
+    <t>21/07/2023</t>
+  </si>
+  <si>
+    <t>04/09/23</t>
+  </si>
+  <si>
+    <t>80487</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>E09000003</t>
+  </si>
+  <si>
+    <t>320, 870, 310, 317, 315, 306, 209, 312, 309, 307</t>
+  </si>
+  <si>
+    <t>[(320, 'good'), (870, 'requires improvement'), (310, 'inadequate'), (317, 'outstanding'), (315, 'outstanding'), (306, 'good'), (209, 'good'), (312, 'outstanding'), (309, 'good'), (307, 'good')]</t>
+  </si>
+  <si>
+    <t>barnet</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50253182</t>
+  </si>
+  <si>
+    <t>80488</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>E09000004</t>
+  </si>
+  <si>
+    <t>311, 822, 886, 881, 883, 887, 826, 866, 839, 351</t>
+  </si>
+  <si>
+    <t>[(311, 'inadequate'), (822, 'good'), (886, 'outstanding'), (881, 'outstanding'), (883, 'outstanding'), (887, 'good'), (826, 'good'), (866, 'inadequate'), (839, 'good'), (351, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>bexley</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50212243</t>
+  </si>
+  <si>
+    <t>06/02/2023</t>
+  </si>
+  <si>
+    <t>80489</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>E09000005</t>
+  </si>
+  <si>
+    <t>307, 316, 313, 309, 821, 871, 301, 308, 320, 317</t>
+  </si>
+  <si>
+    <t>[(307, 'good'), (316, 'good'), (313, 'good'), (309, 'good'), (821, 'requires improvement'), (871, 'requires improvement'), (301, 'requires improvement'), (308, 'good'), (320, 'good'), (317, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>brent</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50213625</t>
+  </si>
+  <si>
+    <t>24/02/2023</t>
+  </si>
+  <si>
+    <t>11/04/23</t>
+  </si>
+  <si>
+    <t>80490</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>E09000006</t>
+  </si>
+  <si>
+    <t>919, 358, 825, 869, 867, 931, 850, 868, 334, 936</t>
+  </si>
+  <si>
+    <t>[(919, 'outstanding'), (358, 'requires improvement'), (825, 'requires improvement'), (869, 'good'), (867, 'outstanding'), (931, 'good'), (850, 'outstanding'), (868, 'good'), (334, 'inadequate'), (936, 'good')]</t>
+  </si>
+  <si>
+    <t>bromley</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50237004</t>
+  </si>
+  <si>
+    <t>claire beckingham</t>
+  </si>
+  <si>
+    <t>13/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>80491</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>E09000007</t>
+  </si>
+  <si>
+    <t>206, 213, 205, 210, 208, 207, 209, 309, 204, 302</t>
+  </si>
+  <si>
+    <t>[(206, 'outstanding'), (213, 'outstanding'), (205, 'outstanding'), (210, 'good'), (208, 'requires improvement'), (207, 'outstanding'), (209, 'good'), (309, 'good'), (204, 'good'), (302, 'good')]</t>
+  </si>
+  <si>
+    <t>camden</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50274369</t>
+  </si>
+  <si>
+    <t>80492</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>E09000008</t>
+  </si>
+  <si>
+    <t>209, 320, 383, 870, 826, 882, 302, 852, 355, 203</t>
+  </si>
+  <si>
+    <t>[(209, 'good'), (320, 'good'), (383, 'outstanding'), (870, 'requires improvement'), (826, 'good'), (882, 'good'), (302, 'good'), (852, 'good'), (355, 'good'), (203, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>croydon</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50263391</t>
+  </si>
+  <si>
+    <t>14/10/2024</t>
+  </si>
+  <si>
+    <t>25/10/2024</t>
+  </si>
+  <si>
+    <t>03/12/24</t>
+  </si>
+  <si>
+    <t>80493</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>E09000009</t>
+  </si>
+  <si>
+    <t>313, 317, 312, 320, 304, 309, 310, 871, 821, 302</t>
+  </si>
+  <si>
+    <t>[(313, 'good'), (317, 'outstanding'), (312, 'outstanding'), (320, 'good'), (304, 'good'), (309, 'good'), (310, 'inadequate'), (871, 'requires improvement'), (821, 'requires improvement'), (302, 'good')]</t>
+  </si>
+  <si>
+    <t>ealing</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50252258</t>
+  </si>
+  <si>
+    <t>80494</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>E09000010</t>
+  </si>
+  <si>
+    <t>301, 309, 821, 330, 352, 307, 320, 203, 306, 355</t>
+  </si>
+  <si>
+    <t>[(301, 'requires improvement'), (309, 'good'), (821, 'requires improvement'), (330, 'good'), (352, 'good'), (307, 'good'), (320, 'good'), (203, 'outstanding'), (306, 'good'), (355, 'good')]</t>
+  </si>
+  <si>
+    <t>enfield</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50256007</t>
+  </si>
+  <si>
+    <t>22/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>04/09/24</t>
+  </si>
+  <si>
+    <t>80495</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>E09000011</t>
+  </si>
+  <si>
+    <t>209, 208, 306, 210, 355, 320, 851, 852, 391, 870</t>
+  </si>
+  <si>
+    <t>[(209, 'good'), (208, 'requires improvement'), (306, 'good'), (210, 'good'), (355, 'good'), (320, 'good'), (851, 'good'), (852, 'good'), (391, 'good'), (870, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>greenwich</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50252576</t>
+  </si>
+  <si>
+    <t>03/06/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>16/07/24</t>
+  </si>
+  <si>
+    <t>80496</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>E09000012</t>
+  </si>
+  <si>
+    <t>210, 206, 309, 208, 211, 209, 202, 352, 320, 213</t>
+  </si>
+  <si>
+    <t>[(210, 'good'), (206, 'outstanding'), (309, 'good'), (208, 'requires improvement'), (211, 'outstanding'), (209, 'good'), (202, 'outstanding'), (352, 'good'), (320, 'good'), (213, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>hackney</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50255165</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>20/08/24</t>
+  </si>
+  <si>
+    <t>80497</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>E09000013</t>
+  </si>
+  <si>
+    <t>208, 207, 209, 210, 212, 202, 302, 309, 306, 206</t>
+  </si>
+  <si>
+    <t>[(208, 'requires improvement'), (207, 'outstanding'), (209, 'good'), (210, 'good'), (212, 'good'), (202, 'outstanding'), (302, 'good'), (309, 'good'), (306, 'good'), (206, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>hammersmith and fulham</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50247205</t>
+  </si>
+  <si>
+    <t>11/03/2024</t>
+  </si>
+  <si>
+    <t>80498</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>E09000014</t>
+  </si>
+  <si>
+    <t>320, 307, 209, 208, 302, 308, 210, 304, 313, 317</t>
+  </si>
+  <si>
+    <t>[(320, 'good'), (307, 'good'), (209, 'good'), (208, 'requires improvement'), (302, 'good'), (308, 'good'), (210, 'good'), (304, 'good'), (313, 'good'), (317, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>haringey</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50213624</t>
+  </si>
+  <si>
+    <t>13/02/2023</t>
+  </si>
+  <si>
+    <t>80499</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>E09000015</t>
+  </si>
+  <si>
+    <t>317, 312, 302, 307, 320, 870, 313, 315, 871, 826</t>
+  </si>
+  <si>
+    <t>[(317, 'outstanding'), (312, 'outstanding'), (302, 'good'), (307, 'good'), (320, 'good'), (870, 'requires improvement'), (313, 'good'), (315, 'outstanding'), (871, 'requires improvement'), (826, 'good')]</t>
+  </si>
+  <si>
+    <t>harrow</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50270419</t>
+  </si>
+  <si>
+    <t>24/01/2025</t>
+  </si>
+  <si>
+    <t>04/03/25</t>
+  </si>
+  <si>
+    <t>80500</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>E09000016</t>
+  </si>
+  <si>
+    <t>303, 822, 883, 881, 886, 866, 941, 826, 887, 938</t>
+  </si>
+  <si>
+    <t>[(303, 'outstanding'), (822, 'good'), (883, 'outstanding'), (881, 'outstanding'), (886, 'outstanding'), (866, 'inadequate'), (941, 'requires improvement'), (826, 'good'), (887, 'good'), (938, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>havering</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50239788</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>16/02/24</t>
+  </si>
+  <si>
+    <t>80501</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>E09000017</t>
+  </si>
+  <si>
+    <t>313, 317, 320, 874, 307, 852, 310, 870, 871, 331</t>
+  </si>
+  <si>
+    <t>[(313, 'good'), (317, 'outstanding'), (320, 'good'), (874, 'inadequate'), (307, 'good'), (852, 'good'), (310, 'inadequate'), (870, 'requires improvement'), (871, 'requires improvement'), (331, 'good')]</t>
+  </si>
+  <si>
+    <t>hillingdon</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50233295</t>
+  </si>
+  <si>
+    <t>02/10/2023</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>20/11/23</t>
+  </si>
+  <si>
+    <t>80503</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>E09000018</t>
+  </si>
+  <si>
+    <t>307, 312, 871, 317, 320, 821, 304, 310, 852, 301</t>
+  </si>
+  <si>
+    <t>[(307, 'good'), (312, 'outstanding'), (871, 'requires improvement'), (317, 'outstanding'), (320, 'good'), (821, 'requires improvement'), (304, 'good'), (310, 'inadequate'), (852, 'good'), (301, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>hounslow</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50234334</t>
+  </si>
+  <si>
+    <t>16/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>01/12/23</t>
+  </si>
+  <si>
+    <t>80505</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>E09000019</t>
+  </si>
+  <si>
+    <t>202, 210, 208, 213, 204, 205, 209, 309, 203, 352</t>
+  </si>
+  <si>
+    <t>[(202, 'outstanding'), (210, 'good'), (208, 'requires improvement'), (213, 'outstanding'), (204, 'good'), (205, 'outstanding'), (209, 'good'), (309, 'good'), (203, 'outstanding'), (352, 'good')]</t>
+  </si>
+  <si>
+    <t>islington</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50267801</t>
+  </si>
+  <si>
+    <t>80506</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>E09000022</t>
+  </si>
+  <si>
+    <t>210, 209, 205, 203, 309, 206, 306, 320, 202, 212</t>
+  </si>
+  <si>
+    <t>[(210, 'good'), (209, 'good'), (205, 'outstanding'), (203, 'outstanding'), (309, 'good'), (206, 'outstanding'), (306, 'good'), (320, 'good'), (202, 'outstanding'), (212, 'good')]</t>
+  </si>
+  <si>
+    <t>lambeth</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50202402</t>
+  </si>
+  <si>
+    <t>russel breyer</t>
+  </si>
+  <si>
+    <t>24/10/2022</t>
+  </si>
+  <si>
+    <t>04/11/2022</t>
+  </si>
+  <si>
+    <t>16/12/22</t>
+  </si>
+  <si>
+    <t>80508</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>E09000023</t>
+  </si>
+  <si>
+    <t>208, 210, 306, 205, 203, 320, 309, 302, 383, 355</t>
+  </si>
+  <si>
+    <t>[(208, 'requires improvement'), (210, 'good'), (306, 'good'), (205, 'outstanding'), (203, 'outstanding'), (320, 'good'), (309, 'good'), (302, 'good'), (383, 'outstanding'), (355, 'good')]</t>
+  </si>
+  <si>
+    <t>lewisham</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50238709</t>
+  </si>
+  <si>
+    <t>nicki shaw</t>
+  </si>
+  <si>
+    <t>04/12/2023</t>
+  </si>
+  <si>
+    <t>31/01/24</t>
+  </si>
+  <si>
+    <t>80510</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>E09000024</t>
+  </si>
+  <si>
+    <t>319, 314, 870, 302, 826, 822, 306, 919, 310, 873</t>
+  </si>
+  <si>
+    <t>[(319, 'good'), (314, 'outstanding'), (870, 'requires improvement'), (302, 'good'), (826, 'good'), (822, 'good'), (306, 'good'), (919, 'outstanding'), (310, 'inadequate'), (873, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>merton</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50182669</t>
+  </si>
+  <si>
+    <t>brenda mclaughlin</t>
+  </si>
+  <si>
+    <t>28/02/2022</t>
   </si>
   <si>
     <t>04/03/2022</t>
@@ -1645,678 +2323,6 @@
     <t>09/05/22</t>
   </si>
   <si>
-    <t>80482</t>
-  </si>
-  <si>
-    <t>856</t>
-  </si>
-  <si>
-    <t>E06000016</t>
-  </si>
-  <si>
-    <t>821, 871, 304, 316, 333, 380, 307, 313, 330, 889</t>
-  </si>
-  <si>
-    <t>[(821, 'requires improvement'), (871, 'requires improvement'), (304, 'good'), (316, 'good'), (333, 'requires improvement'), (380, 'inadequate'), (307, 'good'), (313, 'good'), (330, 'good'), (889, 'good')]</t>
-  </si>
-  <si>
-    <t>leicester</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50267800</t>
-  </si>
-  <si>
-    <t>80483</t>
-  </si>
-  <si>
-    <t>855</t>
-  </si>
-  <si>
-    <t>E10000018</t>
-  </si>
-  <si>
-    <t>916, 803, 937, 802, 850, 865, 933, 938, 811, 891</t>
-  </si>
-  <si>
-    <t>[(916, 'good'), (803, 'good'), (937, 'good'), (802, 'requires improvement'), (850, 'outstanding'), (865, 'outstanding'), (933, 'good'), (938, 'requires improvement'), (811, 'good'), (891, 'good')]</t>
-  </si>
-  <si>
-    <t>leicestershire</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50252253</t>
-  </si>
-  <si>
-    <t>22/04/2024</t>
-  </si>
-  <si>
-    <t>03/05/2024</t>
-  </si>
-  <si>
-    <t>80484</t>
-  </si>
-  <si>
-    <t>925</t>
-  </si>
-  <si>
-    <t>E10000019</t>
-  </si>
-  <si>
-    <t>888, 384, 884, 813, 926, 935, 332, 940, 830, 933</t>
-  </si>
-  <si>
-    <t>[(888, 'good'), (384, 'good'), (884, 'inadequate'), (813, 'outstanding'), (926, 'good'), (935, 'requires improvement'), (332, 'requires improvement'), (940, 'requires improvement'), (830, 'good'), (933, 'good')]</t>
-  </si>
-  <si>
-    <t>lincolnshire</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50219720</t>
-  </si>
-  <si>
-    <t>24/04/2023</t>
-  </si>
-  <si>
-    <t>28/04/2023</t>
-  </si>
-  <si>
-    <t>14/06/23</t>
-  </si>
-  <si>
-    <t>80485</t>
-  </si>
-  <si>
-    <t>341</t>
-  </si>
-  <si>
-    <t>E08000012</t>
-  </si>
-  <si>
-    <t>890, 805, 806, 355, 393, 340, 394, 391, 807, 354</t>
-  </si>
-  <si>
-    <t>[(890, 'requires improvement'), (805, 'outstanding'), (806, 'requires improvement'), (355, 'good'), (393, 'inadequate'), (340, 'inadequate'), (394, 'outstanding'), (391, 'good'), (807, 'requires improvement'), (354, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>liverpool</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50218078</t>
-  </si>
-  <si>
-    <t>13/03/2023</t>
-  </si>
-  <si>
-    <t>24/03/2023</t>
-  </si>
-  <si>
-    <t>25/05/23</t>
-  </si>
-  <si>
-    <t>80486</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>E09000002</t>
-  </si>
-  <si>
-    <t>308, 821, 313, 333, 336, 307, 304, 312, 874, 203</t>
-  </si>
-  <si>
-    <t>[(308, 'good'), (821, 'requires improvement'), (313, 'good'), (333, 'requires improvement'), (336, 'good'), (307, 'good'), (304, 'good'), (312, 'outstanding'), (874, 'inadequate'), (203, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>barking and dagenham</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50227183</t>
-  </si>
-  <si>
-    <t>10/07/2023</t>
-  </si>
-  <si>
-    <t>21/07/2023</t>
-  </si>
-  <si>
-    <t>04/09/23</t>
-  </si>
-  <si>
-    <t>80487</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>E09000003</t>
-  </si>
-  <si>
-    <t>320, 870, 310, 317, 315, 306, 209, 312, 309, 307</t>
-  </si>
-  <si>
-    <t>[(320, 'good'), (870, 'requires improvement'), (310, 'inadequate'), (317, 'outstanding'), (315, 'outstanding'), (306, 'good'), (209, 'good'), (312, 'outstanding'), (309, 'good'), (307, 'good')]</t>
-  </si>
-  <si>
-    <t>barnet</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50253182</t>
-  </si>
-  <si>
-    <t>80488</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>E09000004</t>
-  </si>
-  <si>
-    <t>311, 822, 886, 881, 883, 887, 826, 866, 839, 351</t>
-  </si>
-  <si>
-    <t>[(311, 'inadequate'), (822, 'good'), (886, 'outstanding'), (881, 'outstanding'), (883, 'outstanding'), (887, 'good'), (826, 'good'), (866, 'inadequate'), (839, 'good'), (351, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>bexley</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50212243</t>
-  </si>
-  <si>
-    <t>06/02/2023</t>
-  </si>
-  <si>
-    <t>80489</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>E09000005</t>
-  </si>
-  <si>
-    <t>307, 316, 313, 309, 821, 871, 301, 308, 320, 317</t>
-  </si>
-  <si>
-    <t>[(307, 'good'), (316, 'good'), (313, 'good'), (309, 'good'), (821, 'requires improvement'), (871, 'requires improvement'), (301, 'requires improvement'), (308, 'good'), (320, 'good'), (317, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>brent</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50213625</t>
-  </si>
-  <si>
-    <t>24/02/2023</t>
-  </si>
-  <si>
-    <t>11/04/23</t>
-  </si>
-  <si>
-    <t>80490</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>E09000006</t>
-  </si>
-  <si>
-    <t>919, 358, 825, 869, 867, 931, 850, 868, 334, 936</t>
-  </si>
-  <si>
-    <t>[(919, 'outstanding'), (358, 'requires improvement'), (825, 'requires improvement'), (869, 'good'), (867, 'outstanding'), (931, 'good'), (850, 'outstanding'), (868, 'good'), (334, 'inadequate'), (936, 'good')]</t>
-  </si>
-  <si>
-    <t>bromley</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50237004</t>
-  </si>
-  <si>
-    <t>claire beckingham</t>
-  </si>
-  <si>
-    <t>13/11/2023</t>
-  </si>
-  <si>
-    <t>17/11/2023</t>
-  </si>
-  <si>
-    <t>80491</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>E09000007</t>
-  </si>
-  <si>
-    <t>206, 213, 205, 210, 208, 207, 209, 309, 204, 302</t>
-  </si>
-  <si>
-    <t>[(206, 'outstanding'), (213, 'outstanding'), (205, 'outstanding'), (210, 'good'), (208, 'requires improvement'), (207, 'outstanding'), (209, 'good'), (309, 'good'), (204, 'good'), (302, 'good')]</t>
-  </si>
-  <si>
-    <t>camden</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50274369</t>
-  </si>
-  <si>
-    <t>80492</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>E09000008</t>
-  </si>
-  <si>
-    <t>209, 320, 383, 870, 826, 882, 302, 852, 355, 203</t>
-  </si>
-  <si>
-    <t>[(209, 'good'), (320, 'good'), (383, 'outstanding'), (870, 'requires improvement'), (826, 'good'), (882, 'good'), (302, 'good'), (852, 'good'), (355, 'good'), (203, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>croydon</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50263391</t>
-  </si>
-  <si>
-    <t>14/10/2024</t>
-  </si>
-  <si>
-    <t>25/10/2024</t>
-  </si>
-  <si>
-    <t>03/12/24</t>
-  </si>
-  <si>
-    <t>80493</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>E09000009</t>
-  </si>
-  <si>
-    <t>313, 317, 312, 320, 304, 309, 310, 871, 821, 302</t>
-  </si>
-  <si>
-    <t>[(313, 'good'), (317, 'outstanding'), (312, 'outstanding'), (320, 'good'), (304, 'good'), (309, 'good'), (310, 'inadequate'), (871, 'requires improvement'), (821, 'requires improvement'), (302, 'good')]</t>
-  </si>
-  <si>
-    <t>ealing</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50252258</t>
-  </si>
-  <si>
-    <t>80494</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>E09000010</t>
-  </si>
-  <si>
-    <t>301, 309, 821, 330, 352, 307, 320, 203, 306, 355</t>
-  </si>
-  <si>
-    <t>[(301, 'requires improvement'), (309, 'good'), (821, 'requires improvement'), (330, 'good'), (352, 'good'), (307, 'good'), (320, 'good'), (203, 'outstanding'), (306, 'good'), (355, 'good')]</t>
-  </si>
-  <si>
-    <t>enfield</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50256007</t>
-  </si>
-  <si>
-    <t>22/07/2024</t>
-  </si>
-  <si>
-    <t>26/07/2024</t>
-  </si>
-  <si>
-    <t>04/09/24</t>
-  </si>
-  <si>
-    <t>80495</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>E09000011</t>
-  </si>
-  <si>
-    <t>209, 208, 306, 210, 355, 320, 851, 852, 391, 870</t>
-  </si>
-  <si>
-    <t>[(209, 'good'), (208, 'requires improvement'), (306, 'good'), (210, 'good'), (355, 'good'), (320, 'good'), (851, 'good'), (852, 'good'), (391, 'good'), (870, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>greenwich</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50252576</t>
-  </si>
-  <si>
-    <t>03/06/2024</t>
-  </si>
-  <si>
-    <t>07/06/2024</t>
-  </si>
-  <si>
-    <t>16/07/24</t>
-  </si>
-  <si>
-    <t>80496</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>E09000012</t>
-  </si>
-  <si>
-    <t>210, 206, 309, 208, 211, 209, 202, 352, 320, 213</t>
-  </si>
-  <si>
-    <t>[(210, 'good'), (206, 'outstanding'), (309, 'good'), (208, 'requires improvement'), (211, 'outstanding'), (209, 'good'), (202, 'outstanding'), (352, 'good'), (320, 'good'), (213, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>hackney</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50255165</t>
-  </si>
-  <si>
-    <t>12/07/2024</t>
-  </si>
-  <si>
-    <t>20/08/24</t>
-  </si>
-  <si>
-    <t>80497</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>E09000013</t>
-  </si>
-  <si>
-    <t>208, 207, 209, 210, 212, 202, 302, 309, 306, 206</t>
-  </si>
-  <si>
-    <t>[(208, 'requires improvement'), (207, 'outstanding'), (209, 'good'), (210, 'good'), (212, 'good'), (202, 'outstanding'), (302, 'good'), (309, 'good'), (306, 'good'), (206, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>hammersmith and fulham</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50247205</t>
-  </si>
-  <si>
-    <t>11/03/2024</t>
-  </si>
-  <si>
-    <t>80498</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>E09000014</t>
-  </si>
-  <si>
-    <t>320, 307, 209, 208, 302, 308, 210, 304, 313, 317</t>
-  </si>
-  <si>
-    <t>[(320, 'good'), (307, 'good'), (209, 'good'), (208, 'requires improvement'), (302, 'good'), (308, 'good'), (210, 'good'), (304, 'good'), (313, 'good'), (317, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>haringey</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50213624</t>
-  </si>
-  <si>
-    <t>13/02/2023</t>
-  </si>
-  <si>
-    <t>80499</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>E09000015</t>
-  </si>
-  <si>
-    <t>317, 312, 302, 307, 320, 870, 313, 315, 871, 826</t>
-  </si>
-  <si>
-    <t>[(317, 'outstanding'), (312, 'outstanding'), (302, 'good'), (307, 'good'), (320, 'good'), (870, 'requires improvement'), (313, 'good'), (315, 'outstanding'), (871, 'requires improvement'), (826, 'good')]</t>
-  </si>
-  <si>
-    <t>harrow</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50270419</t>
-  </si>
-  <si>
-    <t>24/01/2025</t>
-  </si>
-  <si>
-    <t>04/03/25</t>
-  </si>
-  <si>
-    <t>80500</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>E09000016</t>
-  </si>
-  <si>
-    <t>303, 822, 883, 881, 886, 866, 941, 826, 887, 938</t>
-  </si>
-  <si>
-    <t>[(303, 'outstanding'), (822, 'good'), (883, 'outstanding'), (881, 'outstanding'), (886, 'outstanding'), (866, 'inadequate'), (941, 'requires improvement'), (826, 'good'), (887, 'good'), (938, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>havering</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50239788</t>
-  </si>
-  <si>
-    <t>22/12/2023</t>
-  </si>
-  <si>
-    <t>16/02/24</t>
-  </si>
-  <si>
-    <t>80501</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>E09000017</t>
-  </si>
-  <si>
-    <t>313, 317, 320, 874, 307, 852, 310, 870, 871, 331</t>
-  </si>
-  <si>
-    <t>[(313, 'good'), (317, 'outstanding'), (320, 'good'), (874, 'inadequate'), (307, 'good'), (852, 'good'), (310, 'inadequate'), (870, 'requires improvement'), (871, 'requires improvement'), (331, 'good')]</t>
-  </si>
-  <si>
-    <t>hillingdon</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50233295</t>
-  </si>
-  <si>
-    <t>02/10/2023</t>
-  </si>
-  <si>
-    <t>06/10/2023</t>
-  </si>
-  <si>
-    <t>20/11/23</t>
-  </si>
-  <si>
-    <t>80503</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>E09000018</t>
-  </si>
-  <si>
-    <t>307, 312, 871, 317, 320, 821, 304, 310, 852, 301</t>
-  </si>
-  <si>
-    <t>[(307, 'good'), (312, 'outstanding'), (871, 'requires improvement'), (317, 'outstanding'), (320, 'good'), (821, 'requires improvement'), (304, 'good'), (310, 'inadequate'), (852, 'good'), (301, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>hounslow</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50234334</t>
-  </si>
-  <si>
-    <t>16/10/2023</t>
-  </si>
-  <si>
-    <t>20/10/2023</t>
-  </si>
-  <si>
-    <t>01/12/23</t>
-  </si>
-  <si>
-    <t>80505</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>E09000019</t>
-  </si>
-  <si>
-    <t>202, 210, 208, 213, 204, 205, 209, 309, 203, 352</t>
-  </si>
-  <si>
-    <t>[(202, 'outstanding'), (210, 'good'), (208, 'requires improvement'), (213, 'outstanding'), (204, 'good'), (205, 'outstanding'), (209, 'good'), (309, 'good'), (203, 'outstanding'), (352, 'good')]</t>
-  </si>
-  <si>
-    <t>islington</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50267801</t>
-  </si>
-  <si>
-    <t>80506</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>E09000022</t>
-  </si>
-  <si>
-    <t>210, 209, 205, 203, 309, 206, 306, 320, 202, 212</t>
-  </si>
-  <si>
-    <t>[(210, 'good'), (209, 'good'), (205, 'outstanding'), (203, 'outstanding'), (309, 'good'), (206, 'outstanding'), (306, 'good'), (320, 'good'), (202, 'outstanding'), (212, 'good')]</t>
-  </si>
-  <si>
-    <t>lambeth</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50202402</t>
-  </si>
-  <si>
-    <t>russel breyer</t>
-  </si>
-  <si>
-    <t>24/10/2022</t>
-  </si>
-  <si>
-    <t>04/11/2022</t>
-  </si>
-  <si>
-    <t>16/12/22</t>
-  </si>
-  <si>
-    <t>80508</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>E09000023</t>
-  </si>
-  <si>
-    <t>208, 210, 306, 205, 203, 320, 309, 302, 383, 355</t>
-  </si>
-  <si>
-    <t>[(208, 'requires improvement'), (210, 'good'), (306, 'good'), (205, 'outstanding'), (203, 'outstanding'), (320, 'good'), (309, 'good'), (302, 'good'), (383, 'outstanding'), (355, 'good')]</t>
-  </si>
-  <si>
-    <t>lewisham</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50238709</t>
-  </si>
-  <si>
-    <t>nicki shaw</t>
-  </si>
-  <si>
-    <t>04/12/2023</t>
-  </si>
-  <si>
-    <t>31/01/24</t>
-  </si>
-  <si>
-    <t>80510</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>E09000024</t>
-  </si>
-  <si>
-    <t>319, 314, 870, 302, 826, 822, 306, 919, 310, 873</t>
-  </si>
-  <si>
-    <t>[(319, 'good'), (314, 'outstanding'), (870, 'requires improvement'), (302, 'good'), (826, 'good'), (822, 'good'), (306, 'good'), (919, 'outstanding'), (310, 'inadequate'), (873, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>merton</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50182669</t>
-  </si>
-  <si>
-    <t>brenda mclaughlin</t>
-  </si>
-  <si>
-    <t>28/02/2022</t>
-  </si>
-  <si>
     <t>80511</t>
   </si>
   <si>
@@ -2377,19 +2383,7 @@
     <t>richmond upon thames</t>
   </si>
   <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50179543</t>
-  </si>
-  <si>
-    <t>louise hocking</t>
-  </si>
-  <si>
-    <t>31/01/2022</t>
-  </si>
-  <si>
-    <t>04/02/2022</t>
-  </si>
-  <si>
-    <t>18/03/22</t>
+    <t>https://files.ofsted.gov.uk/v1/file/50284336</t>
   </si>
   <si>
     <t>80514</t>
@@ -2887,7 +2881,7 @@
     <t>893, 895, 811, 860, 916, 877, 937, 884, 865, 933</t>
   </si>
   <si>
-    <t>[(893, 'good'), (895, 'inadequate'), (811, 'good'), (860, 'requires improvement'), (916, 'good'), (877, 'good'), (937, 'good'), (884, 'inadequate'), (865, 'outstanding'), (933, 'good')]</t>
+    <t>[(893, 'outstanding'), (895, 'inadequate'), (811, 'good'), (860, 'requires improvement'), (916, 'good'), (877, 'good'), (937, 'good'), (884, 'inadequate'), (865, 'outstanding'), (933, 'good')]</t>
   </si>
   <si>
     <t>north yorkshire</t>
@@ -3244,7 +3238,7 @@
     <t>319, 315, 919, 305, 800, 868, 358, 318, 936, 825</t>
   </si>
   <si>
-    <t>[(319, 'good'), (315, 'outstanding'), (919, 'outstanding'), (305, 'outstanding'), (800, 'good'), (868, 'good'), (358, 'requires improvement'), (318, 'good'), (936, 'good'), (825, 'requires improvement')]</t>
+    <t>[(319, 'good'), (315, 'outstanding'), (919, 'outstanding'), (305, 'outstanding'), (800, 'good'), (868, 'good'), (358, 'requires improvement'), (318, 'outstanding'), (936, 'good'), (825, 'requires improvement')]</t>
   </si>
   <si>
     <t>kingston upon thames</t>
@@ -3289,7 +3283,7 @@
     <t>865, 815, 893, 895, 850, 823, 916, 855, 869, 811</t>
   </si>
   <si>
-    <t>[(865, 'outstanding'), (815, 'outstanding'), (893, 'good'), (895, 'inadequate'), (850, 'outstanding'), (823, 'good'), (916, 'good'), (855, 'outstanding'), (869, 'good'), (811, 'good')]</t>
+    <t>[(865, 'outstanding'), (815, 'outstanding'), (893, 'outstanding'), (895, 'inadequate'), (850, 'outstanding'), (823, 'good'), (916, 'good'), (855, 'outstanding'), (869, 'good'), (811, 'good')]</t>
   </si>
   <si>
     <t>rutland</t>
@@ -3370,7 +3364,10 @@
     <t>sefton</t>
   </si>
   <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50182670</t>
+    <t>https://files.ofsted.gov.uk/v1/file/50284335</t>
+  </si>
+  <si>
+    <t>23/06/2025</t>
   </si>
   <si>
     <t>80551</t>
@@ -3418,16 +3415,10 @@
     <t>shropshire</t>
   </si>
   <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50180006</t>
-  </si>
-  <si>
-    <t>07/02/2022</t>
-  </si>
-  <si>
-    <t>11/02/2022</t>
-  </si>
-  <si>
-    <t>25/03/22</t>
+    <t>https://files.ofsted.gov.uk/v1/file/50284334</t>
+  </si>
+  <si>
+    <t>jenny -ellen scotland</t>
   </si>
   <si>
     <t>80553</t>
@@ -3487,7 +3478,7 @@
     <t>935, 830, 838, 893, 885, 891, 878, 860, 855, 881</t>
   </si>
   <si>
-    <t>[(935, 'requires improvement'), (830, 'good'), (838, 'outstanding'), (893, 'good'), (885, 'good'), (891, 'good'), (878, 'inadequate'), (860, 'requires improvement'), (855, 'outstanding'), (881, 'outstanding')]</t>
+    <t>[(935, 'requires improvement'), (830, 'good'), (838, 'outstanding'), (893, 'outstanding'), (885, 'good'), (891, 'good'), (878, 'inadequate'), (860, 'requires improvement'), (855, 'outstanding'), (881, 'outstanding')]</t>
   </si>
   <si>
     <t>somerset</t>
@@ -3604,7 +3595,7 @@
     <t>876, 343, 340, 840, 807, 370, 394, 344, 808, 894</t>
   </si>
   <si>
-    <t>[(876, 'inadequate'), (343, 'inadequate'), (340, 'inadequate'), (840, 'outstanding'), (807, 'requires improvement'), (370, 'good'), (394, 'outstanding'), (344, 'requires improvement'), (808, 'requires improvement'), (894, 'outstanding')]</t>
+    <t>[(876, 'inadequate'), (343, 'good'), (340, 'inadequate'), (840, 'outstanding'), (807, 'requires improvement'), (370, 'good'), (394, 'outstanding'), (344, 'requires improvement'), (808, 'requires improvement'), (894, 'outstanding')]</t>
   </si>
   <si>
     <t>st helens</t>
@@ -3625,7 +3616,7 @@
     <t>811, 884, 893, 815, 933, 830, 877, 891, 943, 888</t>
   </si>
   <si>
-    <t>[(811, 'good'), (884, 'inadequate'), (893, 'good'), (815, 'outstanding'), (933, 'good'), (830, 'good'), (877, 'good'), (891, 'good'), (943, 'good'), (888, 'good')]</t>
+    <t>[(811, 'good'), (884, 'inadequate'), (893, 'outstanding'), (815, 'outstanding'), (933, 'good'), (830, 'good'), (877, 'good'), (891, 'good'), (943, 'good'), (888, 'good')]</t>
   </si>
   <si>
     <t>staffordshire</t>
@@ -3961,7 +3952,7 @@
     <t>895, 937, 860, 811, 815, 916, 334, 893, 885, 865</t>
   </si>
   <si>
-    <t>[(895, 'inadequate'), (937, 'good'), (860, 'requires improvement'), (811, 'good'), (815, 'outstanding'), (916, 'good'), (334, 'inadequate'), (893, 'good'), (885, 'good'), (865, 'outstanding')]</t>
+    <t>[(895, 'inadequate'), (937, 'good'), (860, 'requires improvement'), (811, 'good'), (815, 'outstanding'), (916, 'good'), (334, 'inadequate'), (893, 'outstanding'), (885, 'good'), (865, 'outstanding')]</t>
   </si>
   <si>
     <t>warrington</t>
@@ -4087,7 +4078,7 @@
     <t>884, 942, 860, 893, 811, 815, 925, 933, 935, 830</t>
   </si>
   <si>
-    <t>[(884, 'inadequate'), (942, 'good'), (860, 'requires improvement'), (893, 'good'), (811, 'good'), (815, 'outstanding'), (925, 'outstanding'), (933, 'good'), (935, 'requires improvement'), (830, 'good')]</t>
+    <t>[(884, 'inadequate'), (942, 'good'), (860, 'requires improvement'), (893, 'outstanding'), (811, 'good'), (815, 'outstanding'), (925, 'outstanding'), (933, 'good'), (935, 'requires improvement'), (830, 'good')]</t>
   </si>
   <si>
     <t>westmorland and furness</t>
@@ -4108,7 +4099,7 @@
     <t>888, 925, 343, 877, 860, 332, 929, 884, 808, 893</t>
   </si>
   <si>
-    <t>[(888, 'good'), (925, 'outstanding'), (343, 'inadequate'), (877, 'good'), (860, 'requires improvement'), (332, 'requires improvement'), (929, 'outstanding'), (884, 'inadequate'), (808, 'requires improvement'), (893, 'good')]</t>
+    <t>[(888, 'good'), (925, 'outstanding'), (343, 'good'), (877, 'good'), (860, 'requires improvement'), (332, 'requires improvement'), (929, 'outstanding'), (884, 'inadequate'), (808, 'requires improvement'), (893, 'outstanding')]</t>
   </si>
   <si>
     <t>wigan</t>
@@ -4162,7 +4153,7 @@
     <t>840, 343, 876, 808, 394, 390, 807, 888, 351, 393</t>
   </si>
   <si>
-    <t>[(840, 'outstanding'), (343, 'inadequate'), (876, 'inadequate'), (808, 'requires improvement'), (394, 'outstanding'), (390, 'good'), (807, 'requires improvement'), (888, 'good'), (351, 'requires improvement'), (393, 'inadequate')]</t>
+    <t>[(840, 'outstanding'), (343, 'good'), (876, 'inadequate'), (808, 'requires improvement'), (394, 'outstanding'), (390, 'good'), (807, 'requires improvement'), (888, 'good'), (351, 'requires improvement'), (393, 'inadequate')]</t>
   </si>
   <si>
     <t>wirral</t>
@@ -4189,7 +4180,7 @@
     <t>868, 936, 825, 869, 305, 358, 318, 919, 867, 823</t>
   </si>
   <si>
-    <t>[(868, 'good'), (936, 'good'), (825, 'requires improvement'), (869, 'good'), (305, 'outstanding'), (358, 'requires improvement'), (318, 'good'), (919, 'outstanding'), (867, 'outstanding'), (823, 'good')]</t>
+    <t>[(868, 'good'), (936, 'good'), (825, 'requires improvement'), (869, 'good'), (305, 'outstanding'), (358, 'requires improvement'), (318, 'outstanding'), (919, 'outstanding'), (867, 'outstanding'), (823, 'good')]</t>
   </si>
   <si>
     <t>wokingham</t>
@@ -4234,7 +4225,7 @@
     <t>933, 916, 838, 937, 893, 938, 878, 830, 881, 815</t>
   </si>
   <si>
-    <t>[(933, 'good'), (916, 'good'), (838, 'outstanding'), (937, 'good'), (893, 'good'), (938, 'requires improvement'), (878, 'inadequate'), (830, 'good'), (881, 'outstanding'), (815, 'outstanding')]</t>
+    <t>[(933, 'good'), (916, 'good'), (838, 'outstanding'), (937, 'good'), (893, 'outstanding'), (938, 'requires improvement'), (878, 'inadequate'), (830, 'good'), (881, 'outstanding'), (815, 'outstanding')]</t>
   </si>
   <si>
     <t>worcestershire</t>
@@ -4677,64 +4668,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>1427</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>1429</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -5484,33 +5475,33 @@
         <v>14</v>
       </c>
       <c r="T13" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
         <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>
@@ -5519,16 +5510,16 @@
         <v>37</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
         <v>25</v>
       </c>
       <c r="M14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O14" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80443_bury", ".\export_data\inspection_reports\80443_bury")</f>
@@ -5547,33 +5538,33 @@
         <v>14</v>
       </c>
       <c r="T14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I15" t="s">
         <v>8</v>
@@ -5582,16 +5573,16 @@
         <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O15" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80444_calderdale", ".\export_data\inspection_reports\80444_calderdale")</f>
@@ -5615,28 +5606,28 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I16" t="s">
         <v>14</v>
@@ -5648,10 +5639,10 @@
         <v>87</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N16" t="s">
         <v>120</v>
@@ -5678,28 +5669,28 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I17" t="s">
         <v>8</v>
@@ -5708,16 +5699,16 @@
         <v>9</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s">
         <v>66</v>
       </c>
       <c r="N17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O17" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80446_central bedfordshire", ".\export_data\inspection_reports\80446_central bedfordshire")</f>
@@ -5736,48 +5727,48 @@
         <v>8</v>
       </c>
       <c r="T17" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C18" t="s">
         <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J18" t="s">
         <v>37</v>
       </c>
       <c r="K18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" t="s">
         <v>120</v>
@@ -5796,7 +5787,7 @@
         <v>14</v>
       </c>
       <c r="S18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T18" t="s">
         <v>68</v>
@@ -5804,28 +5795,28 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
         <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I19" t="s">
         <v>14</v>
@@ -5834,16 +5825,16 @@
         <v>9</v>
       </c>
       <c r="K19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O19" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80448_cheshire west and chester", ".\export_data\inspection_reports\80448_cheshire west and chester")</f>
@@ -5862,64 +5853,64 @@
         <v>14</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J20" t="s">
         <v>37</v>
       </c>
       <c r="K20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O20" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80449_bradford", ".\export_data\inspection_reports\80449_bradford")</f>
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S20" t="s">
         <v>42</v>
@@ -5930,28 +5921,28 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F21" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I21" t="s">
         <v>107</v>
@@ -5960,16 +5951,16 @@
         <v>9</v>
       </c>
       <c r="K21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O21" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80450_london corporation", ".\export_data\inspection_reports\80450_london corporation")</f>
@@ -5988,33 +5979,33 @@
         <v>107</v>
       </c>
       <c r="T21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I22" t="s">
         <v>8</v>
@@ -6023,16 +6014,16 @@
         <v>9</v>
       </c>
       <c r="K22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O22" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80451_wakefield", ".\export_data\inspection_reports\80451_wakefield")</f>
@@ -6051,33 +6042,33 @@
         <v>14</v>
       </c>
       <c r="T22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I23" t="s">
         <v>107</v>
@@ -6086,16 +6077,16 @@
         <v>37</v>
       </c>
       <c r="K23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O23" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80453_york", ".\export_data\inspection_reports\80453_york")</f>
@@ -6119,28 +6110,28 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I24" t="s">
         <v>8</v>
@@ -6149,16 +6140,16 @@
         <v>9</v>
       </c>
       <c r="K24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O24" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80454_cornwall", ".\export_data\inspection_reports\80454_cornwall")</f>
@@ -6177,36 +6168,36 @@
         <v>107</v>
       </c>
       <c r="T24" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E25" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F25" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J25" t="s">
         <v>9</v>
@@ -6215,23 +6206,23 @@
         <v>128</v>
       </c>
       <c r="L25" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M25" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N25" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O25" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80455_isles of scilly", ".\export_data\inspection_reports\80455_isles of scilly")</f>
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R25" t="s">
         <v>14</v>
@@ -6245,28 +6236,28 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C26" t="s">
         <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G26" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I26" t="s">
         <v>8</v>
@@ -6278,13 +6269,13 @@
         <v>140</v>
       </c>
       <c r="L26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N26" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O26" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80456_coventry", ".\export_data\inspection_reports\80456_coventry")</f>
@@ -6303,33 +6294,33 @@
         <v>42</v>
       </c>
       <c r="T26" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E27" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F27" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G27" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I27" t="s">
         <v>8</v>
@@ -6341,13 +6332,13 @@
         <v>87</v>
       </c>
       <c r="L27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O27" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\2733690_cumberland", ".\export_data\inspection_reports\2733690_cumberland")</f>
@@ -6371,28 +6362,28 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G28" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I28" t="s">
         <v>8</v>
@@ -6401,16 +6392,16 @@
         <v>37</v>
       </c>
       <c r="K28" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O28" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80458_darlington", ".\export_data\inspection_reports\80458_darlington")</f>
@@ -6429,33 +6420,33 @@
         <v>42</v>
       </c>
       <c r="T28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B29" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C29" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E29" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F29" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I29" t="s">
         <v>107</v>
@@ -6467,13 +6458,13 @@
         <v>38</v>
       </c>
       <c r="L29" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N29" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O29" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80459_derby", ".\export_data\inspection_reports\80459_derby")</f>
@@ -6497,28 +6488,28 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B30" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D30" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E30" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G30" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I30" t="s">
         <v>8</v>
@@ -6530,13 +6521,13 @@
         <v>51</v>
       </c>
       <c r="L30" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M30" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N30" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O30" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80460_derbyshire", ".\export_data\inspection_reports\80460_derbyshire")</f>
@@ -6560,31 +6551,31 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E31" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F31" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J31" t="s">
         <v>37</v>
@@ -6593,13 +6584,13 @@
         <v>118</v>
       </c>
       <c r="L31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M31" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O31" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80461_devon", ".\export_data\inspection_reports\80461_devon")</f>
@@ -6609,42 +6600,42 @@
         <v>14</v>
       </c>
       <c r="Q31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T31" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B32" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E32" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F32" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G32" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I32" t="s">
         <v>8</v>
@@ -6653,16 +6644,16 @@
         <v>37</v>
       </c>
       <c r="K32" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L32" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M32" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N32" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O32" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80462_doncaster", ".\export_data\inspection_reports\80462_doncaster")</f>
@@ -6681,33 +6672,33 @@
         <v>14</v>
       </c>
       <c r="T32" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B33" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C33" t="s">
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F33" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G33" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I33" t="s">
         <v>107</v>
@@ -6716,16 +6707,16 @@
         <v>9</v>
       </c>
       <c r="K33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M33" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N33" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O33" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\2532283_dorset", ".\export_data\inspection_reports\2532283_dorset")</f>
@@ -6744,33 +6735,33 @@
         <v>8</v>
       </c>
       <c r="T33" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B34" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C34" t="s">
         <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E34" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F34" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I34" t="s">
         <v>14</v>
@@ -6782,13 +6773,13 @@
         <v>51</v>
       </c>
       <c r="L34" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M34" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N34" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O34" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80464_dudley", ".\export_data\inspection_reports\80464_dudley")</f>
@@ -6812,28 +6803,28 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B35" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C35" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D35" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E35" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F35" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G35" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I35" t="s">
         <v>107</v>
@@ -6842,16 +6833,16 @@
         <v>9</v>
       </c>
       <c r="K35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N35" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O35" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80465_durham", ".\export_data\inspection_reports\80465_durham")</f>
@@ -6875,28 +6866,28 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B36" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E36" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F36" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G36" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I36" t="s">
         <v>8</v>
@@ -6905,16 +6896,16 @@
         <v>37</v>
       </c>
       <c r="K36" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L36" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M36" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N36" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O36" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80466_east riding of yorkshire", ".\export_data\inspection_reports\80466_east riding of yorkshire")</f>
@@ -6938,28 +6929,28 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B37" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C37" t="s">
         <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E37" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F37" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G37" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I37" t="s">
         <v>8</v>
@@ -6968,16 +6959,16 @@
         <v>9</v>
       </c>
       <c r="K37" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L37" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N37" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O37" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80467_east sussex", ".\export_data\inspection_reports\80467_east sussex")</f>
@@ -6996,7 +6987,7 @@
         <v>8</v>
       </c>
       <c r="T37" t="s">
-        <v>398</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -7059,7 +7050,7 @@
         <v>107</v>
       </c>
       <c r="T38" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -7070,7 +7061,7 @@
         <v>411</v>
       </c>
       <c r="C39" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D39" t="s">
         <v>412</v>
@@ -7094,7 +7085,7 @@
         <v>9</v>
       </c>
       <c r="K39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L39" t="s">
         <v>96</v>
@@ -7163,7 +7154,7 @@
         <v>25</v>
       </c>
       <c r="M40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N40" t="s">
         <v>426</v>
@@ -7185,7 +7176,7 @@
         <v>8</v>
       </c>
       <c r="T40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -7214,7 +7205,7 @@
         <v>433</v>
       </c>
       <c r="I41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J41" t="s">
         <v>37</v>
@@ -7236,16 +7227,16 @@
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T41" t="s">
         <v>55</v>
@@ -7311,7 +7302,7 @@
         <v>8</v>
       </c>
       <c r="T42" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -7322,7 +7313,7 @@
         <v>448</v>
       </c>
       <c r="C43" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D43" t="s">
         <v>449</v>
@@ -7346,7 +7337,7 @@
         <v>9</v>
       </c>
       <c r="K43" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L43" t="s">
         <v>454</v>
@@ -7403,7 +7394,7 @@
         <v>462</v>
       </c>
       <c r="I44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J44" t="s">
         <v>37</v>
@@ -7425,13 +7416,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S44" t="s">
         <v>42</v>
@@ -7472,7 +7463,7 @@
         <v>9</v>
       </c>
       <c r="K45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L45" t="s">
         <v>473</v>
@@ -7500,7 +7491,7 @@
         <v>8</v>
       </c>
       <c r="T45" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -7538,7 +7529,7 @@
         <v>24</v>
       </c>
       <c r="L46" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M46" t="s">
         <v>481</v>
@@ -7670,7 +7661,7 @@
         <v>502</v>
       </c>
       <c r="N48" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O48" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80477_kingston upon hull", ".\export_data\inspection_reports\80477_kingston upon hull")</f>
@@ -7689,7 +7680,7 @@
         <v>42</v>
       </c>
       <c r="T48" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -7730,10 +7721,10 @@
         <v>511</v>
       </c>
       <c r="M49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O49" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80478_kirklees", ".\export_data\inspection_reports\80478_kirklees")</f>
@@ -7752,7 +7743,7 @@
         <v>14</v>
       </c>
       <c r="T49" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -7781,7 +7772,7 @@
         <v>518</v>
       </c>
       <c r="I50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J50" t="s">
         <v>37</v>
@@ -7803,16 +7794,16 @@
         <v>0</v>
       </c>
       <c r="P50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R50" t="s">
         <v>14</v>
       </c>
       <c r="S50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T50" t="s">
         <v>15</v>
@@ -7850,7 +7841,7 @@
         <v>37</v>
       </c>
       <c r="K51" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L51" t="s">
         <v>530</v>
@@ -7878,7 +7869,7 @@
         <v>42</v>
       </c>
       <c r="T51" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -7910,10 +7901,10 @@
         <v>107</v>
       </c>
       <c r="J52" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="K52" t="s">
-        <v>500</v>
+        <v>345</v>
       </c>
       <c r="L52" t="s">
         <v>540</v>
@@ -7938,7 +7929,7 @@
         <v>107</v>
       </c>
       <c r="S52" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="T52" t="s">
         <v>68</v>
@@ -7952,7 +7943,7 @@
         <v>544</v>
       </c>
       <c r="C53" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D53" t="s">
         <v>545</v>
@@ -7976,13 +7967,13 @@
         <v>9</v>
       </c>
       <c r="K53" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L53" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M53" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N53" t="s">
         <v>98</v>
@@ -8004,7 +7995,7 @@
         <v>14</v>
       </c>
       <c r="T53" t="s">
-        <v>398</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -8015,7 +8006,7 @@
         <v>551</v>
       </c>
       <c r="C54" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D54" t="s">
         <v>552</v>
@@ -8039,7 +8030,7 @@
         <v>37</v>
       </c>
       <c r="K54" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L54" t="s">
         <v>557</v>
@@ -8078,7 +8069,7 @@
         <v>560</v>
       </c>
       <c r="C55" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D55" t="s">
         <v>561</v>
@@ -8159,7 +8150,7 @@
         <v>575</v>
       </c>
       <c r="I56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J56" t="s">
         <v>37</v>
@@ -8181,16 +8172,16 @@
         <v>0</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R56" t="s">
         <v>14</v>
       </c>
       <c r="S56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T56" t="s">
         <v>55</v>
@@ -8204,7 +8195,7 @@
         <v>580</v>
       </c>
       <c r="C57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D57" t="s">
         <v>581</v>
@@ -8228,7 +8219,7 @@
         <v>37</v>
       </c>
       <c r="K57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L57" t="s">
         <v>586</v>
@@ -8267,7 +8258,7 @@
         <v>590</v>
       </c>
       <c r="C58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D58" t="s">
         <v>591</v>
@@ -8291,7 +8282,7 @@
         <v>9</v>
       </c>
       <c r="K58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L58" t="s">
         <v>444</v>
@@ -8330,7 +8321,7 @@
         <v>597</v>
       </c>
       <c r="C59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D59" t="s">
         <v>598</v>
@@ -8354,16 +8345,16 @@
         <v>9</v>
       </c>
       <c r="K59" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L59" t="s">
         <v>603</v>
       </c>
       <c r="M59" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N59" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O59" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80488_bexley", ".\export_data\inspection_reports\80488_bexley")</f>
@@ -8382,7 +8373,7 @@
         <v>107</v>
       </c>
       <c r="T59" t="s">
-        <v>398</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -8393,7 +8384,7 @@
         <v>605</v>
       </c>
       <c r="C60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D60" t="s">
         <v>606</v>
@@ -8445,7 +8436,7 @@
         <v>8</v>
       </c>
       <c r="T60" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -8456,7 +8447,7 @@
         <v>614</v>
       </c>
       <c r="C61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D61" t="s">
         <v>615</v>
@@ -8489,7 +8480,7 @@
         <v>622</v>
       </c>
       <c r="N61" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O61" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80490_bromley", ".\export_data\inspection_reports\80490_bromley")</f>
@@ -8508,7 +8499,7 @@
         <v>107</v>
       </c>
       <c r="T61" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -8519,7 +8510,7 @@
         <v>624</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D62" t="s">
         <v>625</v>
@@ -8549,10 +8540,10 @@
         <v>65</v>
       </c>
       <c r="M62" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N62" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O62" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80491_camden", ".\export_data\inspection_reports\80491_camden")</f>
@@ -8571,7 +8562,7 @@
         <v>107</v>
       </c>
       <c r="T62" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -8582,7 +8573,7 @@
         <v>631</v>
       </c>
       <c r="C63" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D63" t="s">
         <v>632</v>
@@ -8606,7 +8597,7 @@
         <v>37</v>
       </c>
       <c r="K63" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L63" t="s">
         <v>637</v>
@@ -8634,7 +8625,7 @@
         <v>8</v>
       </c>
       <c r="T63" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -8645,7 +8636,7 @@
         <v>641</v>
       </c>
       <c r="C64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D64" t="s">
         <v>642</v>
@@ -8669,7 +8660,7 @@
         <v>37</v>
       </c>
       <c r="K64" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L64" t="s">
         <v>557</v>
@@ -8697,7 +8688,7 @@
         <v>8</v>
       </c>
       <c r="T64" t="s">
-        <v>398</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -8708,7 +8699,7 @@
         <v>648</v>
       </c>
       <c r="C65" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D65" t="s">
         <v>649</v>
@@ -8732,7 +8723,7 @@
         <v>9</v>
       </c>
       <c r="K65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L65" t="s">
         <v>654</v>
@@ -8760,7 +8751,7 @@
         <v>8</v>
       </c>
       <c r="T65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -8771,7 +8762,7 @@
         <v>658</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D66" t="s">
         <v>659</v>
@@ -8795,7 +8786,7 @@
         <v>9</v>
       </c>
       <c r="K66" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L66" t="s">
         <v>664</v>
@@ -8823,7 +8814,7 @@
         <v>107</v>
       </c>
       <c r="T66" t="s">
-        <v>398</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -8834,7 +8825,7 @@
         <v>668</v>
       </c>
       <c r="C67" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D67" t="s">
         <v>669</v>
@@ -8861,7 +8852,7 @@
         <v>38</v>
       </c>
       <c r="L67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M67" t="s">
         <v>674</v>
@@ -8897,7 +8888,7 @@
         <v>677</v>
       </c>
       <c r="C68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D68" t="s">
         <v>678</v>
@@ -8921,13 +8912,13 @@
         <v>9</v>
       </c>
       <c r="K68" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L68" t="s">
         <v>683</v>
       </c>
       <c r="M68" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N68" t="s">
         <v>120</v>
@@ -8949,7 +8940,7 @@
         <v>107</v>
       </c>
       <c r="T68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -8960,7 +8951,7 @@
         <v>685</v>
       </c>
       <c r="C69" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D69" t="s">
         <v>686</v>
@@ -9012,7 +9003,7 @@
         <v>8</v>
       </c>
       <c r="T69" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -9023,7 +9014,7 @@
         <v>693</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D70" t="s">
         <v>694</v>
@@ -9041,7 +9032,7 @@
         <v>698</v>
       </c>
       <c r="I70" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J70" t="s">
         <v>9</v>
@@ -9050,7 +9041,7 @@
         <v>519</v>
       </c>
       <c r="L70" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M70" t="s">
         <v>699</v>
@@ -9072,7 +9063,7 @@
         <v>8</v>
       </c>
       <c r="S70" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T70" t="s">
         <v>15</v>
@@ -9086,7 +9077,7 @@
         <v>702</v>
       </c>
       <c r="C71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D71" t="s">
         <v>703</v>
@@ -9104,7 +9095,7 @@
         <v>707</v>
       </c>
       <c r="I71" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J71" t="s">
         <v>37</v>
@@ -9113,7 +9104,7 @@
         <v>620</v>
       </c>
       <c r="L71" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M71" t="s">
         <v>708</v>
@@ -9126,19 +9117,19 @@
         <v>0</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q71" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R71" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S71" t="s">
         <v>14</v>
       </c>
       <c r="T71" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -9149,7 +9140,7 @@
         <v>711</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D72" t="s">
         <v>712</v>
@@ -9173,7 +9164,7 @@
         <v>9</v>
       </c>
       <c r="K72" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L72" t="s">
         <v>717</v>
@@ -9201,7 +9192,7 @@
         <v>8</v>
       </c>
       <c r="T72" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -9212,7 +9203,7 @@
         <v>721</v>
       </c>
       <c r="C73" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D73" t="s">
         <v>722</v>
@@ -9264,7 +9255,7 @@
         <v>8</v>
       </c>
       <c r="T73" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -9275,7 +9266,7 @@
         <v>731</v>
       </c>
       <c r="C74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" t="s">
         <v>732</v>
@@ -9299,7 +9290,7 @@
         <v>9</v>
       </c>
       <c r="K74" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L74" t="s">
         <v>96</v>
@@ -9327,7 +9318,7 @@
         <v>107</v>
       </c>
       <c r="T74" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -9338,7 +9329,7 @@
         <v>738</v>
       </c>
       <c r="C75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" t="s">
         <v>739</v>
@@ -9401,7 +9392,7 @@
         <v>749</v>
       </c>
       <c r="C76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" t="s">
         <v>750</v>
@@ -9431,7 +9422,7 @@
         <v>756</v>
       </c>
       <c r="M76" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N76" t="s">
         <v>757</v>
@@ -9464,7 +9455,7 @@
         <v>759</v>
       </c>
       <c r="C77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" t="s">
         <v>760</v>
@@ -9494,10 +9485,10 @@
         <v>766</v>
       </c>
       <c r="M77" t="s">
-        <v>541</v>
+        <v>767</v>
       </c>
       <c r="N77" t="s">
-        <v>542</v>
+        <v>768</v>
       </c>
       <c r="O77" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80510_merton", ".\export_data\inspection_reports\80510_merton")</f>
@@ -9521,28 +9512,28 @@
     </row>
     <row r="78" spans="1:20">
       <c r="A78" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B78" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E78" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="F78" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G78" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="I78" t="s">
         <v>8</v>
@@ -9551,7 +9542,7 @@
         <v>37</v>
       </c>
       <c r="K78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L78" t="s">
         <v>463</v>
@@ -9579,33 +9570,33 @@
         <v>42</v>
       </c>
       <c r="T78" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:20">
       <c r="A79" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B79" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C79" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D79" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E79" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F79" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G79" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="I79" t="s">
         <v>107</v>
@@ -9647,91 +9638,91 @@
     </row>
     <row r="80" spans="1:20">
       <c r="A80" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B80" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D80" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E80" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="F80" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="G80" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="I80" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="J80" t="s">
         <v>9</v>
       </c>
       <c r="K80" t="s">
-        <v>788</v>
+        <v>140</v>
       </c>
       <c r="L80" t="s">
-        <v>789</v>
+        <v>540</v>
       </c>
       <c r="M80" t="s">
-        <v>790</v>
+        <v>541</v>
       </c>
       <c r="N80" t="s">
-        <v>791</v>
+        <v>542</v>
       </c>
       <c r="O80" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80513_richmond upon thames", ".\export_data\inspection_reports\80513_richmond upon thames")</f>
         <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="Q80" t="s">
         <v>8</v>
       </c>
       <c r="R80" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="S80" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="T80" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" t="s">
+        <v>790</v>
+      </c>
+      <c r="B81" t="s">
+        <v>791</v>
+      </c>
+      <c r="C81" t="s">
+        <v>221</v>
+      </c>
+      <c r="D81" t="s">
         <v>792</v>
       </c>
-      <c r="B81" t="s">
+      <c r="E81" t="s">
         <v>793</v>
       </c>
-      <c r="C81" t="s">
-        <v>220</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
         <v>794</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G81" t="s">
         <v>795</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H81" s="2" t="s">
         <v>796</v>
-      </c>
-      <c r="G81" t="s">
-        <v>797</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="I81" t="s">
         <v>8</v>
@@ -9743,13 +9734,13 @@
         <v>128</v>
       </c>
       <c r="L81" t="s">
+        <v>797</v>
+      </c>
+      <c r="M81" t="s">
+        <v>798</v>
+      </c>
+      <c r="N81" t="s">
         <v>799</v>
-      </c>
-      <c r="M81" t="s">
-        <v>800</v>
-      </c>
-      <c r="N81" t="s">
-        <v>801</v>
       </c>
       <c r="O81" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80514_southwark", ".\export_data\inspection_reports\80514_southwark")</f>
@@ -9773,28 +9764,28 @@
     </row>
     <row r="82" spans="1:20">
       <c r="A82" t="s">
+        <v>800</v>
+      </c>
+      <c r="B82" t="s">
+        <v>801</v>
+      </c>
+      <c r="C82" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" t="s">
         <v>802</v>
       </c>
-      <c r="B82" t="s">
+      <c r="E82" t="s">
         <v>803</v>
       </c>
-      <c r="C82" t="s">
-        <v>220</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="F82" t="s">
         <v>804</v>
       </c>
-      <c r="E82" t="s">
+      <c r="G82" t="s">
         <v>805</v>
       </c>
-      <c r="F82" t="s">
+      <c r="H82" s="2" t="s">
         <v>806</v>
-      </c>
-      <c r="G82" t="s">
-        <v>807</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>808</v>
       </c>
       <c r="I82" t="s">
         <v>8</v>
@@ -9806,13 +9797,13 @@
         <v>64</v>
       </c>
       <c r="L82" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="M82" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N82" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O82" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80515_sutton", ".\export_data\inspection_reports\80515_sutton")</f>
@@ -9836,28 +9827,28 @@
     </row>
     <row r="83" spans="1:20">
       <c r="A83" t="s">
+        <v>808</v>
+      </c>
+      <c r="B83" t="s">
+        <v>809</v>
+      </c>
+      <c r="C83" t="s">
+        <v>221</v>
+      </c>
+      <c r="D83" t="s">
         <v>810</v>
       </c>
-      <c r="B83" t="s">
+      <c r="E83" t="s">
         <v>811</v>
       </c>
-      <c r="C83" t="s">
-        <v>220</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
         <v>812</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
         <v>813</v>
       </c>
-      <c r="F83" t="s">
+      <c r="H83" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="G83" t="s">
-        <v>815</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>816</v>
       </c>
       <c r="I83" t="s">
         <v>107</v>
@@ -9869,13 +9860,13 @@
         <v>24</v>
       </c>
       <c r="L83" t="s">
+        <v>815</v>
+      </c>
+      <c r="M83" t="s">
+        <v>816</v>
+      </c>
+      <c r="N83" t="s">
         <v>817</v>
-      </c>
-      <c r="M83" t="s">
-        <v>818</v>
-      </c>
-      <c r="N83" t="s">
-        <v>819</v>
       </c>
       <c r="O83" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80516_tower hamlets", ".\export_data\inspection_reports\80516_tower hamlets")</f>
@@ -9899,28 +9890,28 @@
     </row>
     <row r="84" spans="1:20">
       <c r="A84" t="s">
+        <v>818</v>
+      </c>
+      <c r="B84" t="s">
+        <v>819</v>
+      </c>
+      <c r="C84" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84" t="s">
         <v>820</v>
       </c>
-      <c r="B84" t="s">
+      <c r="E84" t="s">
         <v>821</v>
       </c>
-      <c r="C84" t="s">
-        <v>220</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="F84" t="s">
         <v>822</v>
       </c>
-      <c r="E84" t="s">
+      <c r="G84" t="s">
         <v>823</v>
       </c>
-      <c r="F84" t="s">
+      <c r="H84" s="2" t="s">
         <v>824</v>
-      </c>
-      <c r="G84" t="s">
-        <v>825</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="I84" t="s">
         <v>8</v>
@@ -9929,7 +9920,7 @@
         <v>9</v>
       </c>
       <c r="K84" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="L84" t="s">
         <v>511</v>
@@ -9957,33 +9948,33 @@
         <v>8</v>
       </c>
       <c r="T84" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:20">
       <c r="A85" t="s">
+        <v>826</v>
+      </c>
+      <c r="B85" t="s">
+        <v>827</v>
+      </c>
+      <c r="C85" t="s">
+        <v>221</v>
+      </c>
+      <c r="D85" t="s">
         <v>828</v>
       </c>
-      <c r="B85" t="s">
+      <c r="E85" t="s">
         <v>829</v>
       </c>
-      <c r="C85" t="s">
-        <v>220</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="F85" t="s">
         <v>830</v>
       </c>
-      <c r="E85" t="s">
+      <c r="G85" t="s">
         <v>831</v>
       </c>
-      <c r="F85" t="s">
+      <c r="H85" s="2" t="s">
         <v>832</v>
-      </c>
-      <c r="G85" t="s">
-        <v>833</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>834</v>
       </c>
       <c r="I85" t="s">
         <v>8</v>
@@ -9995,13 +9986,13 @@
         <v>24</v>
       </c>
       <c r="L85" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="M85" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="N85" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O85" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80518_wandsworth", ".\export_data\inspection_reports\80518_wandsworth")</f>
@@ -10025,28 +10016,28 @@
     </row>
     <row r="86" spans="1:20">
       <c r="A86" t="s">
+        <v>835</v>
+      </c>
+      <c r="B86" t="s">
+        <v>836</v>
+      </c>
+      <c r="C86" t="s">
+        <v>221</v>
+      </c>
+      <c r="D86" t="s">
         <v>837</v>
       </c>
-      <c r="B86" t="s">
+      <c r="E86" t="s">
         <v>838</v>
       </c>
-      <c r="C86" t="s">
-        <v>220</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="F86" t="s">
         <v>839</v>
       </c>
-      <c r="E86" t="s">
+      <c r="G86" t="s">
         <v>840</v>
       </c>
-      <c r="F86" t="s">
+      <c r="H86" s="2" t="s">
         <v>841</v>
-      </c>
-      <c r="G86" t="s">
-        <v>842</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>843</v>
       </c>
       <c r="I86" t="s">
         <v>107</v>
@@ -10055,16 +10046,16 @@
         <v>9</v>
       </c>
       <c r="K86" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L86" t="s">
+        <v>815</v>
+      </c>
+      <c r="M86" t="s">
+        <v>816</v>
+      </c>
+      <c r="N86" t="s">
         <v>817</v>
-      </c>
-      <c r="M86" t="s">
-        <v>818</v>
-      </c>
-      <c r="N86" t="s">
-        <v>819</v>
       </c>
       <c r="O86" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80519_westminster", ".\export_data\inspection_reports\80519_westminster")</f>
@@ -10088,28 +10079,28 @@
     </row>
     <row r="87" spans="1:20">
       <c r="A87" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B87" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C87" t="s">
         <v>31</v>
       </c>
       <c r="D87" t="s">
+        <v>844</v>
+      </c>
+      <c r="E87" t="s">
+        <v>845</v>
+      </c>
+      <c r="F87" t="s">
         <v>846</v>
       </c>
-      <c r="E87" t="s">
+      <c r="G87" t="s">
         <v>847</v>
       </c>
-      <c r="F87" t="s">
+      <c r="H87" s="2" t="s">
         <v>848</v>
-      </c>
-      <c r="G87" t="s">
-        <v>849</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>850</v>
       </c>
       <c r="I87" t="s">
         <v>14</v>
@@ -10118,16 +10109,16 @@
         <v>37</v>
       </c>
       <c r="K87" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L87" t="s">
+        <v>849</v>
+      </c>
+      <c r="M87" t="s">
+        <v>850</v>
+      </c>
+      <c r="N87" t="s">
         <v>851</v>
-      </c>
-      <c r="M87" t="s">
-        <v>852</v>
-      </c>
-      <c r="N87" t="s">
-        <v>853</v>
       </c>
       <c r="O87" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80520_luton", ".\export_data\inspection_reports\80520_luton")</f>
@@ -10146,33 +10137,33 @@
         <v>42</v>
       </c>
       <c r="T87" t="s">
-        <v>398</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:20">
       <c r="A88" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B88" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C88" t="s">
         <v>58</v>
       </c>
       <c r="D88" t="s">
+        <v>854</v>
+      </c>
+      <c r="E88" t="s">
+        <v>855</v>
+      </c>
+      <c r="F88" t="s">
         <v>856</v>
       </c>
-      <c r="E88" t="s">
+      <c r="G88" t="s">
         <v>857</v>
       </c>
-      <c r="F88" t="s">
+      <c r="H88" s="2" t="s">
         <v>858</v>
-      </c>
-      <c r="G88" t="s">
-        <v>859</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>860</v>
       </c>
       <c r="I88" t="s">
         <v>8</v>
@@ -10181,16 +10172,16 @@
         <v>37</v>
       </c>
       <c r="K88" t="s">
+        <v>859</v>
+      </c>
+      <c r="L88" t="s">
+        <v>860</v>
+      </c>
+      <c r="M88" t="s">
         <v>861</v>
       </c>
-      <c r="L88" t="s">
+      <c r="N88" t="s">
         <v>862</v>
-      </c>
-      <c r="M88" t="s">
-        <v>863</v>
-      </c>
-      <c r="N88" t="s">
-        <v>864</v>
       </c>
       <c r="O88" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80521_manchester", ".\export_data\inspection_reports\80521_manchester")</f>
@@ -10209,33 +10200,33 @@
         <v>42</v>
       </c>
       <c r="T88" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" t="s">
+        <v>863</v>
+      </c>
+      <c r="B89" t="s">
+        <v>864</v>
+      </c>
+      <c r="C89" t="s">
         <v>865</v>
       </c>
-      <c r="B89" t="s">
+      <c r="D89" t="s">
         <v>866</v>
       </c>
-      <c r="C89" t="s">
+      <c r="E89" t="s">
         <v>867</v>
       </c>
-      <c r="D89" t="s">
+      <c r="F89" t="s">
         <v>868</v>
       </c>
-      <c r="E89" t="s">
+      <c r="G89" t="s">
         <v>869</v>
       </c>
-      <c r="F89" t="s">
+      <c r="H89" s="2" t="s">
         <v>870</v>
-      </c>
-      <c r="G89" t="s">
-        <v>871</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>872</v>
       </c>
       <c r="I89" t="s">
         <v>8</v>
@@ -10247,13 +10238,13 @@
         <v>24</v>
       </c>
       <c r="L89" t="s">
+        <v>871</v>
+      </c>
+      <c r="M89" t="s">
+        <v>872</v>
+      </c>
+      <c r="N89" t="s">
         <v>873</v>
-      </c>
-      <c r="M89" t="s">
-        <v>874</v>
-      </c>
-      <c r="N89" t="s">
-        <v>875</v>
       </c>
       <c r="O89" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80522_medway", ".\export_data\inspection_reports\80522_medway")</f>
@@ -10277,28 +10268,28 @@
     </row>
     <row r="90" spans="1:20">
       <c r="A90" t="s">
+        <v>874</v>
+      </c>
+      <c r="B90" t="s">
+        <v>875</v>
+      </c>
+      <c r="C90" t="s">
+        <v>296</v>
+      </c>
+      <c r="D90" t="s">
         <v>876</v>
       </c>
-      <c r="B90" t="s">
+      <c r="E90" t="s">
         <v>877</v>
       </c>
-      <c r="C90" t="s">
-        <v>295</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
         <v>878</v>
       </c>
-      <c r="E90" t="s">
+      <c r="G90" t="s">
         <v>879</v>
       </c>
-      <c r="F90" t="s">
+      <c r="H90" s="2" t="s">
         <v>880</v>
-      </c>
-      <c r="G90" t="s">
-        <v>881</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>882</v>
       </c>
       <c r="I90" t="s">
         <v>14</v>
@@ -10307,7 +10298,7 @@
         <v>37</v>
       </c>
       <c r="K90" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L90" t="s">
         <v>576</v>
@@ -10340,28 +10331,28 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B91" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C91" t="s">
         <v>101</v>
       </c>
       <c r="D91" t="s">
+        <v>883</v>
+      </c>
+      <c r="E91" t="s">
+        <v>884</v>
+      </c>
+      <c r="F91" t="s">
         <v>885</v>
       </c>
-      <c r="E91" t="s">
+      <c r="G91" t="s">
         <v>886</v>
       </c>
-      <c r="F91" t="s">
+      <c r="H91" s="2" t="s">
         <v>887</v>
-      </c>
-      <c r="G91" t="s">
-        <v>888</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>889</v>
       </c>
       <c r="I91" t="s">
         <v>8</v>
@@ -10373,13 +10364,13 @@
         <v>765</v>
       </c>
       <c r="L91" t="s">
+        <v>888</v>
+      </c>
+      <c r="M91" t="s">
+        <v>889</v>
+      </c>
+      <c r="N91" t="s">
         <v>890</v>
-      </c>
-      <c r="M91" t="s">
-        <v>891</v>
-      </c>
-      <c r="N91" t="s">
-        <v>892</v>
       </c>
       <c r="O91" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80524_milton keynes", ".\export_data\inspection_reports\80524_milton keynes")</f>
@@ -10403,28 +10394,28 @@
     </row>
     <row r="92" spans="1:20">
       <c r="A92" t="s">
+        <v>891</v>
+      </c>
+      <c r="B92" t="s">
+        <v>892</v>
+      </c>
+      <c r="C92" t="s">
+        <v>296</v>
+      </c>
+      <c r="D92" t="s">
         <v>893</v>
       </c>
-      <c r="B92" t="s">
+      <c r="E92" t="s">
         <v>894</v>
       </c>
-      <c r="C92" t="s">
-        <v>295</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
         <v>895</v>
       </c>
-      <c r="E92" t="s">
+      <c r="G92" t="s">
         <v>896</v>
       </c>
-      <c r="F92" t="s">
+      <c r="H92" s="2" t="s">
         <v>897</v>
-      </c>
-      <c r="G92" t="s">
-        <v>898</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>899</v>
       </c>
       <c r="I92" t="s">
         <v>8</v>
@@ -10433,16 +10424,16 @@
         <v>9</v>
       </c>
       <c r="K92" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L92" t="s">
+        <v>898</v>
+      </c>
+      <c r="M92" t="s">
+        <v>899</v>
+      </c>
+      <c r="N92" t="s">
         <v>900</v>
-      </c>
-      <c r="M92" t="s">
-        <v>901</v>
-      </c>
-      <c r="N92" t="s">
-        <v>902</v>
       </c>
       <c r="O92" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80525_newcastle upon tyne", ".\export_data\inspection_reports\80525_newcastle upon tyne")</f>
@@ -10466,28 +10457,28 @@
     </row>
     <row r="93" spans="1:20">
       <c r="A93" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B93" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C93" t="s">
         <v>31</v>
       </c>
       <c r="D93" t="s">
+        <v>903</v>
+      </c>
+      <c r="E93" t="s">
+        <v>904</v>
+      </c>
+      <c r="F93" t="s">
         <v>905</v>
       </c>
-      <c r="E93" t="s">
+      <c r="G93" t="s">
         <v>906</v>
       </c>
-      <c r="F93" t="s">
+      <c r="H93" s="2" t="s">
         <v>907</v>
-      </c>
-      <c r="G93" t="s">
-        <v>908</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>909</v>
       </c>
       <c r="I93" t="s">
         <v>8</v>
@@ -10499,13 +10490,13 @@
         <v>38</v>
       </c>
       <c r="L93" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="M93" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="N93" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O93" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80418_norfolk", ".\export_data\inspection_reports\80418_norfolk")</f>
@@ -10529,59 +10520,59 @@
     </row>
     <row r="94" spans="1:20">
       <c r="A94" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B94" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
       </c>
       <c r="D94" t="s">
+        <v>910</v>
+      </c>
+      <c r="E94" t="s">
+        <v>911</v>
+      </c>
+      <c r="F94" t="s">
         <v>912</v>
       </c>
-      <c r="E94" t="s">
+      <c r="G94" t="s">
         <v>913</v>
       </c>
-      <c r="F94" t="s">
+      <c r="H94" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="G94" t="s">
-        <v>915</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>916</v>
-      </c>
       <c r="I94" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J94" t="s">
         <v>37</v>
       </c>
       <c r="K94" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L94" t="s">
+        <v>915</v>
+      </c>
+      <c r="M94" t="s">
+        <v>916</v>
+      </c>
+      <c r="N94" t="s">
         <v>917</v>
-      </c>
-      <c r="M94" t="s">
-        <v>918</v>
-      </c>
-      <c r="N94" t="s">
-        <v>919</v>
       </c>
       <c r="O94" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80526_north east lincolnshire", ".\export_data\inspection_reports\80526_north east lincolnshire")</f>
         <v>0</v>
       </c>
       <c r="P94" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q94" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R94" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S94" t="s">
         <v>42</v>
@@ -10592,28 +10583,28 @@
     </row>
     <row r="95" spans="1:20">
       <c r="A95" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B95" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
       </c>
       <c r="D95" t="s">
+        <v>920</v>
+      </c>
+      <c r="E95" t="s">
+        <v>921</v>
+      </c>
+      <c r="F95" t="s">
         <v>922</v>
       </c>
-      <c r="E95" t="s">
+      <c r="G95" t="s">
         <v>923</v>
       </c>
-      <c r="F95" t="s">
+      <c r="H95" s="2" t="s">
         <v>924</v>
-      </c>
-      <c r="G95" t="s">
-        <v>925</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>926</v>
       </c>
       <c r="I95" t="s">
         <v>107</v>
@@ -10622,16 +10613,16 @@
         <v>9</v>
       </c>
       <c r="K95" t="s">
+        <v>925</v>
+      </c>
+      <c r="L95" t="s">
+        <v>303</v>
+      </c>
+      <c r="M95" t="s">
+        <v>926</v>
+      </c>
+      <c r="N95" t="s">
         <v>927</v>
-      </c>
-      <c r="L95" t="s">
-        <v>302</v>
-      </c>
-      <c r="M95" t="s">
-        <v>928</v>
-      </c>
-      <c r="N95" t="s">
-        <v>929</v>
       </c>
       <c r="O95" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80527_north lincolnshire", ".\export_data\inspection_reports\80527_north lincolnshire")</f>
@@ -10655,28 +10646,28 @@
     </row>
     <row r="96" spans="1:20">
       <c r="A96" t="s">
+        <v>928</v>
+      </c>
+      <c r="B96" t="s">
+        <v>929</v>
+      </c>
+      <c r="C96" t="s">
+        <v>308</v>
+      </c>
+      <c r="D96" t="s">
         <v>930</v>
       </c>
-      <c r="B96" t="s">
+      <c r="E96" t="s">
         <v>931</v>
       </c>
-      <c r="C96" t="s">
-        <v>307</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="F96" t="s">
         <v>932</v>
       </c>
-      <c r="E96" t="s">
+      <c r="G96" t="s">
         <v>933</v>
       </c>
-      <c r="F96" t="s">
+      <c r="H96" s="2" t="s">
         <v>934</v>
-      </c>
-      <c r="G96" t="s">
-        <v>935</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>936</v>
       </c>
       <c r="I96" t="s">
         <v>14</v>
@@ -10685,16 +10676,16 @@
         <v>37</v>
       </c>
       <c r="K96" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L96" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="M96" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="N96" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="O96" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\2637539_north northamptonshire", ".\export_data\inspection_reports\2637539_north northamptonshire")</f>
@@ -10713,33 +10704,33 @@
         <v>42</v>
       </c>
       <c r="T96" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:20">
       <c r="A97" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B97" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
       </c>
       <c r="D97" t="s">
+        <v>938</v>
+      </c>
+      <c r="E97" t="s">
+        <v>939</v>
+      </c>
+      <c r="F97" t="s">
         <v>940</v>
       </c>
-      <c r="E97" t="s">
+      <c r="G97" t="s">
         <v>941</v>
       </c>
-      <c r="F97" t="s">
+      <c r="H97" s="2" t="s">
         <v>942</v>
-      </c>
-      <c r="G97" t="s">
-        <v>943</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>944</v>
       </c>
       <c r="I97" t="s">
         <v>14</v>
@@ -10757,7 +10748,7 @@
         <v>577</v>
       </c>
       <c r="N97" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="O97" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80528_north somerset", ".\export_data\inspection_reports\80528_north somerset")</f>
@@ -10781,28 +10772,28 @@
     </row>
     <row r="98" spans="1:20">
       <c r="A98" t="s">
+        <v>944</v>
+      </c>
+      <c r="B98" t="s">
+        <v>945</v>
+      </c>
+      <c r="C98" t="s">
+        <v>296</v>
+      </c>
+      <c r="D98" t="s">
         <v>946</v>
       </c>
-      <c r="B98" t="s">
+      <c r="E98" t="s">
         <v>947</v>
       </c>
-      <c r="C98" t="s">
-        <v>295</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="F98" t="s">
         <v>948</v>
       </c>
-      <c r="E98" t="s">
+      <c r="G98" t="s">
         <v>949</v>
       </c>
-      <c r="F98" t="s">
+      <c r="H98" s="2" t="s">
         <v>950</v>
-      </c>
-      <c r="G98" t="s">
-        <v>951</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>952</v>
       </c>
       <c r="I98" t="s">
         <v>107</v>
@@ -10811,16 +10802,16 @@
         <v>9</v>
       </c>
       <c r="K98" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L98" t="s">
+        <v>815</v>
+      </c>
+      <c r="M98" t="s">
+        <v>816</v>
+      </c>
+      <c r="N98" t="s">
         <v>817</v>
-      </c>
-      <c r="M98" t="s">
-        <v>818</v>
-      </c>
-      <c r="N98" t="s">
-        <v>819</v>
       </c>
       <c r="O98" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80529_north tyneside", ".\export_data\inspection_reports\80529_north tyneside")</f>
@@ -10844,28 +10835,28 @@
     </row>
     <row r="99" spans="1:20">
       <c r="A99" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B99" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
       </c>
       <c r="D99" t="s">
+        <v>953</v>
+      </c>
+      <c r="E99" t="s">
+        <v>954</v>
+      </c>
+      <c r="F99" t="s">
         <v>955</v>
       </c>
-      <c r="E99" t="s">
+      <c r="G99" t="s">
         <v>956</v>
       </c>
-      <c r="F99" t="s">
+      <c r="H99" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="G99" t="s">
-        <v>958</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>959</v>
       </c>
       <c r="I99" t="s">
         <v>107</v>
@@ -10874,16 +10865,16 @@
         <v>9</v>
       </c>
       <c r="K99" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="L99" t="s">
+        <v>958</v>
+      </c>
+      <c r="M99" t="s">
+        <v>959</v>
+      </c>
+      <c r="N99" t="s">
         <v>960</v>
-      </c>
-      <c r="M99" t="s">
-        <v>961</v>
-      </c>
-      <c r="N99" t="s">
-        <v>962</v>
       </c>
       <c r="O99" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80530_north yorkshire", ".\export_data\inspection_reports\80530_north yorkshire")</f>
@@ -10907,28 +10898,28 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" t="s">
+        <v>961</v>
+      </c>
+      <c r="B100" t="s">
+        <v>962</v>
+      </c>
+      <c r="C100" t="s">
+        <v>296</v>
+      </c>
+      <c r="D100" t="s">
         <v>963</v>
       </c>
-      <c r="B100" t="s">
+      <c r="E100" t="s">
         <v>964</v>
       </c>
-      <c r="C100" t="s">
-        <v>295</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="F100" t="s">
         <v>965</v>
       </c>
-      <c r="E100" t="s">
+      <c r="G100" t="s">
         <v>966</v>
       </c>
-      <c r="F100" t="s">
+      <c r="H100" s="2" t="s">
         <v>967</v>
-      </c>
-      <c r="G100" t="s">
-        <v>968</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>969</v>
       </c>
       <c r="I100" t="s">
         <v>107</v>
@@ -10937,10 +10928,10 @@
         <v>9</v>
       </c>
       <c r="K100" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="L100" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="M100" t="s">
         <v>435</v>
@@ -10970,40 +10961,40 @@
     </row>
     <row r="101" spans="1:20">
       <c r="A101" t="s">
+        <v>970</v>
+      </c>
+      <c r="B101" t="s">
+        <v>971</v>
+      </c>
+      <c r="C101" t="s">
+        <v>308</v>
+      </c>
+      <c r="D101" t="s">
         <v>972</v>
       </c>
-      <c r="B101" t="s">
+      <c r="E101" t="s">
         <v>973</v>
       </c>
-      <c r="C101" t="s">
-        <v>307</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="F101" t="s">
         <v>974</v>
       </c>
-      <c r="E101" t="s">
+      <c r="G101" t="s">
         <v>975</v>
       </c>
-      <c r="F101" t="s">
+      <c r="H101" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="G101" t="s">
-        <v>977</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>978</v>
-      </c>
       <c r="I101" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J101" t="s">
         <v>118</v>
       </c>
       <c r="K101" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="N101" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="O101" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80533_nottingham", ".\export_data\inspection_reports\80533_nottingham")</f>
@@ -11013,13 +11004,13 @@
         <v>14</v>
       </c>
       <c r="Q101" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R101" t="s">
         <v>14</v>
       </c>
       <c r="S101" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T101" t="s">
         <v>15</v>
@@ -11027,28 +11018,28 @@
     </row>
     <row r="102" spans="1:20">
       <c r="A102" t="s">
+        <v>977</v>
+      </c>
+      <c r="B102" t="s">
+        <v>978</v>
+      </c>
+      <c r="C102" t="s">
+        <v>308</v>
+      </c>
+      <c r="D102" t="s">
         <v>979</v>
       </c>
-      <c r="B102" t="s">
+      <c r="E102" t="s">
         <v>980</v>
       </c>
-      <c r="C102" t="s">
-        <v>307</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="F102" t="s">
         <v>981</v>
       </c>
-      <c r="E102" t="s">
+      <c r="G102" t="s">
         <v>982</v>
       </c>
-      <c r="F102" t="s">
+      <c r="H102" s="2" t="s">
         <v>983</v>
-      </c>
-      <c r="G102" t="s">
-        <v>984</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>985</v>
       </c>
       <c r="I102" t="s">
         <v>8</v>
@@ -11060,7 +11051,7 @@
         <v>755</v>
       </c>
       <c r="L102" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="M102" t="s">
         <v>435</v>
@@ -11090,28 +11081,28 @@
     </row>
     <row r="103" spans="1:20">
       <c r="A103" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B103" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C103" t="s">
         <v>58</v>
       </c>
       <c r="D103" t="s">
+        <v>986</v>
+      </c>
+      <c r="E103" t="s">
+        <v>987</v>
+      </c>
+      <c r="F103" t="s">
         <v>988</v>
       </c>
-      <c r="E103" t="s">
+      <c r="G103" t="s">
         <v>989</v>
       </c>
-      <c r="F103" t="s">
+      <c r="H103" s="2" t="s">
         <v>990</v>
-      </c>
-      <c r="G103" t="s">
-        <v>991</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>992</v>
       </c>
       <c r="I103" t="s">
         <v>8</v>
@@ -11153,28 +11144,28 @@
     </row>
     <row r="104" spans="1:20">
       <c r="A104" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B104" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C104" t="s">
         <v>101</v>
       </c>
       <c r="D104" t="s">
+        <v>993</v>
+      </c>
+      <c r="E104" t="s">
+        <v>994</v>
+      </c>
+      <c r="F104" t="s">
         <v>995</v>
       </c>
-      <c r="E104" t="s">
+      <c r="G104" t="s">
         <v>996</v>
       </c>
-      <c r="F104" t="s">
+      <c r="H104" s="2" t="s">
         <v>997</v>
-      </c>
-      <c r="G104" t="s">
-        <v>998</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>999</v>
       </c>
       <c r="I104" t="s">
         <v>8</v>
@@ -11186,13 +11177,13 @@
         <v>755</v>
       </c>
       <c r="L104" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="M104" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N104" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O104" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80536_oxfordshire", ".\export_data\inspection_reports\80536_oxfordshire")</f>
@@ -11216,31 +11207,31 @@
     </row>
     <row r="105" spans="1:20">
       <c r="A105" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B105" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C105" t="s">
         <v>31</v>
       </c>
       <c r="D105" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F105" t="s">
         <v>1004</v>
       </c>
-      <c r="E105" t="s">
+      <c r="G105" t="s">
         <v>1005</v>
       </c>
-      <c r="F105" t="s">
+      <c r="H105" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="G105" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>1008</v>
-      </c>
       <c r="I105" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J105" t="s">
         <v>37</v>
@@ -11249,13 +11240,13 @@
         <v>744</v>
       </c>
       <c r="L105" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M105" t="s">
+        <v>1008</v>
+      </c>
+      <c r="N105" t="s">
         <v>1009</v>
-      </c>
-      <c r="M105" t="s">
-        <v>1010</v>
-      </c>
-      <c r="N105" t="s">
-        <v>1011</v>
       </c>
       <c r="O105" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80537_peterborough", ".\export_data\inspection_reports\80537_peterborough")</f>
@@ -11271,7 +11262,7 @@
         <v>14</v>
       </c>
       <c r="S105" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T105" t="s">
         <v>15</v>
@@ -11279,28 +11270,28 @@
     </row>
     <row r="106" spans="1:20">
       <c r="A106" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B106" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
       </c>
       <c r="D106" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F106" t="s">
         <v>1014</v>
       </c>
-      <c r="E106" t="s">
+      <c r="G106" t="s">
         <v>1015</v>
       </c>
-      <c r="F106" t="s">
+      <c r="H106" s="2" t="s">
         <v>1016</v>
-      </c>
-      <c r="G106" t="s">
-        <v>1017</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>1018</v>
       </c>
       <c r="I106" t="s">
         <v>14</v>
@@ -11312,13 +11303,13 @@
         <v>128</v>
       </c>
       <c r="L106" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M106" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N106" t="s">
         <v>1019</v>
-      </c>
-      <c r="M106" t="s">
-        <v>1020</v>
-      </c>
-      <c r="N106" t="s">
-        <v>1021</v>
       </c>
       <c r="O106" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80538_plymouth", ".\export_data\inspection_reports\80538_plymouth")</f>
@@ -11342,28 +11333,28 @@
     </row>
     <row r="107" spans="1:20">
       <c r="A107" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B107" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C107" t="s">
         <v>101</v>
       </c>
       <c r="D107" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F107" t="s">
         <v>1024</v>
       </c>
-      <c r="E107" t="s">
+      <c r="G107" t="s">
         <v>1025</v>
       </c>
-      <c r="F107" t="s">
+      <c r="H107" s="2" t="s">
         <v>1026</v>
-      </c>
-      <c r="G107" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>1028</v>
       </c>
       <c r="I107" t="s">
         <v>8</v>
@@ -11372,16 +11363,16 @@
         <v>9</v>
       </c>
       <c r="K107" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L107" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M107" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N107" t="s">
         <v>1029</v>
-      </c>
-      <c r="M107" t="s">
-        <v>1030</v>
-      </c>
-      <c r="N107" t="s">
-        <v>1031</v>
       </c>
       <c r="O107" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80539_portsmouth", ".\export_data\inspection_reports\80539_portsmouth")</f>
@@ -11400,33 +11391,33 @@
         <v>14</v>
       </c>
       <c r="T107" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:20">
       <c r="A108" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B108" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C108" t="s">
         <v>101</v>
       </c>
       <c r="D108" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F108" t="s">
         <v>1034</v>
       </c>
-      <c r="E108" t="s">
+      <c r="G108" t="s">
         <v>1035</v>
       </c>
-      <c r="F108" t="s">
+      <c r="H108" s="2" t="s">
         <v>1036</v>
-      </c>
-      <c r="G108" t="s">
-        <v>1037</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>1038</v>
       </c>
       <c r="I108" t="s">
         <v>14</v>
@@ -11435,7 +11426,7 @@
         <v>37</v>
       </c>
       <c r="K108" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L108" t="s">
         <v>557</v>
@@ -11463,33 +11454,33 @@
         <v>8</v>
       </c>
       <c r="T108" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:20">
       <c r="A109" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C109" t="s">
+        <v>296</v>
+      </c>
+      <c r="D109" t="s">
         <v>1039</v>
       </c>
-      <c r="B109" t="s">
+      <c r="E109" t="s">
         <v>1040</v>
       </c>
-      <c r="C109" t="s">
-        <v>295</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="F109" t="s">
         <v>1041</v>
       </c>
-      <c r="E109" t="s">
+      <c r="G109" t="s">
         <v>1042</v>
       </c>
-      <c r="F109" t="s">
+      <c r="H109" s="2" t="s">
         <v>1043</v>
-      </c>
-      <c r="G109" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>1045</v>
       </c>
       <c r="I109" t="s">
         <v>14</v>
@@ -11498,10 +11489,10 @@
         <v>118</v>
       </c>
       <c r="K109" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="N109" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="O109" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80541_redcar and cleveland", ".\export_data\inspection_reports\80541_redcar and cleveland")</f>
@@ -11525,28 +11516,28 @@
     </row>
     <row r="110" spans="1:20">
       <c r="A110" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B110" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C110" t="s">
         <v>58</v>
       </c>
       <c r="D110" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F110" t="s">
         <v>1049</v>
       </c>
-      <c r="E110" t="s">
+      <c r="G110" t="s">
         <v>1050</v>
       </c>
-      <c r="F110" t="s">
+      <c r="H110" s="2" t="s">
         <v>1051</v>
-      </c>
-      <c r="G110" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>1053</v>
       </c>
       <c r="I110" t="s">
         <v>14</v>
@@ -11561,10 +11552,10 @@
         <v>473</v>
       </c>
       <c r="M110" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="N110" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="O110" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80542_rochdale", ".\export_data\inspection_reports\80542_rochdale")</f>
@@ -11588,28 +11579,28 @@
     </row>
     <row r="111" spans="1:20">
       <c r="A111" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B111" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
       </c>
       <c r="D111" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F111" t="s">
         <v>1058</v>
       </c>
-      <c r="E111" t="s">
+      <c r="G111" t="s">
         <v>1059</v>
       </c>
-      <c r="F111" t="s">
+      <c r="H111" s="2" t="s">
         <v>1060</v>
-      </c>
-      <c r="G111" t="s">
-        <v>1061</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>1062</v>
       </c>
       <c r="I111" t="s">
         <v>8</v>
@@ -11618,16 +11609,16 @@
         <v>9</v>
       </c>
       <c r="K111" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="L111" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="M111" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N111" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O111" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80543_rotherham", ".\export_data\inspection_reports\80543_rotherham")</f>
@@ -11646,33 +11637,33 @@
         <v>42</v>
       </c>
       <c r="T111" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:20">
       <c r="A112" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D112" t="s">
         <v>1065</v>
       </c>
-      <c r="B112" t="s">
+      <c r="E112" t="s">
         <v>1066</v>
       </c>
-      <c r="C112" t="s">
-        <v>220</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="F112" t="s">
         <v>1067</v>
       </c>
-      <c r="E112" t="s">
+      <c r="G112" t="s">
         <v>1068</v>
       </c>
-      <c r="F112" t="s">
+      <c r="H112" s="2" t="s">
         <v>1069</v>
-      </c>
-      <c r="G112" t="s">
-        <v>1070</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>1071</v>
       </c>
       <c r="I112" t="s">
         <v>107</v>
@@ -11684,13 +11675,13 @@
         <v>140</v>
       </c>
       <c r="L112" t="s">
+        <v>815</v>
+      </c>
+      <c r="M112" t="s">
+        <v>816</v>
+      </c>
+      <c r="N112" t="s">
         <v>817</v>
-      </c>
-      <c r="M112" t="s">
-        <v>818</v>
-      </c>
-      <c r="N112" t="s">
-        <v>819</v>
       </c>
       <c r="O112" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80544_kensington and chelsea", ".\export_data\inspection_reports\80544_kensington and chelsea")</f>
@@ -11709,33 +11700,33 @@
         <v>107</v>
       </c>
       <c r="T112" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:20">
       <c r="A113" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C113" t="s">
+        <v>221</v>
+      </c>
+      <c r="D113" t="s">
         <v>1072</v>
       </c>
-      <c r="B113" t="s">
+      <c r="E113" t="s">
         <v>1073</v>
       </c>
-      <c r="C113" t="s">
-        <v>220</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="F113" t="s">
         <v>1074</v>
       </c>
-      <c r="E113" t="s">
+      <c r="G113" t="s">
         <v>1075</v>
       </c>
-      <c r="F113" t="s">
+      <c r="H113" s="2" t="s">
         <v>1076</v>
-      </c>
-      <c r="G113" t="s">
-        <v>1077</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>1078</v>
       </c>
       <c r="I113" t="s">
         <v>107</v>
@@ -11777,28 +11768,28 @@
     </row>
     <row r="114" spans="1:20">
       <c r="A114" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B114" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C114" t="s">
         <v>101</v>
       </c>
       <c r="D114" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F114" t="s">
         <v>1081</v>
       </c>
-      <c r="E114" t="s">
+      <c r="G114" t="s">
         <v>1082</v>
       </c>
-      <c r="F114" t="s">
+      <c r="H114" s="2" t="s">
         <v>1083</v>
-      </c>
-      <c r="G114" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>1085</v>
       </c>
       <c r="I114" t="s">
         <v>8</v>
@@ -11810,13 +11801,13 @@
         <v>620</v>
       </c>
       <c r="L114" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M114" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N114" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="O114" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80546_windsor &amp; maidenhead", ".\export_data\inspection_reports\80546_windsor &amp; maidenhead")</f>
@@ -11835,33 +11826,33 @@
         <v>107</v>
       </c>
       <c r="T114" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:20">
       <c r="A115" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C115" t="s">
+        <v>308</v>
+      </c>
+      <c r="D115" t="s">
         <v>1087</v>
       </c>
-      <c r="B115" t="s">
+      <c r="E115" t="s">
         <v>1088</v>
       </c>
-      <c r="C115" t="s">
-        <v>307</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="F115" t="s">
         <v>1089</v>
       </c>
-      <c r="E115" t="s">
+      <c r="G115" t="s">
         <v>1090</v>
       </c>
-      <c r="F115" t="s">
+      <c r="H115" s="2" t="s">
         <v>1091</v>
-      </c>
-      <c r="G115" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>1093</v>
       </c>
       <c r="I115" t="s">
         <v>8</v>
@@ -11873,10 +11864,10 @@
         <v>510</v>
       </c>
       <c r="L115" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="M115" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="N115" t="s">
         <v>436</v>
@@ -11898,33 +11889,33 @@
         <v>8</v>
       </c>
       <c r="T115" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:20">
       <c r="A116" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B116" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C116" t="s">
         <v>58</v>
       </c>
       <c r="D116" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F116" t="s">
         <v>1098</v>
       </c>
-      <c r="E116" t="s">
+      <c r="G116" t="s">
         <v>1099</v>
       </c>
-      <c r="F116" t="s">
+      <c r="H116" s="2" t="s">
         <v>1100</v>
-      </c>
-      <c r="G116" t="s">
-        <v>1101</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>1102</v>
       </c>
       <c r="I116" t="s">
         <v>8</v>
@@ -11933,16 +11924,16 @@
         <v>9</v>
       </c>
       <c r="K116" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="L116" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="M116" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N116" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O116" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80548_salford", ".\export_data\inspection_reports\80548_salford")</f>
@@ -11966,28 +11957,28 @@
     </row>
     <row r="117" spans="1:20">
       <c r="A117" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B117" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C117" t="s">
         <v>45</v>
       </c>
       <c r="D117" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F117" t="s">
         <v>1107</v>
       </c>
-      <c r="E117" t="s">
+      <c r="G117" t="s">
         <v>1108</v>
       </c>
-      <c r="F117" t="s">
+      <c r="H117" s="2" t="s">
         <v>1109</v>
-      </c>
-      <c r="G117" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>1111</v>
       </c>
       <c r="I117" t="s">
         <v>14</v>
@@ -11996,7 +11987,7 @@
         <v>37</v>
       </c>
       <c r="K117" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L117" t="s">
         <v>490</v>
@@ -12024,45 +12015,45 @@
         <v>42</v>
       </c>
       <c r="T117" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="1:20">
       <c r="A118" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B118" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C118" t="s">
         <v>58</v>
       </c>
       <c r="D118" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F118" t="s">
         <v>1114</v>
       </c>
-      <c r="E118" t="s">
+      <c r="G118" t="s">
         <v>1115</v>
       </c>
-      <c r="F118" t="s">
+      <c r="H118" s="2" t="s">
         <v>1116</v>
       </c>
-      <c r="G118" t="s">
-        <v>1117</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>1118</v>
-      </c>
       <c r="I118" t="s">
-        <v>192</v>
+        <v>8</v>
       </c>
       <c r="J118" t="s">
         <v>37</v>
       </c>
       <c r="K118" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="L118" t="s">
-        <v>540</v>
+        <v>1117</v>
       </c>
       <c r="M118" t="s">
         <v>541</v>
@@ -12075,45 +12066,45 @@
         <v>0</v>
       </c>
       <c r="P118" t="s">
-        <v>192</v>
+        <v>8</v>
       </c>
       <c r="Q118" t="s">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="R118" t="s">
-        <v>192</v>
+        <v>8</v>
       </c>
       <c r="S118" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="T118" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119" spans="1:20">
       <c r="A119" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B119" t="s">
         <v>1119</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1120</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
       </c>
       <c r="D119" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E119" t="s">
         <v>1121</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>1122</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>1123</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" s="2" t="s">
         <v>1124</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>1125</v>
       </c>
       <c r="I119" t="s">
         <v>8</v>
@@ -12128,10 +12119,10 @@
         <v>11</v>
       </c>
       <c r="M119" t="s">
+        <v>1125</v>
+      </c>
+      <c r="N119" t="s">
         <v>1126</v>
-      </c>
-      <c r="N119" t="s">
-        <v>1127</v>
       </c>
       <c r="O119" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80551_sheffield", ".\export_data\inspection_reports\80551_sheffield")</f>
@@ -12150,96 +12141,96 @@
         <v>8</v>
       </c>
       <c r="T119" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" spans="1:20">
       <c r="A120" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B120" t="s">
         <v>1128</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1129</v>
       </c>
       <c r="C120" t="s">
         <v>45</v>
       </c>
       <c r="D120" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E120" t="s">
         <v>1130</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>1131</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>1132</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="H120" s="2" t="s">
+      <c r="I120" t="s">
+        <v>107</v>
+      </c>
+      <c r="J120" t="s">
+        <v>37</v>
+      </c>
+      <c r="K120" t="s">
         <v>1134</v>
       </c>
-      <c r="I120" t="s">
-        <v>8</v>
-      </c>
-      <c r="J120" t="s">
-        <v>9</v>
-      </c>
-      <c r="K120" t="s">
-        <v>51</v>
-      </c>
       <c r="L120" t="s">
-        <v>1135</v>
+        <v>1117</v>
       </c>
       <c r="M120" t="s">
-        <v>1136</v>
+        <v>541</v>
       </c>
       <c r="N120" t="s">
-        <v>1137</v>
+        <v>542</v>
       </c>
       <c r="O120" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80552_shropshire", ".\export_data\inspection_reports\80552_shropshire")</f>
         <v>0</v>
       </c>
       <c r="P120" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="Q120" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="R120" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="S120" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="T120" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:20">
       <c r="A121" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B121" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C121" t="s">
         <v>101</v>
       </c>
       <c r="D121" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G121" t="s">
         <v>1140</v>
       </c>
-      <c r="E121" t="s">
+      <c r="H121" s="2" t="s">
         <v>1141</v>
-      </c>
-      <c r="F121" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G121" t="s">
-        <v>1143</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>1144</v>
       </c>
       <c r="I121" t="s">
         <v>14</v>
@@ -12254,17 +12245,17 @@
         <v>473</v>
       </c>
       <c r="M121" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="N121" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="O121" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80553_slough", ".\export_data\inspection_reports\80553_slough")</f>
         <v>0</v>
       </c>
       <c r="P121" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q121" t="s">
         <v>14</v>
@@ -12281,91 +12272,91 @@
     </row>
     <row r="122" spans="1:20">
       <c r="A122" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B122" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C122" t="s">
         <v>45</v>
       </c>
       <c r="D122" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G122" t="s">
         <v>1147</v>
       </c>
-      <c r="E122" t="s">
+      <c r="H122" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="F122" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G122" t="s">
-        <v>1150</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>1151</v>
-      </c>
       <c r="I122" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J122" t="s">
         <v>37</v>
       </c>
       <c r="K122" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="L122" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M122" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N122" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O122" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80554_solihull", ".\export_data\inspection_reports\80554_solihull")</f>
         <v>0</v>
       </c>
       <c r="P122" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q122" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R122" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S122" t="s">
         <v>42</v>
       </c>
       <c r="T122" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123" spans="1:20">
       <c r="A123" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B123" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C123" t="s">
         <v>18</v>
       </c>
       <c r="D123" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G123" t="s">
         <v>1155</v>
       </c>
-      <c r="E123" t="s">
+      <c r="H123" s="2" t="s">
         <v>1156</v>
-      </c>
-      <c r="F123" t="s">
-        <v>1157</v>
-      </c>
-      <c r="G123" t="s">
-        <v>1158</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>1159</v>
       </c>
       <c r="I123" t="s">
         <v>8</v>
@@ -12402,33 +12393,33 @@
         <v>42</v>
       </c>
       <c r="T123" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:20">
       <c r="A124" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B124" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C124" t="s">
         <v>18</v>
       </c>
       <c r="D124" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G124" t="s">
         <v>1162</v>
       </c>
-      <c r="E124" t="s">
+      <c r="H124" s="2" t="s">
         <v>1163</v>
-      </c>
-      <c r="F124" t="s">
-        <v>1164</v>
-      </c>
-      <c r="G124" t="s">
-        <v>1165</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>1166</v>
       </c>
       <c r="I124" t="s">
         <v>8</v>
@@ -12470,37 +12461,37 @@
     </row>
     <row r="125" spans="1:20">
       <c r="A125" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C125" t="s">
+        <v>296</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E125" t="s">
         <v>1167</v>
       </c>
-      <c r="B125" t="s">
+      <c r="F125" t="s">
         <v>1168</v>
       </c>
-      <c r="C125" t="s">
-        <v>295</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="G125" t="s">
         <v>1169</v>
       </c>
-      <c r="E125" t="s">
+      <c r="H125" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="F125" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G125" t="s">
-        <v>1172</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>1173</v>
-      </c>
       <c r="I125" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J125" t="s">
         <v>9</v>
       </c>
       <c r="K125" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L125" t="s">
         <v>77</v>
@@ -12509,52 +12500,52 @@
         <v>531</v>
       </c>
       <c r="N125" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="O125" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80557_south tyneside", ".\export_data\inspection_reports\80557_south tyneside")</f>
         <v>0</v>
       </c>
       <c r="P125" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q125" t="s">
         <v>14</v>
       </c>
       <c r="R125" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S125" t="s">
         <v>42</v>
       </c>
       <c r="T125" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:20">
       <c r="A126" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="B126" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C126" t="s">
         <v>101</v>
       </c>
       <c r="D126" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G126" t="s">
         <v>1177</v>
       </c>
-      <c r="E126" t="s">
+      <c r="H126" s="2" t="s">
         <v>1178</v>
-      </c>
-      <c r="F126" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G126" t="s">
-        <v>1180</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>1181</v>
       </c>
       <c r="I126" t="s">
         <v>8</v>
@@ -12563,16 +12554,16 @@
         <v>37</v>
       </c>
       <c r="K126" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L126" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="M126" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="N126" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="O126" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80558_southampton", ".\export_data\inspection_reports\80558_southampton")</f>
@@ -12591,33 +12582,33 @@
         <v>8</v>
       </c>
       <c r="T126" t="s">
-        <v>398</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:20">
       <c r="A127" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="B127" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C127" t="s">
         <v>31</v>
       </c>
       <c r="D127" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G127" t="s">
         <v>1187</v>
       </c>
-      <c r="E127" t="s">
+      <c r="H127" s="2" t="s">
         <v>1188</v>
-      </c>
-      <c r="F127" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G127" t="s">
-        <v>1190</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>1191</v>
       </c>
       <c r="I127" t="s">
         <v>8</v>
@@ -12659,28 +12650,28 @@
     </row>
     <row r="128" spans="1:20">
       <c r="A128" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B128" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C128" t="s">
         <v>58</v>
       </c>
       <c r="D128" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G128" t="s">
         <v>1194</v>
       </c>
-      <c r="E128" t="s">
+      <c r="H128" s="2" t="s">
         <v>1195</v>
-      </c>
-      <c r="F128" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G128" t="s">
-        <v>1197</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>1198</v>
       </c>
       <c r="I128" t="s">
         <v>8</v>
@@ -12722,28 +12713,28 @@
     </row>
     <row r="129" spans="1:20">
       <c r="A129" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="B129" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="C129" t="s">
         <v>45</v>
       </c>
       <c r="D129" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G129" t="s">
         <v>1201</v>
       </c>
-      <c r="E129" t="s">
+      <c r="H129" s="2" t="s">
         <v>1202</v>
-      </c>
-      <c r="F129" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G129" t="s">
-        <v>1204</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>1205</v>
       </c>
       <c r="I129" t="s">
         <v>14</v>
@@ -12752,16 +12743,16 @@
         <v>9</v>
       </c>
       <c r="K129" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L129" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="M129" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N129" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O129" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80561_staffordshire", ".\export_data\inspection_reports\80561_staffordshire")</f>
@@ -12780,33 +12771,33 @@
         <v>14</v>
       </c>
       <c r="T129" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="130" spans="1:20">
       <c r="A130" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="B130" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C130" t="s">
         <v>58</v>
       </c>
       <c r="D130" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G130" t="s">
         <v>1208</v>
       </c>
-      <c r="E130" t="s">
+      <c r="H130" s="2" t="s">
         <v>1209</v>
-      </c>
-      <c r="F130" t="s">
-        <v>1210</v>
-      </c>
-      <c r="G130" t="s">
-        <v>1211</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>1212</v>
       </c>
       <c r="I130" t="s">
         <v>14</v>
@@ -12818,13 +12809,13 @@
         <v>76</v>
       </c>
       <c r="L130" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="M130" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N130" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="O130" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80562_stockport", ".\export_data\inspection_reports\80562_stockport")</f>
@@ -12848,28 +12839,28 @@
     </row>
     <row r="131" spans="1:20">
       <c r="A131" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C131" t="s">
+        <v>296</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E131" t="s">
         <v>1214</v>
       </c>
-      <c r="B131" t="s">
+      <c r="F131" t="s">
         <v>1215</v>
       </c>
-      <c r="C131" t="s">
-        <v>295</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="G131" t="s">
         <v>1216</v>
       </c>
-      <c r="E131" t="s">
+      <c r="H131" s="2" t="s">
         <v>1217</v>
-      </c>
-      <c r="F131" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G131" t="s">
-        <v>1219</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>1220</v>
       </c>
       <c r="I131" t="s">
         <v>14</v>
@@ -12878,16 +12869,16 @@
         <v>37</v>
       </c>
       <c r="K131" t="s">
+        <v>1218</v>
+      </c>
+      <c r="L131" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M131" t="s">
+        <v>1220</v>
+      </c>
+      <c r="N131" t="s">
         <v>1221</v>
-      </c>
-      <c r="L131" t="s">
-        <v>1222</v>
-      </c>
-      <c r="M131" t="s">
-        <v>1223</v>
-      </c>
-      <c r="N131" t="s">
-        <v>1224</v>
       </c>
       <c r="O131" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80563_stockton-on-tees", ".\export_data\inspection_reports\80563_stockton-on-tees")</f>
@@ -12906,33 +12897,33 @@
         <v>14</v>
       </c>
       <c r="T131" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:20">
       <c r="A132" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="B132" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C132" t="s">
         <v>45</v>
       </c>
       <c r="D132" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G132" t="s">
         <v>1227</v>
       </c>
-      <c r="E132" t="s">
+      <c r="H132" s="2" t="s">
         <v>1228</v>
-      </c>
-      <c r="F132" t="s">
-        <v>1229</v>
-      </c>
-      <c r="G132" t="s">
-        <v>1230</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>1231</v>
       </c>
       <c r="I132" t="s">
         <v>14</v>
@@ -12944,13 +12935,13 @@
         <v>51</v>
       </c>
       <c r="L132" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="M132" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N132" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="O132" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80564_stoke-on-trent", ".\export_data\inspection_reports\80564_stoke-on-trent")</f>
@@ -12974,28 +12965,28 @@
     </row>
     <row r="133" spans="1:20">
       <c r="A133" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="B133" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C133" t="s">
         <v>31</v>
       </c>
       <c r="D133" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G133" t="s">
         <v>1234</v>
       </c>
-      <c r="E133" t="s">
+      <c r="H133" s="2" t="s">
         <v>1235</v>
-      </c>
-      <c r="F133" t="s">
-        <v>1236</v>
-      </c>
-      <c r="G133" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>1238</v>
       </c>
       <c r="I133" t="s">
         <v>14</v>
@@ -13004,7 +12995,7 @@
         <v>9</v>
       </c>
       <c r="K133" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L133" t="s">
         <v>664</v>
@@ -13013,7 +13004,7 @@
         <v>665</v>
       </c>
       <c r="N133" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="O133" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80565_suffolk", ".\export_data\inspection_reports\80565_suffolk")</f>
@@ -13032,33 +13023,33 @@
         <v>14</v>
       </c>
       <c r="T133" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134" spans="1:20">
       <c r="A134" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C134" t="s">
+        <v>296</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E134" t="s">
         <v>1240</v>
       </c>
-      <c r="B134" t="s">
+      <c r="F134" t="s">
         <v>1241</v>
       </c>
-      <c r="C134" t="s">
-        <v>295</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="G134" t="s">
         <v>1242</v>
       </c>
-      <c r="E134" t="s">
+      <c r="H134" s="2" t="s">
         <v>1243</v>
-      </c>
-      <c r="F134" t="s">
-        <v>1244</v>
-      </c>
-      <c r="G134" t="s">
-        <v>1245</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>1246</v>
       </c>
       <c r="I134" t="s">
         <v>107</v>
@@ -13067,16 +13058,16 @@
         <v>9</v>
       </c>
       <c r="K134" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L134" t="s">
         <v>141</v>
       </c>
       <c r="M134" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N134" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="O134" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80566_sunderland", ".\export_data\inspection_reports\80566_sunderland")</f>
@@ -13100,28 +13091,28 @@
     </row>
     <row r="135" spans="1:20">
       <c r="A135" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="B135" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C135" t="s">
         <v>101</v>
       </c>
       <c r="D135" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G135" t="s">
         <v>1250</v>
       </c>
-      <c r="E135" t="s">
+      <c r="H135" s="2" t="s">
         <v>1251</v>
-      </c>
-      <c r="F135" t="s">
-        <v>1252</v>
-      </c>
-      <c r="G135" t="s">
-        <v>1253</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>1254</v>
       </c>
       <c r="I135" t="s">
         <v>8</v>
@@ -13133,13 +13124,13 @@
         <v>510</v>
       </c>
       <c r="L135" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M135" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N135" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O135" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80567_surrey", ".\export_data\inspection_reports\80567_surrey")</f>
@@ -13158,36 +13149,36 @@
         <v>8</v>
       </c>
       <c r="T135" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:20">
       <c r="A136" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="B136" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C136" t="s">
         <v>18</v>
       </c>
       <c r="D136" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G136" t="s">
         <v>1257</v>
       </c>
-      <c r="E136" t="s">
+      <c r="H136" s="2" t="s">
         <v>1258</v>
       </c>
-      <c r="F136" t="s">
-        <v>1259</v>
-      </c>
-      <c r="G136" t="s">
-        <v>1260</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>1261</v>
-      </c>
       <c r="I136" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J136" t="s">
         <v>37</v>
@@ -13196,61 +13187,61 @@
         <v>140</v>
       </c>
       <c r="L136" t="s">
+        <v>871</v>
+      </c>
+      <c r="M136" t="s">
+        <v>872</v>
+      </c>
+      <c r="N136" t="s">
         <v>873</v>
-      </c>
-      <c r="M136" t="s">
-        <v>874</v>
-      </c>
-      <c r="N136" t="s">
-        <v>875</v>
       </c>
       <c r="O136" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80568_swindon", ".\export_data\inspection_reports\80568_swindon")</f>
         <v>0</v>
       </c>
       <c r="P136" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q136" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R136" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S136" t="s">
         <v>14</v>
       </c>
       <c r="T136" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:20">
       <c r="A137" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="B137" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C137" t="s">
         <v>58</v>
       </c>
       <c r="D137" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G137" t="s">
         <v>1264</v>
       </c>
-      <c r="E137" t="s">
+      <c r="H137" s="2" t="s">
         <v>1265</v>
       </c>
-      <c r="F137" t="s">
-        <v>1266</v>
-      </c>
-      <c r="G137" t="s">
-        <v>1267</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>1268</v>
-      </c>
       <c r="I137" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J137" t="s">
         <v>37</v>
@@ -13262,55 +13253,55 @@
         <v>756</v>
       </c>
       <c r="M137" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N137" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="O137" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80569_tameside", ".\export_data\inspection_reports\80569_tameside")</f>
         <v>0</v>
       </c>
       <c r="P137" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q137" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R137" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S137" t="s">
         <v>14</v>
       </c>
       <c r="T137" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="138" spans="1:20">
       <c r="A138" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="B138" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C138" t="s">
         <v>45</v>
       </c>
       <c r="D138" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G138" t="s">
         <v>1272</v>
       </c>
-      <c r="E138" t="s">
+      <c r="H138" s="2" t="s">
         <v>1273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>1274</v>
-      </c>
-      <c r="G138" t="s">
-        <v>1275</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>1276</v>
       </c>
       <c r="I138" t="s">
         <v>107</v>
@@ -13319,10 +13310,10 @@
         <v>9</v>
       </c>
       <c r="K138" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L138" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="M138" t="s">
         <v>558</v>
@@ -13347,33 +13338,33 @@
         <v>107</v>
       </c>
       <c r="T138" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:20">
       <c r="A139" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="B139" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C139" t="s">
         <v>31</v>
       </c>
       <c r="D139" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G139" t="s">
         <v>1280</v>
       </c>
-      <c r="E139" t="s">
+      <c r="H139" s="2" t="s">
         <v>1281</v>
-      </c>
-      <c r="F139" t="s">
-        <v>1282</v>
-      </c>
-      <c r="G139" t="s">
-        <v>1283</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>1284</v>
       </c>
       <c r="I139" t="s">
         <v>107</v>
@@ -13385,13 +13376,13 @@
         <v>510</v>
       </c>
       <c r="L139" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="M139" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="N139" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="O139" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80571_thurrock", ".\export_data\inspection_reports\80571_thurrock")</f>
@@ -13410,33 +13401,33 @@
         <v>107</v>
       </c>
       <c r="T139" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:20">
       <c r="A140" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="B140" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C140" t="s">
         <v>18</v>
       </c>
       <c r="D140" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G140" t="s">
         <v>1290</v>
       </c>
-      <c r="E140" t="s">
+      <c r="H140" s="2" t="s">
         <v>1291</v>
-      </c>
-      <c r="F140" t="s">
-        <v>1292</v>
-      </c>
-      <c r="G140" t="s">
-        <v>1293</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>1294</v>
       </c>
       <c r="I140" t="s">
         <v>8</v>
@@ -13445,16 +13436,16 @@
         <v>37</v>
       </c>
       <c r="K140" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="L140" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="M140" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="N140" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="O140" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80572_torbay", ".\export_data\inspection_reports\80572_torbay")</f>
@@ -13473,33 +13464,33 @@
         <v>42</v>
       </c>
       <c r="T140" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:20">
       <c r="A141" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="B141" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C141" t="s">
         <v>58</v>
       </c>
       <c r="D141" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G141" t="s">
         <v>1299</v>
       </c>
-      <c r="E141" t="s">
+      <c r="H141" s="2" t="s">
         <v>1300</v>
-      </c>
-      <c r="F141" t="s">
-        <v>1301</v>
-      </c>
-      <c r="G141" t="s">
-        <v>1302</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>1303</v>
       </c>
       <c r="I141" t="s">
         <v>14</v>
@@ -13511,13 +13502,13 @@
         <v>140</v>
       </c>
       <c r="L141" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M141" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N141" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O141" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80573_trafford", ".\export_data\inspection_reports\80573_trafford")</f>
@@ -13536,33 +13527,33 @@
         <v>42</v>
       </c>
       <c r="T141" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:20">
       <c r="A142" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="B142" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C142" t="s">
         <v>45</v>
       </c>
       <c r="D142" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F142" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G142" t="s">
         <v>1306</v>
       </c>
-      <c r="E142" t="s">
+      <c r="H142" s="2" t="s">
         <v>1307</v>
-      </c>
-      <c r="F142" t="s">
-        <v>1308</v>
-      </c>
-      <c r="G142" t="s">
-        <v>1309</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>1310</v>
       </c>
       <c r="I142" t="s">
         <v>107</v>
@@ -13574,13 +13565,13 @@
         <v>140</v>
       </c>
       <c r="L142" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="M142" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="N142" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O142" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80574_walsall", ".\export_data\inspection_reports\80574_walsall")</f>
@@ -13599,33 +13590,33 @@
         <v>8</v>
       </c>
       <c r="T142" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:20">
       <c r="A143" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="B143" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="C143" t="s">
         <v>58</v>
       </c>
       <c r="D143" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F143" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G143" t="s">
         <v>1313</v>
       </c>
-      <c r="E143" t="s">
+      <c r="H143" s="2" t="s">
         <v>1314</v>
-      </c>
-      <c r="F143" t="s">
-        <v>1315</v>
-      </c>
-      <c r="G143" t="s">
-        <v>1316</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>1317</v>
       </c>
       <c r="I143" t="s">
         <v>8</v>
@@ -13643,7 +13634,7 @@
         <v>445</v>
       </c>
       <c r="N143" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="O143" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80575_warrington", ".\export_data\inspection_reports\80575_warrington")</f>
@@ -13667,28 +13658,28 @@
     </row>
     <row r="144" spans="1:20">
       <c r="A144" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="B144" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="C144" t="s">
         <v>45</v>
       </c>
       <c r="D144" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F144" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G144" t="s">
         <v>1321</v>
       </c>
-      <c r="E144" t="s">
+      <c r="H144" s="2" t="s">
         <v>1322</v>
-      </c>
-      <c r="F144" t="s">
-        <v>1323</v>
-      </c>
-      <c r="G144" t="s">
-        <v>1324</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>1325</v>
       </c>
       <c r="I144" t="s">
         <v>8</v>
@@ -13697,16 +13688,16 @@
         <v>37</v>
       </c>
       <c r="K144" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L144" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="M144" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="N144" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="O144" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80576_warwickshire", ".\export_data\inspection_reports\80576_warwickshire")</f>
@@ -13725,33 +13716,33 @@
         <v>42</v>
       </c>
       <c r="T144" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145" spans="1:20">
       <c r="A145" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="B145" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C145" t="s">
         <v>101</v>
       </c>
       <c r="D145" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1330</v>
+      </c>
+      <c r="G145" t="s">
         <v>1331</v>
       </c>
-      <c r="E145" t="s">
+      <c r="H145" s="2" t="s">
         <v>1332</v>
-      </c>
-      <c r="F145" t="s">
-        <v>1333</v>
-      </c>
-      <c r="G145" t="s">
-        <v>1334</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>1335</v>
       </c>
       <c r="I145" t="s">
         <v>8</v>
@@ -13763,13 +13754,13 @@
         <v>119</v>
       </c>
       <c r="L145" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="M145" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="N145" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="O145" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80577_west berkshire", ".\export_data\inspection_reports\80577_west berkshire")</f>
@@ -13793,28 +13784,28 @@
     </row>
     <row r="146" spans="1:20">
       <c r="A146" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C146" t="s">
+        <v>308</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E146" t="s">
         <v>1339</v>
       </c>
-      <c r="B146" t="s">
+      <c r="F146" t="s">
         <v>1340</v>
       </c>
-      <c r="C146" t="s">
-        <v>307</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="G146" t="s">
         <v>1341</v>
       </c>
-      <c r="E146" t="s">
+      <c r="H146" s="2" t="s">
         <v>1342</v>
-      </c>
-      <c r="F146" t="s">
-        <v>1343</v>
-      </c>
-      <c r="G146" t="s">
-        <v>1344</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>1345</v>
       </c>
       <c r="I146" t="s">
         <v>14</v>
@@ -13823,16 +13814,16 @@
         <v>37</v>
       </c>
       <c r="K146" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L146" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="M146" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="N146" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="O146" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\2637548_west northamptonshire", ".\export_data\inspection_reports\2637548_west northamptonshire")</f>
@@ -13851,33 +13842,33 @@
         <v>42</v>
       </c>
       <c r="T146" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147" spans="1:20">
       <c r="A147" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="B147" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C147" t="s">
         <v>101</v>
       </c>
       <c r="D147" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G147" t="s">
         <v>1348</v>
       </c>
-      <c r="E147" t="s">
+      <c r="H147" s="2" t="s">
         <v>1349</v>
-      </c>
-      <c r="F147" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G147" t="s">
-        <v>1351</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>1352</v>
       </c>
       <c r="I147" t="s">
         <v>14</v>
@@ -13886,7 +13877,7 @@
         <v>37</v>
       </c>
       <c r="K147" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="L147" t="s">
         <v>576</v>
@@ -13895,7 +13886,7 @@
         <v>577</v>
       </c>
       <c r="N147" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="O147" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80578_west sussex", ".\export_data\inspection_reports\80578_west sussex")</f>
@@ -13914,33 +13905,33 @@
         <v>14</v>
       </c>
       <c r="T147" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:20">
       <c r="A148" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="B148" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C148" t="s">
         <v>58</v>
       </c>
       <c r="D148" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E148" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F148" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H148" s="2" t="s">
         <v>1356</v>
-      </c>
-      <c r="F148" t="s">
-        <v>1357</v>
-      </c>
-      <c r="G148" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>1359</v>
       </c>
       <c r="I148" t="s">
         <v>8</v>
@@ -13949,7 +13940,7 @@
         <v>37</v>
       </c>
       <c r="K148" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="L148" t="s">
         <v>557</v>
@@ -13982,28 +13973,28 @@
     </row>
     <row r="149" spans="1:20">
       <c r="A149" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="B149" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C149" t="s">
         <v>58</v>
       </c>
       <c r="D149" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G149" t="s">
         <v>1362</v>
       </c>
-      <c r="E149" t="s">
+      <c r="H149" s="2" t="s">
         <v>1363</v>
-      </c>
-      <c r="F149" t="s">
-        <v>1364</v>
-      </c>
-      <c r="G149" t="s">
-        <v>1365</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>1366</v>
       </c>
       <c r="I149" t="s">
         <v>14</v>
@@ -14012,7 +14003,7 @@
         <v>37</v>
       </c>
       <c r="K149" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="L149" t="s">
         <v>490</v>
@@ -14040,33 +14031,33 @@
         <v>42</v>
       </c>
       <c r="T149" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150" spans="1:20">
       <c r="A150" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="B150" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="C150" t="s">
         <v>18</v>
       </c>
       <c r="D150" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G150" t="s">
         <v>1370</v>
       </c>
-      <c r="E150" t="s">
+      <c r="H150" s="2" t="s">
         <v>1371</v>
-      </c>
-      <c r="F150" t="s">
-        <v>1372</v>
-      </c>
-      <c r="G150" t="s">
-        <v>1373</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>1374</v>
       </c>
       <c r="I150" t="s">
         <v>107</v>
@@ -14078,13 +14069,13 @@
         <v>406</v>
       </c>
       <c r="L150" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="M150" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="N150" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="O150" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80580_wiltshire", ".\export_data\inspection_reports\80580_wiltshire")</f>
@@ -14103,33 +14094,33 @@
         <v>107</v>
       </c>
       <c r="T150" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="151" spans="1:20">
       <c r="A151" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="B151" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="C151" t="s">
         <v>58</v>
       </c>
       <c r="D151" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G151" t="s">
         <v>1380</v>
       </c>
-      <c r="E151" t="s">
+      <c r="H151" s="2" t="s">
         <v>1381</v>
-      </c>
-      <c r="F151" t="s">
-        <v>1382</v>
-      </c>
-      <c r="G151" t="s">
-        <v>1383</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>1384</v>
       </c>
       <c r="I151" t="s">
         <v>14</v>
@@ -14138,16 +14129,16 @@
         <v>37</v>
       </c>
       <c r="K151" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L151" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="M151" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="N151" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="O151" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80581_wirral", ".\export_data\inspection_reports\80581_wirral")</f>
@@ -14171,28 +14162,28 @@
     </row>
     <row r="152" spans="1:20">
       <c r="A152" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="B152" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C152" t="s">
         <v>101</v>
       </c>
       <c r="D152" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G152" t="s">
         <v>1389</v>
       </c>
-      <c r="E152" t="s">
+      <c r="H152" s="2" t="s">
         <v>1390</v>
-      </c>
-      <c r="F152" t="s">
-        <v>1391</v>
-      </c>
-      <c r="G152" t="s">
-        <v>1392</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>1393</v>
       </c>
       <c r="I152" t="s">
         <v>14</v>
@@ -14201,16 +14192,16 @@
         <v>37</v>
       </c>
       <c r="K152" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L152" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="M152" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="N152" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="O152" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80582_wokingham", ".\export_data\inspection_reports\80582_wokingham")</f>
@@ -14229,33 +14220,33 @@
         <v>14</v>
       </c>
       <c r="T152" t="s">
-        <v>398</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="1:20">
       <c r="A153" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="B153" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="C153" t="s">
         <v>45</v>
       </c>
       <c r="D153" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G153" t="s">
         <v>1396</v>
       </c>
-      <c r="E153" t="s">
+      <c r="H153" s="2" t="s">
         <v>1397</v>
-      </c>
-      <c r="F153" t="s">
-        <v>1398</v>
-      </c>
-      <c r="G153" t="s">
-        <v>1399</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>1400</v>
       </c>
       <c r="I153" t="s">
         <v>8</v>
@@ -14264,16 +14255,16 @@
         <v>9</v>
       </c>
       <c r="K153" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="L153" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="M153" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="N153" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="O153" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80583_wolverhampton", ".\export_data\inspection_reports\80583_wolverhampton")</f>
@@ -14297,28 +14288,28 @@
     </row>
     <row r="154" spans="1:20">
       <c r="A154" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="B154" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C154" t="s">
         <v>45</v>
       </c>
       <c r="D154" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G154" t="s">
         <v>1404</v>
       </c>
-      <c r="E154" t="s">
+      <c r="H154" s="2" t="s">
         <v>1405</v>
-      </c>
-      <c r="F154" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G154" t="s">
-        <v>1407</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>1408</v>
       </c>
       <c r="I154" t="s">
         <v>8</v>
@@ -14327,16 +14318,16 @@
         <v>37</v>
       </c>
       <c r="K154" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L154" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="M154" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="N154" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="O154" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80584_worcestershire", ".\export_data\inspection_reports\80584_worcestershire")</f>
@@ -14355,7 +14346,7 @@
         <v>8</v>
       </c>
       <c r="T154" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/ofsted_csc_ilacs_overview.xlsx
+++ b/ofsted_csc_ilacs_overview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1423">
   <si>
     <t>80426</t>
   </si>
@@ -1039,7 +1039,7 @@
     <t>372, 370, 384, 894, 357, 812, 335, 861, 354, 813</t>
   </si>
   <si>
-    <t>[(372, 'good'), (370, 'good'), (384, 'good'), (894, 'outstanding'), (357, 'inadequate'), (812, 'inadequate'), (335, 'outstanding'), (861, 'requires improvement'), (354, 'requires improvement'), (813, 'outstanding')]</t>
+    <t>[(372, 'good'), (370, 'good'), (384, 'good'), (894, 'outstanding'), (357, 'inadequate'), (812, 'good'), (335, 'outstanding'), (861, 'requires improvement'), (354, 'requires improvement'), (813, 'outstanding')]</t>
   </si>
   <si>
     <t>doncaster</t>
@@ -1504,7 +1504,7 @@
     <t>333, 336, 861, 335, 812, 354, 806, 371, 831, 372</t>
   </si>
   <si>
-    <t>[(333, 'requires improvement'), (336, 'good'), (861, 'requires improvement'), (335, 'outstanding'), (812, 'inadequate'), (354, 'requires improvement'), (806, 'requires improvement'), (371, 'good'), (831, 'outstanding'), (372, 'good')]</t>
+    <t>[(333, 'requires improvement'), (336, 'good'), (861, 'requires improvement'), (335, 'outstanding'), (812, 'good'), (354, 'requires improvement'), (806, 'requires improvement'), (371, 'good'), (831, 'outstanding'), (372, 'good')]</t>
   </si>
   <si>
     <t>kingston upon hull</t>
@@ -2746,16 +2746,13 @@
     <t>north east lincolnshire</t>
   </si>
   <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50172853</t>
-  </si>
-  <si>
-    <t>04/10/2021</t>
-  </si>
-  <si>
-    <t>15/10/2021</t>
-  </si>
-  <si>
-    <t>26/11/21</t>
+    <t>https://files.ofsted.gov.uk/v1/file/50285393</t>
+  </si>
+  <si>
+    <t>25/07/2025</t>
+  </si>
+  <si>
+    <t>03/09/25</t>
   </si>
   <si>
     <t>80527</t>
@@ -3682,7 +3679,7 @@
     <t>335, 354, 336, 371, 812, 810, 333, 357, 831, 372</t>
   </si>
   <si>
-    <t>[(335, 'outstanding'), (354, 'requires improvement'), (336, 'good'), (371, 'good'), (812, 'inadequate'), (810, 'requires improvement'), (333, 'requires improvement'), (357, 'inadequate'), (831, 'outstanding'), (372, 'good')]</t>
+    <t>[(335, 'outstanding'), (354, 'requires improvement'), (336, 'good'), (371, 'good'), (812, 'good'), (810, 'requires improvement'), (333, 'requires improvement'), (357, 'inadequate'), (831, 'outstanding'), (372, 'good')]</t>
   </si>
   <si>
     <t>stoke-on-trent</t>
@@ -3919,7 +3916,7 @@
     <t>354, 861, 357, 336, 371, 831, 350, 372, 812, 333</t>
   </si>
   <si>
-    <t>[(354, 'requires improvement'), (861, 'requires improvement'), (357, 'inadequate'), (336, 'good'), (371, 'good'), (831, 'outstanding'), (350, 'good'), (372, 'good'), (812, 'inadequate'), (333, 'requires improvement')]</t>
+    <t>[(354, 'requires improvement'), (861, 'requires improvement'), (357, 'inadequate'), (336, 'good'), (371, 'good'), (831, 'outstanding'), (350, 'good'), (372, 'good'), (812, 'good'), (333, 'requires improvement')]</t>
   </si>
   <si>
     <t>walsall</t>
@@ -4189,7 +4186,7 @@
     <t>333, 861, 335, 810, 354, 331, 371, 831, 806, 812</t>
   </si>
   <si>
-    <t>[(333, 'requires improvement'), (861, 'requires improvement'), (335, 'outstanding'), (810, 'requires improvement'), (354, 'requires improvement'), (331, 'good'), (371, 'good'), (831, 'outstanding'), (806, 'requires improvement'), (812, 'inadequate')]</t>
+    <t>[(333, 'requires improvement'), (861, 'requires improvement'), (335, 'outstanding'), (810, 'requires improvement'), (354, 'requires improvement'), (331, 'good'), (371, 'good'), (831, 'outstanding'), (806, 'requires improvement'), (812, 'good')]</t>
   </si>
   <si>
     <t>wolverhampton</t>
@@ -4656,64 +4653,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>1422</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -5904,7 +5901,7 @@
         <v>78</v>
       </c>
       <c r="T20" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -6849,7 +6846,7 @@
         <v>106</v>
       </c>
       <c r="T35" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -8046,7 +8043,7 @@
         <v>106</v>
       </c>
       <c r="T54" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -10532,67 +10529,67 @@
         <v>910</v>
       </c>
       <c r="I94" t="s">
-        <v>191</v>
+        <v>8</v>
       </c>
       <c r="J94" t="s">
         <v>48</v>
       </c>
       <c r="K94" t="s">
-        <v>213</v>
+        <v>375</v>
       </c>
       <c r="L94" t="s">
+        <v>37</v>
+      </c>
+      <c r="M94" t="s">
         <v>911</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>912</v>
-      </c>
-      <c r="N94" t="s">
-        <v>913</v>
       </c>
       <c r="O94" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80526_north east lincolnshire", ".\export_data\inspection_reports\80526_north east lincolnshire")</f>
         <v>0</v>
       </c>
       <c r="P94" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="Q94" t="s">
-        <v>191</v>
+        <v>8</v>
       </c>
       <c r="R94" t="s">
-        <v>191</v>
+        <v>8</v>
       </c>
       <c r="S94" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="T94" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:20">
       <c r="A95" t="s">
+        <v>913</v>
+      </c>
+      <c r="B95" t="s">
         <v>914</v>
-      </c>
-      <c r="B95" t="s">
-        <v>915</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
       </c>
       <c r="D95" t="s">
+        <v>915</v>
+      </c>
+      <c r="E95" t="s">
         <v>916</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>917</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>918</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" s="2" t="s">
         <v>919</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>920</v>
       </c>
       <c r="I95" t="s">
         <v>106</v>
@@ -10601,16 +10598,16 @@
         <v>9</v>
       </c>
       <c r="K95" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L95" t="s">
         <v>301</v>
       </c>
       <c r="M95" t="s">
+        <v>921</v>
+      </c>
+      <c r="N95" t="s">
         <v>922</v>
-      </c>
-      <c r="N95" t="s">
-        <v>923</v>
       </c>
       <c r="O95" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80527_north lincolnshire", ".\export_data\inspection_reports\80527_north lincolnshire")</f>
@@ -10634,28 +10631,28 @@
     </row>
     <row r="96" spans="1:20">
       <c r="A96" t="s">
+        <v>923</v>
+      </c>
+      <c r="B96" t="s">
         <v>924</v>
-      </c>
-      <c r="B96" t="s">
-        <v>925</v>
       </c>
       <c r="C96" t="s">
         <v>306</v>
       </c>
       <c r="D96" t="s">
+        <v>925</v>
+      </c>
+      <c r="E96" t="s">
         <v>926</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>927</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>928</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" s="2" t="s">
         <v>929</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>930</v>
       </c>
       <c r="I96" t="s">
         <v>14</v>
@@ -10667,13 +10664,13 @@
         <v>202</v>
       </c>
       <c r="L96" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="M96" t="s">
+        <v>921</v>
+      </c>
+      <c r="N96" t="s">
         <v>922</v>
-      </c>
-      <c r="N96" t="s">
-        <v>923</v>
       </c>
       <c r="O96" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\2637539_north northamptonshire", ".\export_data\inspection_reports\2637539_north northamptonshire")</f>
@@ -10697,28 +10694,28 @@
     </row>
     <row r="97" spans="1:20">
       <c r="A97" t="s">
+        <v>931</v>
+      </c>
+      <c r="B97" t="s">
         <v>932</v>
-      </c>
-      <c r="B97" t="s">
-        <v>933</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
       </c>
       <c r="D97" t="s">
+        <v>933</v>
+      </c>
+      <c r="E97" t="s">
         <v>934</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>935</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>936</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>938</v>
       </c>
       <c r="I97" t="s">
         <v>14</v>
@@ -10736,7 +10733,7 @@
         <v>576</v>
       </c>
       <c r="N97" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="O97" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80528_north somerset", ".\export_data\inspection_reports\80528_north somerset")</f>
@@ -10760,28 +10757,28 @@
     </row>
     <row r="98" spans="1:20">
       <c r="A98" t="s">
+        <v>939</v>
+      </c>
+      <c r="B98" t="s">
         <v>940</v>
-      </c>
-      <c r="B98" t="s">
-        <v>941</v>
       </c>
       <c r="C98" t="s">
         <v>294</v>
       </c>
       <c r="D98" t="s">
+        <v>941</v>
+      </c>
+      <c r="E98" t="s">
         <v>942</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>943</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>944</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" s="2" t="s">
         <v>945</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>946</v>
       </c>
       <c r="I98" t="s">
         <v>106</v>
@@ -10818,33 +10815,33 @@
         <v>106</v>
       </c>
       <c r="T98" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:20">
       <c r="A99" t="s">
+        <v>946</v>
+      </c>
+      <c r="B99" t="s">
         <v>947</v>
-      </c>
-      <c r="B99" t="s">
-        <v>948</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
       </c>
       <c r="D99" t="s">
+        <v>948</v>
+      </c>
+      <c r="E99" t="s">
         <v>949</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>950</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>951</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" s="2" t="s">
         <v>952</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>953</v>
       </c>
       <c r="I99" t="s">
         <v>106</v>
@@ -10853,16 +10850,16 @@
         <v>9</v>
       </c>
       <c r="K99" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L99" t="s">
+        <v>953</v>
+      </c>
+      <c r="M99" t="s">
         <v>954</v>
       </c>
-      <c r="M99" t="s">
+      <c r="N99" t="s">
         <v>955</v>
-      </c>
-      <c r="N99" t="s">
-        <v>956</v>
       </c>
       <c r="O99" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80530_north yorkshire", ".\export_data\inspection_reports\80530_north yorkshire")</f>
@@ -10886,28 +10883,28 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" t="s">
+        <v>956</v>
+      </c>
+      <c r="B100" t="s">
         <v>957</v>
-      </c>
-      <c r="B100" t="s">
-        <v>958</v>
       </c>
       <c r="C100" t="s">
         <v>294</v>
       </c>
       <c r="D100" t="s">
+        <v>958</v>
+      </c>
+      <c r="E100" t="s">
         <v>959</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>960</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>961</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>963</v>
       </c>
       <c r="I100" t="s">
         <v>106</v>
@@ -10916,10 +10913,10 @@
         <v>9</v>
       </c>
       <c r="K100" t="s">
+        <v>963</v>
+      </c>
+      <c r="L100" t="s">
         <v>964</v>
-      </c>
-      <c r="L100" t="s">
-        <v>965</v>
       </c>
       <c r="M100" t="s">
         <v>434</v>
@@ -10949,28 +10946,28 @@
     </row>
     <row r="101" spans="1:20">
       <c r="A101" t="s">
+        <v>965</v>
+      </c>
+      <c r="B101" t="s">
         <v>966</v>
-      </c>
-      <c r="B101" t="s">
-        <v>967</v>
       </c>
       <c r="C101" t="s">
         <v>306</v>
       </c>
       <c r="D101" t="s">
+        <v>967</v>
+      </c>
+      <c r="E101" t="s">
         <v>968</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>969</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>970</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" s="2" t="s">
         <v>971</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>972</v>
       </c>
       <c r="I101" t="s">
         <v>191</v>
@@ -10979,7 +10976,7 @@
         <v>117</v>
       </c>
       <c r="K101" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="N101" t="s">
         <v>847</v>
@@ -11006,28 +11003,28 @@
     </row>
     <row r="102" spans="1:20">
       <c r="A102" t="s">
+        <v>972</v>
+      </c>
+      <c r="B102" t="s">
         <v>973</v>
-      </c>
-      <c r="B102" t="s">
-        <v>974</v>
       </c>
       <c r="C102" t="s">
         <v>306</v>
       </c>
       <c r="D102" t="s">
+        <v>974</v>
+      </c>
+      <c r="E102" t="s">
         <v>975</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>976</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>977</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" s="2" t="s">
         <v>978</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>979</v>
       </c>
       <c r="I102" t="s">
         <v>8</v>
@@ -11039,7 +11036,7 @@
         <v>754</v>
       </c>
       <c r="L102" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="M102" t="s">
         <v>434</v>
@@ -11069,28 +11066,28 @@
     </row>
     <row r="103" spans="1:20">
       <c r="A103" t="s">
+        <v>979</v>
+      </c>
+      <c r="B103" t="s">
         <v>980</v>
-      </c>
-      <c r="B103" t="s">
-        <v>981</v>
       </c>
       <c r="C103" t="s">
         <v>56</v>
       </c>
       <c r="D103" t="s">
+        <v>981</v>
+      </c>
+      <c r="E103" t="s">
         <v>982</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>983</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>984</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" s="2" t="s">
         <v>985</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>986</v>
       </c>
       <c r="I103" t="s">
         <v>8</v>
@@ -11132,28 +11129,28 @@
     </row>
     <row r="104" spans="1:20">
       <c r="A104" t="s">
+        <v>986</v>
+      </c>
+      <c r="B104" t="s">
         <v>987</v>
-      </c>
-      <c r="B104" t="s">
-        <v>988</v>
       </c>
       <c r="C104" t="s">
         <v>100</v>
       </c>
       <c r="D104" t="s">
+        <v>988</v>
+      </c>
+      <c r="E104" t="s">
         <v>989</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>990</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>991</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>993</v>
       </c>
       <c r="I104" t="s">
         <v>8</v>
@@ -11165,13 +11162,13 @@
         <v>754</v>
       </c>
       <c r="L104" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="M104" t="s">
         <v>163</v>
       </c>
       <c r="N104" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O104" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80536_oxfordshire", ".\export_data\inspection_reports\80536_oxfordshire")</f>
@@ -11195,28 +11192,28 @@
     </row>
     <row r="105" spans="1:20">
       <c r="A105" t="s">
+        <v>995</v>
+      </c>
+      <c r="B105" t="s">
         <v>996</v>
-      </c>
-      <c r="B105" t="s">
-        <v>997</v>
       </c>
       <c r="C105" t="s">
         <v>31</v>
       </c>
       <c r="D105" t="s">
+        <v>997</v>
+      </c>
+      <c r="E105" t="s">
         <v>998</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>999</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>1000</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" s="2" t="s">
         <v>1001</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>1002</v>
       </c>
       <c r="I105" t="s">
         <v>191</v>
@@ -11228,13 +11225,13 @@
         <v>743</v>
       </c>
       <c r="L105" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M105" t="s">
         <v>1003</v>
       </c>
-      <c r="M105" t="s">
+      <c r="N105" t="s">
         <v>1004</v>
-      </c>
-      <c r="N105" t="s">
-        <v>1005</v>
       </c>
       <c r="O105" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80537_peterborough", ".\export_data\inspection_reports\80537_peterborough")</f>
@@ -11258,28 +11255,28 @@
     </row>
     <row r="106" spans="1:20">
       <c r="A106" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B106" t="s">
         <v>1006</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1007</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
       </c>
       <c r="D106" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E106" t="s">
         <v>1008</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>1009</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>1010</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" s="2" t="s">
         <v>1011</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>1012</v>
       </c>
       <c r="I106" t="s">
         <v>14</v>
@@ -11291,13 +11288,13 @@
         <v>127</v>
       </c>
       <c r="L106" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M106" t="s">
         <v>1013</v>
       </c>
-      <c r="M106" t="s">
+      <c r="N106" t="s">
         <v>1014</v>
-      </c>
-      <c r="N106" t="s">
-        <v>1015</v>
       </c>
       <c r="O106" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80538_plymouth", ".\export_data\inspection_reports\80538_plymouth")</f>
@@ -11321,28 +11318,28 @@
     </row>
     <row r="107" spans="1:20">
       <c r="A107" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B107" t="s">
         <v>1016</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1017</v>
       </c>
       <c r="C107" t="s">
         <v>100</v>
       </c>
       <c r="D107" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E107" t="s">
         <v>1018</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>1019</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>1020</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" s="2" t="s">
         <v>1021</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>1022</v>
       </c>
       <c r="I107" t="s">
         <v>8</v>
@@ -11354,13 +11351,13 @@
         <v>225</v>
       </c>
       <c r="L107" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M107" t="s">
         <v>1023</v>
       </c>
-      <c r="M107" t="s">
+      <c r="N107" t="s">
         <v>1024</v>
-      </c>
-      <c r="N107" t="s">
-        <v>1025</v>
       </c>
       <c r="O107" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80539_portsmouth", ".\export_data\inspection_reports\80539_portsmouth")</f>
@@ -11384,28 +11381,28 @@
     </row>
     <row r="108" spans="1:20">
       <c r="A108" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B108" t="s">
         <v>1026</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1027</v>
       </c>
       <c r="C108" t="s">
         <v>100</v>
       </c>
       <c r="D108" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E108" t="s">
         <v>1028</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>1029</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>1030</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" s="2" t="s">
         <v>1031</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>1032</v>
       </c>
       <c r="I108" t="s">
         <v>14</v>
@@ -11447,28 +11444,28 @@
     </row>
     <row r="109" spans="1:20">
       <c r="A109" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B109" t="s">
         <v>1033</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1034</v>
       </c>
       <c r="C109" t="s">
         <v>294</v>
       </c>
       <c r="D109" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E109" t="s">
         <v>1035</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>1036</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>1037</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" s="2" t="s">
         <v>1038</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>1039</v>
       </c>
       <c r="I109" t="s">
         <v>14</v>
@@ -11477,10 +11474,10 @@
         <v>117</v>
       </c>
       <c r="K109" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="N109" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="O109" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80541_redcar and cleveland", ".\export_data\inspection_reports\80541_redcar and cleveland")</f>
@@ -11504,28 +11501,28 @@
     </row>
     <row r="110" spans="1:20">
       <c r="A110" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B110" t="s">
         <v>1041</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1042</v>
       </c>
       <c r="C110" t="s">
         <v>56</v>
       </c>
       <c r="D110" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E110" t="s">
         <v>1043</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>1044</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>1045</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" s="2" t="s">
         <v>1046</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>1047</v>
       </c>
       <c r="I110" t="s">
         <v>14</v>
@@ -11540,10 +11537,10 @@
         <v>472</v>
       </c>
       <c r="M110" t="s">
+        <v>1047</v>
+      </c>
+      <c r="N110" t="s">
         <v>1048</v>
-      </c>
-      <c r="N110" t="s">
-        <v>1049</v>
       </c>
       <c r="O110" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80542_rochdale", ".\export_data\inspection_reports\80542_rochdale")</f>
@@ -11567,28 +11564,28 @@
     </row>
     <row r="111" spans="1:20">
       <c r="A111" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B111" t="s">
         <v>1050</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1051</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
       </c>
       <c r="D111" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E111" t="s">
         <v>1052</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>1053</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>1054</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" s="2" t="s">
         <v>1055</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>1056</v>
       </c>
       <c r="I111" t="s">
         <v>8</v>
@@ -11597,10 +11594,10 @@
         <v>9</v>
       </c>
       <c r="K111" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L111" t="s">
         <v>1057</v>
-      </c>
-      <c r="L111" t="s">
-        <v>1058</v>
       </c>
       <c r="M111" t="s">
         <v>280</v>
@@ -11630,28 +11627,28 @@
     </row>
     <row r="112" spans="1:20">
       <c r="A112" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B112" t="s">
         <v>1059</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1060</v>
       </c>
       <c r="C112" t="s">
         <v>219</v>
       </c>
       <c r="D112" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E112" t="s">
         <v>1061</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>1062</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>1063</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" s="2" t="s">
         <v>1064</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>1065</v>
       </c>
       <c r="I112" t="s">
         <v>106</v>
@@ -11693,28 +11690,28 @@
     </row>
     <row r="113" spans="1:20">
       <c r="A113" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B113" t="s">
         <v>1066</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1067</v>
       </c>
       <c r="C113" t="s">
         <v>219</v>
       </c>
       <c r="D113" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E113" t="s">
         <v>1068</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>1069</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>1070</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" s="2" t="s">
         <v>1071</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>1072</v>
       </c>
       <c r="I113" t="s">
         <v>106</v>
@@ -11756,28 +11753,28 @@
     </row>
     <row r="114" spans="1:20">
       <c r="A114" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B114" t="s">
         <v>1073</v>
-      </c>
-      <c r="B114" t="s">
-        <v>1074</v>
       </c>
       <c r="C114" t="s">
         <v>100</v>
       </c>
       <c r="D114" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E114" t="s">
         <v>1075</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>1076</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>1077</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" s="2" t="s">
         <v>1078</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>1079</v>
       </c>
       <c r="I114" t="s">
         <v>8</v>
@@ -11795,7 +11792,7 @@
         <v>334</v>
       </c>
       <c r="N114" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="O114" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80546_windsor &amp; maidenhead", ".\export_data\inspection_reports\80546_windsor &amp; maidenhead")</f>
@@ -11819,28 +11816,28 @@
     </row>
     <row r="115" spans="1:20">
       <c r="A115" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B115" t="s">
         <v>1081</v>
-      </c>
-      <c r="B115" t="s">
-        <v>1082</v>
       </c>
       <c r="C115" t="s">
         <v>306</v>
       </c>
       <c r="D115" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E115" t="s">
         <v>1083</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>1084</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>1085</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" s="2" t="s">
         <v>1086</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>1087</v>
       </c>
       <c r="I115" t="s">
         <v>8</v>
@@ -11852,10 +11849,10 @@
         <v>509</v>
       </c>
       <c r="L115" t="s">
+        <v>1087</v>
+      </c>
+      <c r="M115" t="s">
         <v>1088</v>
-      </c>
-      <c r="M115" t="s">
-        <v>1089</v>
       </c>
       <c r="N115" t="s">
         <v>435</v>
@@ -11882,28 +11879,28 @@
     </row>
     <row r="116" spans="1:20">
       <c r="A116" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B116" t="s">
         <v>1090</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1091</v>
       </c>
       <c r="C116" t="s">
         <v>56</v>
       </c>
       <c r="D116" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E116" t="s">
         <v>1092</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>1093</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>1094</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" s="2" t="s">
         <v>1095</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>1096</v>
       </c>
       <c r="I116" t="s">
         <v>8</v>
@@ -11912,10 +11909,10 @@
         <v>9</v>
       </c>
       <c r="K116" t="s">
+        <v>1096</v>
+      </c>
+      <c r="L116" t="s">
         <v>1097</v>
-      </c>
-      <c r="L116" t="s">
-        <v>1098</v>
       </c>
       <c r="M116" t="s">
         <v>324</v>
@@ -11945,28 +11942,28 @@
     </row>
     <row r="117" spans="1:20">
       <c r="A117" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B117" t="s">
         <v>1099</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1100</v>
       </c>
       <c r="C117" t="s">
         <v>42</v>
       </c>
       <c r="D117" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E117" t="s">
         <v>1101</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>1102</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>1103</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" s="2" t="s">
         <v>1104</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>1105</v>
       </c>
       <c r="I117" t="s">
         <v>14</v>
@@ -12008,28 +12005,28 @@
     </row>
     <row r="118" spans="1:20">
       <c r="A118" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B118" t="s">
         <v>1106</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1107</v>
       </c>
       <c r="C118" t="s">
         <v>56</v>
       </c>
       <c r="D118" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E118" t="s">
         <v>1108</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>1109</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>1110</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" s="2" t="s">
         <v>1111</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>1112</v>
       </c>
       <c r="I118" t="s">
         <v>8</v>
@@ -12041,7 +12038,7 @@
         <v>86</v>
       </c>
       <c r="L118" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="M118" t="s">
         <v>540</v>
@@ -12071,28 +12068,28 @@
     </row>
     <row r="119" spans="1:20">
       <c r="A119" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B119" t="s">
         <v>1114</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1115</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
       </c>
       <c r="D119" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E119" t="s">
         <v>1116</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>1117</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>1118</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" s="2" t="s">
         <v>1119</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>1120</v>
       </c>
       <c r="I119" t="s">
         <v>8</v>
@@ -12107,10 +12104,10 @@
         <v>11</v>
       </c>
       <c r="M119" t="s">
+        <v>1120</v>
+      </c>
+      <c r="N119" t="s">
         <v>1121</v>
-      </c>
-      <c r="N119" t="s">
-        <v>1122</v>
       </c>
       <c r="O119" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80551_sheffield", ".\export_data\inspection_reports\80551_sheffield")</f>
@@ -12134,28 +12131,28 @@
     </row>
     <row r="120" spans="1:20">
       <c r="A120" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B120" t="s">
         <v>1123</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1124</v>
       </c>
       <c r="C120" t="s">
         <v>42</v>
       </c>
       <c r="D120" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E120" t="s">
         <v>1125</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>1126</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>1127</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" s="2" t="s">
         <v>1128</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>1129</v>
       </c>
       <c r="I120" t="s">
         <v>106</v>
@@ -12164,10 +12161,10 @@
         <v>48</v>
       </c>
       <c r="K120" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="L120" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="M120" t="s">
         <v>540</v>
@@ -12197,28 +12194,28 @@
     </row>
     <row r="121" spans="1:20">
       <c r="A121" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B121" t="s">
         <v>1131</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1132</v>
       </c>
       <c r="C121" t="s">
         <v>100</v>
       </c>
       <c r="D121" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E121" t="s">
         <v>1133</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>1134</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>1135</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" s="2" t="s">
         <v>1136</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>1137</v>
       </c>
       <c r="I121" t="s">
         <v>14</v>
@@ -12233,10 +12230,10 @@
         <v>472</v>
       </c>
       <c r="M121" t="s">
+        <v>1047</v>
+      </c>
+      <c r="N121" t="s">
         <v>1048</v>
-      </c>
-      <c r="N121" t="s">
-        <v>1049</v>
       </c>
       <c r="O121" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80553_slough", ".\export_data\inspection_reports\80553_slough")</f>
@@ -12260,28 +12257,28 @@
     </row>
     <row r="122" spans="1:20">
       <c r="A122" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B122" t="s">
         <v>1138</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1139</v>
       </c>
       <c r="C122" t="s">
         <v>42</v>
       </c>
       <c r="D122" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E122" t="s">
         <v>1140</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>1141</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>1142</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" s="2" t="s">
         <v>1143</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>1144</v>
       </c>
       <c r="I122" t="s">
         <v>191</v>
@@ -12290,7 +12287,7 @@
         <v>48</v>
       </c>
       <c r="K122" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="L122" t="s">
         <v>365</v>
@@ -12323,28 +12320,28 @@
     </row>
     <row r="123" spans="1:20">
       <c r="A123" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B123" t="s">
         <v>1146</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1147</v>
       </c>
       <c r="C123" t="s">
         <v>18</v>
       </c>
       <c r="D123" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E123" t="s">
         <v>1148</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>1149</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>1150</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" s="2" t="s">
         <v>1151</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>1152</v>
       </c>
       <c r="I123" t="s">
         <v>8</v>
@@ -12386,28 +12383,28 @@
     </row>
     <row r="124" spans="1:20">
       <c r="A124" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B124" t="s">
         <v>1153</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1154</v>
       </c>
       <c r="C124" t="s">
         <v>18</v>
       </c>
       <c r="D124" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E124" t="s">
         <v>1155</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>1156</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>1157</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" s="2" t="s">
         <v>1158</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>1159</v>
       </c>
       <c r="I124" t="s">
         <v>8</v>
@@ -12449,28 +12446,28 @@
     </row>
     <row r="125" spans="1:20">
       <c r="A125" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B125" t="s">
         <v>1160</v>
-      </c>
-      <c r="B125" t="s">
-        <v>1161</v>
       </c>
       <c r="C125" t="s">
         <v>294</v>
       </c>
       <c r="D125" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E125" t="s">
         <v>1162</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>1163</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>1164</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" s="2" t="s">
         <v>1165</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>1166</v>
       </c>
       <c r="I125" t="s">
         <v>191</v>
@@ -12488,7 +12485,7 @@
         <v>530</v>
       </c>
       <c r="N125" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="O125" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80557_south tyneside", ".\export_data\inspection_reports\80557_south tyneside")</f>
@@ -12512,28 +12509,28 @@
     </row>
     <row r="126" spans="1:20">
       <c r="A126" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B126" t="s">
         <v>1168</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1169</v>
       </c>
       <c r="C126" t="s">
         <v>100</v>
       </c>
       <c r="D126" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E126" t="s">
         <v>1170</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>1171</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>1172</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" s="2" t="s">
         <v>1173</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>1174</v>
       </c>
       <c r="I126" t="s">
         <v>8</v>
@@ -12545,13 +12542,13 @@
         <v>394</v>
       </c>
       <c r="L126" t="s">
+        <v>1174</v>
+      </c>
+      <c r="M126" t="s">
         <v>1175</v>
       </c>
-      <c r="M126" t="s">
+      <c r="N126" t="s">
         <v>1176</v>
-      </c>
-      <c r="N126" t="s">
-        <v>1177</v>
       </c>
       <c r="O126" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80558_southampton", ".\export_data\inspection_reports\80558_southampton")</f>
@@ -12575,28 +12572,28 @@
     </row>
     <row r="127" spans="1:20">
       <c r="A127" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B127" t="s">
         <v>1178</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1179</v>
       </c>
       <c r="C127" t="s">
         <v>31</v>
       </c>
       <c r="D127" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E127" t="s">
         <v>1180</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>1181</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>1182</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" s="2" t="s">
         <v>1183</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>1184</v>
       </c>
       <c r="I127" t="s">
         <v>8</v>
@@ -12638,28 +12635,28 @@
     </row>
     <row r="128" spans="1:20">
       <c r="A128" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B128" t="s">
         <v>1185</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1186</v>
       </c>
       <c r="C128" t="s">
         <v>56</v>
       </c>
       <c r="D128" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E128" t="s">
         <v>1187</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>1188</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>1189</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" s="2" t="s">
         <v>1190</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>1191</v>
       </c>
       <c r="I128" t="s">
         <v>8</v>
@@ -12701,28 +12698,28 @@
     </row>
     <row r="129" spans="1:20">
       <c r="A129" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B129" t="s">
         <v>1192</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1193</v>
       </c>
       <c r="C129" t="s">
         <v>42</v>
       </c>
       <c r="D129" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E129" t="s">
         <v>1194</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>1195</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>1196</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H129" s="2" t="s">
         <v>1197</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>1198</v>
       </c>
       <c r="I129" t="s">
         <v>14</v>
@@ -12734,7 +12731,7 @@
         <v>202</v>
       </c>
       <c r="L129" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="M129" t="s">
         <v>324</v>
@@ -12764,28 +12761,28 @@
     </row>
     <row r="130" spans="1:20">
       <c r="A130" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B130" t="s">
         <v>1199</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1200</v>
       </c>
       <c r="C130" t="s">
         <v>56</v>
       </c>
       <c r="D130" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E130" t="s">
         <v>1201</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>1202</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>1203</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" s="2" t="s">
         <v>1204</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>1205</v>
       </c>
       <c r="I130" t="s">
         <v>14</v>
@@ -12803,7 +12800,7 @@
         <v>314</v>
       </c>
       <c r="N130" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="O130" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80562_stockport", ".\export_data\inspection_reports\80562_stockport")</f>
@@ -12827,28 +12824,28 @@
     </row>
     <row r="131" spans="1:20">
       <c r="A131" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B131" t="s">
         <v>1207</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1208</v>
       </c>
       <c r="C131" t="s">
         <v>294</v>
       </c>
       <c r="D131" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E131" t="s">
         <v>1209</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>1210</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>1211</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" s="2" t="s">
         <v>1212</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>1213</v>
       </c>
       <c r="I131" t="s">
         <v>14</v>
@@ -12857,16 +12854,16 @@
         <v>48</v>
       </c>
       <c r="K131" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L131" t="s">
         <v>1214</v>
       </c>
-      <c r="L131" t="s">
+      <c r="M131" t="s">
         <v>1215</v>
       </c>
-      <c r="M131" t="s">
+      <c r="N131" t="s">
         <v>1216</v>
-      </c>
-      <c r="N131" t="s">
-        <v>1217</v>
       </c>
       <c r="O131" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80563_stockton-on-tees", ".\export_data\inspection_reports\80563_stockton-on-tees")</f>
@@ -12890,28 +12887,28 @@
     </row>
     <row r="132" spans="1:20">
       <c r="A132" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B132" t="s">
         <v>1218</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1219</v>
       </c>
       <c r="C132" t="s">
         <v>42</v>
       </c>
       <c r="D132" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E132" t="s">
         <v>1220</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>1221</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>1222</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" s="2" t="s">
         <v>1223</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>1224</v>
       </c>
       <c r="I132" t="s">
         <v>14</v>
@@ -12929,7 +12926,7 @@
         <v>314</v>
       </c>
       <c r="N132" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="O132" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80564_stoke-on-trent", ".\export_data\inspection_reports\80564_stoke-on-trent")</f>
@@ -12953,28 +12950,28 @@
     </row>
     <row r="133" spans="1:20">
       <c r="A133" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B133" t="s">
         <v>1225</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1226</v>
       </c>
       <c r="C133" t="s">
         <v>31</v>
       </c>
       <c r="D133" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E133" t="s">
         <v>1227</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>1228</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>1229</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" s="2" t="s">
         <v>1230</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>1231</v>
       </c>
       <c r="I133" t="s">
         <v>14</v>
@@ -12992,7 +12989,7 @@
         <v>664</v>
       </c>
       <c r="N133" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="O133" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80565_suffolk", ".\export_data\inspection_reports\80565_suffolk")</f>
@@ -13016,28 +13013,28 @@
     </row>
     <row r="134" spans="1:20">
       <c r="A134" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B134" t="s">
         <v>1233</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1234</v>
       </c>
       <c r="C134" t="s">
         <v>294</v>
       </c>
       <c r="D134" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E134" t="s">
         <v>1235</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>1236</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>1237</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" s="2" t="s">
         <v>1238</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>1239</v>
       </c>
       <c r="I134" t="s">
         <v>106</v>
@@ -13055,7 +13052,7 @@
         <v>346</v>
       </c>
       <c r="N134" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="O134" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80566_sunderland", ".\export_data\inspection_reports\80566_sunderland")</f>
@@ -13079,28 +13076,28 @@
     </row>
     <row r="135" spans="1:20">
       <c r="A135" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B135" t="s">
         <v>1241</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1242</v>
       </c>
       <c r="C135" t="s">
         <v>100</v>
       </c>
       <c r="D135" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E135" t="s">
         <v>1243</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>1244</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>1245</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135" s="2" t="s">
         <v>1246</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>1247</v>
       </c>
       <c r="I135" t="s">
         <v>8</v>
@@ -13142,28 +13139,28 @@
     </row>
     <row r="136" spans="1:20">
       <c r="A136" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B136" t="s">
         <v>1248</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1249</v>
       </c>
       <c r="C136" t="s">
         <v>18</v>
       </c>
       <c r="D136" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E136" t="s">
         <v>1250</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>1251</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>1252</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H136" s="2" t="s">
         <v>1253</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>1254</v>
       </c>
       <c r="I136" t="s">
         <v>191</v>
@@ -13205,28 +13202,28 @@
     </row>
     <row r="137" spans="1:20">
       <c r="A137" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B137" t="s">
         <v>1255</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1256</v>
       </c>
       <c r="C137" t="s">
         <v>56</v>
       </c>
       <c r="D137" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E137" t="s">
         <v>1257</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>1258</v>
       </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>1259</v>
       </c>
-      <c r="G137" t="s">
+      <c r="H137" s="2" t="s">
         <v>1260</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>1261</v>
       </c>
       <c r="I137" t="s">
         <v>191</v>
@@ -13244,7 +13241,7 @@
         <v>396</v>
       </c>
       <c r="N137" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="O137" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80569_tameside", ".\export_data\inspection_reports\80569_tameside")</f>
@@ -13268,28 +13265,28 @@
     </row>
     <row r="138" spans="1:20">
       <c r="A138" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B138" t="s">
         <v>1263</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1264</v>
       </c>
       <c r="C138" t="s">
         <v>42</v>
       </c>
       <c r="D138" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E138" t="s">
         <v>1265</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>1266</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>1267</v>
       </c>
-      <c r="G138" t="s">
+      <c r="H138" s="2" t="s">
         <v>1268</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>1269</v>
       </c>
       <c r="I138" t="s">
         <v>106</v>
@@ -13301,7 +13298,7 @@
         <v>181</v>
       </c>
       <c r="L138" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="M138" t="s">
         <v>557</v>
@@ -13331,28 +13328,28 @@
     </row>
     <row r="139" spans="1:20">
       <c r="A139" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B139" t="s">
         <v>1271</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1272</v>
       </c>
       <c r="C139" t="s">
         <v>31</v>
       </c>
       <c r="D139" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E139" t="s">
         <v>1273</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>1274</v>
       </c>
-      <c r="F139" t="s">
+      <c r="G139" t="s">
         <v>1275</v>
       </c>
-      <c r="G139" t="s">
+      <c r="H139" s="2" t="s">
         <v>1276</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>1277</v>
       </c>
       <c r="I139" t="s">
         <v>106</v>
@@ -13364,13 +13361,13 @@
         <v>509</v>
       </c>
       <c r="L139" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M139" t="s">
         <v>1278</v>
       </c>
-      <c r="M139" t="s">
+      <c r="N139" t="s">
         <v>1279</v>
-      </c>
-      <c r="N139" t="s">
-        <v>1280</v>
       </c>
       <c r="O139" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80571_thurrock", ".\export_data\inspection_reports\80571_thurrock")</f>
@@ -13394,28 +13391,28 @@
     </row>
     <row r="140" spans="1:20">
       <c r="A140" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B140" t="s">
         <v>1281</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1282</v>
       </c>
       <c r="C140" t="s">
         <v>18</v>
       </c>
       <c r="D140" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E140" t="s">
         <v>1283</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>1284</v>
       </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
         <v>1285</v>
       </c>
-      <c r="G140" t="s">
+      <c r="H140" s="2" t="s">
         <v>1286</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>1287</v>
       </c>
       <c r="I140" t="s">
         <v>8</v>
@@ -13424,7 +13421,7 @@
         <v>48</v>
       </c>
       <c r="K140" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="L140" t="s">
         <v>856</v>
@@ -13433,7 +13430,7 @@
         <v>857</v>
       </c>
       <c r="N140" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="O140" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80572_torbay", ".\export_data\inspection_reports\80572_torbay")</f>
@@ -13457,28 +13454,28 @@
     </row>
     <row r="141" spans="1:20">
       <c r="A141" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B141" t="s">
         <v>1290</v>
-      </c>
-      <c r="B141" t="s">
-        <v>1291</v>
       </c>
       <c r="C141" t="s">
         <v>56</v>
       </c>
       <c r="D141" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E141" t="s">
         <v>1292</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>1293</v>
       </c>
-      <c r="F141" t="s">
+      <c r="G141" t="s">
         <v>1294</v>
       </c>
-      <c r="G141" t="s">
+      <c r="H141" s="2" t="s">
         <v>1295</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>1296</v>
       </c>
       <c r="I141" t="s">
         <v>14</v>
@@ -13520,28 +13517,28 @@
     </row>
     <row r="142" spans="1:20">
       <c r="A142" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B142" t="s">
         <v>1297</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1298</v>
       </c>
       <c r="C142" t="s">
         <v>42</v>
       </c>
       <c r="D142" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E142" t="s">
         <v>1299</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>1300</v>
       </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>1301</v>
       </c>
-      <c r="G142" t="s">
+      <c r="H142" s="2" t="s">
         <v>1302</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>1303</v>
       </c>
       <c r="I142" t="s">
         <v>106</v>
@@ -13583,28 +13580,28 @@
     </row>
     <row r="143" spans="1:20">
       <c r="A143" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B143" t="s">
         <v>1304</v>
-      </c>
-      <c r="B143" t="s">
-        <v>1305</v>
       </c>
       <c r="C143" t="s">
         <v>56</v>
       </c>
       <c r="D143" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E143" t="s">
         <v>1306</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>1307</v>
       </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>1308</v>
       </c>
-      <c r="G143" t="s">
+      <c r="H143" s="2" t="s">
         <v>1309</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>1310</v>
       </c>
       <c r="I143" t="s">
         <v>8</v>
@@ -13622,7 +13619,7 @@
         <v>444</v>
       </c>
       <c r="N143" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="O143" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80575_warrington", ".\export_data\inspection_reports\80575_warrington")</f>
@@ -13646,28 +13643,28 @@
     </row>
     <row r="144" spans="1:20">
       <c r="A144" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B144" t="s">
         <v>1312</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1313</v>
       </c>
       <c r="C144" t="s">
         <v>42</v>
       </c>
       <c r="D144" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E144" t="s">
         <v>1314</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>1315</v>
       </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>1316</v>
       </c>
-      <c r="G144" t="s">
+      <c r="H144" s="2" t="s">
         <v>1317</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>1318</v>
       </c>
       <c r="I144" t="s">
         <v>8</v>
@@ -13679,13 +13676,13 @@
         <v>202</v>
       </c>
       <c r="L144" t="s">
+        <v>1318</v>
+      </c>
+      <c r="M144" t="s">
         <v>1319</v>
       </c>
-      <c r="M144" t="s">
+      <c r="N144" t="s">
         <v>1320</v>
-      </c>
-      <c r="N144" t="s">
-        <v>1321</v>
       </c>
       <c r="O144" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80576_warwickshire", ".\export_data\inspection_reports\80576_warwickshire")</f>
@@ -13709,28 +13706,28 @@
     </row>
     <row r="145" spans="1:20">
       <c r="A145" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B145" t="s">
         <v>1322</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1323</v>
       </c>
       <c r="C145" t="s">
         <v>100</v>
       </c>
       <c r="D145" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E145" t="s">
         <v>1324</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>1325</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>1326</v>
       </c>
-      <c r="G145" t="s">
+      <c r="H145" s="2" t="s">
         <v>1327</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>1328</v>
       </c>
       <c r="I145" t="s">
         <v>8</v>
@@ -13742,13 +13739,13 @@
         <v>118</v>
       </c>
       <c r="L145" t="s">
+        <v>1328</v>
+      </c>
+      <c r="M145" t="s">
         <v>1329</v>
       </c>
-      <c r="M145" t="s">
+      <c r="N145" t="s">
         <v>1330</v>
-      </c>
-      <c r="N145" t="s">
-        <v>1331</v>
       </c>
       <c r="O145" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80577_west berkshire", ".\export_data\inspection_reports\80577_west berkshire")</f>
@@ -13772,28 +13769,28 @@
     </row>
     <row r="146" spans="1:20">
       <c r="A146" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B146" t="s">
         <v>1332</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1333</v>
       </c>
       <c r="C146" t="s">
         <v>306</v>
       </c>
       <c r="D146" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E146" t="s">
         <v>1334</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>1335</v>
       </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>1336</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" s="2" t="s">
         <v>1337</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>1338</v>
       </c>
       <c r="I146" t="s">
         <v>14</v>
@@ -13805,13 +13802,13 @@
         <v>202</v>
       </c>
       <c r="L146" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="M146" t="s">
+        <v>921</v>
+      </c>
+      <c r="N146" t="s">
         <v>922</v>
-      </c>
-      <c r="N146" t="s">
-        <v>923</v>
       </c>
       <c r="O146" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\2637548_west northamptonshire", ".\export_data\inspection_reports\2637548_west northamptonshire")</f>
@@ -13835,28 +13832,28 @@
     </row>
     <row r="147" spans="1:20">
       <c r="A147" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B147" t="s">
         <v>1339</v>
-      </c>
-      <c r="B147" t="s">
-        <v>1340</v>
       </c>
       <c r="C147" t="s">
         <v>100</v>
       </c>
       <c r="D147" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E147" t="s">
         <v>1341</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>1342</v>
       </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>1343</v>
       </c>
-      <c r="G147" t="s">
+      <c r="H147" s="2" t="s">
         <v>1344</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>1345</v>
       </c>
       <c r="I147" t="s">
         <v>14</v>
@@ -13865,7 +13862,7 @@
         <v>48</v>
       </c>
       <c r="K147" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="L147" t="s">
         <v>575</v>
@@ -13874,7 +13871,7 @@
         <v>576</v>
       </c>
       <c r="N147" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="O147" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80578_west sussex", ".\export_data\inspection_reports\80578_west sussex")</f>
@@ -13898,10 +13895,10 @@
     </row>
     <row r="148" spans="1:20">
       <c r="A148" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B148" t="s">
         <v>1347</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1348</v>
       </c>
       <c r="C148" t="s">
         <v>56</v>
@@ -13910,16 +13907,16 @@
         <v>284</v>
       </c>
       <c r="E148" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F148" t="s">
         <v>1349</v>
       </c>
-      <c r="F148" t="s">
+      <c r="G148" t="s">
         <v>1350</v>
       </c>
-      <c r="G148" t="s">
+      <c r="H148" s="2" t="s">
         <v>1351</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>1352</v>
       </c>
       <c r="I148" t="s">
         <v>8</v>
@@ -13928,7 +13925,7 @@
         <v>48</v>
       </c>
       <c r="K148" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L148" t="s">
         <v>556</v>
@@ -13961,28 +13958,28 @@
     </row>
     <row r="149" spans="1:20">
       <c r="A149" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B149" t="s">
         <v>1353</v>
-      </c>
-      <c r="B149" t="s">
-        <v>1354</v>
       </c>
       <c r="C149" t="s">
         <v>56</v>
       </c>
       <c r="D149" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E149" t="s">
         <v>1355</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>1356</v>
       </c>
-      <c r="F149" t="s">
+      <c r="G149" t="s">
         <v>1357</v>
       </c>
-      <c r="G149" t="s">
+      <c r="H149" s="2" t="s">
         <v>1358</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>1359</v>
       </c>
       <c r="I149" t="s">
         <v>14</v>
@@ -13991,7 +13988,7 @@
         <v>48</v>
       </c>
       <c r="K149" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="L149" t="s">
         <v>489</v>
@@ -14024,28 +14021,28 @@
     </row>
     <row r="150" spans="1:20">
       <c r="A150" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B150" t="s">
         <v>1361</v>
-      </c>
-      <c r="B150" t="s">
-        <v>1362</v>
       </c>
       <c r="C150" t="s">
         <v>18</v>
       </c>
       <c r="D150" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E150" t="s">
         <v>1363</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>1364</v>
       </c>
-      <c r="F150" t="s">
+      <c r="G150" t="s">
         <v>1365</v>
       </c>
-      <c r="G150" t="s">
+      <c r="H150" s="2" t="s">
         <v>1366</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>1367</v>
       </c>
       <c r="I150" t="s">
         <v>106</v>
@@ -14057,13 +14054,13 @@
         <v>405</v>
       </c>
       <c r="L150" t="s">
+        <v>1367</v>
+      </c>
+      <c r="M150" t="s">
         <v>1368</v>
       </c>
-      <c r="M150" t="s">
+      <c r="N150" t="s">
         <v>1369</v>
-      </c>
-      <c r="N150" t="s">
-        <v>1370</v>
       </c>
       <c r="O150" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80580_wiltshire", ".\export_data\inspection_reports\80580_wiltshire")</f>
@@ -14087,28 +14084,28 @@
     </row>
     <row r="151" spans="1:20">
       <c r="A151" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B151" t="s">
         <v>1371</v>
-      </c>
-      <c r="B151" t="s">
-        <v>1372</v>
       </c>
       <c r="C151" t="s">
         <v>56</v>
       </c>
       <c r="D151" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E151" t="s">
         <v>1373</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>1374</v>
       </c>
-      <c r="F151" t="s">
+      <c r="G151" t="s">
         <v>1375</v>
       </c>
-      <c r="G151" t="s">
+      <c r="H151" s="2" t="s">
         <v>1376</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>1377</v>
       </c>
       <c r="I151" t="s">
         <v>14</v>
@@ -14120,13 +14117,13 @@
         <v>192</v>
       </c>
       <c r="L151" t="s">
+        <v>1377</v>
+      </c>
+      <c r="M151" t="s">
+        <v>1368</v>
+      </c>
+      <c r="N151" t="s">
         <v>1378</v>
-      </c>
-      <c r="M151" t="s">
-        <v>1369</v>
-      </c>
-      <c r="N151" t="s">
-        <v>1379</v>
       </c>
       <c r="O151" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80581_wirral", ".\export_data\inspection_reports\80581_wirral")</f>
@@ -14150,28 +14147,28 @@
     </row>
     <row r="152" spans="1:20">
       <c r="A152" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B152" t="s">
         <v>1380</v>
-      </c>
-      <c r="B152" t="s">
-        <v>1381</v>
       </c>
       <c r="C152" t="s">
         <v>100</v>
       </c>
       <c r="D152" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E152" t="s">
         <v>1382</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>1383</v>
       </c>
-      <c r="F152" t="s">
+      <c r="G152" t="s">
         <v>1384</v>
       </c>
-      <c r="G152" t="s">
+      <c r="H152" s="2" t="s">
         <v>1385</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>1386</v>
       </c>
       <c r="I152" t="s">
         <v>14</v>
@@ -14183,13 +14180,13 @@
         <v>394</v>
       </c>
       <c r="L152" t="s">
+        <v>1214</v>
+      </c>
+      <c r="M152" t="s">
         <v>1215</v>
       </c>
-      <c r="M152" t="s">
+      <c r="N152" t="s">
         <v>1216</v>
-      </c>
-      <c r="N152" t="s">
-        <v>1217</v>
       </c>
       <c r="O152" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80582_wokingham", ".\export_data\inspection_reports\80582_wokingham")</f>
@@ -14213,28 +14210,28 @@
     </row>
     <row r="153" spans="1:20">
       <c r="A153" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B153" t="s">
         <v>1387</v>
-      </c>
-      <c r="B153" t="s">
-        <v>1388</v>
       </c>
       <c r="C153" t="s">
         <v>42</v>
       </c>
       <c r="D153" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E153" t="s">
         <v>1389</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>1390</v>
       </c>
-      <c r="F153" t="s">
+      <c r="G153" t="s">
         <v>1391</v>
       </c>
-      <c r="G153" t="s">
+      <c r="H153" s="2" t="s">
         <v>1392</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>1393</v>
       </c>
       <c r="I153" t="s">
         <v>8</v>
@@ -14243,16 +14240,16 @@
         <v>9</v>
       </c>
       <c r="K153" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L153" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="M153" t="s">
         <v>857</v>
       </c>
       <c r="N153" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="O153" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80583_wolverhampton", ".\export_data\inspection_reports\80583_wolverhampton")</f>
@@ -14276,28 +14273,28 @@
     </row>
     <row r="154" spans="1:20">
       <c r="A154" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B154" t="s">
         <v>1395</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1396</v>
       </c>
       <c r="C154" t="s">
         <v>42</v>
       </c>
       <c r="D154" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E154" t="s">
         <v>1397</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>1398</v>
       </c>
-      <c r="F154" t="s">
+      <c r="G154" t="s">
         <v>1399</v>
       </c>
-      <c r="G154" t="s">
+      <c r="H154" s="2" t="s">
         <v>1400</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>1401</v>
       </c>
       <c r="I154" t="s">
         <v>8</v>
@@ -14309,13 +14306,13 @@
         <v>181</v>
       </c>
       <c r="L154" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="M154" t="s">
+        <v>1401</v>
+      </c>
+      <c r="N154" t="s">
         <v>1402</v>
-      </c>
-      <c r="N154" t="s">
-        <v>1403</v>
       </c>
       <c r="O154" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80584_worcestershire", ".\export_data\inspection_reports\80584_worcestershire")</f>

--- a/ofsted_csc_ilacs_overview.xlsx
+++ b/ofsted_csc_ilacs_overview.xlsx
@@ -118,7 +118,7 @@
     <t>303, 826, 941, 311, 937, 839, 886, 935, 881, 866</t>
   </si>
   <si>
-    <t>[(303, 'outstanding'), (826, 'good'), (941, 'requires improvement'), (311, 'inadequate'), (937, 'good'), (839, 'good'), (886, 'outstanding'), (935, 'requires improvement'), (881, 'outstanding'), (866, 'inadequate')]</t>
+    <t>[(303, 'outstanding'), (826, 'good'), (941, 'requires improvement'), (311, 'inadequate'), (937, 'requires improvement'), (839, 'good'), (886, 'outstanding'), (935, 'requires improvement'), (881, 'outstanding'), (866, 'inadequate')]</t>
   </si>
   <si>
     <t>bedford</t>
@@ -523,7 +523,7 @@
     <t>931, 919, 825, 803, 937, 916, 938, 823, 850, 869</t>
   </si>
   <si>
-    <t>[(931, 'good'), (919, 'outstanding'), (825, 'requires improvement'), (803, 'good'), (937, 'good'), (916, 'good'), (938, 'requires improvement'), (823, 'good'), (850, 'outstanding'), (869, 'good')]</t>
+    <t>[(931, 'good'), (919, 'outstanding'), (825, 'requires improvement'), (803, 'good'), (937, 'requires improvement'), (916, 'good'), (938, 'requires improvement'), (823, 'good'), (850, 'outstanding'), (869, 'good')]</t>
   </si>
   <si>
     <t>cambridgeshire</t>
@@ -580,7 +580,7 @@
     <t>916, 937, 815, 877, 865, 850, 896, 931, 885, 855</t>
   </si>
   <si>
-    <t>[(916, 'good'), (937, 'good'), (815, 'outstanding'), (877, 'good'), (865, 'outstanding'), (850, 'outstanding'), (896, 'requires improvement'), (931, 'good'), (885, 'good'), (855, 'outstanding')]</t>
+    <t>[(916, 'good'), (937, 'requires improvement'), (815, 'outstanding'), (877, 'good'), (865, 'outstanding'), (850, 'outstanding'), (896, 'requires improvement'), (931, 'good'), (885, 'good'), (855, 'outstanding')]</t>
   </si>
   <si>
     <t>cheshire east</t>
@@ -613,7 +613,7 @@
     <t>334, 356, 895, 937, 885, 916, 877, 878, 938, 929</t>
   </si>
   <si>
-    <t>[(334, 'inadequate'), (356, 'requires improvement'), (895, 'inadequate'), (937, 'good'), (885, 'good'), (916, 'good'), (877, 'good'), (878, 'inadequate'), (938, 'requires improvement'), (929, 'outstanding')]</t>
+    <t>[(334, 'inadequate'), (356, 'requires improvement'), (895, 'inadequate'), (937, 'requires improvement'), (885, 'good'), (916, 'good'), (877, 'good'), (878, 'inadequate'), (938, 'requires improvement'), (929, 'outstanding')]</t>
   </si>
   <si>
     <t>cheshire west and chester</t>
@@ -748,7 +748,7 @@
     <t>916, 800, 802, 919, 937, 931, 938, 358, 850, 356</t>
   </si>
   <si>
-    <t>[(916, 'good'), (800, 'good'), (802, 'requires improvement'), (919, 'outstanding'), (937, 'good'), (931, 'good'), (938, 'requires improvement'), (358, 'requires improvement'), (850, 'outstanding'), (356, 'requires improvement')]</t>
+    <t>[(916, 'good'), (800, 'good'), (802, 'requires improvement'), (919, 'outstanding'), (937, 'requires improvement'), (931, 'good'), (938, 'requires improvement'), (358, 'requires improvement'), (850, 'outstanding'), (356, 'requires improvement')]</t>
   </si>
   <si>
     <t>york</t>
@@ -1156,7 +1156,7 @@
     <t>860, 893, 815, 877, 855, 933, 884, 943, 937, 830</t>
   </si>
   <si>
-    <t>[(860, 'requires improvement'), (893, 'outstanding'), (815, 'outstanding'), (877, 'good'), (855, 'outstanding'), (933, 'good'), (884, 'inadequate'), (943, 'good'), (937, 'good'), (830, 'good')]</t>
+    <t>[(860, 'requires improvement'), (893, 'outstanding'), (815, 'outstanding'), (877, 'good'), (855, 'outstanding'), (933, 'good'), (884, 'inadequate'), (943, 'good'), (937, 'requires improvement'), (830, 'good')]</t>
   </si>
   <si>
     <t>east riding of yorkshire</t>
@@ -1222,7 +1222,7 @@
     <t>886, 938, 916, 802, 935, 850, 937, 933, 303, 865</t>
   </si>
   <si>
-    <t>[(886, 'outstanding'), (938, 'requires improvement'), (916, 'good'), (802, 'requires improvement'), (935, 'requires improvement'), (850, 'outstanding'), (937, 'good'), (933, 'good'), (303, 'outstanding'), (865, 'outstanding')]</t>
+    <t>[(886, 'outstanding'), (938, 'requires improvement'), (916, 'good'), (802, 'requires improvement'), (935, 'requires improvement'), (850, 'outstanding'), (937, 'requires improvement'), (933, 'good'), (303, 'outstanding'), (865, 'outstanding')]</t>
   </si>
   <si>
     <t>essex</t>
@@ -1279,7 +1279,7 @@
     <t>937, 938, 850, 802, 865, 895, 855, 931, 881, 885</t>
   </si>
   <si>
-    <t>[(937, 'good'), (938, 'requires improvement'), (850, 'outstanding'), (802, 'requires improvement'), (865, 'outstanding'), (895, 'inadequate'), (855, 'outstanding'), (931, 'good'), (881, 'outstanding'), (885, 'good')]</t>
+    <t>[(937, 'requires improvement'), (938, 'requires improvement'), (850, 'outstanding'), (802, 'requires improvement'), (865, 'outstanding'), (895, 'inadequate'), (855, 'outstanding'), (931, 'good'), (881, 'outstanding'), (885, 'good')]</t>
   </si>
   <si>
     <t>gloucestershire</t>
@@ -1336,7 +1336,7 @@
     <t>865, 802, 916, 938, 869, 867, 803, 937, 931, 855</t>
   </si>
   <si>
-    <t>[(865, 'outstanding'), (802, 'requires improvement'), (916, 'good'), (938, 'requires improvement'), (869, 'good'), (867, 'outstanding'), (803, 'good'), (937, 'good'), (931, 'good'), (855, 'outstanding')]</t>
+    <t>[(865, 'outstanding'), (802, 'requires improvement'), (916, 'good'), (938, 'requires improvement'), (869, 'good'), (867, 'outstanding'), (803, 'good'), (937, 'requires improvement'), (931, 'good'), (855, 'outstanding')]</t>
   </si>
   <si>
     <t>hampshire</t>
@@ -1675,7 +1675,7 @@
     <t>916, 803, 937, 802, 850, 865, 933, 938, 811, 891</t>
   </si>
   <si>
-    <t>[(916, 'good'), (803, 'good'), (937, 'good'), (802, 'requires improvement'), (850, 'outstanding'), (865, 'outstanding'), (933, 'good'), (938, 'requires improvement'), (811, 'good'), (891, 'good')]</t>
+    <t>[(916, 'good'), (803, 'good'), (937, 'requires improvement'), (802, 'requires improvement'), (850, 'outstanding'), (865, 'outstanding'), (933, 'good'), (938, 'requires improvement'), (811, 'good'), (891, 'good')]</t>
   </si>
   <si>
     <t>leicestershire</t>
@@ -2821,7 +2821,7 @@
     <t>850, 916, 865, 937, 855, 881, 938, 803, 891, 886</t>
   </si>
   <si>
-    <t>[(850, 'outstanding'), (916, 'good'), (865, 'outstanding'), (937, 'good'), (855, 'outstanding'), (881, 'outstanding'), (938, 'requires improvement'), (803, 'good'), (891, 'good'), (886, 'outstanding')]</t>
+    <t>[(850, 'outstanding'), (916, 'good'), (865, 'outstanding'), (937, 'requires improvement'), (855, 'outstanding'), (881, 'outstanding'), (938, 'requires improvement'), (803, 'good'), (891, 'good'), (886, 'outstanding')]</t>
   </si>
   <si>
     <t>north somerset</t>
@@ -2866,7 +2866,7 @@
     <t>893, 895, 811, 860, 916, 877, 937, 884, 865, 933</t>
   </si>
   <si>
-    <t>[(893, 'outstanding'), (895, 'inadequate'), (811, 'good'), (860, 'requires improvement'), (916, 'good'), (877, 'good'), (937, 'good'), (884, 'inadequate'), (865, 'outstanding'), (933, 'good')]</t>
+    <t>[(893, 'outstanding'), (895, 'inadequate'), (811, 'good'), (860, 'requires improvement'), (916, 'good'), (877, 'good'), (937, 'requires improvement'), (884, 'inadequate'), (865, 'outstanding'), (933, 'good')]</t>
   </si>
   <si>
     <t>north yorkshire</t>
@@ -2944,7 +2944,7 @@
     <t>830, 935, 933, 886, 926, 937, 855, 802, 860, 888</t>
   </si>
   <si>
-    <t>[(830, 'good'), (935, 'requires improvement'), (933, 'good'), (886, 'outstanding'), (926, 'good'), (937, 'good'), (855, 'outstanding'), (802, 'requires improvement'), (860, 'requires improvement'), (888, 'good')]</t>
+    <t>[(830, 'good'), (935, 'requires improvement'), (933, 'good'), (886, 'outstanding'), (926, 'good'), (937, 'requires improvement'), (855, 'outstanding'), (802, 'requires improvement'), (860, 'requires improvement'), (888, 'good')]</t>
   </si>
   <si>
     <t>nottinghamshire</t>
@@ -2986,7 +2986,7 @@
     <t>873, 919, 825, 937, 916, 850, 867, 938, 869, 803</t>
   </si>
   <si>
-    <t>[(873, 'requires improvement'), (919, 'outstanding'), (825, 'requires improvement'), (937, 'good'), (916, 'good'), (850, 'outstanding'), (867, 'outstanding'), (938, 'requires improvement'), (869, 'good'), (803, 'good')]</t>
+    <t>[(873, 'requires improvement'), (919, 'outstanding'), (825, 'requires improvement'), (937, 'requires improvement'), (916, 'good'), (850, 'outstanding'), (867, 'outstanding'), (938, 'requires improvement'), (869, 'good'), (803, 'good')]</t>
   </si>
   <si>
     <t>oxfordshire</t>
@@ -3439,7 +3439,7 @@
     <t>356, 896, 937, 877, 886, 916, 802, 895, 881, 919</t>
   </si>
   <si>
-    <t>[(356, 'requires improvement'), (896, 'requires improvement'), (937, 'good'), (877, 'good'), (886, 'outstanding'), (916, 'good'), (802, 'requires improvement'), (895, 'inadequate'), (881, 'outstanding'), (919, 'outstanding')]</t>
+    <t>[(356, 'requires improvement'), (896, 'requires improvement'), (937, 'requires improvement'), (877, 'good'), (886, 'outstanding'), (916, 'good'), (802, 'requires improvement'), (895, 'inadequate'), (881, 'outstanding'), (919, 'outstanding')]</t>
   </si>
   <si>
     <t>solihull</t>
@@ -3622,7 +3622,7 @@
     <t>334, 358, 896, 916, 919, 938, 937, 802, 803, 873</t>
   </si>
   <si>
-    <t>[(334, 'inadequate'), (358, 'requires improvement'), (896, 'requires improvement'), (916, 'good'), (919, 'outstanding'), (938, 'requires improvement'), (937, 'good'), (802, 'requires improvement'), (803, 'good'), (873, 'requires improvement')]</t>
+    <t>[(334, 'inadequate'), (358, 'requires improvement'), (896, 'requires improvement'), (916, 'good'), (919, 'outstanding'), (938, 'requires improvement'), (937, 'requires improvement'), (802, 'requires improvement'), (803, 'good'), (873, 'requires improvement')]</t>
   </si>
   <si>
     <t>stockport</t>
@@ -3937,7 +3937,7 @@
     <t>895, 937, 860, 811, 815, 916, 334, 893, 885, 865</t>
   </si>
   <si>
-    <t>[(895, 'inadequate'), (937, 'good'), (860, 'requires improvement'), (811, 'good'), (815, 'outstanding'), (916, 'good'), (334, 'inadequate'), (893, 'outstanding'), (885, 'good'), (865, 'outstanding')]</t>
+    <t>[(895, 'inadequate'), (937, 'requires improvement'), (860, 'requires improvement'), (811, 'good'), (815, 'outstanding'), (916, 'good'), (334, 'inadequate'), (893, 'outstanding'), (885, 'good'), (865, 'outstanding')]</t>
   </si>
   <si>
     <t>warrington</t>
@@ -3967,16 +3967,16 @@
     <t>warwickshire</t>
   </si>
   <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50176757</t>
-  </si>
-  <si>
-    <t>22/11/2021</t>
-  </si>
-  <si>
-    <t>03/12/2021</t>
-  </si>
-  <si>
-    <t>01/02/22</t>
+    <t>https://files.ofsted.gov.uk/v1/file/50289041</t>
+  </si>
+  <si>
+    <t>02/06/2025</t>
+  </si>
+  <si>
+    <t>06/06/2025</t>
+  </si>
+  <si>
+    <t>14/10/25</t>
   </si>
   <si>
     <t>80577</t>
@@ -4021,7 +4021,7 @@
     <t>822, 940, 937, 866, 933, 935, 311, 855, 931, 303</t>
   </si>
   <si>
-    <t>[(822, 'requires improvement'), (940, 'requires improvement'), (937, 'good'), (866, 'inadequate'), (933, 'good'), (935, 'requires improvement'), (311, 'inadequate'), (855, 'outstanding'), (931, 'good'), (303, 'outstanding')]</t>
+    <t>[(822, 'requires improvement'), (940, 'requires improvement'), (937, 'requires improvement'), (866, 'inadequate'), (933, 'good'), (935, 'requires improvement'), (311, 'inadequate'), (855, 'outstanding'), (931, 'good'), (303, 'outstanding')]</t>
   </si>
   <si>
     <t>west northamptonshire</t>
@@ -4042,7 +4042,7 @@
     <t>916, 881, 850, 919, 937, 865, 802, 931, 803, 878</t>
   </si>
   <si>
-    <t>[(916, 'good'), (881, 'outstanding'), (850, 'outstanding'), (919, 'outstanding'), (937, 'good'), (865, 'outstanding'), (802, 'requires improvement'), (931, 'good'), (803, 'good'), (878, 'inadequate')]</t>
+    <t>[(916, 'good'), (881, 'outstanding'), (850, 'outstanding'), (919, 'outstanding'), (937, 'requires improvement'), (865, 'outstanding'), (802, 'requires improvement'), (931, 'good'), (803, 'good'), (878, 'inadequate')]</t>
   </si>
   <si>
     <t>west sussex</t>
@@ -4108,7 +4108,7 @@
     <t>850, 916, 802, 938, 855, 937, 895, 881, 815, 803</t>
   </si>
   <si>
-    <t>[(850, 'outstanding'), (916, 'good'), (802, 'requires improvement'), (938, 'requires improvement'), (855, 'outstanding'), (937, 'good'), (895, 'inadequate'), (881, 'outstanding'), (815, 'outstanding'), (803, 'good')]</t>
+    <t>[(850, 'outstanding'), (916, 'good'), (802, 'requires improvement'), (938, 'requires improvement'), (855, 'outstanding'), (937, 'requires improvement'), (895, 'inadequate'), (881, 'outstanding'), (815, 'outstanding'), (803, 'good')]</t>
   </si>
   <si>
     <t>wiltshire</t>
@@ -4210,7 +4210,7 @@
     <t>933, 916, 838, 937, 893, 938, 878, 830, 881, 815</t>
   </si>
   <si>
-    <t>[(933, 'good'), (916, 'good'), (838, 'outstanding'), (937, 'good'), (893, 'outstanding'), (938, 'requires improvement'), (878, 'inadequate'), (830, 'good'), (881, 'outstanding'), (815, 'outstanding')]</t>
+    <t>[(933, 'good'), (916, 'good'), (838, 'outstanding'), (937, 'requires improvement'), (893, 'outstanding'), (938, 'requires improvement'), (878, 'inadequate'), (830, 'good'), (881, 'outstanding'), (815, 'outstanding')]</t>
   </si>
   <si>
     <t>worcestershire</t>
@@ -5838,7 +5838,7 @@
         <v>14</v>
       </c>
       <c r="T19" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -10689,7 +10689,7 @@
         <v>78</v>
       </c>
       <c r="T96" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -12000,7 +12000,7 @@
         <v>78</v>
       </c>
       <c r="T117" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -12756,7 +12756,7 @@
         <v>14</v>
       </c>
       <c r="T129" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -13667,13 +13667,13 @@
         <v>1317</v>
       </c>
       <c r="I144" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="K144" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="L144" t="s">
         <v>1318</v>
@@ -13689,19 +13689,19 @@
         <v>0</v>
       </c>
       <c r="P144" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Q144" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R144" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="S144" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="T144" t="s">
-        <v>87</v>
+        <v>336</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -13827,7 +13827,7 @@
         <v>78</v>
       </c>
       <c r="T146" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="1:20">

--- a/ofsted_csc_ilacs_overview.xlsx
+++ b/ofsted_csc_ilacs_overview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1424">
   <si>
     <t>80426</t>
   </si>
@@ -376,6 +376,9 @@
     <t>16/05/24</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>80441</t>
   </si>
   <si>
@@ -475,9 +478,6 @@
     <t>29/07/25</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>80444</t>
   </si>
   <si>
@@ -3997,16 +3997,19 @@
     <t>west berkshire</t>
   </si>
   <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50182484</t>
-  </si>
-  <si>
-    <t>14/03/2022</t>
-  </si>
-  <si>
-    <t>18/03/2022</t>
-  </si>
-  <si>
-    <t>04/05/22</t>
+    <t>https://files.ofsted.gov.uk/v1/file/50290038</t>
+  </si>
+  <si>
+    <t>rodica cobarzan</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t>28/10/25</t>
   </si>
   <si>
     <t>2637548</t>
@@ -4653,64 +4656,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -5334,33 +5337,33 @@
         <v>106</v>
       </c>
       <c r="T11" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
@@ -5369,16 +5372,16 @@
         <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O12" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80441_bristol", ".\export_data\inspection_reports\80441_bristol")</f>
@@ -5397,33 +5400,33 @@
         <v>8</v>
       </c>
       <c r="T12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
@@ -5432,16 +5435,16 @@
         <v>48</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O13" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80442_buckinghamshire", ".\export_data\inspection_reports\80442_buckinghamshire")</f>
@@ -5465,28 +5468,28 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
         <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>
@@ -5495,16 +5498,16 @@
         <v>48</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s">
         <v>25</v>
       </c>
       <c r="M14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O14" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80443_bury", ".\export_data\inspection_reports\80443_bury")</f>
@@ -5523,7 +5526,7 @@
         <v>14</v>
       </c>
       <c r="T14" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -5586,7 +5589,7 @@
         <v>8</v>
       </c>
       <c r="T15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -5901,7 +5904,7 @@
         <v>78</v>
       </c>
       <c r="T20" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -6188,7 +6191,7 @@
         <v>9</v>
       </c>
       <c r="K25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L25" t="s">
         <v>269</v>
@@ -6216,7 +6219,7 @@
         <v>14</v>
       </c>
       <c r="T25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -6251,7 +6254,7 @@
         <v>48</v>
       </c>
       <c r="K26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L26" t="s">
         <v>279</v>
@@ -6405,7 +6408,7 @@
         <v>78</v>
       </c>
       <c r="T28" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -6846,7 +6849,7 @@
         <v>106</v>
       </c>
       <c r="T35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -6909,7 +6912,7 @@
         <v>14</v>
       </c>
       <c r="T36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -7139,7 +7142,7 @@
         <v>25</v>
       </c>
       <c r="M40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N40" t="s">
         <v>425</v>
@@ -7161,7 +7164,7 @@
         <v>8</v>
       </c>
       <c r="T40" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -7350,7 +7353,7 @@
         <v>8</v>
       </c>
       <c r="T43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -7454,10 +7457,10 @@
         <v>472</v>
       </c>
       <c r="M45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O45" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80475_hertfordshire", ".\export_data\inspection_reports\80475_hertfordshire")</f>
@@ -7665,7 +7668,7 @@
         <v>78</v>
       </c>
       <c r="T48" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -8043,7 +8046,7 @@
         <v>106</v>
       </c>
       <c r="T54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -8232,7 +8235,7 @@
         <v>8</v>
       </c>
       <c r="T57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -8295,7 +8298,7 @@
         <v>8</v>
       </c>
       <c r="T58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -9212,7 +9215,7 @@
         <v>9</v>
       </c>
       <c r="K73" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L73" t="s">
         <v>726</v>
@@ -9429,7 +9432,7 @@
         <v>8</v>
       </c>
       <c r="T76" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -9653,7 +9656,7 @@
         <v>9</v>
       </c>
       <c r="K80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L80" t="s">
         <v>539</v>
@@ -9716,7 +9719,7 @@
         <v>9</v>
       </c>
       <c r="K81" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L81" t="s">
         <v>793</v>
@@ -9744,7 +9747,7 @@
         <v>78</v>
       </c>
       <c r="T81" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -9785,10 +9788,10 @@
         <v>803</v>
       </c>
       <c r="M82" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N82" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O82" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80515_sutton", ".\export_data\inspection_reports\80515_sutton")</f>
@@ -9933,7 +9936,7 @@
         <v>8</v>
       </c>
       <c r="T84" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -10059,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="T86" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -10185,7 +10188,7 @@
         <v>78</v>
       </c>
       <c r="T88" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -10311,7 +10314,7 @@
         <v>14</v>
       </c>
       <c r="T90" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -10563,7 +10566,7 @@
         <v>8</v>
       </c>
       <c r="T94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -10815,7 +10818,7 @@
         <v>106</v>
       </c>
       <c r="T98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -11061,7 +11064,7 @@
         <v>8</v>
       </c>
       <c r="T102" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -11187,7 +11190,7 @@
         <v>8</v>
       </c>
       <c r="T104" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -11285,7 +11288,7 @@
         <v>48</v>
       </c>
       <c r="K106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L106" t="s">
         <v>1012</v>
@@ -11313,7 +11316,7 @@
         <v>14</v>
       </c>
       <c r="T106" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -11622,7 +11625,7 @@
         <v>78</v>
       </c>
       <c r="T111" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -11657,7 +11660,7 @@
         <v>9</v>
       </c>
       <c r="K112" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L112" t="s">
         <v>811</v>
@@ -11748,7 +11751,7 @@
         <v>106</v>
       </c>
       <c r="T113" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -12189,7 +12192,7 @@
         <v>8</v>
       </c>
       <c r="T120" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -12315,7 +12318,7 @@
         <v>78</v>
       </c>
       <c r="T122" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -12882,7 +12885,7 @@
         <v>14</v>
       </c>
       <c r="T131" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -13046,7 +13049,7 @@
         <v>383</v>
       </c>
       <c r="L134" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M134" t="s">
         <v>346</v>
@@ -13071,7 +13074,7 @@
         <v>8</v>
       </c>
       <c r="T134" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -13169,7 +13172,7 @@
         <v>48</v>
       </c>
       <c r="K136" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L136" t="s">
         <v>867</v>
@@ -13449,7 +13452,7 @@
         <v>78</v>
       </c>
       <c r="T140" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -13484,7 +13487,7 @@
         <v>48</v>
       </c>
       <c r="K141" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L141" t="s">
         <v>214</v>
@@ -13547,7 +13550,7 @@
         <v>9</v>
       </c>
       <c r="K142" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L142" t="s">
         <v>894</v>
@@ -13736,16 +13739,16 @@
         <v>9</v>
       </c>
       <c r="K145" t="s">
-        <v>118</v>
+        <v>1328</v>
       </c>
       <c r="L145" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="M145" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="N145" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="O145" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80577_west berkshire", ".\export_data\inspection_reports\80577_west berkshire")</f>
@@ -13761,36 +13764,36 @@
         <v>8</v>
       </c>
       <c r="S145" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="T145" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" spans="1:20">
       <c r="A146" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B146" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C146" t="s">
         <v>306</v>
       </c>
       <c r="D146" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="E146" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="F146" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="G146" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="I146" t="s">
         <v>14</v>
@@ -13832,28 +13835,28 @@
     </row>
     <row r="147" spans="1:20">
       <c r="A147" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B147" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C147" t="s">
         <v>100</v>
       </c>
       <c r="D147" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="E147" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="F147" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G147" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="I147" t="s">
         <v>14</v>
@@ -13862,7 +13865,7 @@
         <v>48</v>
       </c>
       <c r="K147" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="L147" t="s">
         <v>575</v>
@@ -13890,15 +13893,15 @@
         <v>14</v>
       </c>
       <c r="T147" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="148" spans="1:20">
       <c r="A148" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B148" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C148" t="s">
         <v>56</v>
@@ -13907,16 +13910,16 @@
         <v>284</v>
       </c>
       <c r="E148" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="F148" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G148" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="I148" t="s">
         <v>8</v>
@@ -13958,28 +13961,28 @@
     </row>
     <row r="149" spans="1:20">
       <c r="A149" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B149" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C149" t="s">
         <v>56</v>
       </c>
       <c r="D149" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="E149" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="F149" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G149" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="I149" t="s">
         <v>14</v>
@@ -13988,7 +13991,7 @@
         <v>48</v>
       </c>
       <c r="K149" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="L149" t="s">
         <v>489</v>
@@ -14016,33 +14019,33 @@
         <v>78</v>
       </c>
       <c r="T149" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="150" spans="1:20">
       <c r="A150" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B150" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C150" t="s">
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="E150" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="F150" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G150" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="I150" t="s">
         <v>106</v>
@@ -14054,13 +14057,13 @@
         <v>405</v>
       </c>
       <c r="L150" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="M150" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="N150" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="O150" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80580_wiltshire", ".\export_data\inspection_reports\80580_wiltshire")</f>
@@ -14084,28 +14087,28 @@
     </row>
     <row r="151" spans="1:20">
       <c r="A151" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B151" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C151" t="s">
         <v>56</v>
       </c>
       <c r="D151" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="E151" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="F151" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G151" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="I151" t="s">
         <v>14</v>
@@ -14117,13 +14120,13 @@
         <v>192</v>
       </c>
       <c r="L151" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="M151" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="N151" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="O151" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80581_wirral", ".\export_data\inspection_reports\80581_wirral")</f>
@@ -14147,28 +14150,28 @@
     </row>
     <row r="152" spans="1:20">
       <c r="A152" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B152" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C152" t="s">
         <v>100</v>
       </c>
       <c r="D152" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="E152" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="F152" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G152" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="I152" t="s">
         <v>14</v>
@@ -14210,28 +14213,28 @@
     </row>
     <row r="153" spans="1:20">
       <c r="A153" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B153" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C153" t="s">
         <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="E153" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="F153" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="G153" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="I153" t="s">
         <v>8</v>
@@ -14243,7 +14246,7 @@
         <v>963</v>
       </c>
       <c r="L153" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="M153" t="s">
         <v>857</v>
@@ -14273,28 +14276,28 @@
     </row>
     <row r="154" spans="1:20">
       <c r="A154" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B154" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="C154" t="s">
         <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="E154" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="F154" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="G154" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="I154" t="s">
         <v>8</v>
@@ -14309,10 +14312,10 @@
         <v>1022</v>
       </c>
       <c r="M154" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="N154" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="O154" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80584_worcestershire", ".\export_data\inspection_reports\80584_worcestershire")</f>

--- a/ofsted_csc_ilacs_overview.xlsx
+++ b/ofsted_csc_ilacs_overview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1425">
   <si>
     <t>80426</t>
   </si>
@@ -151,7 +151,7 @@
     <t>892, 352, 380, 391, 353, 889, 373, 806, 852, 355</t>
   </si>
   <si>
-    <t>[(892, 'inadequate'), (352, 'good'), (380, 'inadequate'), (391, 'good'), (353, 'good'), (889, 'good'), (373, 'good'), (806, 'requires improvement'), (852, 'good'), (355, 'good')]</t>
+    <t>[(892, 'inadequate'), (352, 'outstanding'), (380, 'inadequate'), (391, 'good'), (353, 'good'), (889, 'good'), (373, 'good'), (806, 'requires improvement'), (852, 'good'), (355, 'good')]</t>
   </si>
   <si>
     <t>birmingham</t>
@@ -1966,7 +1966,7 @@
     <t>301, 309, 821, 330, 352, 307, 320, 203, 306, 355</t>
   </si>
   <si>
-    <t>[(301, 'requires improvement'), (309, 'good'), (821, 'requires improvement'), (330, 'good'), (352, 'good'), (307, 'good'), (320, 'good'), (203, 'outstanding'), (306, 'good'), (355, 'good')]</t>
+    <t>[(301, 'requires improvement'), (309, 'good'), (821, 'requires improvement'), (330, 'good'), (352, 'outstanding'), (307, 'good'), (320, 'good'), (203, 'outstanding'), (306, 'good'), (355, 'good')]</t>
   </si>
   <si>
     <t>enfield</t>
@@ -2026,7 +2026,7 @@
     <t>210, 206, 309, 208, 211, 209, 202, 352, 320, 213</t>
   </si>
   <si>
-    <t>[(210, 'good'), (206, 'outstanding'), (309, 'good'), (208, 'requires improvement'), (211, 'outstanding'), (209, 'good'), (202, 'outstanding'), (352, 'good'), (320, 'good'), (213, 'outstanding')]</t>
+    <t>[(210, 'good'), (206, 'outstanding'), (309, 'good'), (208, 'requires improvement'), (211, 'outstanding'), (209, 'good'), (202, 'outstanding'), (352, 'outstanding'), (320, 'good'), (213, 'outstanding')]</t>
   </si>
   <si>
     <t>hackney</t>
@@ -2215,7 +2215,7 @@
     <t>202, 210, 208, 213, 204, 205, 209, 309, 203, 352</t>
   </si>
   <si>
-    <t>[(202, 'outstanding'), (210, 'good'), (208, 'requires improvement'), (213, 'outstanding'), (204, 'good'), (205, 'outstanding'), (209, 'good'), (309, 'good'), (203, 'outstanding'), (352, 'good')]</t>
+    <t>[(202, 'outstanding'), (210, 'good'), (208, 'requires improvement'), (213, 'outstanding'), (204, 'good'), (205, 'outstanding'), (209, 'good'), (309, 'good'), (203, 'outstanding'), (352, 'outstanding')]</t>
   </si>
   <si>
     <t>islington</t>
@@ -2320,7 +2320,7 @@
     <t>304, 301, 308, 856, 309, 821, 307, 313, 352, 871</t>
   </si>
   <si>
-    <t>[(304, 'good'), (301, 'requires improvement'), (308, 'good'), (856, 'requires improvement'), (309, 'good'), (821, 'requires improvement'), (307, 'good'), (313, 'good'), (352, 'good'), (871, 'requires improvement')]</t>
+    <t>[(304, 'good'), (301, 'requires improvement'), (308, 'good'), (856, 'requires improvement'), (309, 'good'), (821, 'requires improvement'), (307, 'good'), (313, 'good'), (352, 'outstanding'), (871, 'requires improvement')]</t>
   </si>
   <si>
     <t>newham</t>
@@ -2440,7 +2440,7 @@
     <t>204, 206, 316, 352, 202, 309, 213, 210, 330, 304</t>
   </si>
   <si>
-    <t>[(204, 'good'), (206, 'outstanding'), (316, 'good'), (352, 'good'), (202, 'outstanding'), (309, 'good'), (213, 'outstanding'), (210, 'good'), (330, 'good'), (304, 'good')]</t>
+    <t>[(204, 'good'), (206, 'outstanding'), (316, 'good'), (352, 'outstanding'), (202, 'outstanding'), (309, 'good'), (213, 'outstanding'), (210, 'good'), (330, 'good'), (304, 'good')]</t>
   </si>
   <si>
     <t>tower hamlets</t>
@@ -2521,7 +2521,7 @@
     <t>202, 206, 210, 207, 205, 208, 203, 352, 204, 309</t>
   </si>
   <si>
-    <t>[(202, 'outstanding'), (206, 'outstanding'), (210, 'good'), (207, 'outstanding'), (205, 'outstanding'), (208, 'requires improvement'), (203, 'outstanding'), (352, 'good'), (204, 'good'), (309, 'good')]</t>
+    <t>[(202, 'outstanding'), (206, 'outstanding'), (210, 'good'), (207, 'outstanding'), (205, 'outstanding'), (208, 'requires improvement'), (203, 'outstanding'), (352, 'outstanding'), (204, 'good'), (309, 'good')]</t>
   </si>
   <si>
     <t>westminster</t>
@@ -2578,1306 +2578,1309 @@
     <t>manchester</t>
   </si>
   <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50183843</t>
-  </si>
-  <si>
-    <t>mandy nightingale</t>
+    <t>https://files.ofsted.gov.uk/v1/file/50290914</t>
+  </si>
+  <si>
+    <t>22/09/2025</t>
+  </si>
+  <si>
+    <t>03/10/2025</t>
+  </si>
+  <si>
+    <t>11/11/25</t>
+  </si>
+  <si>
+    <t>80522</t>
+  </si>
+  <si>
+    <t>887</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>E06000035</t>
+  </si>
+  <si>
+    <t>866, 332, 886, 303, 926, 935, 883, 891, 351, 384</t>
+  </si>
+  <si>
+    <t>[(866, 'inadequate'), (332, 'requires improvement'), (886, 'outstanding'), (303, 'outstanding'), (926, 'good'), (935, 'requires improvement'), (883, 'outstanding'), (891, 'good'), (351, 'requires improvement'), (384, 'good')]</t>
+  </si>
+  <si>
+    <t>medway</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50227723</t>
+  </si>
+  <si>
+    <t>17/07/2023</t>
+  </si>
+  <si>
+    <t>28/07/2023</t>
+  </si>
+  <si>
+    <t>11/09/23</t>
+  </si>
+  <si>
+    <t>80523</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>E06000002</t>
+  </si>
+  <si>
+    <t>890, 805, 861, 354, 391, 336, 335, 393, 341, 355</t>
+  </si>
+  <si>
+    <t>[(890, 'requires improvement'), (805, 'outstanding'), (861, 'requires improvement'), (354, 'requires improvement'), (391, 'good'), (336, 'good'), (335, 'outstanding'), (393, 'inadequate'), (341, 'inadequate'), (355, 'good')]</t>
+  </si>
+  <si>
+    <t>middlesbrough</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50218077</t>
+  </si>
+  <si>
+    <t>80524</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>E06000042</t>
+  </si>
+  <si>
+    <t>822, 303, 882, 870, 839, 311, 919, 886, 319, 383</t>
+  </si>
+  <si>
+    <t>[(822, 'requires improvement'), (303, 'outstanding'), (882, 'good'), (870, 'requires improvement'), (839, 'good'), (311, 'inadequate'), (919, 'outstanding'), (886, 'outstanding'), (319, 'good'), (383, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>milton keynes</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50264642</t>
+  </si>
+  <si>
+    <t>28/10/2024</t>
+  </si>
+  <si>
+    <t>08/11/2024</t>
+  </si>
+  <si>
+    <t>17/12/24</t>
+  </si>
+  <si>
+    <t>80525</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>E08000021</t>
+  </si>
+  <si>
+    <t>355, 373, 806, 851, 892, 383, 330, 852, 352, 890</t>
+  </si>
+  <si>
+    <t>[(355, 'good'), (373, 'good'), (806, 'requires improvement'), (851, 'good'), (892, 'inadequate'), (383, 'outstanding'), (330, 'good'), (852, 'good'), (352, 'outstanding'), (890, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>newcastle upon tyne</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50280258</t>
+  </si>
+  <si>
+    <t>12/05/2025</t>
+  </si>
+  <si>
+    <t>16/05/2025</t>
+  </si>
+  <si>
+    <t>25/06/25</t>
+  </si>
+  <si>
+    <t>80418</t>
+  </si>
+  <si>
+    <t>926</t>
+  </si>
+  <si>
+    <t>E10000020</t>
+  </si>
+  <si>
+    <t>935, 908, 878, 830, 929, 886, 933, 925, 891, 887</t>
+  </si>
+  <si>
+    <t>[(935, 'requires improvement'), (908, 'good'), (878, 'inadequate'), (830, 'good'), (929, 'outstanding'), (886, 'outstanding'), (933, 'good'), (925, 'outstanding'), (891, 'good'), (887, 'good')]</t>
+  </si>
+  <si>
+    <t>norfolk</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50204404</t>
+  </si>
+  <si>
+    <t>80526</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>E06000012</t>
+  </si>
+  <si>
+    <t>371, 861, 372, 894, 335, 384, 841, 370, 807, 357</t>
+  </si>
+  <si>
+    <t>[(371, 'good'), (861, 'requires improvement'), (372, 'good'), (894, 'outstanding'), (335, 'outstanding'), (384, 'good'), (841, 'good'), (370, 'good'), (807, 'requires improvement'), (357, 'inadequate')]</t>
+  </si>
+  <si>
+    <t>north east lincolnshire</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50285393</t>
+  </si>
+  <si>
+    <t>25/07/2025</t>
+  </si>
+  <si>
+    <t>03/09/25</t>
+  </si>
+  <si>
+    <t>80527</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>E06000013</t>
+  </si>
+  <si>
+    <t>384, 925, 371, 370, 940, 332, 942, 372, 894, 888</t>
+  </si>
+  <si>
+    <t>[(384, 'good'), (925, 'outstanding'), (371, 'good'), (370, 'good'), (940, 'requires improvement'), (332, 'requires improvement'), (942, 'good'), (372, 'good'), (894, 'outstanding'), (888, 'good')]</t>
+  </si>
+  <si>
+    <t>north lincolnshire</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50200023</t>
+  </si>
+  <si>
+    <t>jan edwards</t>
+  </si>
+  <si>
+    <t>14/10/2022</t>
+  </si>
+  <si>
+    <t>25/11/22</t>
+  </si>
+  <si>
+    <t>2637539</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
+    <t>E06000061</t>
+  </si>
+  <si>
+    <t>866, 941, 935, 925, 933, 883, 891, 813, 887, 384</t>
+  </si>
+  <si>
+    <t>[(866, 'inadequate'), (941, 'requires improvement'), (935, 'requires improvement'), (925, 'outstanding'), (933, 'good'), (883, 'outstanding'), (891, 'good'), (813, 'outstanding'), (887, 'good'), (384, 'good')]</t>
+  </si>
+  <si>
+    <t>north northamptonshire</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50200024</t>
+  </si>
+  <si>
+    <t>03/10/2022</t>
+  </si>
+  <si>
+    <t>80528</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>E06000024</t>
+  </si>
+  <si>
+    <t>850, 916, 865, 937, 855, 881, 938, 803, 891, 886</t>
+  </si>
+  <si>
+    <t>[(850, 'outstanding'), (916, 'good'), (865, 'outstanding'), (937, 'requires improvement'), (855, 'outstanding'), (881, 'outstanding'), (938, 'requires improvement'), (803, 'good'), (891, 'good'), (886, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>north somerset</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50216275</t>
+  </si>
+  <si>
+    <t>11/05/23</t>
+  </si>
+  <si>
+    <t>80529</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>E08000022</t>
+  </si>
+  <si>
+    <t>351, 891, 808, 802, 841, 888, 334, 908, 390, 886</t>
+  </si>
+  <si>
+    <t>[(351, 'requires improvement'), (891, 'good'), (808, 'requires improvement'), (802, 'requires improvement'), (841, 'good'), (888, 'good'), (334, 'inadequate'), (908, 'good'), (390, 'good'), (886, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>north tyneside</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50266092</t>
+  </si>
+  <si>
+    <t>80530</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>E10000023</t>
+  </si>
+  <si>
+    <t>893, 895, 811, 860, 916, 877, 937, 884, 865, 933</t>
+  </si>
+  <si>
+    <t>[(893, 'outstanding'), (895, 'inadequate'), (811, 'good'), (860, 'requires improvement'), (916, 'good'), (877, 'good'), (937, 'requires improvement'), (884, 'inadequate'), (865, 'outstanding'), (933, 'good')]</t>
+  </si>
+  <si>
+    <t>north yorkshire</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50226213</t>
+  </si>
+  <si>
+    <t>03/07/2023</t>
+  </si>
+  <si>
+    <t>07/07/2023</t>
+  </si>
+  <si>
+    <t>18/08/23</t>
+  </si>
+  <si>
+    <t>80532</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>E06000057</t>
+  </si>
+  <si>
+    <t>926, 830, 888, 908, 878, 840, 838, 886, 885, 935</t>
+  </si>
+  <si>
+    <t>[(926, 'good'), (830, 'good'), (888, 'good'), (908, 'good'), (878, 'inadequate'), (840, 'outstanding'), (838, 'outstanding'), (886, 'outstanding'), (885, 'good'), (935, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>northumberland</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50252256</t>
+  </si>
+  <si>
+    <t>andy waugh</t>
+  </si>
+  <si>
+    <t>20/05/2024</t>
+  </si>
+  <si>
+    <t>80533</t>
+  </si>
+  <si>
+    <t>892</t>
+  </si>
+  <si>
+    <t>E06000018</t>
+  </si>
+  <si>
+    <t>330, 352, 391, 806, 380, 333, 852, 353, 373, 355</t>
+  </si>
+  <si>
+    <t>[(330, 'good'), (352, 'outstanding'), (391, 'good'), (806, 'requires improvement'), (380, 'inadequate'), (333, 'requires improvement'), (852, 'good'), (353, 'good'), (373, 'good'), (355, 'good')]</t>
+  </si>
+  <si>
+    <t>nottingham</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50192198</t>
+  </si>
+  <si>
+    <t>80534</t>
+  </si>
+  <si>
+    <t>891</t>
+  </si>
+  <si>
+    <t>E10000024</t>
+  </si>
+  <si>
+    <t>830, 935, 933, 886, 926, 937, 855, 802, 860, 888</t>
+  </si>
+  <si>
+    <t>[(830, 'good'), (935, 'requires improvement'), (933, 'good'), (886, 'outstanding'), (926, 'good'), (937, 'requires improvement'), (855, 'outstanding'), (802, 'requires improvement'), (860, 'requires improvement'), (888, 'good')]</t>
+  </si>
+  <si>
+    <t>nottinghamshire</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50252254</t>
+  </si>
+  <si>
+    <t>80535</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>E08000004</t>
+  </si>
+  <si>
+    <t>889, 350, 354, 380, 335, 831, 861, 331, 330, 333</t>
+  </si>
+  <si>
+    <t>[(889, 'good'), (350, 'good'), (354, 'requires improvement'), (380, 'inadequate'), (335, 'outstanding'), (831, 'outstanding'), (861, 'requires improvement'), (331, 'good'), (330, 'good'), (333, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>oldham</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50252252</t>
+  </si>
+  <si>
+    <t>80536</t>
+  </si>
+  <si>
+    <t>931</t>
+  </si>
+  <si>
+    <t>E10000025</t>
+  </si>
+  <si>
+    <t>873, 919, 825, 937, 916, 850, 867, 938, 869, 803</t>
+  </si>
+  <si>
+    <t>[(873, 'requires improvement'), (919, 'outstanding'), (825, 'requires improvement'), (937, 'requires improvement'), (916, 'good'), (850, 'outstanding'), (867, 'outstanding'), (938, 'requires improvement'), (869, 'good'), (803, 'good')]</t>
+  </si>
+  <si>
+    <t>oxfordshire</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50243682</t>
+  </si>
+  <si>
+    <t>12/02/2024</t>
+  </si>
+  <si>
+    <t>09/04/24</t>
+  </si>
+  <si>
+    <t>80537</t>
+  </si>
+  <si>
+    <t>874</t>
+  </si>
+  <si>
+    <t>E06000031</t>
+  </si>
+  <si>
+    <t>331, 831, 312, 350, 852, 335, 821, 354, 336, 883</t>
+  </si>
+  <si>
+    <t>[(331, 'good'), (831, 'outstanding'), (312, 'outstanding'), (350, 'good'), (852, 'good'), (335, 'outstanding'), (821, 'requires improvement'), (354, 'requires improvement'), (336, 'good'), (883, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>peterborough</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50238583</t>
+  </si>
+  <si>
+    <t>27/11/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>30/01/24</t>
+  </si>
+  <si>
+    <t>80538</t>
+  </si>
+  <si>
+    <t>879</t>
+  </si>
+  <si>
+    <t>E06000026</t>
+  </si>
+  <si>
+    <t>357, 880, 894, 332, 372, 384, 382, 390, 887, 908</t>
+  </si>
+  <si>
+    <t>[(357, 'inadequate'), (880, 'good'), (894, 'outstanding'), (332, 'requires improvement'), (372, 'good'), (384, 'good'), (382, 'good'), (390, 'good'), (887, 'good'), (908, 'good')]</t>
+  </si>
+  <si>
+    <t>plymouth</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50241802</t>
+  </si>
+  <si>
+    <t>22/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>15/03/24</t>
+  </si>
+  <si>
+    <t>80539</t>
+  </si>
+  <si>
+    <t>851</t>
+  </si>
+  <si>
+    <t>E06000044</t>
+  </si>
+  <si>
+    <t>373, 383, 382, 355, 852, 882, 879, 831, 390, 357</t>
+  </si>
+  <si>
+    <t>[(373, 'good'), (383, 'outstanding'), (382, 'good'), (355, 'good'), (852, 'good'), (882, 'good'), (879, 'requires improvement'), (831, 'outstanding'), (390, 'good'), (357, 'inadequate')]</t>
+  </si>
+  <si>
+    <t>portsmouth</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50221956</t>
+  </si>
+  <si>
+    <t>15/05/2023</t>
+  </si>
+  <si>
+    <t>19/05/2023</t>
+  </si>
+  <si>
+    <t>03/07/23</t>
+  </si>
+  <si>
+    <t>80540</t>
+  </si>
+  <si>
+    <t>870</t>
+  </si>
+  <si>
+    <t>E06000038</t>
+  </si>
+  <si>
+    <t>826, 302, 312, 315, 822, 306, 320, 383, 852, 310</t>
+  </si>
+  <si>
+    <t>[(826, 'good'), (302, 'good'), (312, 'outstanding'), (315, 'outstanding'), (822, 'requires improvement'), (306, 'good'), (320, 'good'), (383, 'outstanding'), (852, 'good'), (310, 'inadequate')]</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50252257</t>
+  </si>
+  <si>
+    <t>80541</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>E06000003</t>
+  </si>
+  <si>
+    <t>394, 393, 805, 372, 390, 840, 370, 357, 371, 880</t>
+  </si>
+  <si>
+    <t>[(394, 'outstanding'), (393, 'inadequate'), (805, 'outstanding'), (372, 'good'), (390, 'good'), (840, 'outstanding'), (370, 'good'), (357, 'inadequate'), (371, 'good'), (880, 'good')]</t>
+  </si>
+  <si>
+    <t>redcar and cleveland</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50194303</t>
+  </si>
+  <si>
+    <t>22/09/22</t>
+  </si>
+  <si>
+    <t>80542</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>E08000005</t>
+  </si>
+  <si>
+    <t>335, 357, 861, 350, 394, 371, 372, 831, 353, 355</t>
+  </si>
+  <si>
+    <t>[(335, 'outstanding'), (357, 'inadequate'), (861, 'requires improvement'), (350, 'good'), (394, 'outstanding'), (371, 'good'), (372, 'good'), (831, 'outstanding'), (353, 'good'), (355, 'good')]</t>
+  </si>
+  <si>
+    <t>rochdale</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50211330</t>
+  </si>
+  <si>
+    <t>03/02/2023</t>
+  </si>
+  <si>
+    <t>17/03/23</t>
+  </si>
+  <si>
+    <t>80543</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>E08000018</t>
+  </si>
+  <si>
+    <t>370, 357, 371, 384, 894, 332, 807, 394, 390, 840</t>
+  </si>
+  <si>
+    <t>[(370, 'good'), (357, 'inadequate'), (371, 'good'), (384, 'good'), (894, 'outstanding'), (332, 'requires improvement'), (807, 'requires improvement'), (394, 'outstanding'), (390, 'good'), (840, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>rotherham</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50190644</t>
+  </si>
+  <si>
+    <t>neil penswick</t>
+  </si>
+  <si>
+    <t>27/06/2022</t>
+  </si>
+  <si>
+    <t>80544</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>E09000020</t>
+  </si>
+  <si>
+    <t>205, 202, 208, 213, 210, 209, 212, 206, 302, 203</t>
+  </si>
+  <si>
+    <t>[(205, 'outstanding'), (202, 'outstanding'), (208, 'requires improvement'), (213, 'outstanding'), (210, 'good'), (209, 'good'), (212, 'good'), (206, 'outstanding'), (302, 'good'), (203, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>kensington and chelsea</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50266093</t>
+  </si>
+  <si>
+    <t>80545</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>E09000021</t>
+  </si>
+  <si>
+    <t>319, 315, 919, 305, 800, 868, 358, 318, 936, 825</t>
+  </si>
+  <si>
+    <t>[(319, 'good'), (315, 'outstanding'), (919, 'outstanding'), (305, 'outstanding'), (800, 'good'), (868, 'good'), (358, 'requires improvement'), (318, 'outstanding'), (936, 'good'), (825, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>kingston upon thames</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50267803</t>
+  </si>
+  <si>
+    <t>80546</t>
+  </si>
+  <si>
+    <t>868</t>
+  </si>
+  <si>
+    <t>E06000040</t>
+  </si>
+  <si>
+    <t>936, 825, 872, 358, 919, 869, 305, 823, 931, 867</t>
+  </si>
+  <si>
+    <t>[(936, 'good'), (825, 'requires improvement'), (872, 'requires improvement'), (358, 'requires improvement'), (919, 'outstanding'), (869, 'good'), (305, 'outstanding'), (823, 'good'), (931, 'good'), (867, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>windsor &amp; maidenhead</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50261980</t>
+  </si>
+  <si>
+    <t>19/11/24</t>
+  </si>
+  <si>
+    <t>80547</t>
+  </si>
+  <si>
+    <t>857</t>
+  </si>
+  <si>
+    <t>E06000017</t>
+  </si>
+  <si>
+    <t>865, 815, 893, 895, 850, 823, 916, 855, 869, 811</t>
+  </si>
+  <si>
+    <t>[(865, 'outstanding'), (815, 'outstanding'), (893, 'outstanding'), (895, 'inadequate'), (850, 'outstanding'), (823, 'good'), (916, 'good'), (855, 'outstanding'), (869, 'good'), (811, 'good')]</t>
+  </si>
+  <si>
+    <t>rutland</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50252255</t>
+  </si>
+  <si>
+    <t>15/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>80548</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>E08000006</t>
+  </si>
+  <si>
+    <t>373, 354, 851, 391, 390, 350, 393, 357, 852, 383</t>
+  </si>
+  <si>
+    <t>[(373, 'good'), (354, 'requires improvement'), (851, 'good'), (391, 'good'), (390, 'good'), (350, 'good'), (393, 'inadequate'), (357, 'inadequate'), (852, 'good'), (383, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>salford</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50237003</t>
+  </si>
+  <si>
+    <t>kathryn grindrod</t>
+  </si>
+  <si>
+    <t>06/11/2023</t>
+  </si>
+  <si>
+    <t>80549</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>E08000028</t>
+  </si>
+  <si>
+    <t>336, 810, 861, 335, 354, 380, 806, 331, 353, 821</t>
+  </si>
+  <si>
+    <t>[(336, 'good'), (810, 'requires improvement'), (861, 'requires improvement'), (335, 'outstanding'), (354, 'requires improvement'), (380, 'inadequate'), (806, 'requires improvement'), (331, 'good'), (353, 'good'), (821, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>sandwell</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50187562</t>
+  </si>
+  <si>
+    <t>80550</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>E08000014</t>
+  </si>
+  <si>
+    <t>344, 342, 359, 888, 876, 840, 808, 340, 841, 351</t>
+  </si>
+  <si>
+    <t>[(344, 'requires improvement'), (342, 'good'), (359, 'requires improvement'), (888, 'good'), (876, 'inadequate'), (840, 'outstanding'), (808, 'requires improvement'), (340, 'inadequate'), (841, 'good'), (351, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>sefton</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50284335</t>
+  </si>
+  <si>
+    <t>23/06/2025</t>
+  </si>
+  <si>
+    <t>80551</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>E08000019</t>
+  </si>
+  <si>
+    <t>382, 851, 355, 383, 831, 354, 391, 852, 357, 350</t>
+  </si>
+  <si>
+    <t>[(382, 'good'), (851, 'good'), (355, 'good'), (383, 'outstanding'), (831, 'outstanding'), (354, 'requires improvement'), (391, 'good'), (852, 'good'), (357, 'inadequate'), (350, 'good')]</t>
+  </si>
+  <si>
+    <t>sheffield</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50231897</t>
+  </si>
+  <si>
+    <t>22/09/2023</t>
+  </si>
+  <si>
+    <t>03/11/23</t>
+  </si>
+  <si>
+    <t>80552</t>
+  </si>
+  <si>
+    <t>893</t>
+  </si>
+  <si>
+    <t>E06000051</t>
+  </si>
+  <si>
+    <t>815, 933, 860, 811, 838, 884, 830, 885, 943, 916</t>
+  </si>
+  <si>
+    <t>[(815, 'outstanding'), (933, 'good'), (860, 'requires improvement'), (811, 'good'), (838, 'outstanding'), (884, 'inadequate'), (830, 'good'), (885, 'good'), (943, 'good'), (916, 'good')]</t>
+  </si>
+  <si>
+    <t>shropshire</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50284334</t>
+  </si>
+  <si>
+    <t>jenny -ellen scotland</t>
+  </si>
+  <si>
+    <t>80553</t>
+  </si>
+  <si>
+    <t>871</t>
+  </si>
+  <si>
+    <t>E06000039</t>
+  </si>
+  <si>
+    <t>313, 312, 821, 307, 317, 310, 304, 874, 320, 856</t>
+  </si>
+  <si>
+    <t>[(313, 'good'), (312, 'outstanding'), (821, 'requires improvement'), (307, 'good'), (317, 'outstanding'), (310, 'inadequate'), (304, 'good'), (874, 'inadequate'), (320, 'good'), (856, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>slough</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50211331</t>
+  </si>
+  <si>
+    <t>80554</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>E08000029</t>
+  </si>
+  <si>
+    <t>356, 896, 937, 877, 886, 916, 802, 895, 881, 919</t>
+  </si>
+  <si>
+    <t>[(356, 'requires improvement'), (896, 'requires improvement'), (937, 'requires improvement'), (877, 'good'), (886, 'outstanding'), (916, 'good'), (802, 'requires improvement'), (895, 'inadequate'), (881, 'outstanding'), (919, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>solihull</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50204405</t>
+  </si>
+  <si>
+    <t>victoria horsefield</t>
+  </si>
+  <si>
+    <t>80555</t>
+  </si>
+  <si>
+    <t>933</t>
+  </si>
+  <si>
+    <t>E10000027</t>
+  </si>
+  <si>
+    <t>935, 830, 838, 893, 885, 891, 878, 860, 855, 881</t>
+  </si>
+  <si>
+    <t>[(935, 'requires improvement'), (830, 'good'), (838, 'outstanding'), (893, 'outstanding'), (885, 'good'), (891, 'good'), (878, 'inadequate'), (860, 'requires improvement'), (855, 'outstanding'), (881, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>somerset</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50192873</t>
+  </si>
+  <si>
+    <t>80556</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
+    <t>E06000025</t>
+  </si>
+  <si>
+    <t>855, 850, 938, 873, 823, 802, 916, 881, 931, 865</t>
+  </si>
+  <si>
+    <t>[(855, 'outstanding'), (850, 'outstanding'), (938, 'requires improvement'), (873, 'requires improvement'), (823, 'good'), (802, 'requires improvement'), (916, 'good'), (881, 'outstanding'), (931, 'good'), (865, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>south gloucestershire</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50253185</t>
+  </si>
+  <si>
+    <t>80557</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>E08000023</t>
+  </si>
+  <si>
+    <t>394, 807, 390, 805, 840, 357, 372, 354, 890, 841</t>
+  </si>
+  <si>
+    <t>[(394, 'outstanding'), (807, 'requires improvement'), (390, 'good'), (805, 'outstanding'), (840, 'outstanding'), (357, 'inadequate'), (372, 'good'), (354, 'requires improvement'), (890, 'requires improvement'), (841, 'good')]</t>
+  </si>
+  <si>
+    <t>south tyneside</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50216273</t>
+  </si>
+  <si>
+    <t>10/05/23</t>
+  </si>
+  <si>
+    <t>80558</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>E06000045</t>
+  </si>
+  <si>
+    <t>331, 831, 851, 373, 312, 355, 874, 383, 350, 320</t>
+  </si>
+  <si>
+    <t>[(331, 'good'), (831, 'outstanding'), (851, 'good'), (373, 'good'), (312, 'outstanding'), (355, 'good'), (874, 'inadequate'), (383, 'outstanding'), (350, 'good'), (320, 'good')]</t>
+  </si>
+  <si>
+    <t>southampton</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50224705</t>
+  </si>
+  <si>
+    <t>05/06/2023</t>
+  </si>
+  <si>
+    <t>16/06/2023</t>
+  </si>
+  <si>
+    <t>28/07/23</t>
+  </si>
+  <si>
+    <t>80559</t>
+  </si>
+  <si>
+    <t>882</t>
+  </si>
+  <si>
+    <t>E06000033</t>
+  </si>
+  <si>
+    <t>839, 383, 826, 351, 845, 851, 886, 303, 392, 822</t>
+  </si>
+  <si>
+    <t>[(839, 'good'), (383, 'outstanding'), (826, 'good'), (351, 'requires improvement'), (845, 'good'), (851, 'good'), (886, 'outstanding'), (303, 'outstanding'), (392, 'outstanding'), (822, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>southend-on-sea</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50263392</t>
+  </si>
+  <si>
+    <t>80560</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>E08000013</t>
+  </si>
+  <si>
+    <t>876, 343, 340, 840, 807, 370, 394, 344, 808, 894</t>
+  </si>
+  <si>
+    <t>[(876, 'inadequate'), (343, 'good'), (340, 'inadequate'), (840, 'outstanding'), (807, 'requires improvement'), (370, 'good'), (394, 'outstanding'), (344, 'requires improvement'), (808, 'requires improvement'), (894, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>st helens</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50227184</t>
+  </si>
+  <si>
+    <t>80561</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>E10000028</t>
+  </si>
+  <si>
+    <t>811, 884, 893, 815, 933, 830, 877, 891, 943, 888</t>
+  </si>
+  <si>
+    <t>[(811, 'good'), (884, 'inadequate'), (893, 'outstanding'), (815, 'outstanding'), (933, 'good'), (830, 'good'), (877, 'good'), (891, 'good'), (943, 'good'), (888, 'good')]</t>
+  </si>
+  <si>
+    <t>staffordshire</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50237007</t>
+  </si>
+  <si>
+    <t>80562</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>E08000007</t>
+  </si>
+  <si>
+    <t>334, 358, 896, 916, 919, 938, 937, 802, 803, 873</t>
+  </si>
+  <si>
+    <t>[(334, 'inadequate'), (358, 'requires improvement'), (896, 'requires improvement'), (916, 'good'), (919, 'outstanding'), (938, 'requires improvement'), (937, 'requires improvement'), (802, 'requires improvement'), (803, 'good'), (873, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>stockport</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50282103</t>
+  </si>
+  <si>
+    <t>15/07/25</t>
+  </si>
+  <si>
+    <t>80563</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>E06000004</t>
+  </si>
+  <si>
+    <t>841, 332, 888, 390, 384, 351, 840, 372, 894, 344</t>
+  </si>
+  <si>
+    <t>[(841, 'good'), (332, 'requires improvement'), (888, 'good'), (390, 'good'), (384, 'good'), (351, 'requires improvement'), (840, 'outstanding'), (372, 'good'), (894, 'outstanding'), (344, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>stockton-on-tees</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50215915</t>
+  </si>
+  <si>
+    <t>joanna warburton</t>
+  </si>
+  <si>
+    <t>06/03/2023</t>
+  </si>
+  <si>
+    <t>17/03/2023</t>
+  </si>
+  <si>
+    <t>09/05/23</t>
+  </si>
+  <si>
+    <t>80564</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>E06000021</t>
+  </si>
+  <si>
+    <t>335, 354, 336, 371, 812, 810, 333, 357, 831, 372</t>
+  </si>
+  <si>
+    <t>[(335, 'outstanding'), (354, 'requires improvement'), (336, 'good'), (371, 'good'), (812, 'good'), (810, 'requires improvement'), (333, 'requires improvement'), (357, 'inadequate'), (831, 'outstanding'), (372, 'good')]</t>
+  </si>
+  <si>
+    <t>stoke-on-trent</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50282104</t>
+  </si>
+  <si>
+    <t>80565</t>
+  </si>
+  <si>
+    <t>935</t>
+  </si>
+  <si>
+    <t>E10000029</t>
+  </si>
+  <si>
+    <t>933, 926, 830, 891, 878, 881, 886, 838, 925, 940</t>
+  </si>
+  <si>
+    <t>[(933, 'good'), (926, 'good'), (830, 'good'), (891, 'good'), (878, 'inadequate'), (881, 'outstanding'), (886, 'outstanding'), (838, 'outstanding'), (925, 'outstanding'), (940, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>suffolk</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50255285</t>
+  </si>
+  <si>
+    <t>21/08/24</t>
+  </si>
+  <si>
+    <t>80566</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>E08000024</t>
+  </si>
+  <si>
+    <t>807, 393, 805, 372, 357, 880, 390, 840, 370, 354</t>
+  </si>
+  <si>
+    <t>[(807, 'requires improvement'), (393, 'inadequate'), (805, 'outstanding'), (372, 'good'), (357, 'inadequate'), (880, 'good'), (390, 'good'), (840, 'outstanding'), (370, 'good'), (354, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>sunderland</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50271150</t>
+  </si>
+  <si>
+    <t>11/03/25</t>
+  </si>
+  <si>
+    <t>80567</t>
+  </si>
+  <si>
+    <t>936</t>
+  </si>
+  <si>
+    <t>E10000030</t>
+  </si>
+  <si>
+    <t>868, 825, 358, 919, 869, 823, 872, 931, 867, 873</t>
+  </si>
+  <si>
+    <t>[(868, 'good'), (825, 'requires improvement'), (358, 'requires improvement'), (919, 'outstanding'), (869, 'good'), (823, 'good'), (872, 'requires improvement'), (931, 'good'), (867, 'outstanding'), (873, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>surrey</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50276410</t>
+  </si>
+  <si>
+    <t>80568</t>
+  </si>
+  <si>
+    <t>866</t>
+  </si>
+  <si>
+    <t>E06000030</t>
+  </si>
+  <si>
+    <t>887, 940, 883, 303, 822, 941, 935, 311, 891, 886</t>
+  </si>
+  <si>
+    <t>[(887, 'good'), (940, 'requires improvement'), (883, 'outstanding'), (303, 'outstanding'), (822, 'requires improvement'), (941, 'requires improvement'), (935, 'requires improvement'), (311, 'inadequate'), (891, 'good'), (886, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>swindon</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50227724</t>
+  </si>
+  <si>
+    <t>80569</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>E08000008</t>
+  </si>
+  <si>
+    <t>372, 390, 354, 370, 384, 332, 894, 879, 394, 880</t>
+  </si>
+  <si>
+    <t>[(372, 'good'), (390, 'good'), (354, 'requires improvement'), (370, 'good'), (384, 'good'), (332, 'requires improvement'), (894, 'outstanding'), (879, 'requires improvement'), (394, 'outstanding'), (880, 'good')]</t>
+  </si>
+  <si>
+    <t>tameside</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50239562</t>
+  </si>
+  <si>
+    <t>13/02/24</t>
+  </si>
+  <si>
+    <t>80570</t>
+  </si>
+  <si>
+    <t>894</t>
+  </si>
+  <si>
+    <t>E06000020</t>
+  </si>
+  <si>
+    <t>384, 372, 332, 370, 357, 371, 841, 390, 879, 808</t>
+  </si>
+  <si>
+    <t>[(384, 'good'), (372, 'good'), (332, 'requires improvement'), (370, 'good'), (357, 'inadequate'), (371, 'good'), (841, 'good'), (390, 'good'), (879, 'requires improvement'), (808, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>telford &amp; wrekin</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50252260</t>
+  </si>
+  <si>
+    <t>29/04/2024</t>
+  </si>
+  <si>
+    <t>80571</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>E06000034</t>
+  </si>
+  <si>
+    <t>866, 303, 311, 887, 940, 822, 941, 332, 925, 935</t>
+  </si>
+  <si>
+    <t>[(866, 'inadequate'), (303, 'outstanding'), (311, 'inadequate'), (887, 'good'), (940, 'requires improvement'), (822, 'requires improvement'), (941, 'requires improvement'), (332, 'requires improvement'), (925, 'outstanding'), (935, 'requires improvement')]</t>
+  </si>
+  <si>
+    <t>thurrock</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50260250</t>
+  </si>
+  <si>
+    <t>16/09/2024</t>
+  </si>
+  <si>
+    <t>20/09/2024</t>
+  </si>
+  <si>
+    <t>29/10/24</t>
+  </si>
+  <si>
+    <t>80572</t>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>E06000027</t>
+  </si>
+  <si>
+    <t>357, 394, 879, 372, 807, 921, 370, 390, 354, 894</t>
+  </si>
+  <si>
+    <t>[(357, 'inadequate'), (394, 'outstanding'), (879, 'requires improvement'), (372, 'good'), (807, 'requires improvement'), (921, 'good'), (370, 'good'), (390, 'good'), (354, 'requires improvement'), (894, 'outstanding')]</t>
+  </si>
+  <si>
+    <t>torbay</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50183765</t>
+  </si>
+  <si>
+    <t>andy whippey</t>
   </si>
   <si>
     <t>21/03/2022</t>
   </si>
   <si>
     <t>01/04/2022</t>
-  </si>
-  <si>
-    <t>19/05/22</t>
-  </si>
-  <si>
-    <t>80522</t>
-  </si>
-  <si>
-    <t>887</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>E06000035</t>
-  </si>
-  <si>
-    <t>866, 332, 886, 303, 926, 935, 883, 891, 351, 384</t>
-  </si>
-  <si>
-    <t>[(866, 'inadequate'), (332, 'requires improvement'), (886, 'outstanding'), (303, 'outstanding'), (926, 'good'), (935, 'requires improvement'), (883, 'outstanding'), (891, 'good'), (351, 'requires improvement'), (384, 'good')]</t>
-  </si>
-  <si>
-    <t>medway</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50227723</t>
-  </si>
-  <si>
-    <t>17/07/2023</t>
-  </si>
-  <si>
-    <t>28/07/2023</t>
-  </si>
-  <si>
-    <t>11/09/23</t>
-  </si>
-  <si>
-    <t>80523</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>E06000002</t>
-  </si>
-  <si>
-    <t>890, 805, 861, 354, 391, 336, 335, 393, 341, 355</t>
-  </si>
-  <si>
-    <t>[(890, 'requires improvement'), (805, 'outstanding'), (861, 'requires improvement'), (354, 'requires improvement'), (391, 'good'), (336, 'good'), (335, 'outstanding'), (393, 'inadequate'), (341, 'inadequate'), (355, 'good')]</t>
-  </si>
-  <si>
-    <t>middlesbrough</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50218077</t>
-  </si>
-  <si>
-    <t>80524</t>
-  </si>
-  <si>
-    <t>826</t>
-  </si>
-  <si>
-    <t>E06000042</t>
-  </si>
-  <si>
-    <t>822, 303, 882, 870, 839, 311, 919, 886, 319, 383</t>
-  </si>
-  <si>
-    <t>[(822, 'requires improvement'), (303, 'outstanding'), (882, 'good'), (870, 'requires improvement'), (839, 'good'), (311, 'inadequate'), (919, 'outstanding'), (886, 'outstanding'), (319, 'good'), (383, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>milton keynes</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50264642</t>
-  </si>
-  <si>
-    <t>28/10/2024</t>
-  </si>
-  <si>
-    <t>08/11/2024</t>
-  </si>
-  <si>
-    <t>17/12/24</t>
-  </si>
-  <si>
-    <t>80525</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>E08000021</t>
-  </si>
-  <si>
-    <t>355, 373, 806, 851, 892, 383, 330, 852, 352, 890</t>
-  </si>
-  <si>
-    <t>[(355, 'good'), (373, 'good'), (806, 'requires improvement'), (851, 'good'), (892, 'inadequate'), (383, 'outstanding'), (330, 'good'), (852, 'good'), (352, 'good'), (890, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>newcastle upon tyne</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50280258</t>
-  </si>
-  <si>
-    <t>12/05/2025</t>
-  </si>
-  <si>
-    <t>16/05/2025</t>
-  </si>
-  <si>
-    <t>25/06/25</t>
-  </si>
-  <si>
-    <t>80418</t>
-  </si>
-  <si>
-    <t>926</t>
-  </si>
-  <si>
-    <t>E10000020</t>
-  </si>
-  <si>
-    <t>935, 908, 878, 830, 929, 886, 933, 925, 891, 887</t>
-  </si>
-  <si>
-    <t>[(935, 'requires improvement'), (908, 'good'), (878, 'inadequate'), (830, 'good'), (929, 'outstanding'), (886, 'outstanding'), (933, 'good'), (925, 'outstanding'), (891, 'good'), (887, 'good')]</t>
-  </si>
-  <si>
-    <t>norfolk</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50204404</t>
-  </si>
-  <si>
-    <t>80526</t>
-  </si>
-  <si>
-    <t>812</t>
-  </si>
-  <si>
-    <t>E06000012</t>
-  </si>
-  <si>
-    <t>371, 861, 372, 894, 335, 384, 841, 370, 807, 357</t>
-  </si>
-  <si>
-    <t>[(371, 'good'), (861, 'requires improvement'), (372, 'good'), (894, 'outstanding'), (335, 'outstanding'), (384, 'good'), (841, 'good'), (370, 'good'), (807, 'requires improvement'), (357, 'inadequate')]</t>
-  </si>
-  <si>
-    <t>north east lincolnshire</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50285393</t>
-  </si>
-  <si>
-    <t>25/07/2025</t>
-  </si>
-  <si>
-    <t>03/09/25</t>
-  </si>
-  <si>
-    <t>80527</t>
-  </si>
-  <si>
-    <t>813</t>
-  </si>
-  <si>
-    <t>E06000013</t>
-  </si>
-  <si>
-    <t>384, 925, 371, 370, 940, 332, 942, 372, 894, 888</t>
-  </si>
-  <si>
-    <t>[(384, 'good'), (925, 'outstanding'), (371, 'good'), (370, 'good'), (940, 'requires improvement'), (332, 'requires improvement'), (942, 'good'), (372, 'good'), (894, 'outstanding'), (888, 'good')]</t>
-  </si>
-  <si>
-    <t>north lincolnshire</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50200023</t>
-  </si>
-  <si>
-    <t>jan edwards</t>
-  </si>
-  <si>
-    <t>14/10/2022</t>
-  </si>
-  <si>
-    <t>25/11/22</t>
-  </si>
-  <si>
-    <t>2637539</t>
-  </si>
-  <si>
-    <t>940</t>
-  </si>
-  <si>
-    <t>E06000061</t>
-  </si>
-  <si>
-    <t>866, 941, 935, 925, 933, 883, 891, 813, 887, 384</t>
-  </si>
-  <si>
-    <t>[(866, 'inadequate'), (941, 'requires improvement'), (935, 'requires improvement'), (925, 'outstanding'), (933, 'good'), (883, 'outstanding'), (891, 'good'), (813, 'outstanding'), (887, 'good'), (384, 'good')]</t>
-  </si>
-  <si>
-    <t>north northamptonshire</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50200024</t>
-  </si>
-  <si>
-    <t>03/10/2022</t>
-  </si>
-  <si>
-    <t>80528</t>
-  </si>
-  <si>
-    <t>802</t>
-  </si>
-  <si>
-    <t>E06000024</t>
-  </si>
-  <si>
-    <t>850, 916, 865, 937, 855, 881, 938, 803, 891, 886</t>
-  </si>
-  <si>
-    <t>[(850, 'outstanding'), (916, 'good'), (865, 'outstanding'), (937, 'requires improvement'), (855, 'outstanding'), (881, 'outstanding'), (938, 'requires improvement'), (803, 'good'), (891, 'good'), (886, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>north somerset</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50216275</t>
-  </si>
-  <si>
-    <t>11/05/23</t>
-  </si>
-  <si>
-    <t>80529</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
-  <si>
-    <t>E08000022</t>
-  </si>
-  <si>
-    <t>351, 891, 808, 802, 841, 888, 334, 908, 390, 886</t>
-  </si>
-  <si>
-    <t>[(351, 'requires improvement'), (891, 'good'), (808, 'requires improvement'), (802, 'requires improvement'), (841, 'good'), (888, 'good'), (334, 'inadequate'), (908, 'good'), (390, 'good'), (886, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>north tyneside</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50266092</t>
-  </si>
-  <si>
-    <t>80530</t>
-  </si>
-  <si>
-    <t>815</t>
-  </si>
-  <si>
-    <t>E10000023</t>
-  </si>
-  <si>
-    <t>893, 895, 811, 860, 916, 877, 937, 884, 865, 933</t>
-  </si>
-  <si>
-    <t>[(893, 'outstanding'), (895, 'inadequate'), (811, 'good'), (860, 'requires improvement'), (916, 'good'), (877, 'good'), (937, 'requires improvement'), (884, 'inadequate'), (865, 'outstanding'), (933, 'good')]</t>
-  </si>
-  <si>
-    <t>north yorkshire</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50226213</t>
-  </si>
-  <si>
-    <t>03/07/2023</t>
-  </si>
-  <si>
-    <t>07/07/2023</t>
-  </si>
-  <si>
-    <t>18/08/23</t>
-  </si>
-  <si>
-    <t>80532</t>
-  </si>
-  <si>
-    <t>929</t>
-  </si>
-  <si>
-    <t>E06000057</t>
-  </si>
-  <si>
-    <t>926, 830, 888, 908, 878, 840, 838, 886, 885, 935</t>
-  </si>
-  <si>
-    <t>[(926, 'good'), (830, 'good'), (888, 'good'), (908, 'good'), (878, 'inadequate'), (840, 'outstanding'), (838, 'outstanding'), (886, 'outstanding'), (885, 'good'), (935, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>northumberland</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50252256</t>
-  </si>
-  <si>
-    <t>andy waugh</t>
-  </si>
-  <si>
-    <t>20/05/2024</t>
-  </si>
-  <si>
-    <t>80533</t>
-  </si>
-  <si>
-    <t>892</t>
-  </si>
-  <si>
-    <t>E06000018</t>
-  </si>
-  <si>
-    <t>330, 352, 391, 806, 380, 333, 852, 353, 373, 355</t>
-  </si>
-  <si>
-    <t>[(330, 'good'), (352, 'good'), (391, 'good'), (806, 'requires improvement'), (380, 'inadequate'), (333, 'requires improvement'), (852, 'good'), (353, 'good'), (373, 'good'), (355, 'good')]</t>
-  </si>
-  <si>
-    <t>nottingham</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50192198</t>
-  </si>
-  <si>
-    <t>80534</t>
-  </si>
-  <si>
-    <t>891</t>
-  </si>
-  <si>
-    <t>E10000024</t>
-  </si>
-  <si>
-    <t>830, 935, 933, 886, 926, 937, 855, 802, 860, 888</t>
-  </si>
-  <si>
-    <t>[(830, 'good'), (935, 'requires improvement'), (933, 'good'), (886, 'outstanding'), (926, 'good'), (937, 'requires improvement'), (855, 'outstanding'), (802, 'requires improvement'), (860, 'requires improvement'), (888, 'good')]</t>
-  </si>
-  <si>
-    <t>nottinghamshire</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50252254</t>
-  </si>
-  <si>
-    <t>80535</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>E08000004</t>
-  </si>
-  <si>
-    <t>889, 350, 354, 380, 335, 831, 861, 331, 330, 333</t>
-  </si>
-  <si>
-    <t>[(889, 'good'), (350, 'good'), (354, 'requires improvement'), (380, 'inadequate'), (335, 'outstanding'), (831, 'outstanding'), (861, 'requires improvement'), (331, 'good'), (330, 'good'), (333, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>oldham</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50252252</t>
-  </si>
-  <si>
-    <t>80536</t>
-  </si>
-  <si>
-    <t>931</t>
-  </si>
-  <si>
-    <t>E10000025</t>
-  </si>
-  <si>
-    <t>873, 919, 825, 937, 916, 850, 867, 938, 869, 803</t>
-  </si>
-  <si>
-    <t>[(873, 'requires improvement'), (919, 'outstanding'), (825, 'requires improvement'), (937, 'requires improvement'), (916, 'good'), (850, 'outstanding'), (867, 'outstanding'), (938, 'requires improvement'), (869, 'good'), (803, 'good')]</t>
-  </si>
-  <si>
-    <t>oxfordshire</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50243682</t>
-  </si>
-  <si>
-    <t>12/02/2024</t>
-  </si>
-  <si>
-    <t>09/04/24</t>
-  </si>
-  <si>
-    <t>80537</t>
-  </si>
-  <si>
-    <t>874</t>
-  </si>
-  <si>
-    <t>E06000031</t>
-  </si>
-  <si>
-    <t>331, 831, 312, 350, 852, 335, 821, 354, 336, 883</t>
-  </si>
-  <si>
-    <t>[(331, 'good'), (831, 'outstanding'), (312, 'outstanding'), (350, 'good'), (852, 'good'), (335, 'outstanding'), (821, 'requires improvement'), (354, 'requires improvement'), (336, 'good'), (883, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>peterborough</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50238583</t>
-  </si>
-  <si>
-    <t>27/11/2023</t>
-  </si>
-  <si>
-    <t>08/12/2023</t>
-  </si>
-  <si>
-    <t>30/01/24</t>
-  </si>
-  <si>
-    <t>80538</t>
-  </si>
-  <si>
-    <t>879</t>
-  </si>
-  <si>
-    <t>E06000026</t>
-  </si>
-  <si>
-    <t>357, 880, 894, 332, 372, 384, 382, 390, 887, 908</t>
-  </si>
-  <si>
-    <t>[(357, 'inadequate'), (880, 'good'), (894, 'outstanding'), (332, 'requires improvement'), (372, 'good'), (384, 'good'), (382, 'good'), (390, 'good'), (887, 'good'), (908, 'good')]</t>
-  </si>
-  <si>
-    <t>plymouth</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50241802</t>
-  </si>
-  <si>
-    <t>22/01/2024</t>
-  </si>
-  <si>
-    <t>02/02/2024</t>
-  </si>
-  <si>
-    <t>15/03/24</t>
-  </si>
-  <si>
-    <t>80539</t>
-  </si>
-  <si>
-    <t>851</t>
-  </si>
-  <si>
-    <t>E06000044</t>
-  </si>
-  <si>
-    <t>373, 383, 382, 355, 852, 882, 879, 831, 390, 357</t>
-  </si>
-  <si>
-    <t>[(373, 'good'), (383, 'outstanding'), (382, 'good'), (355, 'good'), (852, 'good'), (882, 'good'), (879, 'requires improvement'), (831, 'outstanding'), (390, 'good'), (357, 'inadequate')]</t>
-  </si>
-  <si>
-    <t>portsmouth</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50221956</t>
-  </si>
-  <si>
-    <t>15/05/2023</t>
-  </si>
-  <si>
-    <t>19/05/2023</t>
-  </si>
-  <si>
-    <t>03/07/23</t>
-  </si>
-  <si>
-    <t>80540</t>
-  </si>
-  <si>
-    <t>870</t>
-  </si>
-  <si>
-    <t>E06000038</t>
-  </si>
-  <si>
-    <t>826, 302, 312, 315, 822, 306, 320, 383, 852, 310</t>
-  </si>
-  <si>
-    <t>[(826, 'good'), (302, 'good'), (312, 'outstanding'), (315, 'outstanding'), (822, 'requires improvement'), (306, 'good'), (320, 'good'), (383, 'outstanding'), (852, 'good'), (310, 'inadequate')]</t>
-  </si>
-  <si>
-    <t>reading</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50252257</t>
-  </si>
-  <si>
-    <t>80541</t>
-  </si>
-  <si>
-    <t>807</t>
-  </si>
-  <si>
-    <t>E06000003</t>
-  </si>
-  <si>
-    <t>394, 393, 805, 372, 390, 840, 370, 357, 371, 880</t>
-  </si>
-  <si>
-    <t>[(394, 'outstanding'), (393, 'inadequate'), (805, 'outstanding'), (372, 'good'), (390, 'good'), (840, 'outstanding'), (370, 'good'), (357, 'inadequate'), (371, 'good'), (880, 'good')]</t>
-  </si>
-  <si>
-    <t>redcar and cleveland</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50194303</t>
-  </si>
-  <si>
-    <t>22/09/22</t>
-  </si>
-  <si>
-    <t>80542</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>E08000005</t>
-  </si>
-  <si>
-    <t>335, 357, 861, 350, 394, 371, 372, 831, 353, 355</t>
-  </si>
-  <si>
-    <t>[(335, 'outstanding'), (357, 'inadequate'), (861, 'requires improvement'), (350, 'good'), (394, 'outstanding'), (371, 'good'), (372, 'good'), (831, 'outstanding'), (353, 'good'), (355, 'good')]</t>
-  </si>
-  <si>
-    <t>rochdale</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50211330</t>
-  </si>
-  <si>
-    <t>03/02/2023</t>
-  </si>
-  <si>
-    <t>17/03/23</t>
-  </si>
-  <si>
-    <t>80543</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>E08000018</t>
-  </si>
-  <si>
-    <t>370, 357, 371, 384, 894, 332, 807, 394, 390, 840</t>
-  </si>
-  <si>
-    <t>[(370, 'good'), (357, 'inadequate'), (371, 'good'), (384, 'good'), (894, 'outstanding'), (332, 'requires improvement'), (807, 'requires improvement'), (394, 'outstanding'), (390, 'good'), (840, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>rotherham</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50190644</t>
-  </si>
-  <si>
-    <t>neil penswick</t>
-  </si>
-  <si>
-    <t>27/06/2022</t>
-  </si>
-  <si>
-    <t>80544</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>E09000020</t>
-  </si>
-  <si>
-    <t>205, 202, 208, 213, 210, 209, 212, 206, 302, 203</t>
-  </si>
-  <si>
-    <t>[(205, 'outstanding'), (202, 'outstanding'), (208, 'requires improvement'), (213, 'outstanding'), (210, 'good'), (209, 'good'), (212, 'good'), (206, 'outstanding'), (302, 'good'), (203, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>kensington and chelsea</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50266093</t>
-  </si>
-  <si>
-    <t>80545</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>E09000021</t>
-  </si>
-  <si>
-    <t>319, 315, 919, 305, 800, 868, 358, 318, 936, 825</t>
-  </si>
-  <si>
-    <t>[(319, 'good'), (315, 'outstanding'), (919, 'outstanding'), (305, 'outstanding'), (800, 'good'), (868, 'good'), (358, 'requires improvement'), (318, 'outstanding'), (936, 'good'), (825, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>kingston upon thames</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50267803</t>
-  </si>
-  <si>
-    <t>80546</t>
-  </si>
-  <si>
-    <t>868</t>
-  </si>
-  <si>
-    <t>E06000040</t>
-  </si>
-  <si>
-    <t>936, 825, 872, 358, 919, 869, 305, 823, 931, 867</t>
-  </si>
-  <si>
-    <t>[(936, 'good'), (825, 'requires improvement'), (872, 'requires improvement'), (358, 'requires improvement'), (919, 'outstanding'), (869, 'good'), (305, 'outstanding'), (823, 'good'), (931, 'good'), (867, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>windsor &amp; maidenhead</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50261980</t>
-  </si>
-  <si>
-    <t>19/11/24</t>
-  </si>
-  <si>
-    <t>80547</t>
-  </si>
-  <si>
-    <t>857</t>
-  </si>
-  <si>
-    <t>E06000017</t>
-  </si>
-  <si>
-    <t>865, 815, 893, 895, 850, 823, 916, 855, 869, 811</t>
-  </si>
-  <si>
-    <t>[(865, 'outstanding'), (815, 'outstanding'), (893, 'outstanding'), (895, 'inadequate'), (850, 'outstanding'), (823, 'good'), (916, 'good'), (855, 'outstanding'), (869, 'good'), (811, 'good')]</t>
-  </si>
-  <si>
-    <t>rutland</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50252255</t>
-  </si>
-  <si>
-    <t>15/04/2024</t>
-  </si>
-  <si>
-    <t>26/04/2024</t>
-  </si>
-  <si>
-    <t>80548</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>E08000006</t>
-  </si>
-  <si>
-    <t>373, 354, 851, 391, 390, 350, 393, 357, 852, 383</t>
-  </si>
-  <si>
-    <t>[(373, 'good'), (354, 'requires improvement'), (851, 'good'), (391, 'good'), (390, 'good'), (350, 'good'), (393, 'inadequate'), (357, 'inadequate'), (852, 'good'), (383, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>salford</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50237003</t>
-  </si>
-  <si>
-    <t>kathryn grindrod</t>
-  </si>
-  <si>
-    <t>06/11/2023</t>
-  </si>
-  <si>
-    <t>80549</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>E08000028</t>
-  </si>
-  <si>
-    <t>336, 810, 861, 335, 354, 380, 806, 331, 353, 821</t>
-  </si>
-  <si>
-    <t>[(336, 'good'), (810, 'requires improvement'), (861, 'requires improvement'), (335, 'outstanding'), (354, 'requires improvement'), (380, 'inadequate'), (806, 'requires improvement'), (331, 'good'), (353, 'good'), (821, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>sandwell</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50187562</t>
-  </si>
-  <si>
-    <t>80550</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>E08000014</t>
-  </si>
-  <si>
-    <t>344, 342, 359, 888, 876, 840, 808, 340, 841, 351</t>
-  </si>
-  <si>
-    <t>[(344, 'requires improvement'), (342, 'good'), (359, 'requires improvement'), (888, 'good'), (876, 'inadequate'), (840, 'outstanding'), (808, 'requires improvement'), (340, 'inadequate'), (841, 'good'), (351, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>sefton</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50284335</t>
-  </si>
-  <si>
-    <t>23/06/2025</t>
-  </si>
-  <si>
-    <t>80551</t>
-  </si>
-  <si>
-    <t>373</t>
-  </si>
-  <si>
-    <t>E08000019</t>
-  </si>
-  <si>
-    <t>382, 851, 355, 383, 831, 354, 391, 852, 357, 350</t>
-  </si>
-  <si>
-    <t>[(382, 'good'), (851, 'good'), (355, 'good'), (383, 'outstanding'), (831, 'outstanding'), (354, 'requires improvement'), (391, 'good'), (852, 'good'), (357, 'inadequate'), (350, 'good')]</t>
-  </si>
-  <si>
-    <t>sheffield</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50231897</t>
-  </si>
-  <si>
-    <t>22/09/2023</t>
-  </si>
-  <si>
-    <t>03/11/23</t>
-  </si>
-  <si>
-    <t>80552</t>
-  </si>
-  <si>
-    <t>893</t>
-  </si>
-  <si>
-    <t>E06000051</t>
-  </si>
-  <si>
-    <t>815, 933, 860, 811, 838, 884, 830, 885, 943, 916</t>
-  </si>
-  <si>
-    <t>[(815, 'outstanding'), (933, 'good'), (860, 'requires improvement'), (811, 'good'), (838, 'outstanding'), (884, 'inadequate'), (830, 'good'), (885, 'good'), (943, 'good'), (916, 'good')]</t>
-  </si>
-  <si>
-    <t>shropshire</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50284334</t>
-  </si>
-  <si>
-    <t>jenny -ellen scotland</t>
-  </si>
-  <si>
-    <t>80553</t>
-  </si>
-  <si>
-    <t>871</t>
-  </si>
-  <si>
-    <t>E06000039</t>
-  </si>
-  <si>
-    <t>313, 312, 821, 307, 317, 310, 304, 874, 320, 856</t>
-  </si>
-  <si>
-    <t>[(313, 'good'), (312, 'outstanding'), (821, 'requires improvement'), (307, 'good'), (317, 'outstanding'), (310, 'inadequate'), (304, 'good'), (874, 'inadequate'), (320, 'good'), (856, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>slough</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50211331</t>
-  </si>
-  <si>
-    <t>80554</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>E08000029</t>
-  </si>
-  <si>
-    <t>356, 896, 937, 877, 886, 916, 802, 895, 881, 919</t>
-  </si>
-  <si>
-    <t>[(356, 'requires improvement'), (896, 'requires improvement'), (937, 'requires improvement'), (877, 'good'), (886, 'outstanding'), (916, 'good'), (802, 'requires improvement'), (895, 'inadequate'), (881, 'outstanding'), (919, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>solihull</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50204405</t>
-  </si>
-  <si>
-    <t>victoria horsefield</t>
-  </si>
-  <si>
-    <t>80555</t>
-  </si>
-  <si>
-    <t>933</t>
-  </si>
-  <si>
-    <t>E10000027</t>
-  </si>
-  <si>
-    <t>935, 830, 838, 893, 885, 891, 878, 860, 855, 881</t>
-  </si>
-  <si>
-    <t>[(935, 'requires improvement'), (830, 'good'), (838, 'outstanding'), (893, 'outstanding'), (885, 'good'), (891, 'good'), (878, 'inadequate'), (860, 'requires improvement'), (855, 'outstanding'), (881, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>somerset</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50192873</t>
-  </si>
-  <si>
-    <t>80556</t>
-  </si>
-  <si>
-    <t>803</t>
-  </si>
-  <si>
-    <t>E06000025</t>
-  </si>
-  <si>
-    <t>855, 850, 938, 873, 823, 802, 916, 881, 931, 865</t>
-  </si>
-  <si>
-    <t>[(855, 'outstanding'), (850, 'outstanding'), (938, 'requires improvement'), (873, 'requires improvement'), (823, 'good'), (802, 'requires improvement'), (916, 'good'), (881, 'outstanding'), (931, 'good'), (865, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>south gloucestershire</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50253185</t>
-  </si>
-  <si>
-    <t>80557</t>
-  </si>
-  <si>
-    <t>393</t>
-  </si>
-  <si>
-    <t>E08000023</t>
-  </si>
-  <si>
-    <t>394, 807, 390, 805, 840, 357, 372, 354, 890, 841</t>
-  </si>
-  <si>
-    <t>[(394, 'outstanding'), (807, 'requires improvement'), (390, 'good'), (805, 'outstanding'), (840, 'outstanding'), (357, 'inadequate'), (372, 'good'), (354, 'requires improvement'), (890, 'requires improvement'), (841, 'good')]</t>
-  </si>
-  <si>
-    <t>south tyneside</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50216273</t>
-  </si>
-  <si>
-    <t>10/05/23</t>
-  </si>
-  <si>
-    <t>80558</t>
-  </si>
-  <si>
-    <t>852</t>
-  </si>
-  <si>
-    <t>E06000045</t>
-  </si>
-  <si>
-    <t>331, 831, 851, 373, 312, 355, 874, 383, 350, 320</t>
-  </si>
-  <si>
-    <t>[(331, 'good'), (831, 'outstanding'), (851, 'good'), (373, 'good'), (312, 'outstanding'), (355, 'good'), (874, 'inadequate'), (383, 'outstanding'), (350, 'good'), (320, 'good')]</t>
-  </si>
-  <si>
-    <t>southampton</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50224705</t>
-  </si>
-  <si>
-    <t>05/06/2023</t>
-  </si>
-  <si>
-    <t>16/06/2023</t>
-  </si>
-  <si>
-    <t>28/07/23</t>
-  </si>
-  <si>
-    <t>80559</t>
-  </si>
-  <si>
-    <t>882</t>
-  </si>
-  <si>
-    <t>E06000033</t>
-  </si>
-  <si>
-    <t>839, 383, 826, 351, 845, 851, 886, 303, 392, 822</t>
-  </si>
-  <si>
-    <t>[(839, 'good'), (383, 'outstanding'), (826, 'good'), (351, 'requires improvement'), (845, 'good'), (851, 'good'), (886, 'outstanding'), (303, 'outstanding'), (392, 'outstanding'), (822, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>southend-on-sea</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50263392</t>
-  </si>
-  <si>
-    <t>80560</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
-    <t>E08000013</t>
-  </si>
-  <si>
-    <t>876, 343, 340, 840, 807, 370, 394, 344, 808, 894</t>
-  </si>
-  <si>
-    <t>[(876, 'inadequate'), (343, 'good'), (340, 'inadequate'), (840, 'outstanding'), (807, 'requires improvement'), (370, 'good'), (394, 'outstanding'), (344, 'requires improvement'), (808, 'requires improvement'), (894, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>st helens</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50227184</t>
-  </si>
-  <si>
-    <t>80561</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>E10000028</t>
-  </si>
-  <si>
-    <t>811, 884, 893, 815, 933, 830, 877, 891, 943, 888</t>
-  </si>
-  <si>
-    <t>[(811, 'good'), (884, 'inadequate'), (893, 'outstanding'), (815, 'outstanding'), (933, 'good'), (830, 'good'), (877, 'good'), (891, 'good'), (943, 'good'), (888, 'good')]</t>
-  </si>
-  <si>
-    <t>staffordshire</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50237007</t>
-  </si>
-  <si>
-    <t>80562</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>E08000007</t>
-  </si>
-  <si>
-    <t>334, 358, 896, 916, 919, 938, 937, 802, 803, 873</t>
-  </si>
-  <si>
-    <t>[(334, 'inadequate'), (358, 'requires improvement'), (896, 'requires improvement'), (916, 'good'), (919, 'outstanding'), (938, 'requires improvement'), (937, 'requires improvement'), (802, 'requires improvement'), (803, 'good'), (873, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>stockport</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50282103</t>
-  </si>
-  <si>
-    <t>15/07/25</t>
-  </si>
-  <si>
-    <t>80563</t>
-  </si>
-  <si>
-    <t>808</t>
-  </si>
-  <si>
-    <t>E06000004</t>
-  </si>
-  <si>
-    <t>841, 332, 888, 390, 384, 351, 840, 372, 894, 344</t>
-  </si>
-  <si>
-    <t>[(841, 'good'), (332, 'requires improvement'), (888, 'good'), (390, 'good'), (384, 'good'), (351, 'requires improvement'), (840, 'outstanding'), (372, 'good'), (894, 'outstanding'), (344, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>stockton-on-tees</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50215915</t>
-  </si>
-  <si>
-    <t>joanna warburton</t>
-  </si>
-  <si>
-    <t>06/03/2023</t>
-  </si>
-  <si>
-    <t>17/03/2023</t>
-  </si>
-  <si>
-    <t>09/05/23</t>
-  </si>
-  <si>
-    <t>80564</t>
-  </si>
-  <si>
-    <t>861</t>
-  </si>
-  <si>
-    <t>E06000021</t>
-  </si>
-  <si>
-    <t>335, 354, 336, 371, 812, 810, 333, 357, 831, 372</t>
-  </si>
-  <si>
-    <t>[(335, 'outstanding'), (354, 'requires improvement'), (336, 'good'), (371, 'good'), (812, 'good'), (810, 'requires improvement'), (333, 'requires improvement'), (357, 'inadequate'), (831, 'outstanding'), (372, 'good')]</t>
-  </si>
-  <si>
-    <t>stoke-on-trent</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50282104</t>
-  </si>
-  <si>
-    <t>80565</t>
-  </si>
-  <si>
-    <t>935</t>
-  </si>
-  <si>
-    <t>E10000029</t>
-  </si>
-  <si>
-    <t>933, 926, 830, 891, 878, 881, 886, 838, 925, 940</t>
-  </si>
-  <si>
-    <t>[(933, 'good'), (926, 'good'), (830, 'good'), (891, 'good'), (878, 'inadequate'), (881, 'outstanding'), (886, 'outstanding'), (838, 'outstanding'), (925, 'outstanding'), (940, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>suffolk</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50255285</t>
-  </si>
-  <si>
-    <t>21/08/24</t>
-  </si>
-  <si>
-    <t>80566</t>
-  </si>
-  <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>E08000024</t>
-  </si>
-  <si>
-    <t>807, 393, 805, 372, 357, 880, 390, 840, 370, 354</t>
-  </si>
-  <si>
-    <t>[(807, 'requires improvement'), (393, 'inadequate'), (805, 'outstanding'), (372, 'good'), (357, 'inadequate'), (880, 'good'), (390, 'good'), (840, 'outstanding'), (370, 'good'), (354, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>sunderland</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50271150</t>
-  </si>
-  <si>
-    <t>11/03/25</t>
-  </si>
-  <si>
-    <t>80567</t>
-  </si>
-  <si>
-    <t>936</t>
-  </si>
-  <si>
-    <t>E10000030</t>
-  </si>
-  <si>
-    <t>868, 825, 358, 919, 869, 823, 872, 931, 867, 873</t>
-  </si>
-  <si>
-    <t>[(868, 'good'), (825, 'requires improvement'), (358, 'requires improvement'), (919, 'outstanding'), (869, 'good'), (823, 'good'), (872, 'requires improvement'), (931, 'good'), (867, 'outstanding'), (873, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>surrey</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50276410</t>
-  </si>
-  <si>
-    <t>80568</t>
-  </si>
-  <si>
-    <t>866</t>
-  </si>
-  <si>
-    <t>E06000030</t>
-  </si>
-  <si>
-    <t>887, 940, 883, 303, 822, 941, 935, 311, 891, 886</t>
-  </si>
-  <si>
-    <t>[(887, 'good'), (940, 'requires improvement'), (883, 'outstanding'), (303, 'outstanding'), (822, 'requires improvement'), (941, 'requires improvement'), (935, 'requires improvement'), (311, 'inadequate'), (891, 'good'), (886, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>swindon</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50227724</t>
-  </si>
-  <si>
-    <t>80569</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>E08000008</t>
-  </si>
-  <si>
-    <t>372, 390, 354, 370, 384, 332, 894, 879, 394, 880</t>
-  </si>
-  <si>
-    <t>[(372, 'good'), (390, 'good'), (354, 'requires improvement'), (370, 'good'), (384, 'good'), (332, 'requires improvement'), (894, 'outstanding'), (879, 'requires improvement'), (394, 'outstanding'), (880, 'good')]</t>
-  </si>
-  <si>
-    <t>tameside</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50239562</t>
-  </si>
-  <si>
-    <t>13/02/24</t>
-  </si>
-  <si>
-    <t>80570</t>
-  </si>
-  <si>
-    <t>894</t>
-  </si>
-  <si>
-    <t>E06000020</t>
-  </si>
-  <si>
-    <t>384, 372, 332, 370, 357, 371, 841, 390, 879, 808</t>
-  </si>
-  <si>
-    <t>[(384, 'good'), (372, 'good'), (332, 'requires improvement'), (370, 'good'), (357, 'inadequate'), (371, 'good'), (841, 'good'), (390, 'good'), (879, 'requires improvement'), (808, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>telford &amp; wrekin</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50252260</t>
-  </si>
-  <si>
-    <t>29/04/2024</t>
-  </si>
-  <si>
-    <t>80571</t>
-  </si>
-  <si>
-    <t>883</t>
-  </si>
-  <si>
-    <t>E06000034</t>
-  </si>
-  <si>
-    <t>866, 303, 311, 887, 940, 822, 941, 332, 925, 935</t>
-  </si>
-  <si>
-    <t>[(866, 'inadequate'), (303, 'outstanding'), (311, 'inadequate'), (887, 'good'), (940, 'requires improvement'), (822, 'requires improvement'), (941, 'requires improvement'), (332, 'requires improvement'), (925, 'outstanding'), (935, 'requires improvement')]</t>
-  </si>
-  <si>
-    <t>thurrock</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50260250</t>
-  </si>
-  <si>
-    <t>16/09/2024</t>
-  </si>
-  <si>
-    <t>20/09/2024</t>
-  </si>
-  <si>
-    <t>29/10/24</t>
-  </si>
-  <si>
-    <t>80572</t>
-  </si>
-  <si>
-    <t>880</t>
-  </si>
-  <si>
-    <t>E06000027</t>
-  </si>
-  <si>
-    <t>357, 394, 879, 372, 807, 921, 370, 390, 354, 894</t>
-  </si>
-  <si>
-    <t>[(357, 'inadequate'), (394, 'outstanding'), (879, 'requires improvement'), (372, 'good'), (807, 'requires improvement'), (921, 'good'), (370, 'good'), (390, 'good'), (354, 'requires improvement'), (894, 'outstanding')]</t>
-  </si>
-  <si>
-    <t>torbay</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50183765</t>
-  </si>
-  <si>
-    <t>andy whippey</t>
   </si>
   <si>
     <t>18/05/22</t>
@@ -4656,64 +4659,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -7164,7 +7167,7 @@
         <v>8</v>
       </c>
       <c r="T40" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -10154,67 +10157,67 @@
         <v>854</v>
       </c>
       <c r="I88" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="J88" t="s">
         <v>48</v>
       </c>
       <c r="K88" t="s">
+        <v>424</v>
+      </c>
+      <c r="L88" t="s">
         <v>855</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>856</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>857</v>
-      </c>
-      <c r="N88" t="s">
-        <v>858</v>
       </c>
       <c r="O88" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80521_manchester", ".\export_data\inspection_reports\80521_manchester")</f>
         <v>0</v>
       </c>
       <c r="P88" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="Q88" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="R88" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="S88" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="T88" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" t="s">
+        <v>858</v>
+      </c>
+      <c r="B89" t="s">
         <v>859</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>860</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>861</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>862</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>863</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>864</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" s="2" t="s">
         <v>865</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>866</v>
       </c>
       <c r="I89" t="s">
         <v>8</v>
@@ -10226,13 +10229,13 @@
         <v>24</v>
       </c>
       <c r="L89" t="s">
+        <v>866</v>
+      </c>
+      <c r="M89" t="s">
         <v>867</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89" t="s">
         <v>868</v>
-      </c>
-      <c r="N89" t="s">
-        <v>869</v>
       </c>
       <c r="O89" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80522_medway", ".\export_data\inspection_reports\80522_medway")</f>
@@ -10256,28 +10259,28 @@
     </row>
     <row r="90" spans="1:20">
       <c r="A90" t="s">
+        <v>869</v>
+      </c>
+      <c r="B90" t="s">
         <v>870</v>
-      </c>
-      <c r="B90" t="s">
-        <v>871</v>
       </c>
       <c r="C90" t="s">
         <v>294</v>
       </c>
       <c r="D90" t="s">
+        <v>871</v>
+      </c>
+      <c r="E90" t="s">
         <v>872</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>873</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>874</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>876</v>
       </c>
       <c r="I90" t="s">
         <v>14</v>
@@ -10319,28 +10322,28 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" t="s">
+        <v>876</v>
+      </c>
+      <c r="B91" t="s">
         <v>877</v>
-      </c>
-      <c r="B91" t="s">
-        <v>878</v>
       </c>
       <c r="C91" t="s">
         <v>100</v>
       </c>
       <c r="D91" t="s">
+        <v>878</v>
+      </c>
+      <c r="E91" t="s">
         <v>879</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>880</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>881</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" s="2" t="s">
         <v>882</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>883</v>
       </c>
       <c r="I91" t="s">
         <v>8</v>
@@ -10352,13 +10355,13 @@
         <v>778</v>
       </c>
       <c r="L91" t="s">
+        <v>883</v>
+      </c>
+      <c r="M91" t="s">
         <v>884</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>885</v>
-      </c>
-      <c r="N91" t="s">
-        <v>886</v>
       </c>
       <c r="O91" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80524_milton keynes", ".\export_data\inspection_reports\80524_milton keynes")</f>
@@ -10382,28 +10385,28 @@
     </row>
     <row r="92" spans="1:20">
       <c r="A92" t="s">
+        <v>886</v>
+      </c>
+      <c r="B92" t="s">
         <v>887</v>
-      </c>
-      <c r="B92" t="s">
-        <v>888</v>
       </c>
       <c r="C92" t="s">
         <v>294</v>
       </c>
       <c r="D92" t="s">
+        <v>888</v>
+      </c>
+      <c r="E92" t="s">
         <v>889</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>890</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>891</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" s="2" t="s">
         <v>892</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>893</v>
       </c>
       <c r="I92" t="s">
         <v>8</v>
@@ -10415,13 +10418,13 @@
         <v>247</v>
       </c>
       <c r="L92" t="s">
+        <v>893</v>
+      </c>
+      <c r="M92" t="s">
         <v>894</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N92" t="s">
         <v>895</v>
-      </c>
-      <c r="N92" t="s">
-        <v>896</v>
       </c>
       <c r="O92" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80525_newcastle upon tyne", ".\export_data\inspection_reports\80525_newcastle upon tyne")</f>
@@ -10445,28 +10448,28 @@
     </row>
     <row r="93" spans="1:20">
       <c r="A93" t="s">
+        <v>896</v>
+      </c>
+      <c r="B93" t="s">
         <v>897</v>
-      </c>
-      <c r="B93" t="s">
-        <v>898</v>
       </c>
       <c r="C93" t="s">
         <v>31</v>
       </c>
       <c r="D93" t="s">
+        <v>898</v>
+      </c>
+      <c r="E93" t="s">
         <v>899</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>900</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>901</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" s="2" t="s">
         <v>902</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>903</v>
       </c>
       <c r="I93" t="s">
         <v>8</v>
@@ -10508,28 +10511,28 @@
     </row>
     <row r="94" spans="1:20">
       <c r="A94" t="s">
+        <v>903</v>
+      </c>
+      <c r="B94" t="s">
         <v>904</v>
-      </c>
-      <c r="B94" t="s">
-        <v>905</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
       </c>
       <c r="D94" t="s">
+        <v>905</v>
+      </c>
+      <c r="E94" t="s">
         <v>906</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>907</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>908</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" s="2" t="s">
         <v>909</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>910</v>
       </c>
       <c r="I94" t="s">
         <v>8</v>
@@ -10544,10 +10547,10 @@
         <v>37</v>
       </c>
       <c r="M94" t="s">
+        <v>910</v>
+      </c>
+      <c r="N94" t="s">
         <v>911</v>
-      </c>
-      <c r="N94" t="s">
-        <v>912</v>
       </c>
       <c r="O94" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80526_north east lincolnshire", ".\export_data\inspection_reports\80526_north east lincolnshire")</f>
@@ -10571,28 +10574,28 @@
     </row>
     <row r="95" spans="1:20">
       <c r="A95" t="s">
+        <v>912</v>
+      </c>
+      <c r="B95" t="s">
         <v>913</v>
-      </c>
-      <c r="B95" t="s">
-        <v>914</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
       </c>
       <c r="D95" t="s">
+        <v>914</v>
+      </c>
+      <c r="E95" t="s">
         <v>915</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>916</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>917</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" s="2" t="s">
         <v>918</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>919</v>
       </c>
       <c r="I95" t="s">
         <v>106</v>
@@ -10601,16 +10604,16 @@
         <v>9</v>
       </c>
       <c r="K95" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L95" t="s">
         <v>301</v>
       </c>
       <c r="M95" t="s">
+        <v>920</v>
+      </c>
+      <c r="N95" t="s">
         <v>921</v>
-      </c>
-      <c r="N95" t="s">
-        <v>922</v>
       </c>
       <c r="O95" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80527_north lincolnshire", ".\export_data\inspection_reports\80527_north lincolnshire")</f>
@@ -10634,28 +10637,28 @@
     </row>
     <row r="96" spans="1:20">
       <c r="A96" t="s">
+        <v>922</v>
+      </c>
+      <c r="B96" t="s">
         <v>923</v>
-      </c>
-      <c r="B96" t="s">
-        <v>924</v>
       </c>
       <c r="C96" t="s">
         <v>306</v>
       </c>
       <c r="D96" t="s">
+        <v>924</v>
+      </c>
+      <c r="E96" t="s">
         <v>925</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>926</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>927</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" s="2" t="s">
         <v>928</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>929</v>
       </c>
       <c r="I96" t="s">
         <v>14</v>
@@ -10667,13 +10670,13 @@
         <v>202</v>
       </c>
       <c r="L96" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="M96" t="s">
+        <v>920</v>
+      </c>
+      <c r="N96" t="s">
         <v>921</v>
-      </c>
-      <c r="N96" t="s">
-        <v>922</v>
       </c>
       <c r="O96" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\2637539_north northamptonshire", ".\export_data\inspection_reports\2637539_north northamptonshire")</f>
@@ -10697,28 +10700,28 @@
     </row>
     <row r="97" spans="1:20">
       <c r="A97" t="s">
+        <v>930</v>
+      </c>
+      <c r="B97" t="s">
         <v>931</v>
-      </c>
-      <c r="B97" t="s">
-        <v>932</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
       </c>
       <c r="D97" t="s">
+        <v>932</v>
+      </c>
+      <c r="E97" t="s">
         <v>933</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>934</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>935</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" s="2" t="s">
         <v>936</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>937</v>
       </c>
       <c r="I97" t="s">
         <v>14</v>
@@ -10736,7 +10739,7 @@
         <v>576</v>
       </c>
       <c r="N97" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="O97" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80528_north somerset", ".\export_data\inspection_reports\80528_north somerset")</f>
@@ -10760,28 +10763,28 @@
     </row>
     <row r="98" spans="1:20">
       <c r="A98" t="s">
+        <v>938</v>
+      </c>
+      <c r="B98" t="s">
         <v>939</v>
-      </c>
-      <c r="B98" t="s">
-        <v>940</v>
       </c>
       <c r="C98" t="s">
         <v>294</v>
       </c>
       <c r="D98" t="s">
+        <v>940</v>
+      </c>
+      <c r="E98" t="s">
         <v>941</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>942</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>943</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" s="2" t="s">
         <v>944</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>945</v>
       </c>
       <c r="I98" t="s">
         <v>106</v>
@@ -10823,28 +10826,28 @@
     </row>
     <row r="99" spans="1:20">
       <c r="A99" t="s">
+        <v>945</v>
+      </c>
+      <c r="B99" t="s">
         <v>946</v>
-      </c>
-      <c r="B99" t="s">
-        <v>947</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
       </c>
       <c r="D99" t="s">
+        <v>947</v>
+      </c>
+      <c r="E99" t="s">
         <v>948</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>949</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>950</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" s="2" t="s">
         <v>951</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>952</v>
       </c>
       <c r="I99" t="s">
         <v>106</v>
@@ -10853,16 +10856,16 @@
         <v>9</v>
       </c>
       <c r="K99" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L99" t="s">
+        <v>952</v>
+      </c>
+      <c r="M99" t="s">
         <v>953</v>
       </c>
-      <c r="M99" t="s">
+      <c r="N99" t="s">
         <v>954</v>
-      </c>
-      <c r="N99" t="s">
-        <v>955</v>
       </c>
       <c r="O99" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80530_north yorkshire", ".\export_data\inspection_reports\80530_north yorkshire")</f>
@@ -10886,28 +10889,28 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" t="s">
+        <v>955</v>
+      </c>
+      <c r="B100" t="s">
         <v>956</v>
-      </c>
-      <c r="B100" t="s">
-        <v>957</v>
       </c>
       <c r="C100" t="s">
         <v>294</v>
       </c>
       <c r="D100" t="s">
+        <v>957</v>
+      </c>
+      <c r="E100" t="s">
         <v>958</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>959</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>960</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" s="2" t="s">
         <v>961</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>962</v>
       </c>
       <c r="I100" t="s">
         <v>106</v>
@@ -10916,10 +10919,10 @@
         <v>9</v>
       </c>
       <c r="K100" t="s">
+        <v>962</v>
+      </c>
+      <c r="L100" t="s">
         <v>963</v>
-      </c>
-      <c r="L100" t="s">
-        <v>964</v>
       </c>
       <c r="M100" t="s">
         <v>434</v>
@@ -10949,28 +10952,28 @@
     </row>
     <row r="101" spans="1:20">
       <c r="A101" t="s">
+        <v>964</v>
+      </c>
+      <c r="B101" t="s">
         <v>965</v>
-      </c>
-      <c r="B101" t="s">
-        <v>966</v>
       </c>
       <c r="C101" t="s">
         <v>306</v>
       </c>
       <c r="D101" t="s">
+        <v>966</v>
+      </c>
+      <c r="E101" t="s">
         <v>967</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>968</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>969</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" s="2" t="s">
         <v>970</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>971</v>
       </c>
       <c r="I101" t="s">
         <v>191</v>
@@ -10979,7 +10982,7 @@
         <v>117</v>
       </c>
       <c r="K101" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="N101" t="s">
         <v>847</v>
@@ -11006,28 +11009,28 @@
     </row>
     <row r="102" spans="1:20">
       <c r="A102" t="s">
+        <v>971</v>
+      </c>
+      <c r="B102" t="s">
         <v>972</v>
-      </c>
-      <c r="B102" t="s">
-        <v>973</v>
       </c>
       <c r="C102" t="s">
         <v>306</v>
       </c>
       <c r="D102" t="s">
+        <v>973</v>
+      </c>
+      <c r="E102" t="s">
         <v>974</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>975</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>976</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" s="2" t="s">
         <v>977</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>978</v>
       </c>
       <c r="I102" t="s">
         <v>8</v>
@@ -11039,7 +11042,7 @@
         <v>754</v>
       </c>
       <c r="L102" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="M102" t="s">
         <v>434</v>
@@ -11069,28 +11072,28 @@
     </row>
     <row r="103" spans="1:20">
       <c r="A103" t="s">
+        <v>978</v>
+      </c>
+      <c r="B103" t="s">
         <v>979</v>
-      </c>
-      <c r="B103" t="s">
-        <v>980</v>
       </c>
       <c r="C103" t="s">
         <v>56</v>
       </c>
       <c r="D103" t="s">
+        <v>980</v>
+      </c>
+      <c r="E103" t="s">
         <v>981</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>982</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>983</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" s="2" t="s">
         <v>984</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>985</v>
       </c>
       <c r="I103" t="s">
         <v>8</v>
@@ -11132,28 +11135,28 @@
     </row>
     <row r="104" spans="1:20">
       <c r="A104" t="s">
+        <v>985</v>
+      </c>
+      <c r="B104" t="s">
         <v>986</v>
-      </c>
-      <c r="B104" t="s">
-        <v>987</v>
       </c>
       <c r="C104" t="s">
         <v>100</v>
       </c>
       <c r="D104" t="s">
+        <v>987</v>
+      </c>
+      <c r="E104" t="s">
         <v>988</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>989</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>990</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" s="2" t="s">
         <v>991</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>992</v>
       </c>
       <c r="I104" t="s">
         <v>8</v>
@@ -11165,13 +11168,13 @@
         <v>754</v>
       </c>
       <c r="L104" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="M104" t="s">
         <v>163</v>
       </c>
       <c r="N104" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="O104" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80536_oxfordshire", ".\export_data\inspection_reports\80536_oxfordshire")</f>
@@ -11195,28 +11198,28 @@
     </row>
     <row r="105" spans="1:20">
       <c r="A105" t="s">
+        <v>994</v>
+      </c>
+      <c r="B105" t="s">
         <v>995</v>
-      </c>
-      <c r="B105" t="s">
-        <v>996</v>
       </c>
       <c r="C105" t="s">
         <v>31</v>
       </c>
       <c r="D105" t="s">
+        <v>996</v>
+      </c>
+      <c r="E105" t="s">
         <v>997</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>998</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>999</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" s="2" t="s">
         <v>1000</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>1001</v>
       </c>
       <c r="I105" t="s">
         <v>191</v>
@@ -11228,13 +11231,13 @@
         <v>743</v>
       </c>
       <c r="L105" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M105" t="s">
         <v>1002</v>
       </c>
-      <c r="M105" t="s">
+      <c r="N105" t="s">
         <v>1003</v>
-      </c>
-      <c r="N105" t="s">
-        <v>1004</v>
       </c>
       <c r="O105" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80537_peterborough", ".\export_data\inspection_reports\80537_peterborough")</f>
@@ -11258,28 +11261,28 @@
     </row>
     <row r="106" spans="1:20">
       <c r="A106" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B106" t="s">
         <v>1005</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1006</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
       </c>
       <c r="D106" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E106" t="s">
         <v>1007</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>1008</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>1009</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" s="2" t="s">
         <v>1010</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>1011</v>
       </c>
       <c r="I106" t="s">
         <v>14</v>
@@ -11291,13 +11294,13 @@
         <v>128</v>
       </c>
       <c r="L106" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M106" t="s">
         <v>1012</v>
       </c>
-      <c r="M106" t="s">
+      <c r="N106" t="s">
         <v>1013</v>
-      </c>
-      <c r="N106" t="s">
-        <v>1014</v>
       </c>
       <c r="O106" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80538_plymouth", ".\export_data\inspection_reports\80538_plymouth")</f>
@@ -11321,28 +11324,28 @@
     </row>
     <row r="107" spans="1:20">
       <c r="A107" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B107" t="s">
         <v>1015</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1016</v>
       </c>
       <c r="C107" t="s">
         <v>100</v>
       </c>
       <c r="D107" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E107" t="s">
         <v>1017</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>1018</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>1019</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" s="2" t="s">
         <v>1020</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>1021</v>
       </c>
       <c r="I107" t="s">
         <v>8</v>
@@ -11354,13 +11357,13 @@
         <v>225</v>
       </c>
       <c r="L107" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M107" t="s">
         <v>1022</v>
       </c>
-      <c r="M107" t="s">
+      <c r="N107" t="s">
         <v>1023</v>
-      </c>
-      <c r="N107" t="s">
-        <v>1024</v>
       </c>
       <c r="O107" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80539_portsmouth", ".\export_data\inspection_reports\80539_portsmouth")</f>
@@ -11384,28 +11387,28 @@
     </row>
     <row r="108" spans="1:20">
       <c r="A108" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B108" t="s">
         <v>1025</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1026</v>
       </c>
       <c r="C108" t="s">
         <v>100</v>
       </c>
       <c r="D108" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E108" t="s">
         <v>1027</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>1028</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>1029</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" s="2" t="s">
         <v>1030</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>1031</v>
       </c>
       <c r="I108" t="s">
         <v>14</v>
@@ -11447,28 +11450,28 @@
     </row>
     <row r="109" spans="1:20">
       <c r="A109" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B109" t="s">
         <v>1032</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1033</v>
       </c>
       <c r="C109" t="s">
         <v>294</v>
       </c>
       <c r="D109" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E109" t="s">
         <v>1034</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>1035</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>1036</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" s="2" t="s">
         <v>1037</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>1038</v>
       </c>
       <c r="I109" t="s">
         <v>14</v>
@@ -11477,10 +11480,10 @@
         <v>117</v>
       </c>
       <c r="K109" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="N109" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O109" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80541_redcar and cleveland", ".\export_data\inspection_reports\80541_redcar and cleveland")</f>
@@ -11504,28 +11507,28 @@
     </row>
     <row r="110" spans="1:20">
       <c r="A110" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B110" t="s">
         <v>1040</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1041</v>
       </c>
       <c r="C110" t="s">
         <v>56</v>
       </c>
       <c r="D110" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E110" t="s">
         <v>1042</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>1043</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>1044</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" s="2" t="s">
         <v>1045</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>1046</v>
       </c>
       <c r="I110" t="s">
         <v>14</v>
@@ -11540,10 +11543,10 @@
         <v>472</v>
       </c>
       <c r="M110" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N110" t="s">
         <v>1047</v>
-      </c>
-      <c r="N110" t="s">
-        <v>1048</v>
       </c>
       <c r="O110" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80542_rochdale", ".\export_data\inspection_reports\80542_rochdale")</f>
@@ -11567,28 +11570,28 @@
     </row>
     <row r="111" spans="1:20">
       <c r="A111" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B111" t="s">
         <v>1049</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1050</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
       </c>
       <c r="D111" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E111" t="s">
         <v>1051</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>1052</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>1053</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" s="2" t="s">
         <v>1054</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>1055</v>
       </c>
       <c r="I111" t="s">
         <v>8</v>
@@ -11597,10 +11600,10 @@
         <v>9</v>
       </c>
       <c r="K111" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L111" t="s">
         <v>1056</v>
-      </c>
-      <c r="L111" t="s">
-        <v>1057</v>
       </c>
       <c r="M111" t="s">
         <v>280</v>
@@ -11630,28 +11633,28 @@
     </row>
     <row r="112" spans="1:20">
       <c r="A112" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B112" t="s">
         <v>1058</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1059</v>
       </c>
       <c r="C112" t="s">
         <v>219</v>
       </c>
       <c r="D112" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E112" t="s">
         <v>1060</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>1061</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>1062</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" s="2" t="s">
         <v>1063</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>1064</v>
       </c>
       <c r="I112" t="s">
         <v>106</v>
@@ -11693,28 +11696,28 @@
     </row>
     <row r="113" spans="1:20">
       <c r="A113" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B113" t="s">
         <v>1065</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1066</v>
       </c>
       <c r="C113" t="s">
         <v>219</v>
       </c>
       <c r="D113" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E113" t="s">
         <v>1067</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>1068</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>1069</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" s="2" t="s">
         <v>1070</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>1071</v>
       </c>
       <c r="I113" t="s">
         <v>106</v>
@@ -11756,28 +11759,28 @@
     </row>
     <row r="114" spans="1:20">
       <c r="A114" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B114" t="s">
         <v>1072</v>
-      </c>
-      <c r="B114" t="s">
-        <v>1073</v>
       </c>
       <c r="C114" t="s">
         <v>100</v>
       </c>
       <c r="D114" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E114" t="s">
         <v>1074</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>1075</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>1076</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" s="2" t="s">
         <v>1077</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>1078</v>
       </c>
       <c r="I114" t="s">
         <v>8</v>
@@ -11795,7 +11798,7 @@
         <v>334</v>
       </c>
       <c r="N114" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="O114" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80546_windsor &amp; maidenhead", ".\export_data\inspection_reports\80546_windsor &amp; maidenhead")</f>
@@ -11819,28 +11822,28 @@
     </row>
     <row r="115" spans="1:20">
       <c r="A115" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B115" t="s">
         <v>1080</v>
-      </c>
-      <c r="B115" t="s">
-        <v>1081</v>
       </c>
       <c r="C115" t="s">
         <v>306</v>
       </c>
       <c r="D115" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E115" t="s">
         <v>1082</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>1083</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>1084</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" s="2" t="s">
         <v>1085</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>1086</v>
       </c>
       <c r="I115" t="s">
         <v>8</v>
@@ -11852,10 +11855,10 @@
         <v>509</v>
       </c>
       <c r="L115" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M115" t="s">
         <v>1087</v>
-      </c>
-      <c r="M115" t="s">
-        <v>1088</v>
       </c>
       <c r="N115" t="s">
         <v>435</v>
@@ -11882,28 +11885,28 @@
     </row>
     <row r="116" spans="1:20">
       <c r="A116" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B116" t="s">
         <v>1089</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1090</v>
       </c>
       <c r="C116" t="s">
         <v>56</v>
       </c>
       <c r="D116" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E116" t="s">
         <v>1091</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>1092</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>1093</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" s="2" t="s">
         <v>1094</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>1095</v>
       </c>
       <c r="I116" t="s">
         <v>8</v>
@@ -11912,10 +11915,10 @@
         <v>9</v>
       </c>
       <c r="K116" t="s">
+        <v>1095</v>
+      </c>
+      <c r="L116" t="s">
         <v>1096</v>
-      </c>
-      <c r="L116" t="s">
-        <v>1097</v>
       </c>
       <c r="M116" t="s">
         <v>324</v>
@@ -11945,28 +11948,28 @@
     </row>
     <row r="117" spans="1:20">
       <c r="A117" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B117" t="s">
         <v>1098</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1099</v>
       </c>
       <c r="C117" t="s">
         <v>42</v>
       </c>
       <c r="D117" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E117" t="s">
         <v>1100</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>1101</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>1102</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" s="2" t="s">
         <v>1103</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>1104</v>
       </c>
       <c r="I117" t="s">
         <v>14</v>
@@ -12008,28 +12011,28 @@
     </row>
     <row r="118" spans="1:20">
       <c r="A118" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B118" t="s">
         <v>1105</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1106</v>
       </c>
       <c r="C118" t="s">
         <v>56</v>
       </c>
       <c r="D118" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E118" t="s">
         <v>1107</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>1108</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>1109</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" s="2" t="s">
         <v>1110</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>1111</v>
       </c>
       <c r="I118" t="s">
         <v>8</v>
@@ -12041,7 +12044,7 @@
         <v>86</v>
       </c>
       <c r="L118" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="M118" t="s">
         <v>540</v>
@@ -12071,28 +12074,28 @@
     </row>
     <row r="119" spans="1:20">
       <c r="A119" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B119" t="s">
         <v>1113</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1114</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
       </c>
       <c r="D119" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E119" t="s">
         <v>1115</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>1116</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>1117</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" s="2" t="s">
         <v>1118</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>1119</v>
       </c>
       <c r="I119" t="s">
         <v>8</v>
@@ -12107,10 +12110,10 @@
         <v>11</v>
       </c>
       <c r="M119" t="s">
+        <v>1119</v>
+      </c>
+      <c r="N119" t="s">
         <v>1120</v>
-      </c>
-      <c r="N119" t="s">
-        <v>1121</v>
       </c>
       <c r="O119" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80551_sheffield", ".\export_data\inspection_reports\80551_sheffield")</f>
@@ -12134,28 +12137,28 @@
     </row>
     <row r="120" spans="1:20">
       <c r="A120" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B120" t="s">
         <v>1122</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1123</v>
       </c>
       <c r="C120" t="s">
         <v>42</v>
       </c>
       <c r="D120" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E120" t="s">
         <v>1124</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>1125</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>1126</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" s="2" t="s">
         <v>1127</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>1128</v>
       </c>
       <c r="I120" t="s">
         <v>106</v>
@@ -12164,10 +12167,10 @@
         <v>48</v>
       </c>
       <c r="K120" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="L120" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="M120" t="s">
         <v>540</v>
@@ -12197,28 +12200,28 @@
     </row>
     <row r="121" spans="1:20">
       <c r="A121" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B121" t="s">
         <v>1130</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1131</v>
       </c>
       <c r="C121" t="s">
         <v>100</v>
       </c>
       <c r="D121" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E121" t="s">
         <v>1132</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>1133</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>1134</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" s="2" t="s">
         <v>1135</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>1136</v>
       </c>
       <c r="I121" t="s">
         <v>14</v>
@@ -12233,10 +12236,10 @@
         <v>472</v>
       </c>
       <c r="M121" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N121" t="s">
         <v>1047</v>
-      </c>
-      <c r="N121" t="s">
-        <v>1048</v>
       </c>
       <c r="O121" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80553_slough", ".\export_data\inspection_reports\80553_slough")</f>
@@ -12260,28 +12263,28 @@
     </row>
     <row r="122" spans="1:20">
       <c r="A122" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B122" t="s">
         <v>1137</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1138</v>
       </c>
       <c r="C122" t="s">
         <v>42</v>
       </c>
       <c r="D122" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E122" t="s">
         <v>1139</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>1140</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>1141</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" s="2" t="s">
         <v>1142</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>1143</v>
       </c>
       <c r="I122" t="s">
         <v>191</v>
@@ -12290,7 +12293,7 @@
         <v>48</v>
       </c>
       <c r="K122" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="L122" t="s">
         <v>365</v>
@@ -12323,28 +12326,28 @@
     </row>
     <row r="123" spans="1:20">
       <c r="A123" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B123" t="s">
         <v>1145</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1146</v>
       </c>
       <c r="C123" t="s">
         <v>18</v>
       </c>
       <c r="D123" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E123" t="s">
         <v>1147</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>1148</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>1149</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" s="2" t="s">
         <v>1150</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>1151</v>
       </c>
       <c r="I123" t="s">
         <v>8</v>
@@ -12386,28 +12389,28 @@
     </row>
     <row r="124" spans="1:20">
       <c r="A124" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B124" t="s">
         <v>1152</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1153</v>
       </c>
       <c r="C124" t="s">
         <v>18</v>
       </c>
       <c r="D124" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E124" t="s">
         <v>1154</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>1155</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>1156</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" s="2" t="s">
         <v>1157</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>1158</v>
       </c>
       <c r="I124" t="s">
         <v>8</v>
@@ -12449,28 +12452,28 @@
     </row>
     <row r="125" spans="1:20">
       <c r="A125" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B125" t="s">
         <v>1159</v>
-      </c>
-      <c r="B125" t="s">
-        <v>1160</v>
       </c>
       <c r="C125" t="s">
         <v>294</v>
       </c>
       <c r="D125" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E125" t="s">
         <v>1161</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>1162</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>1163</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" s="2" t="s">
         <v>1164</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>1165</v>
       </c>
       <c r="I125" t="s">
         <v>191</v>
@@ -12488,7 +12491,7 @@
         <v>530</v>
       </c>
       <c r="N125" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="O125" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80557_south tyneside", ".\export_data\inspection_reports\80557_south tyneside")</f>
@@ -12512,28 +12515,28 @@
     </row>
     <row r="126" spans="1:20">
       <c r="A126" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B126" t="s">
         <v>1167</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1168</v>
       </c>
       <c r="C126" t="s">
         <v>100</v>
       </c>
       <c r="D126" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E126" t="s">
         <v>1169</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>1170</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>1171</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" s="2" t="s">
         <v>1172</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>1173</v>
       </c>
       <c r="I126" t="s">
         <v>8</v>
@@ -12545,13 +12548,13 @@
         <v>394</v>
       </c>
       <c r="L126" t="s">
+        <v>1173</v>
+      </c>
+      <c r="M126" t="s">
         <v>1174</v>
       </c>
-      <c r="M126" t="s">
+      <c r="N126" t="s">
         <v>1175</v>
-      </c>
-      <c r="N126" t="s">
-        <v>1176</v>
       </c>
       <c r="O126" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80558_southampton", ".\export_data\inspection_reports\80558_southampton")</f>
@@ -12575,28 +12578,28 @@
     </row>
     <row r="127" spans="1:20">
       <c r="A127" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B127" t="s">
         <v>1177</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1178</v>
       </c>
       <c r="C127" t="s">
         <v>31</v>
       </c>
       <c r="D127" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E127" t="s">
         <v>1179</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>1180</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>1181</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" s="2" t="s">
         <v>1182</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>1183</v>
       </c>
       <c r="I127" t="s">
         <v>8</v>
@@ -12638,28 +12641,28 @@
     </row>
     <row r="128" spans="1:20">
       <c r="A128" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B128" t="s">
         <v>1184</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1185</v>
       </c>
       <c r="C128" t="s">
         <v>56</v>
       </c>
       <c r="D128" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E128" t="s">
         <v>1186</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>1187</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>1188</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" s="2" t="s">
         <v>1189</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>1190</v>
       </c>
       <c r="I128" t="s">
         <v>8</v>
@@ -12701,28 +12704,28 @@
     </row>
     <row r="129" spans="1:20">
       <c r="A129" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B129" t="s">
         <v>1191</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1192</v>
       </c>
       <c r="C129" t="s">
         <v>42</v>
       </c>
       <c r="D129" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E129" t="s">
         <v>1193</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>1194</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>1195</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H129" s="2" t="s">
         <v>1196</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>1197</v>
       </c>
       <c r="I129" t="s">
         <v>14</v>
@@ -12734,7 +12737,7 @@
         <v>202</v>
       </c>
       <c r="L129" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="M129" t="s">
         <v>324</v>
@@ -12764,28 +12767,28 @@
     </row>
     <row r="130" spans="1:20">
       <c r="A130" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B130" t="s">
         <v>1198</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1199</v>
       </c>
       <c r="C130" t="s">
         <v>56</v>
       </c>
       <c r="D130" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E130" t="s">
         <v>1200</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>1201</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>1202</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" s="2" t="s">
         <v>1203</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>1204</v>
       </c>
       <c r="I130" t="s">
         <v>14</v>
@@ -12797,13 +12800,13 @@
         <v>74</v>
       </c>
       <c r="L130" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M130" t="s">
         <v>314</v>
       </c>
       <c r="N130" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="O130" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80562_stockport", ".\export_data\inspection_reports\80562_stockport")</f>
@@ -12827,28 +12830,28 @@
     </row>
     <row r="131" spans="1:20">
       <c r="A131" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B131" t="s">
         <v>1206</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1207</v>
       </c>
       <c r="C131" t="s">
         <v>294</v>
       </c>
       <c r="D131" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E131" t="s">
         <v>1208</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>1209</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>1210</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" s="2" t="s">
         <v>1211</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>1212</v>
       </c>
       <c r="I131" t="s">
         <v>14</v>
@@ -12857,16 +12860,16 @@
         <v>48</v>
       </c>
       <c r="K131" t="s">
+        <v>1212</v>
+      </c>
+      <c r="L131" t="s">
         <v>1213</v>
       </c>
-      <c r="L131" t="s">
+      <c r="M131" t="s">
         <v>1214</v>
       </c>
-      <c r="M131" t="s">
+      <c r="N131" t="s">
         <v>1215</v>
-      </c>
-      <c r="N131" t="s">
-        <v>1216</v>
       </c>
       <c r="O131" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80563_stockton-on-tees", ".\export_data\inspection_reports\80563_stockton-on-tees")</f>
@@ -12890,28 +12893,28 @@
     </row>
     <row r="132" spans="1:20">
       <c r="A132" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B132" t="s">
         <v>1217</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1218</v>
       </c>
       <c r="C132" t="s">
         <v>42</v>
       </c>
       <c r="D132" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E132" t="s">
         <v>1219</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>1220</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>1221</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" s="2" t="s">
         <v>1222</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>1223</v>
       </c>
       <c r="I132" t="s">
         <v>14</v>
@@ -12923,13 +12926,13 @@
         <v>49</v>
       </c>
       <c r="L132" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M132" t="s">
         <v>314</v>
       </c>
       <c r="N132" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="O132" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80564_stoke-on-trent", ".\export_data\inspection_reports\80564_stoke-on-trent")</f>
@@ -12953,28 +12956,28 @@
     </row>
     <row r="133" spans="1:20">
       <c r="A133" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B133" t="s">
         <v>1224</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1225</v>
       </c>
       <c r="C133" t="s">
         <v>31</v>
       </c>
       <c r="D133" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E133" t="s">
         <v>1226</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>1227</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>1228</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" s="2" t="s">
         <v>1229</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>1230</v>
       </c>
       <c r="I133" t="s">
         <v>14</v>
@@ -12992,7 +12995,7 @@
         <v>664</v>
       </c>
       <c r="N133" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="O133" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80565_suffolk", ".\export_data\inspection_reports\80565_suffolk")</f>
@@ -13016,28 +13019,28 @@
     </row>
     <row r="134" spans="1:20">
       <c r="A134" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B134" t="s">
         <v>1232</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1233</v>
       </c>
       <c r="C134" t="s">
         <v>294</v>
       </c>
       <c r="D134" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E134" t="s">
         <v>1234</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>1235</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>1236</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" s="2" t="s">
         <v>1237</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>1238</v>
       </c>
       <c r="I134" t="s">
         <v>106</v>
@@ -13055,7 +13058,7 @@
         <v>346</v>
       </c>
       <c r="N134" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="O134" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80566_sunderland", ".\export_data\inspection_reports\80566_sunderland")</f>
@@ -13079,28 +13082,28 @@
     </row>
     <row r="135" spans="1:20">
       <c r="A135" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B135" t="s">
         <v>1240</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1241</v>
       </c>
       <c r="C135" t="s">
         <v>100</v>
       </c>
       <c r="D135" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E135" t="s">
         <v>1242</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>1243</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>1244</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135" s="2" t="s">
         <v>1245</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>1246</v>
       </c>
       <c r="I135" t="s">
         <v>8</v>
@@ -13142,28 +13145,28 @@
     </row>
     <row r="136" spans="1:20">
       <c r="A136" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B136" t="s">
         <v>1247</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1248</v>
       </c>
       <c r="C136" t="s">
         <v>18</v>
       </c>
       <c r="D136" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E136" t="s">
         <v>1249</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>1250</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>1251</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H136" s="2" t="s">
         <v>1252</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>1253</v>
       </c>
       <c r="I136" t="s">
         <v>191</v>
@@ -13175,13 +13178,13 @@
         <v>140</v>
       </c>
       <c r="L136" t="s">
+        <v>866</v>
+      </c>
+      <c r="M136" t="s">
         <v>867</v>
       </c>
-      <c r="M136" t="s">
+      <c r="N136" t="s">
         <v>868</v>
-      </c>
-      <c r="N136" t="s">
-        <v>869</v>
       </c>
       <c r="O136" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80568_swindon", ".\export_data\inspection_reports\80568_swindon")</f>
@@ -13205,28 +13208,28 @@
     </row>
     <row r="137" spans="1:20">
       <c r="A137" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B137" t="s">
         <v>1254</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1255</v>
       </c>
       <c r="C137" t="s">
         <v>56</v>
       </c>
       <c r="D137" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E137" t="s">
         <v>1256</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>1257</v>
       </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>1258</v>
       </c>
-      <c r="G137" t="s">
+      <c r="H137" s="2" t="s">
         <v>1259</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>1260</v>
       </c>
       <c r="I137" t="s">
         <v>191</v>
@@ -13244,7 +13247,7 @@
         <v>396</v>
       </c>
       <c r="N137" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="O137" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80569_tameside", ".\export_data\inspection_reports\80569_tameside")</f>
@@ -13268,28 +13271,28 @@
     </row>
     <row r="138" spans="1:20">
       <c r="A138" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B138" t="s">
         <v>1262</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1263</v>
       </c>
       <c r="C138" t="s">
         <v>42</v>
       </c>
       <c r="D138" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E138" t="s">
         <v>1264</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>1265</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>1266</v>
       </c>
-      <c r="G138" t="s">
+      <c r="H138" s="2" t="s">
         <v>1267</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>1268</v>
       </c>
       <c r="I138" t="s">
         <v>106</v>
@@ -13301,7 +13304,7 @@
         <v>181</v>
       </c>
       <c r="L138" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="M138" t="s">
         <v>557</v>
@@ -13331,28 +13334,28 @@
     </row>
     <row r="139" spans="1:20">
       <c r="A139" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B139" t="s">
         <v>1270</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1271</v>
       </c>
       <c r="C139" t="s">
         <v>31</v>
       </c>
       <c r="D139" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E139" t="s">
         <v>1272</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>1273</v>
       </c>
-      <c r="F139" t="s">
+      <c r="G139" t="s">
         <v>1274</v>
       </c>
-      <c r="G139" t="s">
+      <c r="H139" s="2" t="s">
         <v>1275</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>1276</v>
       </c>
       <c r="I139" t="s">
         <v>106</v>
@@ -13364,13 +13367,13 @@
         <v>509</v>
       </c>
       <c r="L139" t="s">
+        <v>1276</v>
+      </c>
+      <c r="M139" t="s">
         <v>1277</v>
       </c>
-      <c r="M139" t="s">
+      <c r="N139" t="s">
         <v>1278</v>
-      </c>
-      <c r="N139" t="s">
-        <v>1279</v>
       </c>
       <c r="O139" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80571_thurrock", ".\export_data\inspection_reports\80571_thurrock")</f>
@@ -13394,28 +13397,28 @@
     </row>
     <row r="140" spans="1:20">
       <c r="A140" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B140" t="s">
         <v>1280</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1281</v>
       </c>
       <c r="C140" t="s">
         <v>18</v>
       </c>
       <c r="D140" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E140" t="s">
         <v>1282</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>1283</v>
       </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
         <v>1284</v>
       </c>
-      <c r="G140" t="s">
+      <c r="H140" s="2" t="s">
         <v>1285</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>1286</v>
       </c>
       <c r="I140" t="s">
         <v>8</v>
@@ -13424,16 +13427,16 @@
         <v>48</v>
       </c>
       <c r="K140" t="s">
+        <v>1286</v>
+      </c>
+      <c r="L140" t="s">
         <v>1287</v>
       </c>
-      <c r="L140" t="s">
-        <v>856</v>
-      </c>
       <c r="M140" t="s">
-        <v>857</v>
+        <v>1288</v>
       </c>
       <c r="N140" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="O140" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80572_torbay", ".\export_data\inspection_reports\80572_torbay")</f>
@@ -13457,28 +13460,28 @@
     </row>
     <row r="141" spans="1:20">
       <c r="A141" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B141" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C141" t="s">
         <v>56</v>
       </c>
       <c r="D141" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="E141" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="F141" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="G141" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="I141" t="s">
         <v>14</v>
@@ -13520,28 +13523,28 @@
     </row>
     <row r="142" spans="1:20">
       <c r="A142" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B142" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C142" t="s">
         <v>42</v>
       </c>
       <c r="D142" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="E142" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="F142" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="G142" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="I142" t="s">
         <v>106</v>
@@ -13553,10 +13556,10 @@
         <v>140</v>
       </c>
       <c r="L142" t="s">
+        <v>893</v>
+      </c>
+      <c r="M142" t="s">
         <v>894</v>
-      </c>
-      <c r="M142" t="s">
-        <v>895</v>
       </c>
       <c r="N142" t="s">
         <v>315</v>
@@ -13583,28 +13586,28 @@
     </row>
     <row r="143" spans="1:20">
       <c r="A143" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B143" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C143" t="s">
         <v>56</v>
       </c>
       <c r="D143" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="E143" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="F143" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="G143" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="I143" t="s">
         <v>8</v>
@@ -13622,7 +13625,7 @@
         <v>444</v>
       </c>
       <c r="N143" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="O143" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80575_warrington", ".\export_data\inspection_reports\80575_warrington")</f>
@@ -13646,28 +13649,28 @@
     </row>
     <row r="144" spans="1:20">
       <c r="A144" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B144" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C144" t="s">
         <v>42</v>
       </c>
       <c r="D144" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="E144" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="F144" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="G144" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="I144" t="s">
         <v>14</v>
@@ -13679,13 +13682,13 @@
         <v>117</v>
       </c>
       <c r="L144" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="M144" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="N144" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="O144" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80576_warwickshire", ".\export_data\inspection_reports\80576_warwickshire")</f>
@@ -13709,28 +13712,28 @@
     </row>
     <row r="145" spans="1:20">
       <c r="A145" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B145" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C145" t="s">
         <v>100</v>
       </c>
       <c r="D145" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="E145" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="F145" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="G145" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="I145" t="s">
         <v>8</v>
@@ -13739,16 +13742,16 @@
         <v>9</v>
       </c>
       <c r="K145" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="L145" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="M145" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="N145" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="O145" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80577_west berkshire", ".\export_data\inspection_reports\80577_west berkshire")</f>
@@ -13772,28 +13775,28 @@
     </row>
     <row r="146" spans="1:20">
       <c r="A146" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B146" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C146" t="s">
         <v>306</v>
       </c>
       <c r="D146" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="E146" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="F146" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="G146" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="I146" t="s">
         <v>14</v>
@@ -13805,13 +13808,13 @@
         <v>202</v>
       </c>
       <c r="L146" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="M146" t="s">
+        <v>920</v>
+      </c>
+      <c r="N146" t="s">
         <v>921</v>
-      </c>
-      <c r="N146" t="s">
-        <v>922</v>
       </c>
       <c r="O146" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\2637548_west northamptonshire", ".\export_data\inspection_reports\2637548_west northamptonshire")</f>
@@ -13835,28 +13838,28 @@
     </row>
     <row r="147" spans="1:20">
       <c r="A147" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B147" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C147" t="s">
         <v>100</v>
       </c>
       <c r="D147" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="E147" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="F147" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G147" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="I147" t="s">
         <v>14</v>
@@ -13865,7 +13868,7 @@
         <v>48</v>
       </c>
       <c r="K147" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="L147" t="s">
         <v>575</v>
@@ -13874,7 +13877,7 @@
         <v>576</v>
       </c>
       <c r="N147" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="O147" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80578_west sussex", ".\export_data\inspection_reports\80578_west sussex")</f>
@@ -13898,10 +13901,10 @@
     </row>
     <row r="148" spans="1:20">
       <c r="A148" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B148" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C148" t="s">
         <v>56</v>
@@ -13910,16 +13913,16 @@
         <v>284</v>
       </c>
       <c r="E148" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="F148" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G148" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="I148" t="s">
         <v>8</v>
@@ -13928,7 +13931,7 @@
         <v>48</v>
       </c>
       <c r="K148" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="L148" t="s">
         <v>556</v>
@@ -13961,28 +13964,28 @@
     </row>
     <row r="149" spans="1:20">
       <c r="A149" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B149" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C149" t="s">
         <v>56</v>
       </c>
       <c r="D149" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="E149" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F149" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G149" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="I149" t="s">
         <v>14</v>
@@ -13991,7 +13994,7 @@
         <v>48</v>
       </c>
       <c r="K149" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="L149" t="s">
         <v>489</v>
@@ -14024,28 +14027,28 @@
     </row>
     <row r="150" spans="1:20">
       <c r="A150" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B150" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C150" t="s">
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="E150" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="F150" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G150" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="I150" t="s">
         <v>106</v>
@@ -14057,13 +14060,13 @@
         <v>405</v>
       </c>
       <c r="L150" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="M150" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="N150" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="O150" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80580_wiltshire", ".\export_data\inspection_reports\80580_wiltshire")</f>
@@ -14087,28 +14090,28 @@
     </row>
     <row r="151" spans="1:20">
       <c r="A151" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B151" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C151" t="s">
         <v>56</v>
       </c>
       <c r="D151" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="E151" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="F151" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G151" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="I151" t="s">
         <v>14</v>
@@ -14120,13 +14123,13 @@
         <v>192</v>
       </c>
       <c r="L151" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="M151" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="N151" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="O151" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80581_wirral", ".\export_data\inspection_reports\80581_wirral")</f>
@@ -14150,28 +14153,28 @@
     </row>
     <row r="152" spans="1:20">
       <c r="A152" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B152" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C152" t="s">
         <v>100</v>
       </c>
       <c r="D152" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="E152" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="F152" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G152" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="I152" t="s">
         <v>14</v>
@@ -14183,13 +14186,13 @@
         <v>394</v>
       </c>
       <c r="L152" t="s">
+        <v>1213</v>
+      </c>
+      <c r="M152" t="s">
         <v>1214</v>
       </c>
-      <c r="M152" t="s">
+      <c r="N152" t="s">
         <v>1215</v>
-      </c>
-      <c r="N152" t="s">
-        <v>1216</v>
       </c>
       <c r="O152" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80582_wokingham", ".\export_data\inspection_reports\80582_wokingham")</f>
@@ -14213,28 +14216,28 @@
     </row>
     <row r="153" spans="1:20">
       <c r="A153" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B153" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C153" t="s">
         <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="E153" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="F153" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G153" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="I153" t="s">
         <v>8</v>
@@ -14243,16 +14246,16 @@
         <v>9</v>
       </c>
       <c r="K153" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L153" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="M153" t="s">
-        <v>857</v>
+        <v>1288</v>
       </c>
       <c r="N153" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="O153" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80583_wolverhampton", ".\export_data\inspection_reports\80583_wolverhampton")</f>
@@ -14276,28 +14279,28 @@
     </row>
     <row r="154" spans="1:20">
       <c r="A154" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B154" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C154" t="s">
         <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="E154" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="F154" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G154" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="I154" t="s">
         <v>8</v>
@@ -14309,13 +14312,13 @@
         <v>181</v>
       </c>
       <c r="L154" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="M154" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="N154" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="O154" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80584_worcestershire", ".\export_data\inspection_reports\80584_worcestershire")</f>

--- a/ofsted_csc_ilacs_overview.xlsx
+++ b/ofsted_csc_ilacs_overview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1427">
   <si>
     <t>80426</t>
   </si>
@@ -1594,7 +1594,7 @@
     <t>925, 351, 332, 884, 841, 808, 384, 891, 929, 359</t>
   </si>
   <si>
-    <t>[(925, 'outstanding'), (351, 'requires improvement'), (332, 'requires improvement'), (884, 'inadequate'), (841, 'good'), (808, 'requires improvement'), (384, 'good'), (891, 'good'), (929, 'outstanding'), (359, 'requires improvement')]</t>
+    <t>[(925, 'outstanding'), (351, 'requires improvement'), (332, 'requires improvement'), (884, 'inadequate'), (841, 'good'), (808, 'requires improvement'), (384, 'good'), (891, 'good'), (929, 'outstanding'), (359, 'good')]</t>
   </si>
   <si>
     <t>lancashire</t>
@@ -3340,7 +3340,7 @@
     <t>344, 342, 359, 888, 876, 840, 808, 340, 841, 351</t>
   </si>
   <si>
-    <t>[(344, 'requires improvement'), (342, 'good'), (359, 'requires improvement'), (888, 'good'), (876, 'inadequate'), (840, 'outstanding'), (808, 'requires improvement'), (340, 'inadequate'), (841, 'good'), (351, 'requires improvement')]</t>
+    <t>[(344, 'requires improvement'), (342, 'good'), (359, 'good'), (888, 'good'), (876, 'inadequate'), (840, 'outstanding'), (808, 'requires improvement'), (340, 'inadequate'), (841, 'good'), (351, 'requires improvement')]</t>
   </si>
   <si>
     <t>sefton</t>
@@ -4096,10 +4096,16 @@
     <t>wigan</t>
   </si>
   <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50187563</t>
-  </si>
-  <si>
-    <t>lorna schlechte</t>
+    <t>https://files.ofsted.gov.uk/v1/file/50291724</t>
+  </si>
+  <si>
+    <t>06/10/2025</t>
+  </si>
+  <si>
+    <t>17/10/2025</t>
+  </si>
+  <si>
+    <t>26/11/25</t>
   </si>
   <si>
     <t>80580</t>
@@ -4659,64 +4665,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -12195,7 +12201,7 @@
         <v>8</v>
       </c>
       <c r="T120" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -13988,67 +13994,67 @@
         <v>1360</v>
       </c>
       <c r="I149" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J149" t="s">
         <v>48</v>
       </c>
       <c r="K149" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L149" t="s">
         <v>1361</v>
       </c>
-      <c r="L149" t="s">
-        <v>489</v>
-      </c>
       <c r="M149" t="s">
-        <v>490</v>
+        <v>1362</v>
       </c>
       <c r="N149" t="s">
-        <v>491</v>
+        <v>1363</v>
       </c>
       <c r="O149" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80579_wigan", ".\export_data\inspection_reports\80579_wigan")</f>
         <v>0</v>
       </c>
       <c r="P149" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Q149" t="s">
         <v>14</v>
       </c>
       <c r="R149" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="S149" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="T149" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150" spans="1:20">
       <c r="A150" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B150" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="C150" t="s">
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="E150" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="F150" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="G150" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="I150" t="s">
         <v>106</v>
@@ -14060,13 +14066,13 @@
         <v>405</v>
       </c>
       <c r="L150" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="M150" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="N150" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="O150" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80580_wiltshire", ".\export_data\inspection_reports\80580_wiltshire")</f>
@@ -14090,28 +14096,28 @@
     </row>
     <row r="151" spans="1:20">
       <c r="A151" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="B151" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="C151" t="s">
         <v>56</v>
       </c>
       <c r="D151" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="E151" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="F151" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G151" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="I151" t="s">
         <v>14</v>
@@ -14123,13 +14129,13 @@
         <v>192</v>
       </c>
       <c r="L151" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="M151" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="N151" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="O151" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80581_wirral", ".\export_data\inspection_reports\80581_wirral")</f>
@@ -14153,28 +14159,28 @@
     </row>
     <row r="152" spans="1:20">
       <c r="A152" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="B152" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="C152" t="s">
         <v>100</v>
       </c>
       <c r="D152" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="E152" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="F152" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="G152" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="I152" t="s">
         <v>14</v>
@@ -14216,28 +14222,28 @@
     </row>
     <row r="153" spans="1:20">
       <c r="A153" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="B153" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="C153" t="s">
         <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="E153" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="F153" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="G153" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="I153" t="s">
         <v>8</v>
@@ -14249,7 +14255,7 @@
         <v>962</v>
       </c>
       <c r="L153" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="M153" t="s">
         <v>1288</v>
@@ -14279,28 +14285,28 @@
     </row>
     <row r="154" spans="1:20">
       <c r="A154" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="B154" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="C154" t="s">
         <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="E154" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="F154" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="G154" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="I154" t="s">
         <v>8</v>
@@ -14315,10 +14321,10 @@
         <v>1021</v>
       </c>
       <c r="M154" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="N154" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="O154" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80584_worcestershire", ".\export_data\inspection_reports\80584_worcestershire")</f>

--- a/ofsted_csc_ilacs_overview.xlsx
+++ b/ofsted_csc_ilacs_overview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1431">
   <si>
     <t>80426</t>
   </si>
@@ -646,7 +646,7 @@
     <t>889, 330, 353, 373, 831, 354, 350, 335, 333, 382</t>
   </si>
   <si>
-    <t>[(889, 'good'), (330, 'good'), (353, 'good'), (373, 'good'), (831, 'outstanding'), (354, 'requires improvement'), (350, 'good'), (335, 'outstanding'), (333, 'requires improvement'), (382, 'good')]</t>
+    <t>[(889, 'good'), (330, 'good'), (353, 'good'), (373, 'good'), (831, 'outstanding'), (354, 'requires improvement'), (350, 'good'), (335, 'outstanding'), (333, 'good'), (382, 'good')]</t>
   </si>
   <si>
     <t>bradford</t>
@@ -1504,7 +1504,7 @@
     <t>333, 336, 861, 335, 812, 354, 806, 371, 831, 372</t>
   </si>
   <si>
-    <t>[(333, 'requires improvement'), (336, 'good'), (861, 'requires improvement'), (335, 'outstanding'), (812, 'good'), (354, 'requires improvement'), (806, 'requires improvement'), (371, 'good'), (831, 'outstanding'), (372, 'good')]</t>
+    <t>[(333, 'good'), (336, 'good'), (861, 'requires improvement'), (335, 'outstanding'), (812, 'good'), (354, 'requires improvement'), (806, 'requires improvement'), (371, 'good'), (831, 'outstanding'), (372, 'good')]</t>
   </si>
   <si>
     <t>kingston upon hull</t>
@@ -1654,7 +1654,7 @@
     <t>821, 871, 304, 316, 333, 380, 307, 313, 330, 889</t>
   </si>
   <si>
-    <t>[(821, 'requires improvement'), (871, 'requires improvement'), (304, 'good'), (316, 'good'), (333, 'requires improvement'), (380, 'inadequate'), (307, 'good'), (313, 'good'), (330, 'good'), (889, 'good')]</t>
+    <t>[(821, 'requires improvement'), (871, 'requires improvement'), (304, 'good'), (316, 'good'), (333, 'good'), (380, 'inadequate'), (307, 'good'), (313, 'good'), (330, 'good'), (889, 'good')]</t>
   </si>
   <si>
     <t>leicester</t>
@@ -1762,7 +1762,7 @@
     <t>308, 821, 313, 333, 336, 307, 304, 312, 874, 203</t>
   </si>
   <si>
-    <t>[(308, 'good'), (821, 'requires improvement'), (313, 'good'), (333, 'requires improvement'), (336, 'good'), (307, 'good'), (304, 'good'), (312, 'outstanding'), (874, 'inadequate'), (203, 'outstanding')]</t>
+    <t>[(308, 'good'), (821, 'requires improvement'), (313, 'good'), (333, 'good'), (336, 'good'), (307, 'good'), (304, 'good'), (312, 'outstanding'), (874, 'inadequate'), (203, 'outstanding')]</t>
   </si>
   <si>
     <t>barking and dagenham</t>
@@ -2542,7 +2542,7 @@
     <t>871, 874, 331, 313, 312, 856, 307, 333, 852, 301</t>
   </si>
   <si>
-    <t>[(871, 'requires improvement'), (874, 'inadequate'), (331, 'good'), (313, 'good'), (312, 'outstanding'), (856, 'requires improvement'), (307, 'good'), (333, 'requires improvement'), (852, 'good'), (301, 'requires improvement')]</t>
+    <t>[(871, 'requires improvement'), (874, 'inadequate'), (331, 'good'), (313, 'good'), (312, 'outstanding'), (856, 'requires improvement'), (307, 'good'), (333, 'good'), (852, 'good'), (301, 'requires improvement')]</t>
   </si>
   <si>
     <t>luton</t>
@@ -2920,7 +2920,7 @@
     <t>330, 352, 391, 806, 380, 333, 852, 353, 373, 355</t>
   </si>
   <si>
-    <t>[(330, 'good'), (352, 'outstanding'), (391, 'good'), (806, 'requires improvement'), (380, 'inadequate'), (333, 'requires improvement'), (852, 'good'), (353, 'good'), (373, 'good'), (355, 'good')]</t>
+    <t>[(330, 'good'), (352, 'outstanding'), (391, 'good'), (806, 'requires improvement'), (380, 'inadequate'), (333, 'good'), (852, 'good'), (353, 'good'), (373, 'good'), (355, 'good')]</t>
   </si>
   <si>
     <t>nottingham</t>
@@ -2962,7 +2962,7 @@
     <t>889, 350, 354, 380, 335, 831, 861, 331, 330, 333</t>
   </si>
   <si>
-    <t>[(889, 'good'), (350, 'good'), (354, 'requires improvement'), (380, 'inadequate'), (335, 'outstanding'), (831, 'outstanding'), (861, 'requires improvement'), (331, 'good'), (330, 'good'), (333, 'requires improvement')]</t>
+    <t>[(889, 'good'), (350, 'good'), (354, 'requires improvement'), (380, 'inadequate'), (335, 'outstanding'), (831, 'outstanding'), (861, 'requires improvement'), (331, 'good'), (330, 'good'), (333, 'good')]</t>
   </si>
   <si>
     <t>oldham</t>
@@ -3325,7 +3325,19 @@
     <t>sandwell</t>
   </si>
   <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50187562</t>
+    <t>https://files.ofsted.gov.uk/v1/file/50291983</t>
+  </si>
+  <si>
+    <t>monique lindsay</t>
+  </si>
+  <si>
+    <t>13/10/2025</t>
+  </si>
+  <si>
+    <t>24/10/2025</t>
+  </si>
+  <si>
+    <t>02/12/25</t>
   </si>
   <si>
     <t>80550</t>
@@ -3676,7 +3688,7 @@
     <t>335, 354, 336, 371, 812, 810, 333, 357, 831, 372</t>
   </si>
   <si>
-    <t>[(335, 'outstanding'), (354, 'requires improvement'), (336, 'good'), (371, 'good'), (812, 'good'), (810, 'requires improvement'), (333, 'requires improvement'), (357, 'inadequate'), (831, 'outstanding'), (372, 'good')]</t>
+    <t>[(335, 'outstanding'), (354, 'requires improvement'), (336, 'good'), (371, 'good'), (812, 'good'), (810, 'requires improvement'), (333, 'good'), (357, 'inadequate'), (831, 'outstanding'), (372, 'good')]</t>
   </si>
   <si>
     <t>stoke-on-trent</t>
@@ -3919,7 +3931,7 @@
     <t>354, 861, 357, 336, 371, 831, 350, 372, 812, 333</t>
   </si>
   <si>
-    <t>[(354, 'requires improvement'), (861, 'requires improvement'), (357, 'inadequate'), (336, 'good'), (371, 'good'), (831, 'outstanding'), (350, 'good'), (372, 'good'), (812, 'good'), (333, 'requires improvement')]</t>
+    <t>[(354, 'requires improvement'), (861, 'requires improvement'), (357, 'inadequate'), (336, 'good'), (371, 'good'), (831, 'outstanding'), (350, 'good'), (372, 'good'), (812, 'good'), (333, 'good')]</t>
   </si>
   <si>
     <t>walsall</t>
@@ -4198,7 +4210,7 @@
     <t>333, 861, 335, 810, 354, 331, 371, 831, 806, 812</t>
   </si>
   <si>
-    <t>[(333, 'requires improvement'), (861, 'requires improvement'), (335, 'outstanding'), (810, 'requires improvement'), (354, 'requires improvement'), (331, 'good'), (371, 'good'), (831, 'outstanding'), (806, 'requires improvement'), (812, 'good')]</t>
+    <t>[(333, 'good'), (861, 'requires improvement'), (335, 'outstanding'), (810, 'requires improvement'), (354, 'requires improvement'), (331, 'good'), (371, 'good'), (831, 'outstanding'), (806, 'requires improvement'), (812, 'good')]</t>
   </si>
   <si>
     <t>wolverhampton</t>
@@ -4665,64 +4677,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1412</v>
+        <v>1416</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1413</v>
+        <v>1417</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1426</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -5850,7 +5862,7 @@
         <v>14</v>
       </c>
       <c r="T19" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -10701,7 +10713,7 @@
         <v>78</v>
       </c>
       <c r="T96" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -11978,67 +11990,67 @@
         <v>1103</v>
       </c>
       <c r="I117" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J117" t="s">
         <v>48</v>
       </c>
       <c r="K117" t="s">
-        <v>202</v>
+        <v>1104</v>
       </c>
       <c r="L117" t="s">
-        <v>489</v>
+        <v>1105</v>
       </c>
       <c r="M117" t="s">
-        <v>490</v>
+        <v>1106</v>
       </c>
       <c r="N117" t="s">
-        <v>491</v>
+        <v>1107</v>
       </c>
       <c r="O117" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80549_sandwell", ".\export_data\inspection_reports\80549_sandwell")</f>
         <v>0</v>
       </c>
       <c r="P117" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Q117" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="R117" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="S117" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="T117" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:20">
       <c r="A118" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="B118" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="C118" t="s">
         <v>56</v>
       </c>
       <c r="D118" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="E118" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="F118" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="G118" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="I118" t="s">
         <v>8</v>
@@ -12050,7 +12062,7 @@
         <v>86</v>
       </c>
       <c r="L118" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="M118" t="s">
         <v>540</v>
@@ -12080,28 +12092,28 @@
     </row>
     <row r="119" spans="1:20">
       <c r="A119" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="B119" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="E119" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="F119" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="G119" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="I119" t="s">
         <v>8</v>
@@ -12116,10 +12128,10 @@
         <v>11</v>
       </c>
       <c r="M119" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="N119" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="O119" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80551_sheffield", ".\export_data\inspection_reports\80551_sheffield")</f>
@@ -12143,28 +12155,28 @@
     </row>
     <row r="120" spans="1:20">
       <c r="A120" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="B120" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="C120" t="s">
         <v>42</v>
       </c>
       <c r="D120" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="E120" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="F120" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="G120" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="I120" t="s">
         <v>106</v>
@@ -12173,10 +12185,10 @@
         <v>48</v>
       </c>
       <c r="K120" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="L120" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="M120" t="s">
         <v>540</v>
@@ -12206,28 +12218,28 @@
     </row>
     <row r="121" spans="1:20">
       <c r="A121" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="B121" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="C121" t="s">
         <v>100</v>
       </c>
       <c r="D121" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="E121" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="F121" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="G121" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="I121" t="s">
         <v>14</v>
@@ -12269,28 +12281,28 @@
     </row>
     <row r="122" spans="1:20">
       <c r="A122" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="B122" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="C122" t="s">
         <v>42</v>
       </c>
       <c r="D122" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="E122" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="F122" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="G122" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="I122" t="s">
         <v>191</v>
@@ -12299,7 +12311,7 @@
         <v>48</v>
       </c>
       <c r="K122" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="L122" t="s">
         <v>365</v>
@@ -12332,28 +12344,28 @@
     </row>
     <row r="123" spans="1:20">
       <c r="A123" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="B123" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="C123" t="s">
         <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="E123" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="F123" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="G123" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="I123" t="s">
         <v>8</v>
@@ -12395,28 +12407,28 @@
     </row>
     <row r="124" spans="1:20">
       <c r="A124" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="B124" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="C124" t="s">
         <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="E124" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="F124" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="G124" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="I124" t="s">
         <v>8</v>
@@ -12458,28 +12470,28 @@
     </row>
     <row r="125" spans="1:20">
       <c r="A125" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="B125" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="C125" t="s">
         <v>294</v>
       </c>
       <c r="D125" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="E125" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="F125" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="G125" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="I125" t="s">
         <v>191</v>
@@ -12497,7 +12509,7 @@
         <v>530</v>
       </c>
       <c r="N125" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="O125" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80557_south tyneside", ".\export_data\inspection_reports\80557_south tyneside")</f>
@@ -12521,28 +12533,28 @@
     </row>
     <row r="126" spans="1:20">
       <c r="A126" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="B126" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="C126" t="s">
         <v>100</v>
       </c>
       <c r="D126" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="E126" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="F126" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="G126" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="I126" t="s">
         <v>8</v>
@@ -12554,13 +12566,13 @@
         <v>394</v>
       </c>
       <c r="L126" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="M126" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="N126" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="O126" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80558_southampton", ".\export_data\inspection_reports\80558_southampton")</f>
@@ -12584,28 +12596,28 @@
     </row>
     <row r="127" spans="1:20">
       <c r="A127" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="B127" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="C127" t="s">
         <v>31</v>
       </c>
       <c r="D127" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="E127" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="F127" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="G127" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="I127" t="s">
         <v>8</v>
@@ -12647,28 +12659,28 @@
     </row>
     <row r="128" spans="1:20">
       <c r="A128" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="B128" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="C128" t="s">
         <v>56</v>
       </c>
       <c r="D128" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="E128" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="F128" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="G128" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="I128" t="s">
         <v>8</v>
@@ -12710,28 +12722,28 @@
     </row>
     <row r="129" spans="1:20">
       <c r="A129" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="B129" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="C129" t="s">
         <v>42</v>
       </c>
       <c r="D129" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="E129" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="F129" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="G129" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="I129" t="s">
         <v>14</v>
@@ -12768,33 +12780,33 @@
         <v>14</v>
       </c>
       <c r="T129" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:20">
       <c r="A130" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="B130" t="s">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="C130" t="s">
         <v>56</v>
       </c>
       <c r="D130" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="E130" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="F130" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="G130" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="I130" t="s">
         <v>14</v>
@@ -12812,7 +12824,7 @@
         <v>314</v>
       </c>
       <c r="N130" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="O130" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80562_stockport", ".\export_data\inspection_reports\80562_stockport")</f>
@@ -12836,28 +12848,28 @@
     </row>
     <row r="131" spans="1:20">
       <c r="A131" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="B131" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="C131" t="s">
         <v>294</v>
       </c>
       <c r="D131" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="E131" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="F131" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="G131" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="I131" t="s">
         <v>14</v>
@@ -12866,16 +12878,16 @@
         <v>48</v>
       </c>
       <c r="K131" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="L131" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="M131" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="N131" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="O131" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80563_stockton-on-tees", ".\export_data\inspection_reports\80563_stockton-on-tees")</f>
@@ -12899,28 +12911,28 @@
     </row>
     <row r="132" spans="1:20">
       <c r="A132" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="B132" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="C132" t="s">
         <v>42</v>
       </c>
       <c r="D132" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="E132" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="F132" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="G132" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="I132" t="s">
         <v>14</v>
@@ -12938,7 +12950,7 @@
         <v>314</v>
       </c>
       <c r="N132" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="O132" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80564_stoke-on-trent", ".\export_data\inspection_reports\80564_stoke-on-trent")</f>
@@ -12962,28 +12974,28 @@
     </row>
     <row r="133" spans="1:20">
       <c r="A133" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="B133" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="C133" t="s">
         <v>31</v>
       </c>
       <c r="D133" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="E133" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="F133" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="G133" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="I133" t="s">
         <v>14</v>
@@ -13001,7 +13013,7 @@
         <v>664</v>
       </c>
       <c r="N133" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="O133" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80565_suffolk", ".\export_data\inspection_reports\80565_suffolk")</f>
@@ -13025,28 +13037,28 @@
     </row>
     <row r="134" spans="1:20">
       <c r="A134" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="B134" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="C134" t="s">
         <v>294</v>
       </c>
       <c r="D134" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="E134" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="F134" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="G134" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>1237</v>
+        <v>1241</v>
       </c>
       <c r="I134" t="s">
         <v>106</v>
@@ -13064,7 +13076,7 @@
         <v>346</v>
       </c>
       <c r="N134" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="O134" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80566_sunderland", ".\export_data\inspection_reports\80566_sunderland")</f>
@@ -13088,28 +13100,28 @@
     </row>
     <row r="135" spans="1:20">
       <c r="A135" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="B135" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="C135" t="s">
         <v>100</v>
       </c>
       <c r="D135" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
       <c r="E135" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="F135" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="G135" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="I135" t="s">
         <v>8</v>
@@ -13151,28 +13163,28 @@
     </row>
     <row r="136" spans="1:20">
       <c r="A136" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="B136" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="C136" t="s">
         <v>18</v>
       </c>
       <c r="D136" t="s">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="E136" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
       <c r="F136" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="G136" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="I136" t="s">
         <v>191</v>
@@ -13214,28 +13226,28 @@
     </row>
     <row r="137" spans="1:20">
       <c r="A137" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="B137" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="C137" t="s">
         <v>56</v>
       </c>
       <c r="D137" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="E137" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="F137" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
       <c r="G137" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="I137" t="s">
         <v>191</v>
@@ -13253,7 +13265,7 @@
         <v>396</v>
       </c>
       <c r="N137" t="s">
-        <v>1260</v>
+        <v>1264</v>
       </c>
       <c r="O137" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80569_tameside", ".\export_data\inspection_reports\80569_tameside")</f>
@@ -13277,28 +13289,28 @@
     </row>
     <row r="138" spans="1:20">
       <c r="A138" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="B138" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="C138" t="s">
         <v>42</v>
       </c>
       <c r="D138" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="E138" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="F138" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="G138" t="s">
-        <v>1266</v>
+        <v>1270</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>1267</v>
+        <v>1271</v>
       </c>
       <c r="I138" t="s">
         <v>106</v>
@@ -13310,7 +13322,7 @@
         <v>181</v>
       </c>
       <c r="L138" t="s">
-        <v>1268</v>
+        <v>1272</v>
       </c>
       <c r="M138" t="s">
         <v>557</v>
@@ -13340,28 +13352,28 @@
     </row>
     <row r="139" spans="1:20">
       <c r="A139" t="s">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="B139" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="C139" t="s">
         <v>31</v>
       </c>
       <c r="D139" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
       <c r="E139" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="F139" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="G139" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="I139" t="s">
         <v>106</v>
@@ -13373,13 +13385,13 @@
         <v>509</v>
       </c>
       <c r="L139" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="M139" t="s">
-        <v>1277</v>
+        <v>1281</v>
       </c>
       <c r="N139" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="O139" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80571_thurrock", ".\export_data\inspection_reports\80571_thurrock")</f>
@@ -13403,28 +13415,28 @@
     </row>
     <row r="140" spans="1:20">
       <c r="A140" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="B140" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="C140" t="s">
         <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="E140" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="F140" t="s">
-        <v>1283</v>
+        <v>1287</v>
       </c>
       <c r="G140" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>1285</v>
+        <v>1289</v>
       </c>
       <c r="I140" t="s">
         <v>8</v>
@@ -13433,16 +13445,16 @@
         <v>48</v>
       </c>
       <c r="K140" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="L140" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="M140" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="N140" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="O140" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80572_torbay", ".\export_data\inspection_reports\80572_torbay")</f>
@@ -13466,28 +13478,28 @@
     </row>
     <row r="141" spans="1:20">
       <c r="A141" t="s">
-        <v>1290</v>
+        <v>1294</v>
       </c>
       <c r="B141" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="C141" t="s">
         <v>56</v>
       </c>
       <c r="D141" t="s">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="E141" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="F141" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
       <c r="G141" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="I141" t="s">
         <v>14</v>
@@ -13529,28 +13541,28 @@
     </row>
     <row r="142" spans="1:20">
       <c r="A142" t="s">
-        <v>1297</v>
+        <v>1301</v>
       </c>
       <c r="B142" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="C142" t="s">
         <v>42</v>
       </c>
       <c r="D142" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="E142" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="F142" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
       <c r="G142" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="I142" t="s">
         <v>106</v>
@@ -13592,28 +13604,28 @@
     </row>
     <row r="143" spans="1:20">
       <c r="A143" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
       <c r="B143" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="C143" t="s">
         <v>56</v>
       </c>
       <c r="D143" t="s">
-        <v>1306</v>
+        <v>1310</v>
       </c>
       <c r="E143" t="s">
-        <v>1307</v>
+        <v>1311</v>
       </c>
       <c r="F143" t="s">
-        <v>1308</v>
+        <v>1312</v>
       </c>
       <c r="G143" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="I143" t="s">
         <v>8</v>
@@ -13631,7 +13643,7 @@
         <v>444</v>
       </c>
       <c r="N143" t="s">
-        <v>1311</v>
+        <v>1315</v>
       </c>
       <c r="O143" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80575_warrington", ".\export_data\inspection_reports\80575_warrington")</f>
@@ -13655,28 +13667,28 @@
     </row>
     <row r="144" spans="1:20">
       <c r="A144" t="s">
-        <v>1312</v>
+        <v>1316</v>
       </c>
       <c r="B144" t="s">
-        <v>1313</v>
+        <v>1317</v>
       </c>
       <c r="C144" t="s">
         <v>42</v>
       </c>
       <c r="D144" t="s">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="E144" t="s">
-        <v>1315</v>
+        <v>1319</v>
       </c>
       <c r="F144" t="s">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="G144" t="s">
-        <v>1317</v>
+        <v>1321</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="I144" t="s">
         <v>14</v>
@@ -13688,13 +13700,13 @@
         <v>117</v>
       </c>
       <c r="L144" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="M144" t="s">
-        <v>1320</v>
+        <v>1324</v>
       </c>
       <c r="N144" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="O144" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80576_warwickshire", ".\export_data\inspection_reports\80576_warwickshire")</f>
@@ -13718,28 +13730,28 @@
     </row>
     <row r="145" spans="1:20">
       <c r="A145" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="B145" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="C145" t="s">
         <v>100</v>
       </c>
       <c r="D145" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="E145" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="F145" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
       <c r="G145" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
       <c r="I145" t="s">
         <v>8</v>
@@ -13748,16 +13760,16 @@
         <v>9</v>
       </c>
       <c r="K145" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="L145" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="M145" t="s">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="N145" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="O145" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80577_west berkshire", ".\export_data\inspection_reports\80577_west berkshire")</f>
@@ -13781,28 +13793,28 @@
     </row>
     <row r="146" spans="1:20">
       <c r="A146" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="B146" t="s">
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="C146" t="s">
         <v>306</v>
       </c>
       <c r="D146" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="E146" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="F146" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="G146" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="I146" t="s">
         <v>14</v>
@@ -13839,33 +13851,33 @@
         <v>78</v>
       </c>
       <c r="T146" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147" spans="1:20">
       <c r="A147" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="B147" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="C147" t="s">
         <v>100</v>
       </c>
       <c r="D147" t="s">
-        <v>1342</v>
+        <v>1346</v>
       </c>
       <c r="E147" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="F147" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="G147" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="I147" t="s">
         <v>14</v>
@@ -13874,7 +13886,7 @@
         <v>48</v>
       </c>
       <c r="K147" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="L147" t="s">
         <v>575</v>
@@ -13907,10 +13919,10 @@
     </row>
     <row r="148" spans="1:20">
       <c r="A148" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="B148" t="s">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="C148" t="s">
         <v>56</v>
@@ -13919,16 +13931,16 @@
         <v>284</v>
       </c>
       <c r="E148" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
       <c r="F148" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="G148" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="I148" t="s">
         <v>8</v>
@@ -13970,28 +13982,28 @@
     </row>
     <row r="149" spans="1:20">
       <c r="A149" t="s">
-        <v>1354</v>
+        <v>1358</v>
       </c>
       <c r="B149" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="C149" t="s">
         <v>56</v>
       </c>
       <c r="D149" t="s">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="E149" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="F149" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="G149" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="I149" t="s">
         <v>8</v>
@@ -14000,16 +14012,16 @@
         <v>48</v>
       </c>
       <c r="K149" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="L149" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="M149" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="N149" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="O149" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80579_wigan", ".\export_data\inspection_reports\80579_wigan")</f>
@@ -14033,28 +14045,28 @@
     </row>
     <row r="150" spans="1:20">
       <c r="A150" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="B150" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="C150" t="s">
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="E150" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="F150" t="s">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="G150" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="I150" t="s">
         <v>106</v>
@@ -14066,13 +14078,13 @@
         <v>405</v>
       </c>
       <c r="L150" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="M150" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="N150" t="s">
-        <v>1373</v>
+        <v>1377</v>
       </c>
       <c r="O150" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80580_wiltshire", ".\export_data\inspection_reports\80580_wiltshire")</f>
@@ -14096,28 +14108,28 @@
     </row>
     <row r="151" spans="1:20">
       <c r="A151" t="s">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="B151" t="s">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="C151" t="s">
         <v>56</v>
       </c>
       <c r="D151" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="E151" t="s">
-        <v>1377</v>
+        <v>1381</v>
       </c>
       <c r="F151" t="s">
-        <v>1378</v>
+        <v>1382</v>
       </c>
       <c r="G151" t="s">
-        <v>1379</v>
+        <v>1383</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="I151" t="s">
         <v>14</v>
@@ -14129,13 +14141,13 @@
         <v>192</v>
       </c>
       <c r="L151" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="M151" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="N151" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
       <c r="O151" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80581_wirral", ".\export_data\inspection_reports\80581_wirral")</f>
@@ -14159,28 +14171,28 @@
     </row>
     <row r="152" spans="1:20">
       <c r="A152" t="s">
-        <v>1383</v>
+        <v>1387</v>
       </c>
       <c r="B152" t="s">
-        <v>1384</v>
+        <v>1388</v>
       </c>
       <c r="C152" t="s">
         <v>100</v>
       </c>
       <c r="D152" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="E152" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
       <c r="F152" t="s">
-        <v>1387</v>
+        <v>1391</v>
       </c>
       <c r="G152" t="s">
-        <v>1388</v>
+        <v>1392</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="I152" t="s">
         <v>14</v>
@@ -14192,13 +14204,13 @@
         <v>394</v>
       </c>
       <c r="L152" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="M152" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="N152" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="O152" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80582_wokingham", ".\export_data\inspection_reports\80582_wokingham")</f>
@@ -14222,28 +14234,28 @@
     </row>
     <row r="153" spans="1:20">
       <c r="A153" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="B153" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="C153" t="s">
         <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="E153" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="F153" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="G153" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>1396</v>
+        <v>1400</v>
       </c>
       <c r="I153" t="s">
         <v>8</v>
@@ -14255,13 +14267,13 @@
         <v>962</v>
       </c>
       <c r="L153" t="s">
-        <v>1397</v>
+        <v>1401</v>
       </c>
       <c r="M153" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="N153" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="O153" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80583_wolverhampton", ".\export_data\inspection_reports\80583_wolverhampton")</f>
@@ -14285,28 +14297,28 @@
     </row>
     <row r="154" spans="1:20">
       <c r="A154" t="s">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="B154" t="s">
-        <v>1399</v>
+        <v>1403</v>
       </c>
       <c r="C154" t="s">
         <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="E154" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="F154" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="G154" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="I154" t="s">
         <v>8</v>
@@ -14321,10 +14333,10 @@
         <v>1021</v>
       </c>
       <c r="M154" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="N154" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="O154" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80584_worcestershire", ".\export_data\inspection_reports\80584_worcestershire")</f>

--- a/ofsted_csc_ilacs_overview.xlsx
+++ b/ofsted_csc_ilacs_overview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1432">
   <si>
     <t>80426</t>
   </si>
@@ -31,7 +31,7 @@
     <t>372, 384, 357, 371, 332, 894, 840, 390, 807, 394</t>
   </si>
   <si>
-    <t>[(372, 'good'), (384, 'good'), (357, 'inadequate'), (371, 'good'), (332, 'requires improvement'), (894, 'outstanding'), (840, 'outstanding'), (390, 'good'), (807, 'requires improvement'), (394, 'outstanding')]</t>
+    <t>[(372, 'outstanding'), (384, 'good'), (357, 'inadequate'), (371, 'good'), (332, 'requires improvement'), (894, 'outstanding'), (840, 'outstanding'), (390, 'good'), (807, 'requires improvement'), (394, 'outstanding')]</t>
   </si>
   <si>
     <t>barnsley</t>
@@ -718,7 +718,7 @@
     <t>332, 370, 894, 372, 925, 357, 371, 813, 841, 888</t>
   </si>
   <si>
-    <t>[(332, 'requires improvement'), (370, 'good'), (894, 'outstanding'), (372, 'good'), (925, 'outstanding'), (357, 'inadequate'), (371, 'good'), (813, 'outstanding'), (841, 'good'), (888, 'good')]</t>
+    <t>[(332, 'requires improvement'), (370, 'good'), (894, 'outstanding'), (372, 'outstanding'), (925, 'outstanding'), (357, 'inadequate'), (371, 'good'), (813, 'outstanding'), (841, 'good'), (888, 'good')]</t>
   </si>
   <si>
     <t>wakefield</t>
@@ -907,7 +907,7 @@
     <t>390, 808, 332, 384, 888, 894, 372, 357, 840, 371</t>
   </si>
   <si>
-    <t>[(390, 'good'), (808, 'requires improvement'), (332, 'requires improvement'), (384, 'good'), (888, 'good'), (894, 'outstanding'), (372, 'good'), (357, 'inadequate'), (840, 'outstanding'), (371, 'good')]</t>
+    <t>[(390, 'good'), (808, 'requires improvement'), (332, 'requires improvement'), (384, 'good'), (888, 'good'), (894, 'outstanding'), (372, 'outstanding'), (357, 'inadequate'), (840, 'outstanding'), (371, 'good')]</t>
   </si>
   <si>
     <t>darlington</t>
@@ -1039,7 +1039,7 @@
     <t>372, 370, 384, 894, 357, 812, 335, 861, 354, 813</t>
   </si>
   <si>
-    <t>[(372, 'good'), (370, 'good'), (384, 'good'), (894, 'outstanding'), (357, 'inadequate'), (812, 'good'), (335, 'outstanding'), (861, 'requires improvement'), (354, 'requires improvement'), (813, 'outstanding')]</t>
+    <t>[(372, 'outstanding'), (370, 'good'), (384, 'good'), (894, 'outstanding'), (357, 'inadequate'), (812, 'good'), (335, 'outstanding'), (861, 'requires improvement'), (354, 'requires improvement'), (813, 'outstanding')]</t>
   </si>
   <si>
     <t>doncaster</t>
@@ -1102,7 +1102,7 @@
     <t>384, 894, 808, 372, 370, 887, 357, 888, 841, 925</t>
   </si>
   <si>
-    <t>[(384, 'good'), (894, 'outstanding'), (808, 'requires improvement'), (372, 'good'), (370, 'good'), (887, 'good'), (357, 'inadequate'), (888, 'good'), (841, 'good'), (925, 'outstanding')]</t>
+    <t>[(384, 'good'), (894, 'outstanding'), (808, 'requires improvement'), (372, 'outstanding'), (370, 'good'), (887, 'good'), (357, 'inadequate'), (888, 'good'), (841, 'good'), (925, 'outstanding')]</t>
   </si>
   <si>
     <t>dudley</t>
@@ -1132,7 +1132,7 @@
     <t>876, 344, 390, 807, 372, 370, 394, 393, 808, 841</t>
   </si>
   <si>
-    <t>[(876, 'inadequate'), (344, 'requires improvement'), (390, 'good'), (807, 'requires improvement'), (372, 'good'), (370, 'good'), (394, 'outstanding'), (393, 'inadequate'), (808, 'requires improvement'), (841, 'good')]</t>
+    <t>[(876, 'inadequate'), (344, 'requires improvement'), (390, 'good'), (807, 'requires improvement'), (372, 'outstanding'), (370, 'good'), (394, 'outstanding'), (393, 'inadequate'), (808, 'requires improvement'), (841, 'good')]</t>
   </si>
   <si>
     <t>durham</t>
@@ -1255,7 +1255,7 @@
     <t>841, 357, 393, 372, 808, 840, 807, 394, 332, 384</t>
   </si>
   <si>
-    <t>[(841, 'good'), (357, 'inadequate'), (393, 'inadequate'), (372, 'good'), (808, 'requires improvement'), (840, 'outstanding'), (807, 'requires improvement'), (394, 'outstanding'), (332, 'requires improvement'), (384, 'good')]</t>
+    <t>[(841, 'good'), (357, 'inadequate'), (393, 'inadequate'), (372, 'outstanding'), (808, 'requires improvement'), (840, 'outstanding'), (807, 'requires improvement'), (394, 'outstanding'), (332, 'requires improvement'), (384, 'good')]</t>
   </si>
   <si>
     <t>gateshead</t>
@@ -1306,7 +1306,7 @@
     <t>342, 840, 344, 394, 807, 370, 390, 372, 808, 343</t>
   </si>
   <si>
-    <t>[(342, 'good'), (840, 'outstanding'), (344, 'requires improvement'), (394, 'outstanding'), (807, 'requires improvement'), (370, 'good'), (390, 'good'), (372, 'good'), (808, 'requires improvement'), (343, 'good')]</t>
+    <t>[(342, 'good'), (840, 'outstanding'), (344, 'requires improvement'), (394, 'outstanding'), (807, 'requires improvement'), (370, 'good'), (390, 'good'), (372, 'outstanding'), (808, 'requires improvement'), (343, 'good')]</t>
   </si>
   <si>
     <t>halton</t>
@@ -1366,7 +1366,7 @@
     <t>807, 394, 393, 890, 806, 390, 840, 876, 372, 340</t>
   </si>
   <si>
-    <t>[(807, 'requires improvement'), (394, 'outstanding'), (393, 'inadequate'), (890, 'requires improvement'), (806, 'requires improvement'), (390, 'good'), (840, 'outstanding'), (876, 'inadequate'), (372, 'good'), (340, 'inadequate')]</t>
+    <t>[(807, 'requires improvement'), (394, 'outstanding'), (393, 'inadequate'), (890, 'requires improvement'), (806, 'requires improvement'), (390, 'good'), (840, 'outstanding'), (876, 'inadequate'), (372, 'outstanding'), (340, 'inadequate')]</t>
   </si>
   <si>
     <t>hartlepool</t>
@@ -1447,7 +1447,7 @@
     <t>357, 908, 926, 880, 879, 350, 929, 372, 354, 351</t>
   </si>
   <si>
-    <t>[(357, 'inadequate'), (908, 'good'), (926, 'good'), (880, 'good'), (879, 'requires improvement'), (350, 'good'), (929, 'outstanding'), (372, 'good'), (354, 'requires improvement'), (351, 'requires improvement')]</t>
+    <t>[(357, 'inadequate'), (908, 'good'), (926, 'good'), (880, 'good'), (879, 'requires improvement'), (350, 'good'), (929, 'outstanding'), (372, 'outstanding'), (354, 'requires improvement'), (351, 'requires improvement')]</t>
   </si>
   <si>
     <t>isle of wight</t>
@@ -1504,7 +1504,7 @@
     <t>333, 336, 861, 335, 812, 354, 806, 371, 831, 372</t>
   </si>
   <si>
-    <t>[(333, 'good'), (336, 'good'), (861, 'requires improvement'), (335, 'outstanding'), (812, 'good'), (354, 'requires improvement'), (806, 'requires improvement'), (371, 'good'), (831, 'outstanding'), (372, 'good')]</t>
+    <t>[(333, 'good'), (336, 'good'), (861, 'requires improvement'), (335, 'outstanding'), (812, 'good'), (354, 'requires improvement'), (806, 'requires improvement'), (371, 'good'), (831, 'outstanding'), (372, 'outstanding')]</t>
   </si>
   <si>
     <t>kingston upon hull</t>
@@ -2737,7 +2737,7 @@
     <t>371, 861, 372, 894, 335, 384, 841, 370, 807, 357</t>
   </si>
   <si>
-    <t>[(371, 'good'), (861, 'requires improvement'), (372, 'good'), (894, 'outstanding'), (335, 'outstanding'), (384, 'good'), (841, 'good'), (370, 'good'), (807, 'requires improvement'), (357, 'inadequate')]</t>
+    <t>[(371, 'good'), (861, 'requires improvement'), (372, 'outstanding'), (894, 'outstanding'), (335, 'outstanding'), (384, 'good'), (841, 'good'), (370, 'good'), (807, 'requires improvement'), (357, 'inadequate')]</t>
   </si>
   <si>
     <t>north east lincolnshire</t>
@@ -2764,7 +2764,7 @@
     <t>384, 925, 371, 370, 940, 332, 942, 372, 894, 888</t>
   </si>
   <si>
-    <t>[(384, 'good'), (925, 'outstanding'), (371, 'good'), (370, 'good'), (940, 'requires improvement'), (332, 'requires improvement'), (942, 'good'), (372, 'good'), (894, 'outstanding'), (888, 'good')]</t>
+    <t>[(384, 'good'), (925, 'outstanding'), (371, 'good'), (370, 'good'), (940, 'requires improvement'), (332, 'requires improvement'), (942, 'good'), (372, 'outstanding'), (894, 'outstanding'), (888, 'good')]</t>
   </si>
   <si>
     <t>north lincolnshire</t>
@@ -3040,7 +3040,7 @@
     <t>357, 880, 894, 332, 372, 384, 382, 390, 887, 908</t>
   </si>
   <si>
-    <t>[(357, 'inadequate'), (880, 'good'), (894, 'outstanding'), (332, 'requires improvement'), (372, 'good'), (384, 'good'), (382, 'good'), (390, 'good'), (887, 'good'), (908, 'good')]</t>
+    <t>[(357, 'inadequate'), (880, 'good'), (894, 'outstanding'), (332, 'requires improvement'), (372, 'outstanding'), (384, 'good'), (382, 'good'), (390, 'good'), (887, 'good'), (908, 'good')]</t>
   </si>
   <si>
     <t>plymouth</t>
@@ -3121,7 +3121,7 @@
     <t>394, 393, 805, 372, 390, 840, 370, 357, 371, 880</t>
   </si>
   <si>
-    <t>[(394, 'outstanding'), (393, 'inadequate'), (805, 'outstanding'), (372, 'good'), (390, 'good'), (840, 'outstanding'), (370, 'good'), (357, 'inadequate'), (371, 'good'), (880, 'good')]</t>
+    <t>[(394, 'outstanding'), (393, 'inadequate'), (805, 'outstanding'), (372, 'outstanding'), (390, 'good'), (840, 'outstanding'), (370, 'good'), (357, 'inadequate'), (371, 'good'), (880, 'good')]</t>
   </si>
   <si>
     <t>redcar and cleveland</t>
@@ -3145,7 +3145,7 @@
     <t>335, 357, 861, 350, 394, 371, 372, 831, 353, 355</t>
   </si>
   <si>
-    <t>[(335, 'outstanding'), (357, 'inadequate'), (861, 'requires improvement'), (350, 'good'), (394, 'outstanding'), (371, 'good'), (372, 'good'), (831, 'outstanding'), (353, 'good'), (355, 'good')]</t>
+    <t>[(335, 'outstanding'), (357, 'inadequate'), (861, 'requires improvement'), (350, 'good'), (394, 'outstanding'), (371, 'good'), (372, 'outstanding'), (831, 'outstanding'), (353, 'good'), (355, 'good')]</t>
   </si>
   <si>
     <t>rochdale</t>
@@ -3178,13 +3178,16 @@
     <t>rotherham</t>
   </si>
   <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50190644</t>
-  </si>
-  <si>
-    <t>neil penswick</t>
-  </si>
-  <si>
-    <t>27/06/2022</t>
+    <t>https://files.ofsted.gov.uk/v1/file/50292638</t>
+  </si>
+  <si>
+    <t>03/11/2025</t>
+  </si>
+  <si>
+    <t>07/11/2025</t>
+  </si>
+  <si>
+    <t>16/12/25</t>
   </si>
   <si>
     <t>80544</t>
@@ -3514,7 +3517,7 @@
     <t>394, 807, 390, 805, 840, 357, 372, 354, 890, 841</t>
   </si>
   <si>
-    <t>[(394, 'outstanding'), (807, 'requires improvement'), (390, 'good'), (805, 'outstanding'), (840, 'outstanding'), (357, 'inadequate'), (372, 'good'), (354, 'requires improvement'), (890, 'requires improvement'), (841, 'good')]</t>
+    <t>[(394, 'outstanding'), (807, 'requires improvement'), (390, 'good'), (805, 'outstanding'), (840, 'outstanding'), (357, 'inadequate'), (372, 'outstanding'), (354, 'requires improvement'), (890, 'requires improvement'), (841, 'good')]</t>
   </si>
   <si>
     <t>south tyneside</t>
@@ -3655,7 +3658,7 @@
     <t>841, 332, 888, 390, 384, 351, 840, 372, 894, 344</t>
   </si>
   <si>
-    <t>[(841, 'good'), (332, 'requires improvement'), (888, 'good'), (390, 'good'), (384, 'good'), (351, 'requires improvement'), (840, 'outstanding'), (372, 'good'), (894, 'outstanding'), (344, 'requires improvement')]</t>
+    <t>[(841, 'good'), (332, 'requires improvement'), (888, 'good'), (390, 'good'), (384, 'good'), (351, 'requires improvement'), (840, 'outstanding'), (372, 'outstanding'), (894, 'outstanding'), (344, 'requires improvement')]</t>
   </si>
   <si>
     <t>stockton-on-tees</t>
@@ -3688,7 +3691,7 @@
     <t>335, 354, 336, 371, 812, 810, 333, 357, 831, 372</t>
   </si>
   <si>
-    <t>[(335, 'outstanding'), (354, 'requires improvement'), (336, 'good'), (371, 'good'), (812, 'good'), (810, 'requires improvement'), (333, 'good'), (357, 'inadequate'), (831, 'outstanding'), (372, 'good')]</t>
+    <t>[(335, 'outstanding'), (354, 'requires improvement'), (336, 'good'), (371, 'good'), (812, 'good'), (810, 'requires improvement'), (333, 'good'), (357, 'inadequate'), (831, 'outstanding'), (372, 'outstanding')]</t>
   </si>
   <si>
     <t>stoke-on-trent</t>
@@ -3733,7 +3736,7 @@
     <t>807, 393, 805, 372, 357, 880, 390, 840, 370, 354</t>
   </si>
   <si>
-    <t>[(807, 'requires improvement'), (393, 'inadequate'), (805, 'outstanding'), (372, 'good'), (357, 'inadequate'), (880, 'good'), (390, 'good'), (840, 'outstanding'), (370, 'good'), (354, 'requires improvement')]</t>
+    <t>[(807, 'requires improvement'), (393, 'inadequate'), (805, 'outstanding'), (372, 'outstanding'), (357, 'inadequate'), (880, 'good'), (390, 'good'), (840, 'outstanding'), (370, 'good'), (354, 'requires improvement')]</t>
   </si>
   <si>
     <t>sunderland</t>
@@ -3799,7 +3802,7 @@
     <t>372, 390, 354, 370, 384, 332, 894, 879, 394, 880</t>
   </si>
   <si>
-    <t>[(372, 'good'), (390, 'good'), (354, 'requires improvement'), (370, 'good'), (384, 'good'), (332, 'requires improvement'), (894, 'outstanding'), (879, 'requires improvement'), (394, 'outstanding'), (880, 'good')]</t>
+    <t>[(372, 'outstanding'), (390, 'good'), (354, 'requires improvement'), (370, 'good'), (384, 'good'), (332, 'requires improvement'), (894, 'outstanding'), (879, 'requires improvement'), (394, 'outstanding'), (880, 'good')]</t>
   </si>
   <si>
     <t>tameside</t>
@@ -3823,7 +3826,7 @@
     <t>384, 372, 332, 370, 357, 371, 841, 390, 879, 808</t>
   </si>
   <si>
-    <t>[(384, 'good'), (372, 'good'), (332, 'requires improvement'), (370, 'good'), (357, 'inadequate'), (371, 'good'), (841, 'good'), (390, 'good'), (879, 'requires improvement'), (808, 'requires improvement')]</t>
+    <t>[(384, 'good'), (372, 'outstanding'), (332, 'requires improvement'), (370, 'good'), (357, 'inadequate'), (371, 'good'), (841, 'good'), (390, 'good'), (879, 'requires improvement'), (808, 'requires improvement')]</t>
   </si>
   <si>
     <t>telford &amp; wrekin</t>
@@ -3877,7 +3880,7 @@
     <t>357, 394, 879, 372, 807, 921, 370, 390, 354, 894</t>
   </si>
   <si>
-    <t>[(357, 'inadequate'), (394, 'outstanding'), (879, 'requires improvement'), (372, 'good'), (807, 'requires improvement'), (921, 'good'), (370, 'good'), (390, 'good'), (354, 'requires improvement'), (894, 'outstanding')]</t>
+    <t>[(357, 'inadequate'), (394, 'outstanding'), (879, 'requires improvement'), (372, 'outstanding'), (807, 'requires improvement'), (921, 'good'), (370, 'good'), (390, 'good'), (354, 'requires improvement'), (894, 'outstanding')]</t>
   </si>
   <si>
     <t>torbay</t>
@@ -3931,7 +3934,7 @@
     <t>354, 861, 357, 336, 371, 831, 350, 372, 812, 333</t>
   </si>
   <si>
-    <t>[(354, 'requires improvement'), (861, 'requires improvement'), (357, 'inadequate'), (336, 'good'), (371, 'good'), (831, 'outstanding'), (350, 'good'), (372, 'good'), (812, 'good'), (333, 'good')]</t>
+    <t>[(354, 'requires improvement'), (861, 'requires improvement'), (357, 'inadequate'), (336, 'good'), (371, 'good'), (831, 'outstanding'), (350, 'good'), (372, 'outstanding'), (812, 'good'), (333, 'good')]</t>
   </si>
   <si>
     <t>walsall</t>
@@ -4677,64 +4680,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -6681,7 +6684,7 @@
         <v>14</v>
       </c>
       <c r="T32" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -7941,7 +7944,7 @@
         <v>106</v>
       </c>
       <c r="T52" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -11612,67 +11615,67 @@
         <v>1054</v>
       </c>
       <c r="I111" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="J111" t="s">
         <v>9</v>
       </c>
       <c r="K111" t="s">
+        <v>344</v>
+      </c>
+      <c r="L111" t="s">
         <v>1055</v>
       </c>
-      <c r="L111" t="s">
+      <c r="M111" t="s">
         <v>1056</v>
       </c>
-      <c r="M111" t="s">
-        <v>280</v>
-      </c>
       <c r="N111" t="s">
-        <v>281</v>
+        <v>1057</v>
       </c>
       <c r="O111" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80543_rotherham", ".\export_data\inspection_reports\80543_rotherham")</f>
         <v>0</v>
       </c>
       <c r="P111" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="Q111" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="R111" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="S111" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="T111" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:20">
       <c r="A112" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B112" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C112" t="s">
         <v>219</v>
       </c>
       <c r="D112" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E112" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="F112" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="G112" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I112" t="s">
         <v>106</v>
@@ -11714,28 +11717,28 @@
     </row>
     <row r="113" spans="1:20">
       <c r="A113" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B113" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C113" t="s">
         <v>219</v>
       </c>
       <c r="D113" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="E113" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="F113" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="G113" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="I113" t="s">
         <v>106</v>
@@ -11777,28 +11780,28 @@
     </row>
     <row r="114" spans="1:20">
       <c r="A114" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B114" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C114" t="s">
         <v>100</v>
       </c>
       <c r="D114" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E114" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="F114" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G114" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="I114" t="s">
         <v>8</v>
@@ -11816,7 +11819,7 @@
         <v>334</v>
       </c>
       <c r="N114" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="O114" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80546_windsor &amp; maidenhead", ".\export_data\inspection_reports\80546_windsor &amp; maidenhead")</f>
@@ -11840,28 +11843,28 @@
     </row>
     <row r="115" spans="1:20">
       <c r="A115" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B115" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C115" t="s">
         <v>306</v>
       </c>
       <c r="D115" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E115" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="F115" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G115" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="I115" t="s">
         <v>8</v>
@@ -11873,10 +11876,10 @@
         <v>509</v>
       </c>
       <c r="L115" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="M115" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="N115" t="s">
         <v>435</v>
@@ -11903,28 +11906,28 @@
     </row>
     <row r="116" spans="1:20">
       <c r="A116" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B116" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C116" t="s">
         <v>56</v>
       </c>
       <c r="D116" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E116" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="F116" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="G116" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="I116" t="s">
         <v>8</v>
@@ -11933,10 +11936,10 @@
         <v>9</v>
       </c>
       <c r="K116" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="L116" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="M116" t="s">
         <v>324</v>
@@ -11966,28 +11969,28 @@
     </row>
     <row r="117" spans="1:20">
       <c r="A117" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B117" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C117" t="s">
         <v>42</v>
       </c>
       <c r="D117" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E117" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F117" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="G117" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="I117" t="s">
         <v>8</v>
@@ -11996,16 +11999,16 @@
         <v>48</v>
       </c>
       <c r="K117" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="L117" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="M117" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="N117" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O117" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80549_sandwell", ".\export_data\inspection_reports\80549_sandwell")</f>
@@ -12029,28 +12032,28 @@
     </row>
     <row r="118" spans="1:20">
       <c r="A118" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B118" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C118" t="s">
         <v>56</v>
       </c>
       <c r="D118" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="E118" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="F118" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="G118" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="I118" t="s">
         <v>8</v>
@@ -12062,7 +12065,7 @@
         <v>86</v>
       </c>
       <c r="L118" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="M118" t="s">
         <v>540</v>
@@ -12092,28 +12095,28 @@
     </row>
     <row r="119" spans="1:20">
       <c r="A119" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B119" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E119" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="F119" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="G119" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="I119" t="s">
         <v>8</v>
@@ -12128,10 +12131,10 @@
         <v>11</v>
       </c>
       <c r="M119" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="N119" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="O119" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80551_sheffield", ".\export_data\inspection_reports\80551_sheffield")</f>
@@ -12155,28 +12158,28 @@
     </row>
     <row r="120" spans="1:20">
       <c r="A120" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B120" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C120" t="s">
         <v>42</v>
       </c>
       <c r="D120" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E120" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="F120" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="G120" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="I120" t="s">
         <v>106</v>
@@ -12185,10 +12188,10 @@
         <v>48</v>
       </c>
       <c r="K120" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="L120" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="M120" t="s">
         <v>540</v>
@@ -12218,28 +12221,28 @@
     </row>
     <row r="121" spans="1:20">
       <c r="A121" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B121" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C121" t="s">
         <v>100</v>
       </c>
       <c r="D121" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="E121" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="F121" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="G121" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="I121" t="s">
         <v>14</v>
@@ -12281,28 +12284,28 @@
     </row>
     <row r="122" spans="1:20">
       <c r="A122" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B122" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C122" t="s">
         <v>42</v>
       </c>
       <c r="D122" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="E122" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F122" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="G122" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="I122" t="s">
         <v>191</v>
@@ -12311,7 +12314,7 @@
         <v>48</v>
       </c>
       <c r="K122" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="L122" t="s">
         <v>365</v>
@@ -12344,28 +12347,28 @@
     </row>
     <row r="123" spans="1:20">
       <c r="A123" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B123" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C123" t="s">
         <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="E123" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="F123" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="G123" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="I123" t="s">
         <v>8</v>
@@ -12407,28 +12410,28 @@
     </row>
     <row r="124" spans="1:20">
       <c r="A124" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B124" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C124" t="s">
         <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="E124" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="F124" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G124" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="I124" t="s">
         <v>8</v>
@@ -12470,28 +12473,28 @@
     </row>
     <row r="125" spans="1:20">
       <c r="A125" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B125" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C125" t="s">
         <v>294</v>
       </c>
       <c r="D125" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E125" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="F125" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="G125" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="I125" t="s">
         <v>191</v>
@@ -12509,7 +12512,7 @@
         <v>530</v>
       </c>
       <c r="N125" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="O125" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80557_south tyneside", ".\export_data\inspection_reports\80557_south tyneside")</f>
@@ -12533,28 +12536,28 @@
     </row>
     <row r="126" spans="1:20">
       <c r="A126" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B126" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C126" t="s">
         <v>100</v>
       </c>
       <c r="D126" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="E126" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="F126" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="G126" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="I126" t="s">
         <v>8</v>
@@ -12566,13 +12569,13 @@
         <v>394</v>
       </c>
       <c r="L126" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="M126" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="N126" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="O126" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80558_southampton", ".\export_data\inspection_reports\80558_southampton")</f>
@@ -12596,28 +12599,28 @@
     </row>
     <row r="127" spans="1:20">
       <c r="A127" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B127" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C127" t="s">
         <v>31</v>
       </c>
       <c r="D127" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="E127" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="F127" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="G127" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="I127" t="s">
         <v>8</v>
@@ -12659,28 +12662,28 @@
     </row>
     <row r="128" spans="1:20">
       <c r="A128" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B128" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C128" t="s">
         <v>56</v>
       </c>
       <c r="D128" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="E128" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="F128" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="G128" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="I128" t="s">
         <v>8</v>
@@ -12722,28 +12725,28 @@
     </row>
     <row r="129" spans="1:20">
       <c r="A129" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B129" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C129" t="s">
         <v>42</v>
       </c>
       <c r="D129" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E129" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="F129" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="G129" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="I129" t="s">
         <v>14</v>
@@ -12755,7 +12758,7 @@
         <v>202</v>
       </c>
       <c r="L129" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="M129" t="s">
         <v>324</v>
@@ -12785,28 +12788,28 @@
     </row>
     <row r="130" spans="1:20">
       <c r="A130" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B130" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C130" t="s">
         <v>56</v>
       </c>
       <c r="D130" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E130" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="F130" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="G130" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="I130" t="s">
         <v>14</v>
@@ -12824,7 +12827,7 @@
         <v>314</v>
       </c>
       <c r="N130" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="O130" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80562_stockport", ".\export_data\inspection_reports\80562_stockport")</f>
@@ -12848,28 +12851,28 @@
     </row>
     <row r="131" spans="1:20">
       <c r="A131" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B131" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C131" t="s">
         <v>294</v>
       </c>
       <c r="D131" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="E131" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F131" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="G131" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="I131" t="s">
         <v>14</v>
@@ -12878,16 +12881,16 @@
         <v>48</v>
       </c>
       <c r="K131" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="L131" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="M131" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="N131" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="O131" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80563_stockton-on-tees", ".\export_data\inspection_reports\80563_stockton-on-tees")</f>
@@ -12911,28 +12914,28 @@
     </row>
     <row r="132" spans="1:20">
       <c r="A132" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B132" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="C132" t="s">
         <v>42</v>
       </c>
       <c r="D132" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="E132" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="F132" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="G132" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="I132" t="s">
         <v>14</v>
@@ -12950,7 +12953,7 @@
         <v>314</v>
       </c>
       <c r="N132" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="O132" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80564_stoke-on-trent", ".\export_data\inspection_reports\80564_stoke-on-trent")</f>
@@ -12974,28 +12977,28 @@
     </row>
     <row r="133" spans="1:20">
       <c r="A133" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B133" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C133" t="s">
         <v>31</v>
       </c>
       <c r="D133" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="E133" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="F133" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="G133" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="I133" t="s">
         <v>14</v>
@@ -13013,7 +13016,7 @@
         <v>664</v>
       </c>
       <c r="N133" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="O133" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80565_suffolk", ".\export_data\inspection_reports\80565_suffolk")</f>
@@ -13037,28 +13040,28 @@
     </row>
     <row r="134" spans="1:20">
       <c r="A134" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B134" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C134" t="s">
         <v>294</v>
       </c>
       <c r="D134" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="E134" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="F134" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="G134" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="I134" t="s">
         <v>106</v>
@@ -13076,7 +13079,7 @@
         <v>346</v>
       </c>
       <c r="N134" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="O134" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80566_sunderland", ".\export_data\inspection_reports\80566_sunderland")</f>
@@ -13100,28 +13103,28 @@
     </row>
     <row r="135" spans="1:20">
       <c r="A135" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B135" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C135" t="s">
         <v>100</v>
       </c>
       <c r="D135" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="E135" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="F135" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="G135" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="I135" t="s">
         <v>8</v>
@@ -13163,28 +13166,28 @@
     </row>
     <row r="136" spans="1:20">
       <c r="A136" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B136" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C136" t="s">
         <v>18</v>
       </c>
       <c r="D136" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="E136" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="F136" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="G136" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="I136" t="s">
         <v>191</v>
@@ -13226,28 +13229,28 @@
     </row>
     <row r="137" spans="1:20">
       <c r="A137" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B137" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C137" t="s">
         <v>56</v>
       </c>
       <c r="D137" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="E137" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="F137" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="G137" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="I137" t="s">
         <v>191</v>
@@ -13265,7 +13268,7 @@
         <v>396</v>
       </c>
       <c r="N137" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="O137" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80569_tameside", ".\export_data\inspection_reports\80569_tameside")</f>
@@ -13289,28 +13292,28 @@
     </row>
     <row r="138" spans="1:20">
       <c r="A138" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B138" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C138" t="s">
         <v>42</v>
       </c>
       <c r="D138" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="E138" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="F138" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="G138" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="I138" t="s">
         <v>106</v>
@@ -13322,7 +13325,7 @@
         <v>181</v>
       </c>
       <c r="L138" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="M138" t="s">
         <v>557</v>
@@ -13352,28 +13355,28 @@
     </row>
     <row r="139" spans="1:20">
       <c r="A139" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B139" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C139" t="s">
         <v>31</v>
       </c>
       <c r="D139" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="E139" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="F139" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="G139" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="I139" t="s">
         <v>106</v>
@@ -13385,13 +13388,13 @@
         <v>509</v>
       </c>
       <c r="L139" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="M139" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="N139" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="O139" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80571_thurrock", ".\export_data\inspection_reports\80571_thurrock")</f>
@@ -13415,28 +13418,28 @@
     </row>
     <row r="140" spans="1:20">
       <c r="A140" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B140" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C140" t="s">
         <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="E140" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="F140" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="G140" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="I140" t="s">
         <v>8</v>
@@ -13445,16 +13448,16 @@
         <v>48</v>
       </c>
       <c r="K140" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="L140" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="M140" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="N140" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="O140" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80572_torbay", ".\export_data\inspection_reports\80572_torbay")</f>
@@ -13478,28 +13481,28 @@
     </row>
     <row r="141" spans="1:20">
       <c r="A141" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B141" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C141" t="s">
         <v>56</v>
       </c>
       <c r="D141" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="E141" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="F141" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="G141" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="I141" t="s">
         <v>14</v>
@@ -13541,28 +13544,28 @@
     </row>
     <row r="142" spans="1:20">
       <c r="A142" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B142" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C142" t="s">
         <v>42</v>
       </c>
       <c r="D142" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="E142" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="F142" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="G142" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="I142" t="s">
         <v>106</v>
@@ -13604,28 +13607,28 @@
     </row>
     <row r="143" spans="1:20">
       <c r="A143" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B143" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C143" t="s">
         <v>56</v>
       </c>
       <c r="D143" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="E143" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="F143" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G143" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="I143" t="s">
         <v>8</v>
@@ -13643,7 +13646,7 @@
         <v>444</v>
       </c>
       <c r="N143" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="O143" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80575_warrington", ".\export_data\inspection_reports\80575_warrington")</f>
@@ -13667,28 +13670,28 @@
     </row>
     <row r="144" spans="1:20">
       <c r="A144" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B144" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C144" t="s">
         <v>42</v>
       </c>
       <c r="D144" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="E144" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="F144" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G144" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="I144" t="s">
         <v>14</v>
@@ -13700,13 +13703,13 @@
         <v>117</v>
       </c>
       <c r="L144" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="M144" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="N144" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="O144" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80576_warwickshire", ".\export_data\inspection_reports\80576_warwickshire")</f>
@@ -13730,28 +13733,28 @@
     </row>
     <row r="145" spans="1:20">
       <c r="A145" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B145" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C145" t="s">
         <v>100</v>
       </c>
       <c r="D145" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="E145" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="F145" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="G145" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="I145" t="s">
         <v>8</v>
@@ -13760,16 +13763,16 @@
         <v>9</v>
       </c>
       <c r="K145" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="L145" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="M145" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="N145" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="O145" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80577_west berkshire", ".\export_data\inspection_reports\80577_west berkshire")</f>
@@ -13793,28 +13796,28 @@
     </row>
     <row r="146" spans="1:20">
       <c r="A146" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B146" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C146" t="s">
         <v>306</v>
       </c>
       <c r="D146" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="E146" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="F146" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G146" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="I146" t="s">
         <v>14</v>
@@ -13856,28 +13859,28 @@
     </row>
     <row r="147" spans="1:20">
       <c r="A147" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B147" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C147" t="s">
         <v>100</v>
       </c>
       <c r="D147" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="E147" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="F147" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G147" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="I147" t="s">
         <v>14</v>
@@ -13886,7 +13889,7 @@
         <v>48</v>
       </c>
       <c r="K147" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="L147" t="s">
         <v>575</v>
@@ -13919,10 +13922,10 @@
     </row>
     <row r="148" spans="1:20">
       <c r="A148" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B148" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C148" t="s">
         <v>56</v>
@@ -13931,16 +13934,16 @@
         <v>284</v>
       </c>
       <c r="E148" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="F148" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G148" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="I148" t="s">
         <v>8</v>
@@ -13949,7 +13952,7 @@
         <v>48</v>
       </c>
       <c r="K148" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="L148" t="s">
         <v>556</v>
@@ -13982,28 +13985,28 @@
     </row>
     <row r="149" spans="1:20">
       <c r="A149" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B149" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C149" t="s">
         <v>56</v>
       </c>
       <c r="D149" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="E149" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="F149" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G149" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="I149" t="s">
         <v>8</v>
@@ -14012,16 +14015,16 @@
         <v>48</v>
       </c>
       <c r="K149" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="L149" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="M149" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="N149" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="O149" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80579_wigan", ".\export_data\inspection_reports\80579_wigan")</f>
@@ -14045,28 +14048,28 @@
     </row>
     <row r="150" spans="1:20">
       <c r="A150" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B150" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C150" t="s">
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="E150" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="F150" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="G150" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="I150" t="s">
         <v>106</v>
@@ -14078,13 +14081,13 @@
         <v>405</v>
       </c>
       <c r="L150" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="M150" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="N150" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="O150" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80580_wiltshire", ".\export_data\inspection_reports\80580_wiltshire")</f>
@@ -14108,28 +14111,28 @@
     </row>
     <row r="151" spans="1:20">
       <c r="A151" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B151" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C151" t="s">
         <v>56</v>
       </c>
       <c r="D151" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="E151" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="F151" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="G151" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="I151" t="s">
         <v>14</v>
@@ -14141,13 +14144,13 @@
         <v>192</v>
       </c>
       <c r="L151" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="M151" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="N151" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="O151" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80581_wirral", ".\export_data\inspection_reports\80581_wirral")</f>
@@ -14171,28 +14174,28 @@
     </row>
     <row r="152" spans="1:20">
       <c r="A152" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B152" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C152" t="s">
         <v>100</v>
       </c>
       <c r="D152" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="E152" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="F152" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G152" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="I152" t="s">
         <v>14</v>
@@ -14204,13 +14207,13 @@
         <v>394</v>
       </c>
       <c r="L152" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="M152" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="N152" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="O152" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80582_wokingham", ".\export_data\inspection_reports\80582_wokingham")</f>
@@ -14234,28 +14237,28 @@
     </row>
     <row r="153" spans="1:20">
       <c r="A153" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B153" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="C153" t="s">
         <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="E153" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="F153" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="G153" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="I153" t="s">
         <v>8</v>
@@ -14267,13 +14270,13 @@
         <v>962</v>
       </c>
       <c r="L153" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="M153" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="N153" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="O153" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80583_wolverhampton", ".\export_data\inspection_reports\80583_wolverhampton")</f>
@@ -14297,28 +14300,28 @@
     </row>
     <row r="154" spans="1:20">
       <c r="A154" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B154" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C154" t="s">
         <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="E154" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="F154" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="G154" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="I154" t="s">
         <v>8</v>
@@ -14333,10 +14336,10 @@
         <v>1021</v>
       </c>
       <c r="M154" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="N154" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="O154" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80584_worcestershire", ".\export_data\inspection_reports\80584_worcestershire")</f>
